--- a/1601W.xlsx
+++ b/1601W.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhj\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22944" windowHeight="9924" activeTab="2"/>
+    <workbookView windowWidth="22943" windowHeight="9515" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="第一小组" sheetId="1" r:id="rId1"/>
@@ -21,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604">
   <si>
     <t>姓名</t>
   </si>
@@ -2128,12 +2123,238 @@
   <si>
     <t>多敲代码，熟练敲，知识图谱思路整出来</t>
   </si>
+  <si>
+    <t xml:space="preserve">范瑞丰 </t>
+  </si>
+  <si>
+    <t>将知识图谱中的三种爬虫大致看了一遍,
+大致了解了知识图谱爬取网页的流程,</t>
+  </si>
+  <si>
+    <t>看代码还是有点吃力,debug调试
+能把大致流程过一遍</t>
+  </si>
+  <si>
+    <t>根据三点需求将项目的设计思路想出来</t>
+  </si>
+  <si>
+    <t>无</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>018.09.05</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.加深对知识图谱项目的理解
+2.增加知识图谱中植物与病虫害的关系
+3.运用debug尽快完成对代码功能的理解
+4.熟练图谱项目的三部分爬虫能口述</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.通过readme大概熟悉项目的
+大体流程并能口述
+2.能够清楚叙述新增的项目
+需求并做简单思路梳理
+3.简单运用debug运行代码
+但还是不太熟悉
+4.爬虫思路梳理比较清楚
+基本能口述其流程</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.对于知识图谱的关系图运行
+原理还不太清楚
+2.对于新增项目需求具体的实现方式还不太清楚，只有一个大概的框架
+3.debug运行中的错误有的还不太能够独立解决
+4.在给别人讲解项目时还有一些语言组织方面的问题</t>
+    </r>
+  </si>
+  <si>
+    <t>1.整理出一套比较成熟的新增
+业务思路
+2.将一套完整的Django项目消化吸收，做到独立完成一简单项目
+3.将维基百科爬虫小模块理解并能口述</t>
+  </si>
+  <si>
+    <t>2018.09.05</t>
+  </si>
+  <si>
+    <t>小组内讨论确定了老师留的项目的需求，并讨论梳理了项目的思路，django已经可以做到基本的增删改查</t>
+  </si>
+  <si>
+    <t>思路能顺下来，就是过程中依然有技术难点，django基本操作没问题，只剩熟练了</t>
+  </si>
+  <si>
+    <t>代码还是不够熟练，知识图谱中的技术难点还是需要时间攻克</t>
+  </si>
+  <si>
+    <t>完善思路，尽力解决过程中的技术难点</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2018.09.05</t>
+  </si>
+  <si>
+    <t>了解了django的增删改查，开始进行了
+表单上的提交，对于以往的算法进行了
+一些巩固，对于GitHub进行了系统上的
+复习</t>
+  </si>
+  <si>
+    <t>对于知识的掌握还是
+不够牢固，再次基础上进行一定的加深</t>
+  </si>
+  <si>
+    <t>对于diango的
+框架还 是掌握不还是不够，对于各种页面之间的关系还是掌握不足</t>
+  </si>
+  <si>
+    <t>进行django的框架进行进一步的加深，在此基础上，进行更为深入的了解</t>
+  </si>
+  <si>
+    <t>完善了django连接mysql增删改查的demo，进一步学习了农业知识图谱，加深学习了爬虫。</t>
+  </si>
+  <si>
+    <t>在django连接mysql时，查询mysql中表在HTML页面生成列表时，数据库会生成一个的django_原表名的表，后台代码要连接此表，不然会出现找不到表的错，而且在连接mysql时，连接的表里面必须具有一个字段id，不然会出错。</t>
+  </si>
+  <si>
+    <t>在django连接mysql增删改查的demo里面，在进行增加操作时，会出现“(1366, "Incorrect integer value: '' for column 'id' at row 1")”的问题，暂时还没有解决。完成老师布置的项目时，遇到各种问题，比如苹果有歧义，不仅仅是水果，也是一个公司的名称，而且水果和公司都是名词，词性分类不行，等等之类的其他问题。</t>
+  </si>
+  <si>
+    <t>写出项目思路，尝试开始项目，完成django连接mysql的demo</t>
+  </si>
+  <si>
+    <t>了解在知识图谱项目中的三个大爬虫的具体功能，包括在农业网爬取词条和互动百科上的词条检索列表，另外在维基百科上爬取词条的关系；复习django框架的增删改查（mysql）</t>
+  </si>
+  <si>
+    <t>熟悉爬虫框架scrapy 和debug的使用。包括一些细节的水处理</t>
+  </si>
+  <si>
+    <t>在django连接数据库，包括事务提交的过程中存在问题；django框架和srapy还未很熟练,在实现传参的过程中存在问题，知识图谱的逻辑思维的完整性存在缺陷</t>
+  </si>
+  <si>
+    <t>debug的使用，完整的django的增删改查和scrapy的实现案列+1</t>
+  </si>
+  <si>
+    <t>今天老师详细的给我们介绍了知识图谱项目里的3个爬虫，并给我运行了相关代码</t>
+  </si>
+  <si>
+    <t>知识图谱项目我们小组已经完成了构建需求并已经成功的分工完成，之前的django项目已经成功的连接数据库完成增删改查</t>
+  </si>
+  <si>
+    <t>知识图谱项目的具体实现以及django框架具体实现增删改查出现了各种问题，但后者已经解决</t>
+  </si>
+  <si>
+    <t>明确知识图谱项目的实现步骤，对自己的分工早日实现并且完成</t>
+  </si>
+  <si>
+    <t>1.完成布置的作业，制定计划
+2.练习django web端增删改查回显等
+3.班里讨论解决问题</t>
+  </si>
+  <si>
+    <t>1.完成一套简单的增删改查
+2.制定好知识图谱的执行计划</t>
+  </si>
+  <si>
+    <t>跟班里比进度好像很快，仔细想一下其实啥也不会</t>
+  </si>
+  <si>
+    <t>完成一套增删改查Django框架外加爬虫。知识图谱看不懂，感觉会的不少，大致一看，啥也不会</t>
+  </si>
+  <si>
+    <t>修改回显出现问题，删除传值不知道怎么传，已经解决</t>
+  </si>
+  <si>
+    <t>跳转页面一直报403，说是没有传过去request，不过这个问题有的时候不存在，有的时候存在，好像就我自己存在这种问题，没在百度上找到</t>
+  </si>
+  <si>
+    <t>跟上组里进度，早日完成知识图谱的项目</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2150,6 +2371,11 @@
     </font>
     <font>
       <sz val="16"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="16"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2157,8 +2383,10 @@
     </font>
     <font>
       <sz val="16"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
@@ -2180,13 +2408,151 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2207,18 +2573,204 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -2226,9 +2778,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2237,23 +3031,107 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2272,27 +3150,27 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2314,7 +3192,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2329,10 +3207,10 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2341,18 +3219,9 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2371,100 +3240,69 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="31" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
@@ -2486,15 +3324,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="7404735" y="26845260"/>
-          <a:ext cx="952500" cy="924560"/>
+          <a:off x="6856095" y="31885890"/>
+          <a:ext cx="952500" cy="14278610"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2787,736 +3625,737 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:S185"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
       <selection pane="bottomLeft" activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.4"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="23" style="4" customWidth="1"/>
-    <col min="3" max="3" width="57.6640625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="29.33203125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="19.88671875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="31.44140625" style="4" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="16.6666666666667" style="3" customWidth="1"/>
+    <col min="2" max="2" width="23" style="3" customWidth="1"/>
+    <col min="3" max="3" width="57.6666666666667" style="3" customWidth="1"/>
+    <col min="4" max="4" width="29.3333333333333" style="3" customWidth="1"/>
+    <col min="5" max="5" width="19.8888888888889" style="3" customWidth="1"/>
+    <col min="6" max="6" width="31.4444444444444" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" s="31" customFormat="1" spans="1:6">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="34" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="40.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+    <row r="2" ht="40.8" spans="1:6">
+      <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="94.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+    <row r="3" ht="94.05" customHeight="1" spans="1:6">
+      <c r="A3" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="35" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="40.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+    <row r="4" ht="40.8" spans="1:6">
+      <c r="A4" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="36">
         <v>43341</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="37" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="40.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+    <row r="5" ht="40.8" spans="1:6">
+      <c r="A5" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="35" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="244.8" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+    <row r="6" ht="244.8" spans="1:6">
+      <c r="A6" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="37" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="81" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+    <row r="7" ht="81" customHeight="1" spans="1:6">
+      <c r="A7" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="38" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="81.599999999999994" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+    <row r="8" ht="81.6" spans="1:6">
+      <c r="A8" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="36">
         <v>43341</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="35" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="94.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+    <row r="9" ht="94.95" customHeight="1" spans="1:6">
+      <c r="A9" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="37" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+    <row r="10" spans="1:6">
+      <c r="A10" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="36">
         <v>43341</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="35" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="204" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+    <row r="11" ht="204" spans="1:6">
+      <c r="A11" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="39">
         <v>43341</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="37" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="13"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="13"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-    </row>
-    <row r="17" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="13"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="12"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="12"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-    </row>
-    <row r="20" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
+    <row r="12" spans="1:6">
+      <c r="A12" s="40"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="41"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="41"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="41"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="41"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+    </row>
+    <row r="17" ht="57" customHeight="1" spans="1:6">
+      <c r="A17" s="41"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="40"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="40"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+    </row>
+    <row r="20" s="32" customFormat="1" spans="1:6">
+      <c r="A20" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-    </row>
-    <row r="21" spans="1:7" ht="81.599999999999994" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
+      <c r="B20" s="43"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+    </row>
+    <row r="21" ht="81.6" spans="1:6">
+      <c r="A21" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="11">
+      <c r="B21" s="39">
         <v>43342</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E21" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="F21" s="37" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="102" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
+    <row r="22" ht="102" spans="1:6">
+      <c r="A22" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="B22" s="11">
+      <c r="B22" s="39">
         <v>43342</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="E22" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="F22" s="9" t="s">
+      <c r="F22" s="37" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="40.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
+    <row r="23" ht="40.8" spans="1:6">
+      <c r="A23" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="8">
+      <c r="B23" s="36">
         <v>43341</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E23" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="F23" s="35" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="61.2" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
+    <row r="24" ht="61.2" spans="1:6">
+      <c r="A24" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="D24" s="16" t="s">
+      <c r="D24" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="E24" s="9" t="s">
+      <c r="E24" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="F24" s="35" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="102" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
+    <row r="25" ht="102" spans="1:6">
+      <c r="A25" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="E25" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="F25" s="9" t="s">
+      <c r="F25" s="37" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="81.599999999999994" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
+    <row r="26" ht="81.6" spans="1:6">
+      <c r="A26" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="B26" s="8">
+      <c r="B26" s="36">
         <v>43342</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="E26" s="9" t="s">
+      <c r="E26" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="F26" s="35" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="40.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
+    <row r="27" ht="40.8" spans="1:7">
+      <c r="A27" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="E27" s="9" t="s">
+      <c r="E27" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="F27" s="35" t="s">
         <v>88</v>
       </c>
       <c r="G27"/>
     </row>
-    <row r="28" spans="1:7" ht="55.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
+    <row r="28" ht="55.05" customHeight="1" spans="1:6">
+      <c r="A28" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="E28" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="F28" s="35" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="142.80000000000001" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
+    <row r="29" ht="142.8" spans="1:6">
+      <c r="A29" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="E29" s="10" t="s">
+      <c r="E29" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="F29" s="10" t="s">
+      <c r="F29" s="38" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="25.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="12"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-    </row>
-    <row r="31" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="12"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-    </row>
-    <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="17"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-    </row>
-    <row r="33" spans="1:19" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="17"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-    </row>
-    <row r="34" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="17"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-    </row>
-    <row r="35" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="17"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-    </row>
-    <row r="36" spans="1:19" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="17"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="17"/>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A37" s="17"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-    </row>
-    <row r="38" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="14" t="s">
+    <row r="30" ht="25.95" customHeight="1" spans="1:6">
+      <c r="A30" s="40"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="40"/>
+    </row>
+    <row r="31" ht="42" customHeight="1" spans="1:6">
+      <c r="A31" s="40"/>
+      <c r="B31" s="40"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
+    </row>
+    <row r="32" ht="30" customHeight="1" spans="1:6">
+      <c r="A32" s="45"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="45"/>
+      <c r="D32" s="45"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="45"/>
+    </row>
+    <row r="33" ht="22.95" customHeight="1" spans="1:6">
+      <c r="A33" s="45"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="45"/>
+      <c r="D33" s="45"/>
+      <c r="E33" s="45"/>
+      <c r="F33" s="45"/>
+    </row>
+    <row r="34" ht="30" customHeight="1" spans="1:6">
+      <c r="A34" s="45"/>
+      <c r="B34" s="40"/>
+      <c r="C34" s="45"/>
+      <c r="D34" s="45"/>
+      <c r="E34" s="45"/>
+      <c r="F34" s="45"/>
+    </row>
+    <row r="35" ht="24" customHeight="1" spans="1:6">
+      <c r="A35" s="45"/>
+      <c r="B35" s="40"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="45"/>
+      <c r="E35" s="46"/>
+      <c r="F35" s="46"/>
+    </row>
+    <row r="36" ht="28.95" customHeight="1" spans="1:6">
+      <c r="A36" s="45"/>
+      <c r="B36" s="40"/>
+      <c r="C36" s="46"/>
+      <c r="D36" s="45"/>
+      <c r="E36" s="47"/>
+      <c r="F36" s="45"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="45"/>
+      <c r="B37" s="40"/>
+      <c r="C37" s="45"/>
+      <c r="D37" s="45"/>
+      <c r="E37" s="45"/>
+      <c r="F37" s="45"/>
+    </row>
+    <row r="38" s="33" customFormat="1" spans="1:6">
+      <c r="A38" s="42" t="s">
         <v>98</v>
       </c>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-    </row>
-    <row r="39" spans="1:19" ht="40.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A39" s="20" t="s">
+      <c r="B38" s="42"/>
+      <c r="C38" s="42"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="42"/>
+      <c r="F38" s="42"/>
+    </row>
+    <row r="39" ht="40.8" spans="1:6">
+      <c r="A39" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="B39" s="21">
+      <c r="B39" s="49">
         <v>43342</v>
       </c>
-      <c r="C39" s="22" t="s">
+      <c r="C39" s="50" t="s">
         <v>99</v>
       </c>
-      <c r="D39" s="20" t="s">
+      <c r="D39" s="48" t="s">
         <v>100</v>
       </c>
-      <c r="E39" s="20" t="s">
+      <c r="E39" s="48" t="s">
         <v>101</v>
       </c>
-      <c r="F39" s="20" t="s">
+      <c r="F39" s="48" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="40" spans="1:19" ht="61.2" x14ac:dyDescent="0.25">
-      <c r="A40" s="22" t="s">
+    <row r="40" ht="61.2" spans="1:6">
+      <c r="A40" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="B40" s="23">
+      <c r="B40" s="51">
         <v>43343</v>
       </c>
-      <c r="C40" s="22" t="s">
+      <c r="C40" s="50" t="s">
         <v>103</v>
       </c>
-      <c r="D40" s="22" t="s">
+      <c r="D40" s="50" t="s">
         <v>104</v>
       </c>
-      <c r="E40" s="22" t="s">
+      <c r="E40" s="50" t="s">
         <v>105</v>
       </c>
-      <c r="F40" s="22" t="s">
+      <c r="F40" s="50" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="41" spans="1:19" ht="102" x14ac:dyDescent="0.25">
-      <c r="A41" s="20" t="s">
+    <row r="41" ht="102" spans="1:6">
+      <c r="A41" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="B41" s="20" t="s">
+      <c r="B41" s="48" t="s">
         <v>107</v>
       </c>
-      <c r="C41" s="22" t="s">
+      <c r="C41" s="50" t="s">
         <v>108</v>
       </c>
-      <c r="D41" s="22" t="s">
+      <c r="D41" s="50" t="s">
         <v>109</v>
       </c>
-      <c r="E41" s="20" t="s">
+      <c r="E41" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="F41" s="22" t="s">
+      <c r="F41" s="50" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="42" spans="1:19" ht="81.599999999999994" x14ac:dyDescent="0.25">
-      <c r="A42" s="20" t="s">
+    <row r="42" ht="81.6" spans="1:6">
+      <c r="A42" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="B42" s="21">
+      <c r="B42" s="49">
         <v>43343</v>
       </c>
-      <c r="C42" s="22" t="s">
+      <c r="C42" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="D42" s="22" t="s">
+      <c r="D42" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="E42" s="22" t="s">
+      <c r="E42" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="F42" s="22" t="s">
+      <c r="F42" s="50" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="43" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="20" t="s">
+    <row r="43" ht="45" customHeight="1" spans="1:6">
+      <c r="A43" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="B43" s="20" t="s">
+      <c r="B43" s="48" t="s">
         <v>89</v>
       </c>
-      <c r="C43" s="22" t="s">
+      <c r="C43" s="50" t="s">
         <v>90</v>
       </c>
-      <c r="D43" s="20" t="s">
+      <c r="D43" s="48" t="s">
         <v>91</v>
       </c>
-      <c r="E43" s="20" t="s">
+      <c r="E43" s="48" t="s">
         <v>92</v>
       </c>
-      <c r="F43" s="20" t="s">
+      <c r="F43" s="48" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="44" spans="1:19" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="20" t="s">
+    <row r="44" ht="28.95" customHeight="1" spans="1:6">
+      <c r="A44" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="B44" s="21">
+      <c r="B44" s="49">
         <v>43342</v>
       </c>
-      <c r="C44" s="20" t="s">
+      <c r="C44" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="D44" s="20" t="s">
+      <c r="D44" s="48" t="s">
         <v>83</v>
       </c>
-      <c r="E44" s="22" t="s">
+      <c r="E44" s="50" t="s">
         <v>84</v>
       </c>
-      <c r="F44" s="20" t="s">
+      <c r="F44" s="48" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="45" spans="1:19" ht="49.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="20" t="s">
+    <row r="45" ht="49.05" customHeight="1" spans="1:6">
+      <c r="A45" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="B45" s="22" t="s">
+      <c r="B45" s="50" t="s">
         <v>94</v>
       </c>
-      <c r="C45" s="24" t="s">
+      <c r="C45" s="52" t="s">
         <v>95</v>
       </c>
-      <c r="D45" s="20" t="s">
+      <c r="D45" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="E45" s="24" t="s">
+      <c r="E45" s="52" t="s">
         <v>96</v>
       </c>
-      <c r="F45" s="24" t="s">
+      <c r="F45" s="52" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="46" spans="1:19" ht="67.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="20" t="s">
+    <row r="46" ht="67.05" customHeight="1" spans="1:19">
+      <c r="A46" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="B46" s="20" t="s">
+      <c r="B46" s="48" t="s">
         <v>74</v>
       </c>
-      <c r="C46" s="22" t="s">
+      <c r="C46" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="D46" s="25" t="s">
+      <c r="D46" s="53" t="s">
         <v>76</v>
       </c>
-      <c r="E46" s="22" t="s">
+      <c r="E46" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="F46" s="20" t="s">
+      <c r="F46" s="48" t="s">
         <v>77</v>
       </c>
       <c r="G46"/>
@@ -3533,3415 +4372,3997 @@
       <c r="R46"/>
       <c r="S46"/>
     </row>
-    <row r="47" spans="1:19" ht="46.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="20" t="s">
+    <row r="47" ht="46.05" customHeight="1" spans="1:6">
+      <c r="A47" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="B47" s="21" t="s">
+      <c r="B47" s="49" t="s">
         <v>85</v>
       </c>
-      <c r="C47" s="20" t="s">
+      <c r="C47" s="48" t="s">
         <v>115</v>
       </c>
-      <c r="D47" s="20" t="s">
+      <c r="D47" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="E47" s="22" t="s">
+      <c r="E47" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="F47" s="20" t="s">
+      <c r="F47" s="48" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="48" spans="1:19" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="26"/>
-      <c r="B48" s="26"/>
-      <c r="C48" s="26"/>
-      <c r="D48" s="26"/>
-      <c r="E48" s="26"/>
-      <c r="F48" s="26"/>
-    </row>
-    <row r="49" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="27"/>
-      <c r="B49" s="26"/>
-      <c r="C49" s="27"/>
-      <c r="D49" s="27"/>
-      <c r="E49" s="27"/>
-      <c r="F49" s="26"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="26"/>
-      <c r="B50" s="26"/>
-      <c r="C50" s="26"/>
-      <c r="D50" s="26"/>
-      <c r="E50" s="26"/>
-      <c r="F50" s="26"/>
-    </row>
-    <row r="51" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="26"/>
-      <c r="B51" s="26"/>
-      <c r="C51" s="26"/>
-      <c r="D51" s="28"/>
-      <c r="E51" s="26"/>
-      <c r="F51" s="26"/>
-    </row>
-    <row r="52" spans="1:6" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="26"/>
-      <c r="B52" s="26"/>
-      <c r="C52" s="26"/>
-      <c r="D52" s="26"/>
-      <c r="E52" s="26"/>
-      <c r="F52" s="26"/>
-    </row>
-    <row r="53" spans="1:6" ht="25.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="26"/>
-      <c r="B53" s="26"/>
-      <c r="C53" s="26"/>
-      <c r="D53" s="26"/>
-      <c r="E53" s="26"/>
-      <c r="F53" s="26"/>
-    </row>
-    <row r="54" spans="1:6" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="26"/>
-      <c r="B54" s="26"/>
-      <c r="C54" s="26"/>
-      <c r="D54" s="26"/>
-      <c r="E54" s="26"/>
-      <c r="F54" s="26"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="26"/>
-      <c r="B55" s="26"/>
-      <c r="C55" s="26"/>
-      <c r="D55" s="26"/>
-      <c r="E55" s="26"/>
-      <c r="F55" s="26"/>
-    </row>
-    <row r="56" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
+    <row r="48" ht="25.05" customHeight="1" spans="1:6">
+      <c r="A48" s="54"/>
+      <c r="B48" s="54"/>
+      <c r="C48" s="54"/>
+      <c r="D48" s="54"/>
+      <c r="E48" s="54"/>
+      <c r="F48" s="54"/>
+    </row>
+    <row r="49" ht="33" customHeight="1" spans="1:6">
+      <c r="A49" s="55"/>
+      <c r="B49" s="54"/>
+      <c r="C49" s="55"/>
+      <c r="D49" s="55"/>
+      <c r="E49" s="55"/>
+      <c r="F49" s="54"/>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="54"/>
+      <c r="B50" s="54"/>
+      <c r="C50" s="54"/>
+      <c r="D50" s="54"/>
+      <c r="E50" s="54"/>
+      <c r="F50" s="54"/>
+    </row>
+    <row r="51" ht="45" customHeight="1" spans="1:6">
+      <c r="A51" s="54"/>
+      <c r="B51" s="54"/>
+      <c r="C51" s="54"/>
+      <c r="D51" s="56"/>
+      <c r="E51" s="54"/>
+      <c r="F51" s="54"/>
+    </row>
+    <row r="52" ht="28.95" customHeight="1" spans="1:6">
+      <c r="A52" s="54"/>
+      <c r="B52" s="54"/>
+      <c r="C52" s="54"/>
+      <c r="D52" s="54"/>
+      <c r="E52" s="54"/>
+      <c r="F52" s="54"/>
+    </row>
+    <row r="53" ht="25.95" customHeight="1" spans="1:6">
+      <c r="A53" s="54"/>
+      <c r="B53" s="54"/>
+      <c r="C53" s="54"/>
+      <c r="D53" s="54"/>
+      <c r="E53" s="54"/>
+      <c r="F53" s="54"/>
+    </row>
+    <row r="54" ht="28.95" customHeight="1" spans="1:6">
+      <c r="A54" s="54"/>
+      <c r="B54" s="54"/>
+      <c r="C54" s="54"/>
+      <c r="D54" s="54"/>
+      <c r="E54" s="54"/>
+      <c r="F54" s="54"/>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="54"/>
+      <c r="B55" s="54"/>
+      <c r="C55" s="54"/>
+      <c r="D55" s="54"/>
+      <c r="E55" s="54"/>
+      <c r="F55" s="54"/>
+    </row>
+    <row r="56" s="33" customFormat="1" spans="1:1">
+      <c r="A56" s="33" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="102" x14ac:dyDescent="0.25">
-      <c r="A57" s="20" t="s">
+    <row r="57" ht="102" spans="1:6">
+      <c r="A57" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="B57" s="29" t="s">
+      <c r="B57" s="57" t="s">
         <v>117</v>
       </c>
-      <c r="C57" s="29" t="s">
+      <c r="C57" s="57" t="s">
         <v>118</v>
       </c>
-      <c r="D57" s="29" t="s">
+      <c r="D57" s="57" t="s">
         <v>119</v>
       </c>
-      <c r="E57" s="29" t="s">
+      <c r="E57" s="57" t="s">
         <v>120</v>
       </c>
-      <c r="F57" s="29" t="s">
+      <c r="F57" s="57" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="81.599999999999994" x14ac:dyDescent="0.25">
-      <c r="A58" s="20" t="s">
+    <row r="58" ht="81.6" spans="1:6">
+      <c r="A58" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="B58" s="30">
+      <c r="B58" s="58">
         <v>43346</v>
       </c>
-      <c r="C58" s="26" t="s">
+      <c r="C58" s="54" t="s">
         <v>122</v>
       </c>
-      <c r="D58" s="26" t="s">
+      <c r="D58" s="54" t="s">
         <v>123</v>
       </c>
-      <c r="E58" s="26" t="s">
+      <c r="E58" s="54" t="s">
         <v>124</v>
       </c>
-      <c r="F58" s="26" t="s">
+      <c r="F58" s="54" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="61.2" x14ac:dyDescent="0.25">
-      <c r="A59" s="20" t="s">
+    <row r="59" ht="61.2" spans="1:6">
+      <c r="A59" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="B59" s="22" t="s">
+      <c r="B59" s="50" t="s">
         <v>126</v>
       </c>
-      <c r="C59" s="31" t="s">
+      <c r="C59" s="59" t="s">
         <v>127</v>
       </c>
-      <c r="D59" s="22" t="s">
+      <c r="D59" s="50" t="s">
         <v>128</v>
       </c>
-      <c r="E59" s="29" t="s">
+      <c r="E59" s="57" t="s">
         <v>129</v>
       </c>
-      <c r="F59" s="31" t="s">
+      <c r="F59" s="59" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="102" x14ac:dyDescent="0.25">
-      <c r="A60" s="20" t="s">
+    <row r="60" ht="102" spans="1:6">
+      <c r="A60" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="B60" s="23">
+      <c r="B60" s="51">
         <v>43346</v>
       </c>
-      <c r="C60" s="22" t="s">
+      <c r="C60" s="50" t="s">
         <v>131</v>
       </c>
-      <c r="D60" s="22" t="s">
+      <c r="D60" s="50" t="s">
         <v>132</v>
       </c>
-      <c r="E60" s="22" t="s">
+      <c r="E60" s="50" t="s">
         <v>133</v>
       </c>
-      <c r="F60" s="22" t="s">
+      <c r="F60" s="50" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A61" s="32" t="s">
+    <row r="61" ht="34.8" spans="1:6">
+      <c r="A61" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="B61" s="33" t="s">
+      <c r="B61" s="61" t="s">
         <v>117</v>
       </c>
-      <c r="C61" s="27" t="s">
+      <c r="C61" s="55" t="s">
         <v>135</v>
       </c>
-      <c r="D61" s="33" t="s">
+      <c r="D61" s="61" t="s">
         <v>136</v>
       </c>
-      <c r="E61" s="33" t="s">
+      <c r="E61" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="F61" s="33" t="s">
+      <c r="F61" s="61" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="61.2" x14ac:dyDescent="0.25">
-      <c r="A62" s="20" t="s">
+    <row r="62" ht="61.2" spans="1:6">
+      <c r="A62" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="B62" s="26" t="s">
+      <c r="B62" s="54" t="s">
         <v>138</v>
       </c>
-      <c r="C62" s="26" t="s">
+      <c r="C62" s="54" t="s">
         <v>139</v>
       </c>
-      <c r="D62" s="22" t="s">
+      <c r="D62" s="50" t="s">
         <v>140</v>
       </c>
-      <c r="E62" s="22" t="s">
+      <c r="E62" s="50" t="s">
         <v>141</v>
       </c>
-      <c r="F62" s="22" t="s">
+      <c r="F62" s="50" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="61.2" x14ac:dyDescent="0.25">
-      <c r="A63" s="20" t="s">
+    <row r="63" ht="61.2" spans="1:6">
+      <c r="A63" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="B63" s="30">
+      <c r="B63" s="58">
         <v>43346</v>
       </c>
-      <c r="C63" s="26" t="s">
+      <c r="C63" s="54" t="s">
         <v>143</v>
       </c>
-      <c r="D63" s="22" t="s">
+      <c r="D63" s="50" t="s">
         <v>144</v>
       </c>
-      <c r="E63" s="22" t="s">
+      <c r="E63" s="50" t="s">
         <v>145</v>
       </c>
-      <c r="F63" s="22" t="s">
+      <c r="F63" s="50" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="64" spans="1:6" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="20" t="s">
+    <row r="64" customFormat="1" ht="33" customHeight="1" spans="1:6">
+      <c r="A64" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="B64" s="21">
+      <c r="B64" s="49">
         <v>43346</v>
       </c>
-      <c r="C64" s="20" t="s">
+      <c r="C64" s="48" t="s">
         <v>147</v>
       </c>
-      <c r="D64" s="20" t="s">
+      <c r="D64" s="48" t="s">
         <v>148</v>
       </c>
-      <c r="E64" s="22" t="s">
+      <c r="E64" s="50" t="s">
         <v>149</v>
       </c>
-      <c r="F64" s="20" t="s">
+      <c r="F64" s="48" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="26" t="s">
+    <row r="65" ht="27" customHeight="1" spans="1:6">
+      <c r="A65" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="B65" s="30">
+      <c r="B65" s="58">
         <v>43346</v>
       </c>
-      <c r="C65" s="26" t="s">
+      <c r="C65" s="54" t="s">
         <v>150</v>
       </c>
-      <c r="D65" s="34"/>
-      <c r="E65" s="26"/>
-      <c r="F65" s="26"/>
-    </row>
-    <row r="66" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="26"/>
-      <c r="B66" s="26"/>
-      <c r="C66" s="26"/>
-      <c r="D66" s="26"/>
-      <c r="E66" s="26"/>
-      <c r="F66" s="26"/>
-    </row>
-    <row r="67" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="26"/>
-      <c r="B67" s="26"/>
-      <c r="C67" s="26"/>
-      <c r="D67" s="26"/>
-      <c r="E67" s="26"/>
-      <c r="F67" s="26"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="26"/>
-      <c r="B68" s="26"/>
-      <c r="C68" s="26"/>
-      <c r="D68" s="26"/>
-      <c r="E68" s="26"/>
-      <c r="F68" s="26"/>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="26"/>
-      <c r="B69" s="26"/>
-      <c r="C69" s="26"/>
-      <c r="D69" s="26"/>
-      <c r="E69" s="26"/>
-      <c r="F69" s="26"/>
-    </row>
-    <row r="70" spans="1:6" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="26"/>
-      <c r="B70" s="26"/>
-      <c r="C70" s="26"/>
-      <c r="D70" s="26"/>
-      <c r="E70" s="26"/>
-      <c r="F70" s="26"/>
-    </row>
-    <row r="71" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="26"/>
-      <c r="B71" s="26"/>
-      <c r="C71" s="26"/>
-      <c r="D71" s="26"/>
-      <c r="E71" s="26"/>
-      <c r="F71" s="26"/>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="26"/>
-      <c r="B72" s="26"/>
-      <c r="C72" s="26"/>
-      <c r="D72" s="26"/>
-      <c r="E72" s="26"/>
-      <c r="F72" s="26"/>
-    </row>
-    <row r="73" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="3" t="s">
+      <c r="D65" s="62"/>
+      <c r="E65" s="54"/>
+      <c r="F65" s="54"/>
+    </row>
+    <row r="66" ht="33" customHeight="1" spans="1:6">
+      <c r="A66" s="54"/>
+      <c r="B66" s="54"/>
+      <c r="C66" s="54"/>
+      <c r="D66" s="54"/>
+      <c r="E66" s="54"/>
+      <c r="F66" s="54"/>
+    </row>
+    <row r="67" ht="30" customHeight="1" spans="1:6">
+      <c r="A67" s="54"/>
+      <c r="B67" s="54"/>
+      <c r="C67" s="54"/>
+      <c r="D67" s="54"/>
+      <c r="E67" s="54"/>
+      <c r="F67" s="54"/>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="54"/>
+      <c r="B68" s="54"/>
+      <c r="C68" s="54"/>
+      <c r="D68" s="54"/>
+      <c r="E68" s="54"/>
+      <c r="F68" s="54"/>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="54"/>
+      <c r="B69" s="54"/>
+      <c r="C69" s="54"/>
+      <c r="D69" s="54"/>
+      <c r="E69" s="54"/>
+      <c r="F69" s="54"/>
+    </row>
+    <row r="70" ht="22.95" customHeight="1" spans="1:6">
+      <c r="A70" s="54"/>
+      <c r="B70" s="54"/>
+      <c r="C70" s="54"/>
+      <c r="D70" s="54"/>
+      <c r="E70" s="54"/>
+      <c r="F70" s="54"/>
+    </row>
+    <row r="71" ht="33" customHeight="1" spans="1:6">
+      <c r="A71" s="54"/>
+      <c r="B71" s="54"/>
+      <c r="C71" s="54"/>
+      <c r="D71" s="54"/>
+      <c r="E71" s="54"/>
+      <c r="F71" s="54"/>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="54"/>
+      <c r="B72" s="54"/>
+      <c r="C72" s="54"/>
+      <c r="D72" s="54"/>
+      <c r="E72" s="54"/>
+      <c r="F72" s="54"/>
+    </row>
+    <row r="73" s="33" customFormat="1" spans="1:1">
+      <c r="A73" s="33" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="102" x14ac:dyDescent="0.25">
-      <c r="A74" s="6" t="s">
+    <row r="74" ht="102" spans="1:6">
+      <c r="A74" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B74" s="6" t="s">
+      <c r="B74" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="C74" s="6" t="s">
+      <c r="C74" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="D74" s="6" t="s">
+      <c r="D74" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="E74" s="6" t="s">
+      <c r="E74" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="F74" s="6" t="s">
+      <c r="F74" s="5" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="122.4" x14ac:dyDescent="0.25">
-      <c r="A75" s="6" t="s">
+    <row r="75" ht="122.4" spans="1:6">
+      <c r="A75" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B75" s="35">
+      <c r="B75" s="63">
         <v>43347</v>
       </c>
-      <c r="C75" s="6" t="s">
+      <c r="C75" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="D75" s="6" t="s">
+      <c r="D75" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="E75" s="6" t="s">
+      <c r="E75" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="F75" s="6" t="s">
+      <c r="F75" s="5" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="183.6" x14ac:dyDescent="0.25">
-      <c r="A76" s="6" t="s">
+    <row r="76" ht="183.6" spans="1:6">
+      <c r="A76" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B76" s="6" t="s">
+      <c r="B76" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="C76" s="6" t="s">
+      <c r="C76" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="D76" s="6" t="s">
+      <c r="D76" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="E76" s="6" t="s">
+      <c r="E76" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="F76" s="6" t="s">
+      <c r="F76" s="5" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="40.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A77" s="36" t="s">
+    <row r="77" ht="40.8" spans="1:6">
+      <c r="A77" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B77" s="37">
+      <c r="B77" s="18">
         <v>43347</v>
       </c>
-      <c r="C77" s="6" t="s">
+      <c r="C77" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="D77" s="36" t="s">
+      <c r="D77" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="E77" s="6" t="s">
+      <c r="E77" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="F77" s="6" t="s">
+      <c r="F77" s="5" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="122.4" x14ac:dyDescent="0.25">
-      <c r="A78" s="36" t="s">
+    <row r="78" ht="122.4" spans="1:6">
+      <c r="A78" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B78" s="6" t="s">
+      <c r="B78" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="C78" s="6" t="s">
+      <c r="C78" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="D78" s="36" t="s">
+      <c r="D78" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="E78" s="6" t="s">
+      <c r="E78" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="F78" s="6" t="s">
+      <c r="F78" s="5" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="40.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A79" s="36" t="s">
+    <row r="79" ht="40.8" spans="1:6">
+      <c r="A79" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B79" s="37">
+      <c r="B79" s="18">
         <v>43347</v>
       </c>
-      <c r="C79" s="6" t="s">
+      <c r="C79" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="D79" s="36" t="s">
+      <c r="D79" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="E79" s="36" t="s">
+      <c r="E79" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="F79" s="36" t="s">
+      <c r="F79" s="2" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A80" s="38" t="s">
+    <row r="80" ht="28.8" spans="1:6">
+      <c r="A80" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="B80" s="38" t="s">
+      <c r="B80" s="64" t="s">
         <v>151</v>
       </c>
-      <c r="C80" s="39" t="s">
+      <c r="C80" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="D80" s="36" t="s">
+      <c r="D80" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="E80" s="40" t="s">
+      <c r="E80" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="F80" s="38" t="s">
+      <c r="F80" s="64" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="36" t="s">
+    <row r="81" ht="31.95" customHeight="1" spans="1:6">
+      <c r="A81" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B81" s="37">
+      <c r="B81" s="18">
         <v>43347</v>
       </c>
-      <c r="C81" s="6" t="s">
+      <c r="C81" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="D81" s="36" t="s">
+      <c r="D81" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="E81" s="6" t="s">
+      <c r="E81" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="F81" s="36" t="s">
+      <c r="F81" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="6"/>
-      <c r="B82" s="6"/>
-      <c r="C82" s="6"/>
-      <c r="D82" s="6"/>
-      <c r="E82" s="6"/>
-      <c r="F82" s="6"/>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="6"/>
-      <c r="B83" s="6"/>
-      <c r="C83" s="6"/>
-      <c r="D83" s="6"/>
-      <c r="E83" s="6"/>
-      <c r="F83" s="6"/>
-    </row>
-    <row r="84" spans="1:6" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="6"/>
-      <c r="B84" s="6"/>
-      <c r="C84" s="6"/>
-      <c r="D84" s="6"/>
-      <c r="E84" s="6"/>
-      <c r="F84" s="6"/>
-    </row>
-    <row r="85" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="6"/>
-      <c r="B85" s="6"/>
-      <c r="C85" s="6"/>
-      <c r="D85" s="6"/>
-      <c r="E85" s="6"/>
-      <c r="F85" s="6"/>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="6"/>
-      <c r="B86" s="6"/>
-      <c r="C86" s="6"/>
-      <c r="D86" s="6"/>
-      <c r="E86" s="6"/>
-      <c r="F86" s="6"/>
-    </row>
-    <row r="87" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="6"/>
-      <c r="B87" s="6"/>
-      <c r="C87" s="6"/>
-      <c r="D87" s="6"/>
-      <c r="E87" s="6"/>
-      <c r="F87" s="6"/>
-    </row>
-    <row r="88" spans="1:6" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="6"/>
-      <c r="B88" s="6"/>
-      <c r="C88" s="6"/>
-      <c r="D88" s="6"/>
-      <c r="E88" s="6"/>
-      <c r="F88" s="6"/>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="6"/>
-      <c r="B89" s="6"/>
-      <c r="C89" s="6"/>
-      <c r="D89" s="6"/>
-      <c r="E89" s="6"/>
-      <c r="F89" s="6"/>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="6"/>
-      <c r="B90" s="6"/>
-      <c r="C90" s="6"/>
-      <c r="D90" s="6"/>
-      <c r="E90" s="6"/>
-      <c r="F90" s="6"/>
-    </row>
-    <row r="91" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="14"/>
-      <c r="B91" s="14"/>
-      <c r="C91" s="14"/>
-      <c r="D91" s="14"/>
-      <c r="E91" s="14"/>
-      <c r="F91" s="14"/>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" s="6"/>
-      <c r="B92" s="6"/>
-      <c r="C92" s="6"/>
-      <c r="D92" s="6"/>
-      <c r="E92" s="6"/>
-      <c r="F92" s="6"/>
-    </row>
-    <row r="93" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="6"/>
-      <c r="B93" s="6"/>
-      <c r="C93" s="6"/>
-      <c r="D93" s="41"/>
-      <c r="E93" s="6"/>
-      <c r="F93" s="6"/>
-    </row>
-    <row r="94" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="6"/>
-      <c r="B94" s="6"/>
-      <c r="C94" s="6"/>
-      <c r="D94" s="6"/>
-      <c r="E94" s="6"/>
-      <c r="F94" s="6"/>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="6"/>
-      <c r="B95" s="6"/>
-      <c r="C95" s="6"/>
-      <c r="D95" s="6"/>
-      <c r="E95" s="6"/>
-      <c r="F95" s="6"/>
-    </row>
-    <row r="96" spans="1:6" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="6"/>
-      <c r="B96" s="6"/>
-      <c r="C96" s="6"/>
-      <c r="D96" s="6"/>
-      <c r="E96" s="6"/>
-      <c r="F96" s="6"/>
-    </row>
-    <row r="97" spans="1:6" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="6"/>
-      <c r="B97" s="6"/>
-      <c r="C97" s="6"/>
-      <c r="D97" s="6"/>
-      <c r="E97" s="6"/>
-      <c r="F97" s="6"/>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" s="6"/>
-      <c r="B98" s="6"/>
-      <c r="C98" s="6"/>
-      <c r="D98" s="6"/>
-      <c r="E98" s="6"/>
-      <c r="F98" s="6"/>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" s="6"/>
-      <c r="B99" s="6"/>
-      <c r="C99" s="6"/>
-      <c r="D99" s="6"/>
-      <c r="E99" s="6"/>
-      <c r="F99" s="6"/>
-    </row>
-    <row r="100" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="6"/>
-      <c r="B100" s="6"/>
-      <c r="C100" s="6"/>
-      <c r="D100" s="6"/>
-      <c r="E100" s="6"/>
-      <c r="F100" s="6"/>
-    </row>
-    <row r="101" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="6"/>
-      <c r="B101" s="6"/>
-      <c r="C101" s="6"/>
-      <c r="D101" s="6"/>
-      <c r="E101" s="6"/>
-      <c r="F101" s="6"/>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" s="6"/>
-      <c r="B102" s="6"/>
-      <c r="C102" s="6"/>
-      <c r="D102" s="6"/>
-      <c r="E102" s="6"/>
-      <c r="F102" s="6"/>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" s="6"/>
-      <c r="B103" s="6"/>
-      <c r="C103" s="6"/>
-      <c r="D103" s="6"/>
-      <c r="E103" s="6"/>
-      <c r="F103" s="6"/>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" s="6"/>
-      <c r="B104" s="6"/>
-      <c r="C104" s="6"/>
-      <c r="D104" s="6"/>
-      <c r="E104" s="6"/>
-      <c r="F104" s="6"/>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105" s="6"/>
-      <c r="B105" s="6"/>
-      <c r="C105" s="6"/>
-      <c r="D105" s="6"/>
-      <c r="E105" s="6"/>
-      <c r="F105" s="6"/>
-    </row>
-    <row r="106" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="6"/>
-      <c r="B106" s="6"/>
-      <c r="C106" s="6"/>
-      <c r="D106" s="6"/>
-      <c r="E106" s="6"/>
-      <c r="F106" s="6"/>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107" s="6"/>
-      <c r="B107" s="6"/>
-      <c r="C107" s="6"/>
-      <c r="D107" s="6"/>
-      <c r="E107" s="6"/>
-      <c r="F107" s="6"/>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108" s="6"/>
-      <c r="B108" s="6"/>
-      <c r="C108" s="6"/>
-      <c r="D108" s="6"/>
-      <c r="E108" s="6"/>
-      <c r="F108" s="6"/>
-    </row>
-    <row r="109" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="14"/>
-      <c r="B109" s="14"/>
-      <c r="C109" s="14"/>
-      <c r="D109" s="14"/>
-      <c r="E109" s="14"/>
-      <c r="F109" s="14"/>
-    </row>
-    <row r="110" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="6"/>
-      <c r="B110" s="6"/>
-      <c r="C110" s="6"/>
-      <c r="D110" s="6"/>
-      <c r="E110" s="6"/>
-      <c r="F110" s="6"/>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111" s="6"/>
-      <c r="B111" s="6"/>
-      <c r="C111" s="6"/>
-      <c r="D111" s="6"/>
-      <c r="E111" s="6"/>
-      <c r="F111" s="6"/>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112" s="6"/>
-      <c r="B112" s="35"/>
-      <c r="C112" s="6"/>
-      <c r="D112" s="6"/>
-      <c r="E112" s="6"/>
-      <c r="F112" s="6"/>
-    </row>
-    <row r="113" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="6"/>
-      <c r="B113" s="35"/>
-      <c r="C113" s="6"/>
-      <c r="D113" s="6"/>
-      <c r="E113" s="6"/>
-      <c r="F113" s="6"/>
-    </row>
-    <row r="114" spans="1:6" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="6"/>
-      <c r="B114" s="6"/>
-      <c r="C114" s="6"/>
-      <c r="D114" s="6"/>
-      <c r="E114" s="6"/>
-      <c r="F114" s="6"/>
-    </row>
-    <row r="115" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="6"/>
-      <c r="B115" s="6"/>
-      <c r="C115" s="6"/>
-      <c r="D115" s="41"/>
-      <c r="E115" s="6"/>
-      <c r="F115" s="6"/>
-    </row>
-    <row r="116" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="6"/>
-      <c r="B116" s="6"/>
-      <c r="C116" s="6"/>
-      <c r="D116" s="6"/>
-      <c r="E116" s="6"/>
-      <c r="F116" s="6"/>
-    </row>
-    <row r="117" spans="1:6" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="6"/>
-      <c r="B117" s="6"/>
-      <c r="C117" s="6"/>
-      <c r="D117" s="6"/>
-      <c r="E117" s="6"/>
-      <c r="F117" s="6"/>
-    </row>
-    <row r="118" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="6"/>
-      <c r="B118" s="6"/>
-      <c r="C118" s="6"/>
-      <c r="D118" s="6"/>
-      <c r="E118" s="6"/>
-      <c r="F118" s="6"/>
-    </row>
-    <row r="119" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="6"/>
-      <c r="B119" s="6"/>
-      <c r="C119" s="6"/>
-      <c r="D119" s="6"/>
-      <c r="E119" s="6"/>
-      <c r="F119" s="6"/>
-    </row>
-    <row r="120" spans="1:6" ht="25.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="6"/>
-      <c r="B120" s="6"/>
-      <c r="C120" s="6"/>
-      <c r="D120" s="6"/>
-      <c r="E120" s="6"/>
-      <c r="F120" s="6"/>
-    </row>
-    <row r="121" spans="1:6" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="6"/>
-      <c r="B121" s="6"/>
-      <c r="C121" s="6"/>
-      <c r="D121" s="6"/>
-      <c r="E121" s="6"/>
-      <c r="F121" s="6"/>
-    </row>
-    <row r="123" spans="1:6" ht="22.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B126" s="42"/>
-    </row>
-    <row r="127" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B127" s="42"/>
-    </row>
-    <row r="128" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="130" spans="2:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D130" s="43"/>
-    </row>
-    <row r="131" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B131" s="44"/>
-    </row>
-    <row r="132" spans="2:4" ht="7.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B132" s="44"/>
-    </row>
-    <row r="133" spans="2:4" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="134" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="135" spans="2:4" ht="28.05" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B138" s="42"/>
-    </row>
-    <row r="139" spans="2:4" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B139" s="42"/>
-    </row>
-    <row r="140" spans="2:4" ht="28.05" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" spans="2:4" ht="22.05" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" spans="2:4" ht="22.05" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="145" spans="2:4" ht="22.05" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="146" spans="2:4" ht="22.05" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="147" spans="2:4" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="148" spans="2:4" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="149" spans="2:4" ht="22.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="150" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B150" s="44"/>
-    </row>
-    <row r="151" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B151" s="44"/>
-    </row>
-    <row r="152" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B152" s="44"/>
-    </row>
-    <row r="153" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B153" s="44"/>
-    </row>
-    <row r="154" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D154" s="45"/>
-    </row>
-    <row r="155" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="156" spans="2:4" ht="22.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="158" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="159" spans="2:4" ht="28.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="160" spans="2:4" ht="28.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="161" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="163" spans="2:4" ht="28.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="164" spans="2:4" ht="25.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B164" s="44"/>
-    </row>
-    <row r="165" spans="2:4" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="166" spans="2:4" ht="25.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D166" s="43"/>
-    </row>
-    <row r="168" spans="2:4" ht="27" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="169" spans="2:4" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B169" s="44"/>
-    </row>
-    <row r="170" spans="2:4" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B170" s="44"/>
-    </row>
-    <row r="171" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B171" s="44"/>
-    </row>
-    <row r="172" spans="2:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B172" s="44"/>
-    </row>
-    <row r="173" spans="2:4" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="175" spans="2:4" ht="31.05" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="177" spans="2:2" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="178" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B178" s="44"/>
-    </row>
-    <row r="179" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B179" s="44"/>
-    </row>
-    <row r="180" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B180" s="42"/>
-    </row>
-    <row r="181" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B181" s="42"/>
-    </row>
-    <row r="182" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B182" s="42"/>
-    </row>
-    <row r="183" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B183" s="42"/>
-    </row>
-    <row r="184" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B184" s="42"/>
-    </row>
-    <row r="185" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B185" s="42"/>
+    <row r="82" ht="28.05" customHeight="1" spans="1:6">
+      <c r="A82" s="5"/>
+      <c r="B82" s="5"/>
+      <c r="C82" s="5"/>
+      <c r="D82" s="5"/>
+      <c r="E82" s="5"/>
+      <c r="F82" s="5"/>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="5"/>
+      <c r="B83" s="5"/>
+      <c r="C83" s="5"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="5"/>
+      <c r="F83" s="5"/>
+    </row>
+    <row r="84" ht="22.05" customHeight="1" spans="1:6">
+      <c r="A84" s="5"/>
+      <c r="B84" s="5"/>
+      <c r="C84" s="5"/>
+      <c r="D84" s="5"/>
+      <c r="E84" s="5"/>
+      <c r="F84" s="5"/>
+    </row>
+    <row r="85" ht="27" customHeight="1" spans="1:6">
+      <c r="A85" s="5"/>
+      <c r="B85" s="5"/>
+      <c r="C85" s="5"/>
+      <c r="D85" s="5"/>
+      <c r="E85" s="5"/>
+      <c r="F85" s="5"/>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="5"/>
+      <c r="B86" s="5"/>
+      <c r="C86" s="5"/>
+      <c r="D86" s="5"/>
+      <c r="E86" s="5"/>
+      <c r="F86" s="5"/>
+    </row>
+    <row r="87" ht="27" customHeight="1" spans="1:6">
+      <c r="A87" s="5"/>
+      <c r="B87" s="5"/>
+      <c r="C87" s="5"/>
+      <c r="D87" s="5"/>
+      <c r="E87" s="5"/>
+      <c r="F87" s="5"/>
+    </row>
+    <row r="88" ht="28.95" customHeight="1" spans="1:6">
+      <c r="A88" s="5"/>
+      <c r="B88" s="5"/>
+      <c r="C88" s="5"/>
+      <c r="D88" s="5"/>
+      <c r="E88" s="5"/>
+      <c r="F88" s="5"/>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="5"/>
+      <c r="B89" s="5"/>
+      <c r="C89" s="5"/>
+      <c r="D89" s="5"/>
+      <c r="E89" s="5"/>
+      <c r="F89" s="5"/>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="5"/>
+      <c r="B90" s="5"/>
+      <c r="C90" s="5"/>
+      <c r="D90" s="5"/>
+      <c r="E90" s="5"/>
+      <c r="F90" s="5"/>
+    </row>
+    <row r="91" s="33" customFormat="1" spans="1:6">
+      <c r="A91" s="42"/>
+      <c r="B91" s="42"/>
+      <c r="C91" s="42"/>
+      <c r="D91" s="42"/>
+      <c r="E91" s="42"/>
+      <c r="F91" s="42"/>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="5"/>
+      <c r="B92" s="5"/>
+      <c r="C92" s="5"/>
+      <c r="D92" s="5"/>
+      <c r="E92" s="5"/>
+      <c r="F92" s="5"/>
+    </row>
+    <row r="93" ht="33" customHeight="1" spans="1:6">
+      <c r="A93" s="5"/>
+      <c r="B93" s="5"/>
+      <c r="C93" s="5"/>
+      <c r="D93" s="66"/>
+      <c r="E93" s="5"/>
+      <c r="F93" s="5"/>
+    </row>
+    <row r="94" ht="27" customHeight="1" spans="1:6">
+      <c r="A94" s="5"/>
+      <c r="B94" s="5"/>
+      <c r="C94" s="5"/>
+      <c r="D94" s="5"/>
+      <c r="E94" s="5"/>
+      <c r="F94" s="5"/>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" s="5"/>
+      <c r="B95" s="5"/>
+      <c r="C95" s="5"/>
+      <c r="D95" s="5"/>
+      <c r="E95" s="5"/>
+      <c r="F95" s="5"/>
+    </row>
+    <row r="96" ht="28.05" customHeight="1" spans="1:6">
+      <c r="A96" s="5"/>
+      <c r="B96" s="5"/>
+      <c r="C96" s="5"/>
+      <c r="D96" s="5"/>
+      <c r="E96" s="5"/>
+      <c r="F96" s="5"/>
+    </row>
+    <row r="97" ht="28.95" customHeight="1" spans="1:6">
+      <c r="A97" s="5"/>
+      <c r="B97" s="5"/>
+      <c r="C97" s="5"/>
+      <c r="D97" s="5"/>
+      <c r="E97" s="5"/>
+      <c r="F97" s="5"/>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" s="5"/>
+      <c r="B98" s="5"/>
+      <c r="C98" s="5"/>
+      <c r="D98" s="5"/>
+      <c r="E98" s="5"/>
+      <c r="F98" s="5"/>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" s="5"/>
+      <c r="B99" s="5"/>
+      <c r="C99" s="5"/>
+      <c r="D99" s="5"/>
+      <c r="E99" s="5"/>
+      <c r="F99" s="5"/>
+    </row>
+    <row r="100" ht="24" customHeight="1" spans="1:6">
+      <c r="A100" s="5"/>
+      <c r="B100" s="5"/>
+      <c r="C100" s="5"/>
+      <c r="D100" s="5"/>
+      <c r="E100" s="5"/>
+      <c r="F100" s="5"/>
+    </row>
+    <row r="101" ht="25.05" customHeight="1" spans="1:6">
+      <c r="A101" s="5"/>
+      <c r="B101" s="5"/>
+      <c r="C101" s="5"/>
+      <c r="D101" s="5"/>
+      <c r="E101" s="5"/>
+      <c r="F101" s="5"/>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" s="5"/>
+      <c r="B102" s="5"/>
+      <c r="C102" s="5"/>
+      <c r="D102" s="5"/>
+      <c r="E102" s="5"/>
+      <c r="F102" s="5"/>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" s="5"/>
+      <c r="B103" s="5"/>
+      <c r="C103" s="5"/>
+      <c r="D103" s="5"/>
+      <c r="E103" s="5"/>
+      <c r="F103" s="5"/>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" s="5"/>
+      <c r="B104" s="5"/>
+      <c r="C104" s="5"/>
+      <c r="D104" s="5"/>
+      <c r="E104" s="5"/>
+      <c r="F104" s="5"/>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" s="5"/>
+      <c r="B105" s="5"/>
+      <c r="C105" s="5"/>
+      <c r="D105" s="5"/>
+      <c r="E105" s="5"/>
+      <c r="F105" s="5"/>
+    </row>
+    <row r="106" ht="25.05" customHeight="1" spans="1:6">
+      <c r="A106" s="5"/>
+      <c r="B106" s="5"/>
+      <c r="C106" s="5"/>
+      <c r="D106" s="5"/>
+      <c r="E106" s="5"/>
+      <c r="F106" s="5"/>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" s="5"/>
+      <c r="B107" s="5"/>
+      <c r="C107" s="5"/>
+      <c r="D107" s="5"/>
+      <c r="E107" s="5"/>
+      <c r="F107" s="5"/>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" s="5"/>
+      <c r="B108" s="5"/>
+      <c r="C108" s="5"/>
+      <c r="D108" s="5"/>
+      <c r="E108" s="5"/>
+      <c r="F108" s="5"/>
+    </row>
+    <row r="109" s="33" customFormat="1" spans="1:6">
+      <c r="A109" s="42"/>
+      <c r="B109" s="42"/>
+      <c r="C109" s="42"/>
+      <c r="D109" s="42"/>
+      <c r="E109" s="42"/>
+      <c r="F109" s="42"/>
+    </row>
+    <row r="110" ht="27" customHeight="1" spans="1:6">
+      <c r="A110" s="5"/>
+      <c r="B110" s="5"/>
+      <c r="C110" s="5"/>
+      <c r="D110" s="5"/>
+      <c r="E110" s="5"/>
+      <c r="F110" s="5"/>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" s="5"/>
+      <c r="B111" s="5"/>
+      <c r="C111" s="5"/>
+      <c r="D111" s="5"/>
+      <c r="E111" s="5"/>
+      <c r="F111" s="5"/>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" s="5"/>
+      <c r="B112" s="63"/>
+      <c r="C112" s="5"/>
+      <c r="D112" s="5"/>
+      <c r="E112" s="5"/>
+      <c r="F112" s="5"/>
+    </row>
+    <row r="113" ht="13.95" customHeight="1" spans="1:6">
+      <c r="A113" s="5"/>
+      <c r="B113" s="63"/>
+      <c r="C113" s="5"/>
+      <c r="D113" s="5"/>
+      <c r="E113" s="5"/>
+      <c r="F113" s="5"/>
+    </row>
+    <row r="114" ht="28.05" customHeight="1" spans="1:6">
+      <c r="A114" s="5"/>
+      <c r="B114" s="5"/>
+      <c r="C114" s="5"/>
+      <c r="D114" s="5"/>
+      <c r="E114" s="5"/>
+      <c r="F114" s="5"/>
+    </row>
+    <row r="115" ht="27" customHeight="1" spans="1:6">
+      <c r="A115" s="5"/>
+      <c r="B115" s="5"/>
+      <c r="C115" s="5"/>
+      <c r="D115" s="66"/>
+      <c r="E115" s="5"/>
+      <c r="F115" s="5"/>
+    </row>
+    <row r="116" ht="27" customHeight="1" spans="1:6">
+      <c r="A116" s="5"/>
+      <c r="B116" s="5"/>
+      <c r="C116" s="5"/>
+      <c r="D116" s="5"/>
+      <c r="E116" s="5"/>
+      <c r="F116" s="5"/>
+    </row>
+    <row r="117" ht="28.05" customHeight="1" spans="1:6">
+      <c r="A117" s="5"/>
+      <c r="B117" s="5"/>
+      <c r="C117" s="5"/>
+      <c r="D117" s="5"/>
+      <c r="E117" s="5"/>
+      <c r="F117" s="5"/>
+    </row>
+    <row r="118" ht="19.95" customHeight="1" spans="1:6">
+      <c r="A118" s="5"/>
+      <c r="B118" s="5"/>
+      <c r="C118" s="5"/>
+      <c r="D118" s="5"/>
+      <c r="E118" s="5"/>
+      <c r="F118" s="5"/>
+    </row>
+    <row r="119" ht="21" customHeight="1" spans="1:6">
+      <c r="A119" s="5"/>
+      <c r="B119" s="5"/>
+      <c r="C119" s="5"/>
+      <c r="D119" s="5"/>
+      <c r="E119" s="5"/>
+      <c r="F119" s="5"/>
+    </row>
+    <row r="120" ht="25.95" customHeight="1" spans="1:6">
+      <c r="A120" s="5"/>
+      <c r="B120" s="5"/>
+      <c r="C120" s="5"/>
+      <c r="D120" s="5"/>
+      <c r="E120" s="5"/>
+      <c r="F120" s="5"/>
+    </row>
+    <row r="121" ht="22.05" customHeight="1" spans="1:6">
+      <c r="A121" s="5"/>
+      <c r="B121" s="5"/>
+      <c r="C121" s="5"/>
+      <c r="D121" s="5"/>
+      <c r="E121" s="5"/>
+      <c r="F121" s="5"/>
+    </row>
+    <row r="123" ht="22.95" customHeight="1"/>
+    <row r="126" spans="2:2">
+      <c r="B126" s="67"/>
+    </row>
+    <row r="127" ht="9" customHeight="1" spans="2:2">
+      <c r="B127" s="67"/>
+    </row>
+    <row r="128" s="33" customFormat="1"/>
+    <row r="130" ht="27" customHeight="1" spans="4:4">
+      <c r="D130" s="68"/>
+    </row>
+    <row r="131" spans="2:2">
+      <c r="B131" s="69"/>
+    </row>
+    <row r="132" ht="7.95" customHeight="1" spans="2:2">
+      <c r="B132" s="69"/>
+    </row>
+    <row r="133" ht="34.05" customHeight="1"/>
+    <row r="134" ht="30" customHeight="1"/>
+    <row r="135" ht="28.05" customHeight="1"/>
+    <row r="138" spans="2:2">
+      <c r="B138" s="67"/>
+    </row>
+    <row r="139" ht="13.05" customHeight="1" spans="2:2">
+      <c r="B139" s="67"/>
+    </row>
+    <row r="140" ht="28.05" customHeight="1"/>
+    <row r="143" ht="22.05" customHeight="1"/>
+    <row r="144" ht="22.05" customHeight="1"/>
+    <row r="145" ht="22.05" customHeight="1"/>
+    <row r="146" ht="22.05" customHeight="1"/>
+    <row r="147" ht="21" customHeight="1"/>
+    <row r="148" s="33" customFormat="1"/>
+    <row r="149" ht="22.95" customHeight="1"/>
+    <row r="150" spans="2:2">
+      <c r="B150" s="69"/>
+    </row>
+    <row r="151" spans="2:2">
+      <c r="B151" s="69"/>
+    </row>
+    <row r="152" spans="2:2">
+      <c r="B152" s="69"/>
+    </row>
+    <row r="153" spans="2:2">
+      <c r="B153" s="69"/>
+    </row>
+    <row r="154" spans="4:4">
+      <c r="D154" s="70"/>
+    </row>
+    <row r="155" ht="24" customHeight="1"/>
+    <row r="156" ht="22.95" customHeight="1"/>
+    <row r="158" ht="30" customHeight="1"/>
+    <row r="159" ht="28.95" customHeight="1"/>
+    <row r="160" ht="28.95" customHeight="1"/>
+    <row r="161" ht="24" customHeight="1"/>
+    <row r="163" ht="28.95" customHeight="1"/>
+    <row r="164" ht="25.95" customHeight="1" spans="2:2">
+      <c r="B164" s="69"/>
+    </row>
+    <row r="165" s="33" customFormat="1"/>
+    <row r="166" ht="25.95" customHeight="1" spans="4:4">
+      <c r="D166" s="68"/>
+    </row>
+    <row r="168" ht="27" customHeight="1"/>
+    <row r="169" ht="13.05" customHeight="1" spans="2:2">
+      <c r="B169" s="69"/>
+    </row>
+    <row r="170" ht="13.05" customHeight="1" spans="2:2">
+      <c r="B170" s="69"/>
+    </row>
+    <row r="171" spans="2:2">
+      <c r="B171" s="69"/>
+    </row>
+    <row r="172" ht="12" customHeight="1" spans="2:2">
+      <c r="B172" s="69"/>
+    </row>
+    <row r="173" ht="34.05" customHeight="1"/>
+    <row r="175" ht="31.05" customHeight="1"/>
+    <row r="177" s="33" customFormat="1"/>
+    <row r="178" spans="2:2">
+      <c r="B178" s="69"/>
+    </row>
+    <row r="179" spans="2:2">
+      <c r="B179" s="69"/>
+    </row>
+    <row r="180" spans="2:2">
+      <c r="B180" s="67"/>
+    </row>
+    <row r="181" spans="2:2">
+      <c r="B181" s="67"/>
+    </row>
+    <row r="182" spans="2:2">
+      <c r="B182" s="67"/>
+    </row>
+    <row r="183" spans="2:2">
+      <c r="B183" s="67"/>
+    </row>
+    <row r="184" spans="2:2">
+      <c r="B184" s="67"/>
+    </row>
+    <row r="185" spans="2:2">
+      <c r="B185" s="67"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F63"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection sqref="A1:F63"/>
+      <selection activeCell="A1" sqref="A1:F63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="22.5546875" customWidth="1"/>
-    <col min="2" max="2" width="32.5546875" customWidth="1"/>
-    <col min="3" max="3" width="34.5546875" customWidth="1"/>
-    <col min="4" max="4" width="36.33203125" customWidth="1"/>
-    <col min="5" max="5" width="36.77734375" customWidth="1"/>
-    <col min="6" max="6" width="32.21875" customWidth="1"/>
+    <col min="1" max="1" width="22.5555555555556" customWidth="1"/>
+    <col min="2" max="2" width="32.5555555555556" customWidth="1"/>
+    <col min="3" max="3" width="34.5555555555556" customWidth="1"/>
+    <col min="4" max="4" width="36.3333333333333" customWidth="1"/>
+    <col min="5" max="5" width="36.7777777777778" customWidth="1"/>
+    <col min="6" max="6" width="32.2222222222222" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="102" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+    <row r="1" ht="40.8" spans="1:6">
+      <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="F1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="387.6" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
+    <row r="2" ht="81.6" spans="1:6">
+      <c r="A2" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="E2" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="224.4" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
+    <row r="3" ht="61.2" spans="1:6">
+      <c r="A3" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="F3" s="36" t="s">
+      <c r="F3" s="2" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A4" s="36" t="s">
+    <row r="4" ht="306" spans="1:6">
+      <c r="A4" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B4" s="46">
+      <c r="B4" s="10">
         <v>43341</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="E4" s="47" t="s">
+      <c r="E4" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A5" s="36" t="s">
+    <row r="5" ht="102" spans="1:6">
+      <c r="A5" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="B5" s="48">
+      <c r="B5" s="16">
         <v>43341</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="F5" s="36" t="s">
+      <c r="F5" s="2" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="244.8" x14ac:dyDescent="0.25">
-      <c r="A6" s="39" t="s">
+    <row r="6" ht="61.2" spans="1:6">
+      <c r="A6" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="D6" s="36" t="s">
+      <c r="D6" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A7" s="39" t="s">
+    <row r="7" ht="102" spans="1:6">
+      <c r="A7" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="B7" s="39" t="s">
+      <c r="B7" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="D7" s="49" t="s">
+      <c r="D7" s="17" t="s">
         <v>210</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="5" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A8" s="39" t="s">
+    <row r="8" ht="224.4" spans="1:6">
+      <c r="A8" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="B8" s="37">
+      <c r="B8" s="18">
         <v>43341</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="5" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A9" s="39" t="s">
+    <row r="9" ht="102" spans="1:6">
+      <c r="A9" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="B9" s="39" t="s">
+      <c r="B9" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="5" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A10" s="39" t="s">
+    <row r="10" ht="163.2" spans="1:6">
+      <c r="A10" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="B10" s="50">
+      <c r="B10" s="19">
         <v>43341</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="D10" s="51" t="s">
+      <c r="D10" s="20" t="s">
         <v>225</v>
       </c>
-      <c r="E10" s="52" t="s">
+      <c r="E10" s="21" t="s">
         <v>226</v>
       </c>
-      <c r="F10" s="52" t="s">
+      <c r="F10" s="21" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="36" t="s">
+    <row r="11" ht="102" spans="1:6">
+      <c r="A11" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="B11" s="46">
+      <c r="B11" s="10">
         <v>43341</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="F11" s="53" t="s">
+      <c r="F11" s="22" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A12" s="54"/>
-      <c r="B12" s="39"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-    </row>
-    <row r="13" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A13" s="54"/>
-      <c r="B13" s="39"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-    </row>
-    <row r="14" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A14" s="54"/>
-      <c r="B14" s="39"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-    </row>
-    <row r="15" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A15" s="39"/>
-      <c r="B15" s="39"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-    </row>
-    <row r="16" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A16" s="39"/>
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-    </row>
-    <row r="17" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A17" s="55" t="s">
+    <row r="12" ht="20.4" spans="1:6">
+      <c r="A12" s="12"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" ht="20.4" spans="1:6">
+      <c r="A13" s="12"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" ht="20.4" spans="1:6">
+      <c r="A14" s="12"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" ht="20.4" spans="1:6">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" ht="20.4" spans="1:6">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" ht="20.4" spans="1:6">
+      <c r="A17" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B17" s="56"/>
-      <c r="C17" s="56"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="57"/>
-    </row>
-    <row r="18" spans="1:6" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A18" s="36" t="s">
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+    </row>
+    <row r="18" ht="163.2" spans="1:6">
+      <c r="A18" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="B18" s="36" t="s">
+      <c r="B18" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="F18" s="5" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="244.8" x14ac:dyDescent="0.25">
-      <c r="A19" s="36" t="s">
+    <row r="19" ht="61.2" spans="1:6">
+      <c r="A19" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="B19" s="48">
+      <c r="B19" s="16">
         <v>43343</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="F19" s="5" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="244.8" x14ac:dyDescent="0.25">
-      <c r="A20" s="36" t="s">
+    <row r="20" ht="81.6" spans="1:6">
+      <c r="A20" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="B20" s="36" t="s">
+      <c r="B20" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="F20" s="36" t="s">
+      <c r="F20" s="2" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="265.2" x14ac:dyDescent="0.25">
-      <c r="A21" s="39" t="s">
+    <row r="21" ht="61.2" spans="1:6">
+      <c r="A21" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="B21" s="39" t="s">
+      <c r="B21" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="D21" s="36" t="s">
+      <c r="D21" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="F21" s="36" t="s">
+      <c r="F21" s="2" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A22" s="36" t="s">
+    <row r="22" ht="409.5" spans="1:6">
+      <c r="A22" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B22" s="46">
+      <c r="B22" s="10">
         <v>43343</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E22" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="F22" s="47" t="s">
+      <c r="F22" s="15" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="244.8" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+    <row r="23" ht="61.2" spans="1:6">
+      <c r="A23" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E23" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="F23" s="3" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A24" s="39" t="s">
+    <row r="24" ht="122.4" spans="1:6">
+      <c r="A24" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="B24" s="58">
+      <c r="B24" s="23">
         <v>43343</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E24" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="F24" s="6" t="s">
+      <c r="F24" s="5" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A25" s="39" t="s">
+    <row r="25" ht="163.2" spans="1:6">
+      <c r="A25" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="B25" s="59">
+      <c r="B25" s="24">
         <v>43343</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E25" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="F25" s="5" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A26" s="39" t="s">
+    <row r="26" ht="204" spans="1:6">
+      <c r="A26" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="B26" s="58">
+      <c r="B26" s="23">
         <v>43343</v>
       </c>
-      <c r="C26" s="60" t="s">
+      <c r="C26" s="25" t="s">
         <v>267</v>
       </c>
-      <c r="D26" s="60" t="s">
+      <c r="D26" s="25" t="s">
         <v>268</v>
       </c>
-      <c r="E26" s="60" t="s">
+      <c r="E26" s="25" t="s">
         <v>269</v>
       </c>
-      <c r="F26" s="6" t="s">
+      <c r="F26" s="5" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="408" x14ac:dyDescent="0.25">
-      <c r="A27" s="61" t="s">
+    <row r="27" ht="102" spans="1:6">
+      <c r="A27" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="B27" s="39" t="s">
+      <c r="B27" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="E27" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="F27" s="36" t="s">
+      <c r="F27" s="2" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A28" s="36"/>
-      <c r="B28" s="36"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="36"/>
-    </row>
-    <row r="29" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A29" s="62"/>
-      <c r="B29" s="36"/>
-      <c r="C29" s="63"/>
-      <c r="D29" s="62"/>
-      <c r="E29" s="63"/>
-      <c r="F29" s="62"/>
-    </row>
-    <row r="30" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A30" s="62"/>
-      <c r="B30" s="36"/>
-      <c r="C30" s="62"/>
-      <c r="D30" s="62"/>
-      <c r="E30" s="63"/>
-      <c r="F30" s="62"/>
-    </row>
-    <row r="31" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A31" s="62"/>
-      <c r="B31" s="36"/>
-      <c r="C31" s="63"/>
-      <c r="D31" s="62"/>
-      <c r="E31" s="63"/>
-      <c r="F31" s="62"/>
-    </row>
-    <row r="32" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A32" s="62"/>
-      <c r="B32" s="36"/>
-      <c r="C32" s="64"/>
-      <c r="D32" s="62"/>
-      <c r="E32" s="64"/>
-      <c r="F32" s="64"/>
-    </row>
-    <row r="33" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A33" s="62"/>
-      <c r="B33" s="36"/>
-      <c r="C33" s="65"/>
-      <c r="D33" s="62"/>
-      <c r="E33" s="66"/>
-      <c r="F33" s="62"/>
-    </row>
-    <row r="34" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A34" s="62"/>
-      <c r="B34" s="36"/>
-      <c r="C34" s="62"/>
-      <c r="D34" s="62"/>
-      <c r="E34" s="62"/>
-      <c r="F34" s="62"/>
-    </row>
-    <row r="35" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A35" s="67" t="s">
+    <row r="28" ht="20.4" spans="1:6">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" ht="20.4" spans="1:6">
+      <c r="A29" s="26"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="26"/>
+    </row>
+    <row r="30" ht="20.4" spans="1:6">
+      <c r="A30" s="26"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="26"/>
+    </row>
+    <row r="31" ht="20.4" spans="1:6">
+      <c r="A31" s="26"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="26"/>
+    </row>
+    <row r="32" ht="20.4" spans="1:6">
+      <c r="A32" s="26"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+    </row>
+    <row r="33" ht="20.4" spans="1:6">
+      <c r="A33" s="26"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="26"/>
+    </row>
+    <row r="34" ht="20.4" spans="1:6">
+      <c r="A34" s="26"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="26"/>
+    </row>
+    <row r="35" ht="20.4" spans="1:6">
+      <c r="A35" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="B35" s="67"/>
-      <c r="C35" s="67"/>
-      <c r="D35" s="67"/>
-      <c r="E35" s="67"/>
-      <c r="F35" s="67"/>
-    </row>
-    <row r="36" spans="1:6" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A36" s="36" t="s">
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+    </row>
+    <row r="36" ht="122.4" spans="1:6">
+      <c r="A36" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="B36" s="36" t="s">
+      <c r="B36" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C36" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="D36" s="6" t="s">
+      <c r="D36" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="E36" s="6" t="s">
+      <c r="E36" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="F36" s="6" t="s">
+      <c r="F36" s="5" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="346.8" x14ac:dyDescent="0.25">
-      <c r="A37" s="36" t="s">
+    <row r="37" ht="81.6" spans="1:6">
+      <c r="A37" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="B37" s="48">
+      <c r="B37" s="16">
         <v>43346</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C37" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="D37" s="6" t="s">
+      <c r="D37" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="E37" s="6" t="s">
+      <c r="E37" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="F37" s="36" t="s">
+      <c r="F37" s="2" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="306" x14ac:dyDescent="0.25">
-      <c r="A38" s="39" t="s">
+    <row r="38" ht="61.2" spans="1:6">
+      <c r="A38" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="B38" s="39" t="s">
+      <c r="B38" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="D38" s="6" t="s">
+      <c r="D38" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="E38" s="6" t="s">
+      <c r="E38" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="F38" s="36" t="s">
+      <c r="F38" s="2" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="204" x14ac:dyDescent="0.25">
-      <c r="A39" s="36" t="s">
+    <row r="39" ht="40.8" spans="1:6">
+      <c r="A39" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="B39" s="36" t="s">
+      <c r="B39" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C39" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="D39" s="6" t="s">
+      <c r="D39" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="E39" s="6" t="s">
+      <c r="E39" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="F39" s="36" t="s">
+      <c r="F39" s="2" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A40" s="36" t="s">
+    <row r="40" ht="122.4" spans="1:6">
+      <c r="A40" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B40" s="36" t="s">
+      <c r="B40" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C40" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="D40" s="6" t="s">
+      <c r="D40" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="E40" s="6" t="s">
+      <c r="E40" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="F40" s="6" t="s">
+      <c r="F40" s="5" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A41" s="61" t="s">
+    <row r="41" ht="102" spans="1:6">
+      <c r="A41" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="B41" s="61" t="s">
+      <c r="B41" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="C41" s="61" t="s">
+      <c r="C41" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="D41" s="61" t="s">
+      <c r="D41" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="E41" s="61" t="s">
+      <c r="E41" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="F41" s="61" t="s">
+      <c r="F41" s="6" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="367.2" x14ac:dyDescent="0.25">
-      <c r="A42" s="39" t="s">
+    <row r="42" ht="102" spans="1:6">
+      <c r="A42" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="B42" s="59">
+      <c r="B42" s="24">
         <v>43346</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C42" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="D42" s="6" t="s">
+      <c r="D42" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="E42" s="6" t="s">
+      <c r="E42" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="F42" s="6" t="s">
+      <c r="F42" s="5" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A43" s="39" t="s">
+    <row r="43" ht="183.6" spans="1:6">
+      <c r="A43" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="B43" s="58">
+      <c r="B43" s="23">
         <v>43346</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C43" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="D43" s="6" t="s">
+      <c r="D43" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="E43" s="6" t="s">
+      <c r="E43" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="F43" s="6" t="s">
+      <c r="F43" s="5" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="408" x14ac:dyDescent="0.25">
-      <c r="A44" s="39" t="s">
+    <row r="44" ht="81.6" spans="1:6">
+      <c r="A44" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="B44" s="39" t="s">
+      <c r="B44" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C44" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="D44" s="6" t="s">
+      <c r="D44" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="E44" s="6" t="s">
+      <c r="E44" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="F44" s="6" t="s">
+      <c r="F44" s="5" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A45" s="39" t="s">
+    <row r="45" ht="122.4" spans="1:6">
+      <c r="A45" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="B45" s="58">
+      <c r="B45" s="23">
         <v>43346</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C45" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="D45" s="6" t="s">
+      <c r="D45" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="E45" s="6" t="s">
+      <c r="E45" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="F45" s="6" t="s">
+      <c r="F45" s="5" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A46" s="61"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="51"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-    </row>
-    <row r="47" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A47" s="36"/>
-      <c r="B47" s="36"/>
-      <c r="C47" s="36"/>
-      <c r="D47" s="36"/>
-      <c r="E47" s="36"/>
-      <c r="F47" s="36"/>
-    </row>
-    <row r="48" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A48" s="36"/>
-      <c r="B48" s="36"/>
-      <c r="C48" s="36"/>
-      <c r="D48" s="36"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="36"/>
-    </row>
-    <row r="49" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A49" s="36"/>
-      <c r="B49" s="36"/>
-      <c r="C49" s="6"/>
-      <c r="D49" s="36"/>
-      <c r="E49" s="36"/>
-      <c r="F49" s="36"/>
-    </row>
-    <row r="50" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A50" s="36"/>
-      <c r="B50" s="36"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
-    </row>
-    <row r="51" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A51" s="36"/>
-      <c r="B51" s="36"/>
-      <c r="C51" s="6"/>
-      <c r="D51" s="36"/>
-      <c r="E51" s="6"/>
-      <c r="F51" s="36"/>
-    </row>
-    <row r="52" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A52" s="36"/>
-      <c r="B52" s="36"/>
-      <c r="C52" s="36"/>
-      <c r="D52" s="36"/>
-      <c r="E52" s="36"/>
-      <c r="F52" s="36"/>
-    </row>
-    <row r="53" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A53" s="67" t="s">
+    <row r="46" ht="20.4" spans="1:6">
+      <c r="A46" s="6"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="20"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+    </row>
+    <row r="47" ht="20.4" spans="1:6">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+    </row>
+    <row r="48" ht="20.4" spans="1:6">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="2"/>
+    </row>
+    <row r="49" ht="20.4" spans="1:6">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+    </row>
+    <row r="50" ht="20.4" spans="1:6">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+    </row>
+    <row r="51" ht="20.4" spans="1:6">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="2"/>
+    </row>
+    <row r="52" ht="20.4" spans="1:6">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+    </row>
+    <row r="53" ht="20.4" spans="1:6">
+      <c r="A53" s="11" t="s">
         <v>316</v>
       </c>
-      <c r="B53" s="67"/>
-      <c r="C53" s="67"/>
-      <c r="D53" s="67"/>
-      <c r="E53" s="67"/>
-      <c r="F53" s="67"/>
-    </row>
-    <row r="54" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A54" s="36" t="s">
+      <c r="B53" s="11"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+    </row>
+    <row r="54" ht="20.4" spans="1:6">
+      <c r="A54" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="B54" s="36" t="s">
+      <c r="B54" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C54" s="36" t="s">
+      <c r="C54" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="D54" s="36" t="s">
+      <c r="D54" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="E54" s="36" t="s">
+      <c r="E54" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="F54" s="36" t="s">
+      <c r="F54" s="2" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="285.60000000000002" x14ac:dyDescent="0.25">
-      <c r="A55" s="39" t="s">
+    <row r="55" ht="61.2" spans="1:6">
+      <c r="A55" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="B55" s="39" t="s">
+      <c r="B55" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="C55" s="4" t="s">
+      <c r="C55" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="D55" s="36" t="s">
+      <c r="D55" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="E55" s="36" t="s">
+      <c r="E55" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="F55" s="6" t="s">
+      <c r="F55" s="5" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="163.19999999999999" x14ac:dyDescent="0.25">
-      <c r="A56" s="36" t="s">
+    <row r="56" ht="40.8" spans="1:6">
+      <c r="A56" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="B56" s="48">
+      <c r="B56" s="16">
         <v>43347</v>
       </c>
-      <c r="C56" s="6" t="s">
+      <c r="C56" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="D56" s="6" t="s">
+      <c r="D56" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="E56" s="6" t="s">
+      <c r="E56" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="F56" s="36" t="s">
+      <c r="F56" s="2" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="102" x14ac:dyDescent="0.25">
-      <c r="A57" s="36" t="s">
+    <row r="57" ht="20.4" spans="1:6">
+      <c r="A57" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="B57" s="36" t="s">
+      <c r="B57" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C57" s="6" t="s">
+      <c r="C57" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="D57" s="36" t="s">
+      <c r="D57" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="E57" s="36" t="s">
+      <c r="E57" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="F57" s="36" t="s">
+      <c r="F57" s="2" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A58" s="39" t="s">
+    <row r="58" ht="163.2" spans="1:6">
+      <c r="A58" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="B58" s="59">
+      <c r="B58" s="24">
         <v>43347</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="C58" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="D58" s="36" t="s">
+      <c r="D58" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="E58" s="36" t="s">
+      <c r="E58" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="F58" s="6"/>
-    </row>
-    <row r="59" spans="1:6" ht="408" x14ac:dyDescent="0.25">
-      <c r="A59" s="61" t="s">
+      <c r="F58" s="5"/>
+    </row>
+    <row r="59" ht="81.6" spans="1:6">
+      <c r="A59" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="B59" s="4" t="s">
+      <c r="B59" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="C59" s="61" t="s">
+      <c r="C59" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="D59" s="6" t="s">
+      <c r="D59" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="E59" s="6" t="s">
+      <c r="E59" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="F59" s="6" t="s">
+      <c r="F59" s="5" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="326.39999999999998" x14ac:dyDescent="0.25">
-      <c r="A60" s="39" t="s">
+    <row r="60" ht="102" spans="1:6">
+      <c r="A60" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="B60" s="58">
+      <c r="B60" s="23">
         <v>43347</v>
       </c>
-      <c r="C60" s="4" t="s">
+      <c r="C60" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="D60" s="6" t="s">
+      <c r="D60" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="E60" s="6" t="s">
+      <c r="E60" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="F60" s="6" t="s">
+      <c r="F60" s="5" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A61" s="39" t="s">
+    <row r="61" ht="81.6" spans="1:6">
+      <c r="A61" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="B61" s="58">
+      <c r="B61" s="23">
         <v>43347</v>
       </c>
-      <c r="C61" s="60" t="s">
+      <c r="C61" s="25" t="s">
         <v>345</v>
       </c>
-      <c r="D61" s="60" t="s">
+      <c r="D61" s="25" t="s">
         <v>346</v>
       </c>
-      <c r="E61" s="60" t="s">
+      <c r="E61" s="25" t="s">
         <v>347</v>
       </c>
-      <c r="F61" s="60" t="s">
+      <c r="F61" s="25" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A62" s="39" t="s">
+    <row r="62" ht="142.8" spans="1:6">
+      <c r="A62" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="B62" s="59">
+      <c r="B62" s="24">
         <v>43347</v>
       </c>
-      <c r="C62" s="4" t="s">
+      <c r="C62" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="D62" s="6" t="s">
+      <c r="D62" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="E62" s="53" t="s">
+      <c r="E62" s="22" t="s">
         <v>351</v>
       </c>
-      <c r="F62" s="4" t="s">
+      <c r="F62" s="3" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="265.2" x14ac:dyDescent="0.25">
-      <c r="A63" s="39" t="s">
+    <row r="63" ht="61.2" spans="1:6">
+      <c r="A63" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="B63" s="39" t="s">
+      <c r="B63" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="C63" s="4" t="s">
+      <c r="C63" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="D63" s="36" t="s">
+      <c r="D63" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="E63" s="6" t="s">
+      <c r="E63" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="F63" s="6" t="s">
+      <c r="F63" s="5" t="s">
         <v>357</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F92"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:K142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
+      <selection activeCell="F136" sqref="F136:F142"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="25.77734375" customWidth="1"/>
-    <col min="3" max="3" width="45.5546875" customWidth="1"/>
-    <col min="4" max="4" width="28.109375" customWidth="1"/>
+    <col min="2" max="2" width="25.7777777777778" customWidth="1"/>
+    <col min="3" max="3" width="45.5555555555556" customWidth="1"/>
+    <col min="4" max="4" width="28.1111111111111" customWidth="1"/>
     <col min="5" max="5" width="37" customWidth="1"/>
-    <col min="6" max="6" width="33.33203125" customWidth="1"/>
+    <col min="6" max="6" width="33.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+    <row r="1" ht="20.4" spans="1:6">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="68" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="68" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="68" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="68" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
+    <row r="2" ht="122.4" spans="1:6">
+      <c r="A2" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A3" s="39" t="s">
+    <row r="3" ht="102" spans="1:6">
+      <c r="A3" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="E3" s="36" t="s">
+      <c r="E3" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="163.19999999999999" x14ac:dyDescent="0.25">
-      <c r="A4" s="39" t="s">
+    <row r="4" ht="40.8" spans="1:6">
+      <c r="A4" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="D4" s="36" t="s">
+      <c r="D4" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="F4" s="36" t="s">
+      <c r="F4" s="2" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A5" s="39" t="s">
+    <row r="5" ht="142.8" spans="1:6">
+      <c r="A5" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="3" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A6" s="36" t="s">
+    <row r="6" ht="326.4" spans="1:6">
+      <c r="A6" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="5" t="s">
         <v>381</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="5" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A7" s="36" t="s">
+    <row r="7" ht="409.5" spans="1:6">
+      <c r="A7" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="5" t="s">
         <v>386</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="5" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A8" s="36" t="s">
+    <row r="8" ht="285.6" spans="1:6">
+      <c r="A8" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="5" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="244.8" x14ac:dyDescent="0.25">
-      <c r="A9" s="36" t="s">
+    <row r="9" ht="40.8" spans="1:6">
+      <c r="A9" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="5" t="s">
         <v>395</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="5" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A10" s="36" t="s">
+    <row r="10" ht="142.8" spans="1:6">
+      <c r="A10" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>374</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="5" t="s">
         <v>400</v>
       </c>
-      <c r="F10" s="36" t="s">
+      <c r="F10" s="2" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="36" t="s">
+    <row r="11" ht="204" spans="1:6">
+      <c r="A11" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="B11" s="36" t="s">
+      <c r="B11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="61" t="s">
+      <c r="C11" s="6" t="s">
         <v>403</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="5" t="s">
         <v>404</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="5" t="s">
         <v>405</v>
       </c>
-      <c r="F11" s="36" t="s">
+      <c r="F11" s="2" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A12" s="55" t="s">
+    <row r="12" ht="20.4" spans="1:6">
+      <c r="A12" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="B12" s="56"/>
-      <c r="C12" s="56"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="57"/>
-    </row>
-    <row r="13" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A13" s="68" t="s">
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+    </row>
+    <row r="13" ht="20.4" spans="1:6">
+      <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="68" t="s">
+      <c r="B13" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="68" t="s">
+      <c r="C13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="68" t="s">
+      <c r="D13" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="68" t="s">
+      <c r="E13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F13" s="68" t="s">
+      <c r="F13" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A14" s="36" t="s">
+    <row r="14" ht="81.6" spans="1:6">
+      <c r="A14" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="B14" s="46" t="s">
+      <c r="B14" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>407</v>
       </c>
-      <c r="D14" s="36" t="s">
+      <c r="D14" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="5" t="s">
         <v>409</v>
       </c>
-      <c r="F14" s="36" t="s">
+      <c r="F14" s="2" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A15" s="36" t="s">
+    <row r="15" ht="326.4" spans="1:6">
+      <c r="A15" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="B15" s="46" t="s">
+      <c r="B15" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>411</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="5" t="s">
         <v>412</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="5" t="s">
         <v>413</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="5" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A16" s="36" t="s">
+    <row r="16" ht="142.8" spans="1:6">
+      <c r="A16" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="B16" s="46" t="s">
+      <c r="B16" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>415</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="5" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A17" s="36" t="s">
+    <row r="17" ht="81.6" spans="1:6">
+      <c r="A17" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="B17" s="46" t="s">
+      <c r="B17" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="5" t="s">
         <v>421</v>
       </c>
-      <c r="E17" s="36" t="s">
+      <c r="E17" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F17" s="5" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A18" s="36" t="s">
+    <row r="18" ht="122.4" spans="1:6">
+      <c r="A18" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="B18" s="46" t="s">
+      <c r="B18" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="5" t="s">
         <v>426</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="5" t="s">
         <v>427</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="F18" s="5" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A19" s="36" t="s">
+    <row r="19" ht="367.2" spans="1:6">
+      <c r="A19" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="B19" s="46" t="s">
+      <c r="B19" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="3" t="s">
         <v>429</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="5" t="s">
         <v>430</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="5" t="s">
         <v>431</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="F19" s="5" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A20" s="36" t="s">
+    <row r="20" ht="142.8" spans="1:6">
+      <c r="A20" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="B20" s="46" t="s">
+      <c r="B20" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="5" t="s">
         <v>435</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="5" t="s">
         <v>436</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="F20" s="5" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="387.6" x14ac:dyDescent="0.25">
-      <c r="A21" s="36" t="s">
+    <row r="21" ht="81.6" spans="1:6">
+      <c r="A21" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="B21" s="46" t="s">
+      <c r="B21" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="5" t="s">
         <v>439</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="5" t="s">
         <v>440</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="F21" s="5" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A22" s="36" t="s">
+    <row r="22" ht="409.5" spans="1:6">
+      <c r="A22" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="B22" s="46" t="s">
+      <c r="B22" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E22" s="5" t="s">
         <v>444</v>
       </c>
-      <c r="F22" s="6" t="s">
+      <c r="F22" s="5" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A23" s="36" t="s">
+    <row r="23" ht="102" spans="1:6">
+      <c r="A23" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="B23" s="36" t="s">
+      <c r="B23" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C23" s="61" t="s">
+      <c r="C23" s="6" t="s">
         <v>447</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="5" t="s">
         <v>448</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E23" s="5" t="s">
         <v>449</v>
       </c>
-      <c r="F23" s="36" t="s">
+      <c r="F23" s="2" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A24" s="55" t="s">
+    <row r="24" ht="20.4" spans="1:6">
+      <c r="A24" s="7" t="s">
         <v>450</v>
       </c>
-      <c r="B24" s="56"/>
-      <c r="C24" s="56"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="57"/>
-      <c r="F24" s="57"/>
-    </row>
-    <row r="25" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A25" s="68" t="s">
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+    </row>
+    <row r="25" ht="20.4" spans="1:6">
+      <c r="A25" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="68" t="s">
+      <c r="B25" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="68" t="s">
+      <c r="C25" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D25" s="68"/>
-      <c r="E25" s="68" t="s">
+      <c r="D25" s="1"/>
+      <c r="E25" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F25" s="68" t="s">
+      <c r="F25" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A26" s="36" t="s">
+    <row r="26" ht="81.6" spans="1:6">
+      <c r="A26" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="B26" s="46" t="s">
+      <c r="B26" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="5" t="s">
         <v>451</v>
       </c>
-      <c r="D26" s="36" t="s">
+      <c r="D26" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="E26" s="5" t="s">
         <v>453</v>
       </c>
-      <c r="F26" s="6" t="s">
+      <c r="F26" s="5" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A27" s="36" t="s">
+    <row r="27" ht="387.6" spans="1:6">
+      <c r="A27" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="B27" s="36" t="s">
+      <c r="B27" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="3" t="s">
         <v>455</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="5" t="s">
         <v>456</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="E27" s="5" t="s">
         <v>457</v>
       </c>
-      <c r="F27" s="6" t="s">
+      <c r="F27" s="5" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A28" s="36" t="s">
+    <row r="28" ht="142.8" spans="1:6">
+      <c r="A28" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="B28" s="36" t="s">
+      <c r="B28" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="5" t="s">
         <v>460</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="E28" s="5" t="s">
         <v>461</v>
       </c>
-      <c r="F28" s="6" t="s">
+      <c r="F28" s="5" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A29" s="36" t="s">
+    <row r="29" ht="409.5" spans="1:6">
+      <c r="A29" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="B29" s="36" t="s">
+      <c r="B29" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="3" t="s">
         <v>463</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="E29" s="5" t="s">
         <v>465</v>
       </c>
-      <c r="F29" s="4" t="s">
+      <c r="F29" s="3" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A30" s="36" t="s">
+    <row r="30" ht="122.4" spans="1:6">
+      <c r="A30" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="B30" s="36" t="s">
+      <c r="B30" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="3" t="s">
         <v>467</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="E30" s="5" t="s">
         <v>469</v>
       </c>
-      <c r="F30" s="4" t="s">
+      <c r="F30" s="3" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A31" s="36" t="s">
+    <row r="31" ht="409.5" spans="1:6">
+      <c r="A31" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="B31" s="36" t="s">
+      <c r="B31" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="3" t="s">
         <v>471</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" s="3" t="s">
         <v>472</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="E31" s="5" t="s">
         <v>473</v>
       </c>
-      <c r="F31" s="4" t="s">
+      <c r="F31" s="3" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A32" s="36" t="s">
+    <row r="32" ht="163.2" spans="1:6">
+      <c r="A32" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="B32" s="36" t="s">
+      <c r="B32" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="3" t="s">
         <v>475</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D32" s="3" t="s">
         <v>476</v>
       </c>
-      <c r="E32" s="6" t="s">
+      <c r="E32" s="5" t="s">
         <v>477</v>
       </c>
-      <c r="F32" s="4" t="s">
+      <c r="F32" s="3" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A33" s="36" t="s">
+    <row r="33" ht="409.5" spans="1:6">
+      <c r="A33" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="B33" s="36" t="s">
+      <c r="B33" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="3" t="s">
         <v>479</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D33" s="3" t="s">
         <v>480</v>
       </c>
-      <c r="E33" s="6" t="s">
+      <c r="E33" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="F33" s="4" t="s">
+      <c r="F33" s="3" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A34" s="36" t="s">
+    <row r="34" ht="102" spans="1:6">
+      <c r="A34" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="B34" s="36" t="s">
+      <c r="B34" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C34" s="61" t="s">
+      <c r="C34" s="6" t="s">
         <v>483</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="D34" s="5" t="s">
         <v>484</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="E34" s="3" t="s">
         <v>485</v>
       </c>
-      <c r="F34" s="4" t="s">
+      <c r="F34" s="3" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A35" s="36" t="s">
+    <row r="35" ht="81.6" spans="1:6">
+      <c r="A35" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="B35" s="36" t="s">
+      <c r="B35" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C35" s="61" t="s">
+      <c r="C35" s="6" t="s">
         <v>487</v>
       </c>
-      <c r="D35" s="6" t="s">
+      <c r="D35" s="5" t="s">
         <v>488</v>
       </c>
-      <c r="E35" s="6" t="s">
+      <c r="E35" s="5" t="s">
         <v>461</v>
       </c>
-      <c r="F35" s="36" t="s">
+      <c r="F35" s="2" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A36" s="67" t="s">
+    <row r="36" ht="20.4" spans="1:6">
+      <c r="A36" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="B36" s="67"/>
-      <c r="C36" s="67"/>
-      <c r="D36" s="67"/>
-      <c r="E36" s="67"/>
-      <c r="F36" s="67"/>
-    </row>
-    <row r="37" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A37" s="68" t="s">
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+    </row>
+    <row r="37" ht="20.4" spans="1:6">
+      <c r="A37" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B37" s="68" t="s">
+      <c r="B37" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C37" s="68" t="s">
+      <c r="C37" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D37" s="68" t="s">
+      <c r="D37" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E37" s="68" t="s">
+      <c r="E37" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F37" s="68" t="s">
+      <c r="F37" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="69" t="s">
+    <row r="38" spans="1:6">
+      <c r="A38" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="B38" s="69" t="s">
+      <c r="B38" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="C38" s="69" t="s">
+      <c r="C38" s="5" t="s">
         <v>490</v>
       </c>
-      <c r="D38" s="69" t="s">
+      <c r="D38" s="5" t="s">
         <v>491</v>
       </c>
-      <c r="E38" s="69" t="s">
+      <c r="E38" s="5" t="s">
         <v>492</v>
       </c>
-      <c r="F38" s="69" t="s">
+      <c r="F38" s="5" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="70"/>
-      <c r="B39" s="70"/>
-      <c r="C39" s="70"/>
-      <c r="D39" s="70"/>
-      <c r="E39" s="70"/>
-      <c r="F39" s="70"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="70"/>
-      <c r="B40" s="70"/>
-      <c r="C40" s="70"/>
-      <c r="D40" s="70"/>
-      <c r="E40" s="70"/>
-      <c r="F40" s="70"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="70"/>
-      <c r="B41" s="70"/>
-      <c r="C41" s="70"/>
-      <c r="D41" s="70"/>
-      <c r="E41" s="70"/>
-      <c r="F41" s="70"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="70"/>
-      <c r="B42" s="70"/>
-      <c r="C42" s="70"/>
-      <c r="D42" s="70"/>
-      <c r="E42" s="70"/>
-      <c r="F42" s="70"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="69" t="s">
+    <row r="39" spans="1:6">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="B43" s="69" t="s">
+      <c r="B43" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="C43" s="69" t="s">
+      <c r="C43" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="D43" s="69" t="s">
+      <c r="D43" s="5" t="s">
         <v>495</v>
       </c>
-      <c r="E43" s="69" t="s">
+      <c r="E43" s="5" t="s">
         <v>496</v>
       </c>
-      <c r="F43" s="69" t="s">
+      <c r="F43" s="5" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="70"/>
-      <c r="B44" s="70"/>
-      <c r="C44" s="70"/>
-      <c r="D44" s="70"/>
-      <c r="E44" s="70"/>
-      <c r="F44" s="70"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="70"/>
-      <c r="B45" s="70"/>
-      <c r="C45" s="70"/>
-      <c r="D45" s="70"/>
-      <c r="E45" s="70"/>
-      <c r="F45" s="70"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="70"/>
-      <c r="B46" s="70"/>
-      <c r="C46" s="70"/>
-      <c r="D46" s="70"/>
-      <c r="E46" s="70"/>
-      <c r="F46" s="70"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="70"/>
-      <c r="B47" s="70"/>
-      <c r="C47" s="70"/>
-      <c r="D47" s="70"/>
-      <c r="E47" s="70"/>
-      <c r="F47" s="70"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="69" t="s">
+    <row r="44" spans="1:6">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="5" t="s">
         <v>393</v>
       </c>
-      <c r="B48" s="69" t="s">
+      <c r="B48" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="C48" s="69" t="s">
+      <c r="C48" s="5" t="s">
         <v>498</v>
       </c>
-      <c r="D48" s="69" t="s">
+      <c r="D48" s="5" t="s">
         <v>499</v>
       </c>
-      <c r="E48" s="69" t="s">
+      <c r="E48" s="5" t="s">
         <v>500</v>
       </c>
-      <c r="F48" s="69" t="s">
+      <c r="F48" s="5" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="70"/>
-      <c r="B49" s="70"/>
-      <c r="C49" s="70"/>
-      <c r="D49" s="70"/>
-      <c r="E49" s="70"/>
-      <c r="F49" s="70"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="70"/>
-      <c r="B50" s="70"/>
-      <c r="C50" s="70"/>
-      <c r="D50" s="70"/>
-      <c r="E50" s="70"/>
-      <c r="F50" s="70"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="70"/>
-      <c r="B51" s="70"/>
-      <c r="C51" s="70"/>
-      <c r="D51" s="70"/>
-      <c r="E51" s="70"/>
-      <c r="F51" s="70"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="70"/>
-      <c r="B52" s="70"/>
-      <c r="C52" s="70"/>
-      <c r="D52" s="70"/>
-      <c r="E52" s="70"/>
-      <c r="F52" s="70"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="69" t="s">
+    <row r="49" spans="1:6">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="B53" s="69" t="s">
+      <c r="B53" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="C53" s="69" t="s">
+      <c r="C53" s="5" t="s">
         <v>502</v>
       </c>
-      <c r="D53" s="69" t="s">
+      <c r="D53" s="5" t="s">
         <v>503</v>
       </c>
-      <c r="E53" s="69" t="s">
+      <c r="E53" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="F53" s="69" t="s">
+      <c r="F53" s="5" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="70"/>
-      <c r="B54" s="70"/>
-      <c r="C54" s="70"/>
-      <c r="D54" s="70"/>
-      <c r="E54" s="70"/>
-      <c r="F54" s="70"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="70"/>
-      <c r="B55" s="70"/>
-      <c r="C55" s="70"/>
-      <c r="D55" s="70"/>
-      <c r="E55" s="70"/>
-      <c r="F55" s="70"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="70"/>
-      <c r="B56" s="70"/>
-      <c r="C56" s="70"/>
-      <c r="D56" s="70"/>
-      <c r="E56" s="70"/>
-      <c r="F56" s="70"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="70"/>
-      <c r="B57" s="70"/>
-      <c r="C57" s="70"/>
-      <c r="D57" s="70"/>
-      <c r="E57" s="70"/>
-      <c r="F57" s="70"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="69" t="s">
+    <row r="54" spans="1:6">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="2"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="2"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="2"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="B58" s="69" t="s">
+      <c r="B58" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="C58" s="69" t="s">
+      <c r="C58" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="D58" s="69" t="s">
+      <c r="D58" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="E58" s="69" t="s">
+      <c r="E58" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="F58" s="69" t="s">
+      <c r="F58" s="5" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="70"/>
-      <c r="B59" s="70"/>
-      <c r="C59" s="70"/>
-      <c r="D59" s="70"/>
-      <c r="E59" s="70"/>
-      <c r="F59" s="70"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="70"/>
-      <c r="B60" s="70"/>
-      <c r="C60" s="70"/>
-      <c r="D60" s="70"/>
-      <c r="E60" s="70"/>
-      <c r="F60" s="70"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="70"/>
-      <c r="B61" s="70"/>
-      <c r="C61" s="70"/>
-      <c r="D61" s="70"/>
-      <c r="E61" s="70"/>
-      <c r="F61" s="70"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="70"/>
-      <c r="B62" s="70"/>
-      <c r="C62" s="70"/>
-      <c r="D62" s="70"/>
-      <c r="E62" s="70"/>
-      <c r="F62" s="70"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="69" t="s">
+    <row r="59" spans="1:6">
+      <c r="A59" s="2"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="2"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="2"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="2"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="5" t="s">
         <v>424</v>
       </c>
-      <c r="B63" s="69" t="s">
+      <c r="B63" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="C63" s="69" t="s">
+      <c r="C63" s="5" t="s">
         <v>510</v>
       </c>
-      <c r="D63" s="69" t="s">
+      <c r="D63" s="5" t="s">
         <v>511</v>
       </c>
-      <c r="E63" s="69" t="s">
+      <c r="E63" s="5" t="s">
         <v>512</v>
       </c>
-      <c r="F63" s="69" t="s">
+      <c r="F63" s="5" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="70"/>
-      <c r="B64" s="70"/>
-      <c r="C64" s="70"/>
-      <c r="D64" s="70"/>
-      <c r="E64" s="70"/>
-      <c r="F64" s="70"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="70"/>
-      <c r="B65" s="70"/>
-      <c r="C65" s="70"/>
-      <c r="D65" s="70"/>
-      <c r="E65" s="70"/>
-      <c r="F65" s="70"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="70"/>
-      <c r="B66" s="70"/>
-      <c r="C66" s="70"/>
-      <c r="D66" s="70"/>
-      <c r="E66" s="70"/>
-      <c r="F66" s="70"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="70"/>
-      <c r="B67" s="70"/>
-      <c r="C67" s="70"/>
-      <c r="D67" s="70"/>
-      <c r="E67" s="70"/>
-      <c r="F67" s="70"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="69" t="s">
+    <row r="64" spans="1:6">
+      <c r="A64" s="2"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="2"/>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="2"/>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="2"/>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="5" t="s">
         <v>383</v>
       </c>
-      <c r="B68" s="69" t="s">
+      <c r="B68" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="C68" s="69" t="s">
+      <c r="C68" s="5" t="s">
         <v>514</v>
       </c>
-      <c r="D68" s="69" t="s">
+      <c r="D68" s="5" t="s">
         <v>515</v>
       </c>
-      <c r="E68" s="69" t="s">
+      <c r="E68" s="5" t="s">
         <v>516</v>
       </c>
-      <c r="F68" s="69" t="s">
+      <c r="F68" s="5" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="70"/>
-      <c r="B69" s="70"/>
-      <c r="C69" s="70"/>
-      <c r="D69" s="70"/>
-      <c r="E69" s="70"/>
-      <c r="F69" s="70"/>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="70"/>
-      <c r="B70" s="70"/>
-      <c r="C70" s="70"/>
-      <c r="D70" s="70"/>
-      <c r="E70" s="70"/>
-      <c r="F70" s="70"/>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="70"/>
-      <c r="B71" s="70"/>
-      <c r="C71" s="70"/>
-      <c r="D71" s="70"/>
-      <c r="E71" s="70"/>
-      <c r="F71" s="70"/>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="70"/>
-      <c r="B72" s="70"/>
-      <c r="C72" s="70"/>
-      <c r="D72" s="70"/>
-      <c r="E72" s="70"/>
-      <c r="F72" s="70"/>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="69" t="s">
+    <row r="69" spans="1:6">
+      <c r="A69" s="2"/>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="2"/>
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="2"/>
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="2"/>
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="B73" s="69" t="s">
+      <c r="B73" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="C73" s="69" t="s">
+      <c r="C73" s="5" t="s">
         <v>518</v>
       </c>
-      <c r="D73" s="69" t="s">
+      <c r="D73" s="5" t="s">
         <v>519</v>
       </c>
-      <c r="E73" s="69" t="s">
+      <c r="E73" s="5" t="s">
         <v>520</v>
       </c>
-      <c r="F73" s="69" t="s">
+      <c r="F73" s="5" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="70"/>
-      <c r="B74" s="70"/>
-      <c r="C74" s="70"/>
-      <c r="D74" s="70"/>
-      <c r="E74" s="70"/>
-      <c r="F74" s="70"/>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="70"/>
-      <c r="B75" s="70"/>
-      <c r="C75" s="70"/>
-      <c r="D75" s="70"/>
-      <c r="E75" s="70"/>
-      <c r="F75" s="70"/>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="70"/>
-      <c r="B76" s="70"/>
-      <c r="C76" s="70"/>
-      <c r="D76" s="70"/>
-      <c r="E76" s="70"/>
-      <c r="F76" s="70"/>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="70"/>
-      <c r="B77" s="70"/>
-      <c r="C77" s="70"/>
-      <c r="D77" s="70"/>
-      <c r="E77" s="70"/>
-      <c r="F77" s="70"/>
-    </row>
-    <row r="78" spans="1:6" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A78" s="36" t="s">
+    <row r="74" spans="1:6">
+      <c r="A74" s="2"/>
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="2"/>
+      <c r="B75" s="2"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="2"/>
+      <c r="B76" s="2"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="2"/>
+      <c r="B77" s="2"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
+    </row>
+    <row r="78" ht="204" spans="1:6">
+      <c r="A78" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="B78" s="36" t="s">
+      <c r="B78" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C78" s="6" t="s">
+      <c r="C78" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="D78" s="6" t="s">
+      <c r="D78" s="5" t="s">
         <v>522</v>
       </c>
-      <c r="E78" s="6" t="s">
+      <c r="E78" s="5" t="s">
         <v>512</v>
       </c>
-      <c r="F78" s="6" t="s">
+      <c r="F78" s="5" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A79" s="36" t="s">
+    <row r="79" ht="122.4" spans="1:6">
+      <c r="A79" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="B79" s="36" t="s">
+      <c r="B79" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C79" s="6" t="s">
+      <c r="C79" s="5" t="s">
         <v>523</v>
       </c>
-      <c r="D79" s="6" t="s">
+      <c r="D79" s="5" t="s">
         <v>524</v>
       </c>
-      <c r="E79" s="6" t="s">
+      <c r="E79" s="5" t="s">
         <v>525</v>
       </c>
-      <c r="F79" s="6" t="s">
+      <c r="F79" s="5" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A80" s="67" t="s">
+    <row r="80" ht="20.4" spans="1:6">
+      <c r="A80" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="B80" s="67"/>
-      <c r="C80" s="67"/>
-      <c r="D80" s="67"/>
-      <c r="E80" s="67"/>
-      <c r="F80" s="67"/>
-    </row>
-    <row r="81" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A81" s="68" t="s">
+      <c r="B80" s="11"/>
+      <c r="C80" s="11"/>
+      <c r="D80" s="11"/>
+      <c r="E80" s="11"/>
+      <c r="F80" s="11"/>
+    </row>
+    <row r="81" ht="20.4" spans="1:6">
+      <c r="A81" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B81" s="68" t="s">
+      <c r="B81" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C81" s="68" t="s">
+      <c r="C81" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D81" s="68"/>
-      <c r="E81" s="68" t="s">
+      <c r="D81" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E81" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F81" s="68" t="s">
+      <c r="F81" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A82" s="36"/>
-      <c r="B82" s="46"/>
-      <c r="C82" s="6"/>
-      <c r="D82" s="36"/>
-      <c r="E82" s="6"/>
-      <c r="F82" s="36"/>
-    </row>
-    <row r="83" spans="1:6" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A83" s="39" t="s">
+    <row r="82" ht="20.4" spans="1:6">
+      <c r="A82" s="2"/>
+      <c r="B82" s="10"/>
+      <c r="C82" s="5"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="5"/>
+      <c r="F82" s="2"/>
+    </row>
+    <row r="83" ht="409.5" spans="1:6">
+      <c r="A83" s="4" t="s">
         <v>378</v>
       </c>
-      <c r="B83" s="36" t="s">
+      <c r="B83" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C83" s="4" t="s">
+      <c r="C83" s="3" t="s">
         <v>526</v>
       </c>
-      <c r="D83" s="6" t="s">
+      <c r="D83" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="E83" s="6" t="s">
+      <c r="E83" s="5" t="s">
         <v>528</v>
       </c>
-      <c r="F83" s="6" t="s">
+      <c r="F83" s="5" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A84" s="39" t="s">
+    <row r="84" ht="102" spans="1:6">
+      <c r="A84" s="4" t="s">
         <v>398</v>
       </c>
-      <c r="B84" s="36" t="s">
+      <c r="B84" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C84" s="4" t="s">
+      <c r="C84" s="3" t="s">
         <v>530</v>
       </c>
-      <c r="D84" s="4" t="s">
+      <c r="D84" s="3" t="s">
         <v>531</v>
       </c>
-      <c r="E84" s="4" t="s">
+      <c r="E84" s="3" t="s">
         <v>532</v>
       </c>
-      <c r="F84" s="4" t="s">
+      <c r="F84" s="3" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A85" s="39" t="s">
+    <row r="85" ht="224.4" spans="1:6">
+      <c r="A85" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="B85" s="36" t="s">
+      <c r="B85" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C85" s="4" t="s">
+      <c r="C85" s="3" t="s">
         <v>534</v>
       </c>
-      <c r="D85" s="4" t="s">
+      <c r="D85" s="3" t="s">
         <v>535</v>
       </c>
-      <c r="E85" s="4" t="s">
+      <c r="E85" s="3" t="s">
         <v>536</v>
       </c>
-      <c r="F85" s="4" t="s">
+      <c r="F85" s="3" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A86" s="39" t="s">
+    <row r="86" ht="285.6" spans="1:6">
+      <c r="A86" s="4" t="s">
         <v>433</v>
       </c>
-      <c r="B86" s="36" t="s">
+      <c r="B86" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C86" s="4" t="s">
+      <c r="C86" s="3" t="s">
         <v>538</v>
       </c>
-      <c r="D86" s="4" t="s">
+      <c r="D86" s="3" t="s">
         <v>539</v>
       </c>
-      <c r="E86" s="4" t="s">
+      <c r="E86" s="3" t="s">
         <v>540</v>
       </c>
-      <c r="F86" s="4" t="s">
+      <c r="F86" s="3" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A87" s="39" t="s">
+    <row r="87" ht="142.8" spans="1:6">
+      <c r="A87" s="4" t="s">
         <v>383</v>
       </c>
-      <c r="B87" s="36" t="s">
+      <c r="B87" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C87" s="4" t="s">
+      <c r="C87" s="3" t="s">
         <v>542</v>
       </c>
-      <c r="D87" s="4" t="s">
+      <c r="D87" s="3" t="s">
         <v>539</v>
       </c>
-      <c r="E87" s="4" t="s">
+      <c r="E87" s="3" t="s">
         <v>543</v>
       </c>
-      <c r="F87" s="4" t="s">
+      <c r="F87" s="3" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A88" s="39" t="s">
+    <row r="88" ht="81.6" spans="1:6">
+      <c r="A88" s="4" t="s">
         <v>424</v>
       </c>
-      <c r="B88" s="36" t="s">
+      <c r="B88" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C88" s="4" t="s">
+      <c r="C88" s="3" t="s">
         <v>545</v>
       </c>
-      <c r="D88" s="6" t="s">
+      <c r="D88" s="5" t="s">
         <v>546</v>
       </c>
-      <c r="E88" s="4" t="s">
+      <c r="E88" s="3" t="s">
         <v>547</v>
       </c>
-      <c r="F88" s="6" t="s">
+      <c r="F88" s="5" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A89" s="39" t="s">
+    <row r="89" ht="102" spans="1:6">
+      <c r="A89" s="4" t="s">
         <v>393</v>
       </c>
-      <c r="B89" s="36" t="s">
+      <c r="B89" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C89" s="4" t="s">
+      <c r="C89" s="3" t="s">
         <v>549</v>
       </c>
-      <c r="D89" s="6" t="s">
+      <c r="D89" s="5" t="s">
         <v>550</v>
       </c>
-      <c r="E89" s="4" t="s">
+      <c r="E89" s="3" t="s">
         <v>551</v>
       </c>
-      <c r="F89" s="6" t="s">
+      <c r="F89" s="5" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A90" s="54" t="s">
+    <row r="90" ht="142.8" spans="1:6">
+      <c r="A90" s="12" t="s">
         <v>388</v>
       </c>
-      <c r="B90" s="36" t="s">
+      <c r="B90" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C90" s="61" t="s">
+      <c r="C90" s="6" t="s">
         <v>553</v>
       </c>
-      <c r="D90" s="6" t="s">
+      <c r="D90" s="5" t="s">
         <v>554</v>
       </c>
-      <c r="E90" s="4" t="s">
+      <c r="E90" s="3" t="s">
         <v>555</v>
       </c>
-      <c r="F90" s="6" t="s">
+      <c r="F90" s="5" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A91" s="54" t="s">
+    <row r="91" ht="102" spans="1:6">
+      <c r="A91" s="12" t="s">
         <v>446</v>
       </c>
-      <c r="B91" s="36" t="s">
+      <c r="B91" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C91" s="61" t="s">
+      <c r="C91" s="6" t="s">
         <v>557</v>
       </c>
-      <c r="D91" s="6" t="s">
+      <c r="D91" s="5" t="s">
         <v>558</v>
       </c>
-      <c r="E91" s="4" t="s">
+      <c r="E91" s="3" t="s">
         <v>559</v>
       </c>
-      <c r="F91" s="36" t="s">
+      <c r="F91" s="2" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="244.8" x14ac:dyDescent="0.25">
-      <c r="A92" s="54" t="s">
+    <row r="92" ht="61.2" spans="1:6">
+      <c r="A92" s="12" t="s">
         <v>419</v>
       </c>
-      <c r="B92" s="36" t="s">
+      <c r="B92" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C92" s="61" t="s">
+      <c r="C92" s="6" t="s">
         <v>561</v>
       </c>
-      <c r="D92" s="6" t="s">
+      <c r="D92" s="5" t="s">
         <v>562</v>
       </c>
-      <c r="E92" s="4" t="s">
+      <c r="E92" s="3" t="s">
         <v>563</v>
       </c>
-      <c r="F92" s="4" t="s">
+      <c r="F92" s="3" t="s">
         <v>564</v>
       </c>
     </row>
+    <row r="93" ht="20.4" spans="1:6">
+      <c r="A93" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="B93" s="11"/>
+      <c r="C93" s="11"/>
+      <c r="D93" s="11"/>
+      <c r="E93" s="11"/>
+      <c r="F93" s="11"/>
+    </row>
+    <row r="94" ht="20.4" spans="1:6">
+      <c r="A94" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" s="5" t="s">
+        <v>565</v>
+      </c>
+      <c r="B95" s="5">
+        <v>9.5</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>567</v>
+      </c>
+      <c r="E95" s="5" t="s">
+        <v>568</v>
+      </c>
+      <c r="F95" s="5" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" s="2"/>
+      <c r="B96" s="2"/>
+      <c r="C96" s="2"/>
+      <c r="D96" s="2"/>
+      <c r="E96" s="2"/>
+      <c r="F96" s="2"/>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" s="2"/>
+      <c r="B97" s="2"/>
+      <c r="C97" s="2"/>
+      <c r="D97" s="2"/>
+      <c r="E97" s="2"/>
+      <c r="F97" s="2"/>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" s="2"/>
+      <c r="B98" s="2"/>
+      <c r="C98" s="2"/>
+      <c r="D98" s="2"/>
+      <c r="E98" s="2"/>
+      <c r="F98" s="2"/>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" s="2"/>
+      <c r="B99" s="2"/>
+      <c r="C99" s="2"/>
+      <c r="D99" s="2"/>
+      <c r="E99" s="2"/>
+      <c r="F99" s="2"/>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" s="2"/>
+      <c r="B100" s="2"/>
+      <c r="C100" s="2"/>
+      <c r="D100" s="2"/>
+      <c r="E100" s="2"/>
+      <c r="F100" s="2"/>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" s="2"/>
+      <c r="B101" s="2"/>
+      <c r="C101" s="2"/>
+      <c r="D101" s="2"/>
+      <c r="E101" s="2"/>
+      <c r="F101" s="2"/>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" s="2"/>
+      <c r="B102" s="2"/>
+      <c r="C102" s="2"/>
+      <c r="D102" s="2"/>
+      <c r="E102" s="2"/>
+      <c r="F102" s="2"/>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" s="2"/>
+      <c r="B103" s="2"/>
+      <c r="C103" s="2"/>
+      <c r="D103" s="2"/>
+      <c r="E103" s="2"/>
+      <c r="F103" s="2"/>
+    </row>
+    <row r="104" ht="265.2" spans="1:6">
+      <c r="A104" s="13" t="s">
+        <v>378</v>
+      </c>
+      <c r="B104" s="13" t="s">
+        <v>570</v>
+      </c>
+      <c r="C104" s="14" t="s">
+        <v>571</v>
+      </c>
+      <c r="D104" s="13" t="s">
+        <v>572</v>
+      </c>
+      <c r="E104" s="13" t="s">
+        <v>573</v>
+      </c>
+      <c r="F104" s="13" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="105" ht="102" spans="1:6">
+      <c r="A105" s="13" t="s">
+        <v>383</v>
+      </c>
+      <c r="B105" s="13" t="s">
+        <v>575</v>
+      </c>
+      <c r="C105" s="13" t="s">
+        <v>576</v>
+      </c>
+      <c r="D105" s="13" t="s">
+        <v>577</v>
+      </c>
+      <c r="E105" s="13" t="s">
+        <v>578</v>
+      </c>
+      <c r="F105" s="13" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="106" ht="409.5" spans="1:11">
+      <c r="A106" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="B106" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="C106" s="14" t="s">
+        <v>518</v>
+      </c>
+      <c r="D106" s="14" t="s">
+        <v>519</v>
+      </c>
+      <c r="E106" s="14" t="s">
+        <v>520</v>
+      </c>
+      <c r="F106" s="14" t="s">
+        <v>521</v>
+      </c>
+      <c r="G106" s="2"/>
+      <c r="H106" s="2"/>
+      <c r="I106" s="2"/>
+      <c r="J106" s="2"/>
+      <c r="K106" s="2"/>
+    </row>
+    <row r="107" ht="142.8" spans="1:6">
+      <c r="A107" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="B107" s="13" t="s">
+        <v>575</v>
+      </c>
+      <c r="C107" s="14" t="s">
+        <v>581</v>
+      </c>
+      <c r="D107" s="5" t="s">
+        <v>582</v>
+      </c>
+      <c r="E107" s="5" t="s">
+        <v>583</v>
+      </c>
+      <c r="F107" s="14" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>575</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>585</v>
+      </c>
+      <c r="D108" s="5" t="s">
+        <v>586</v>
+      </c>
+      <c r="E108" s="5" t="s">
+        <v>587</v>
+      </c>
+      <c r="F108" s="5" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" s="5"/>
+      <c r="B109" s="5"/>
+      <c r="C109" s="5"/>
+      <c r="D109" s="5"/>
+      <c r="E109" s="5"/>
+      <c r="F109" s="5"/>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" s="5"/>
+      <c r="B110" s="5"/>
+      <c r="C110" s="5"/>
+      <c r="D110" s="5"/>
+      <c r="E110" s="5"/>
+      <c r="F110" s="5"/>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" s="5"/>
+      <c r="B111" s="5"/>
+      <c r="C111" s="5"/>
+      <c r="D111" s="5"/>
+      <c r="E111" s="5"/>
+      <c r="F111" s="5"/>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" s="5"/>
+      <c r="B112" s="5"/>
+      <c r="C112" s="5"/>
+      <c r="D112" s="5"/>
+      <c r="E112" s="5"/>
+      <c r="F112" s="5"/>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" s="5"/>
+      <c r="B113" s="5"/>
+      <c r="C113" s="5"/>
+      <c r="D113" s="5"/>
+      <c r="E113" s="5"/>
+      <c r="F113" s="5"/>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" s="5"/>
+      <c r="B114" s="5"/>
+      <c r="C114" s="5"/>
+      <c r="D114" s="5"/>
+      <c r="E114" s="5"/>
+      <c r="F114" s="5"/>
+    </row>
+    <row r="115" ht="20.4" spans="1:9">
+      <c r="A115" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>575</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>589</v>
+      </c>
+      <c r="D115" s="5" t="s">
+        <v>590</v>
+      </c>
+      <c r="E115" s="5" t="s">
+        <v>591</v>
+      </c>
+      <c r="F115" s="5" t="s">
+        <v>592</v>
+      </c>
+      <c r="G115" s="2"/>
+      <c r="H115" s="2"/>
+      <c r="I115" s="2"/>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" s="5"/>
+      <c r="B116" s="5"/>
+      <c r="C116" s="5"/>
+      <c r="D116" s="5"/>
+      <c r="E116" s="5"/>
+      <c r="F116" s="5"/>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" s="5"/>
+      <c r="B117" s="5"/>
+      <c r="C117" s="5"/>
+      <c r="D117" s="5"/>
+      <c r="E117" s="5"/>
+      <c r="F117" s="5"/>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" s="5"/>
+      <c r="B118" s="5"/>
+      <c r="C118" s="5"/>
+      <c r="D118" s="5"/>
+      <c r="E118" s="5"/>
+      <c r="F118" s="5"/>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119" s="5"/>
+      <c r="B119" s="5"/>
+      <c r="C119" s="5"/>
+      <c r="D119" s="5"/>
+      <c r="E119" s="5"/>
+      <c r="F119" s="5"/>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120" s="5"/>
+      <c r="B120" s="5"/>
+      <c r="C120" s="5"/>
+      <c r="D120" s="5"/>
+      <c r="E120" s="5"/>
+      <c r="F120" s="5"/>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121" s="5"/>
+      <c r="B121" s="5"/>
+      <c r="C121" s="5"/>
+      <c r="D121" s="5"/>
+      <c r="E121" s="5"/>
+      <c r="F121" s="5"/>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>575</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>593</v>
+      </c>
+      <c r="D122" s="5" t="s">
+        <v>594</v>
+      </c>
+      <c r="E122" s="5" t="s">
+        <v>595</v>
+      </c>
+      <c r="F122" s="5" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" s="5"/>
+      <c r="B123" s="5"/>
+      <c r="C123" s="5"/>
+      <c r="D123" s="5"/>
+      <c r="E123" s="5"/>
+      <c r="F123" s="5"/>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124" s="5"/>
+      <c r="B124" s="5"/>
+      <c r="C124" s="5"/>
+      <c r="D124" s="5"/>
+      <c r="E124" s="5"/>
+      <c r="F124" s="5"/>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125" s="5"/>
+      <c r="B125" s="5"/>
+      <c r="C125" s="5"/>
+      <c r="D125" s="5"/>
+      <c r="E125" s="5"/>
+      <c r="F125" s="5"/>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126" s="5"/>
+      <c r="B126" s="5"/>
+      <c r="C126" s="5"/>
+      <c r="D126" s="5"/>
+      <c r="E126" s="5"/>
+      <c r="F126" s="5"/>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127" s="5"/>
+      <c r="B127" s="5"/>
+      <c r="C127" s="5"/>
+      <c r="D127" s="5"/>
+      <c r="E127" s="5"/>
+      <c r="F127" s="5"/>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128" s="5"/>
+      <c r="B128" s="5"/>
+      <c r="C128" s="5"/>
+      <c r="D128" s="5"/>
+      <c r="E128" s="5"/>
+      <c r="F128" s="5"/>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>575</v>
+      </c>
+      <c r="C129" s="5" t="s">
+        <v>597</v>
+      </c>
+      <c r="D129" s="5" t="s">
+        <v>598</v>
+      </c>
+      <c r="E129" s="5" t="s">
+        <v>599</v>
+      </c>
+      <c r="F129" s="5" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130" s="5"/>
+      <c r="B130" s="5"/>
+      <c r="C130" s="5"/>
+      <c r="D130" s="5"/>
+      <c r="E130" s="5"/>
+      <c r="F130" s="5"/>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131" s="5"/>
+      <c r="B131" s="5"/>
+      <c r="C131" s="5"/>
+      <c r="D131" s="5"/>
+      <c r="E131" s="5"/>
+      <c r="F131" s="5"/>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132" s="5"/>
+      <c r="B132" s="5"/>
+      <c r="C132" s="5"/>
+      <c r="D132" s="5"/>
+      <c r="E132" s="5"/>
+      <c r="F132" s="5"/>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133" s="5"/>
+      <c r="B133" s="5"/>
+      <c r="C133" s="5"/>
+      <c r="D133" s="5"/>
+      <c r="E133" s="5"/>
+      <c r="F133" s="5"/>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134" s="5"/>
+      <c r="B134" s="5"/>
+      <c r="C134" s="5"/>
+      <c r="D134" s="5"/>
+      <c r="E134" s="5"/>
+      <c r="F134" s="5"/>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135" s="5"/>
+      <c r="B135" s="5"/>
+      <c r="C135" s="5"/>
+      <c r="D135" s="5"/>
+      <c r="E135" s="5"/>
+      <c r="F135" s="5"/>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>575</v>
+      </c>
+      <c r="C136" s="5" t="s">
+        <v>600</v>
+      </c>
+      <c r="D136" s="5" t="s">
+        <v>601</v>
+      </c>
+      <c r="E136" s="5" t="s">
+        <v>602</v>
+      </c>
+      <c r="F136" s="5" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137" s="5"/>
+      <c r="B137" s="5"/>
+      <c r="C137" s="5"/>
+      <c r="D137" s="5"/>
+      <c r="E137" s="5"/>
+      <c r="F137" s="5"/>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138" s="5"/>
+      <c r="B138" s="5"/>
+      <c r="C138" s="5"/>
+      <c r="D138" s="5"/>
+      <c r="E138" s="5"/>
+      <c r="F138" s="5"/>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139" s="5"/>
+      <c r="B139" s="5"/>
+      <c r="C139" s="5"/>
+      <c r="D139" s="5"/>
+      <c r="E139" s="5"/>
+      <c r="F139" s="5"/>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="A140" s="5"/>
+      <c r="B140" s="5"/>
+      <c r="C140" s="5"/>
+      <c r="D140" s="5"/>
+      <c r="E140" s="5"/>
+      <c r="F140" s="5"/>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141" s="5"/>
+      <c r="B141" s="5"/>
+      <c r="C141" s="5"/>
+      <c r="D141" s="5"/>
+      <c r="E141" s="5"/>
+      <c r="F141" s="5"/>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142" s="5"/>
+      <c r="B142" s="5"/>
+      <c r="C142" s="5"/>
+      <c r="D142" s="5"/>
+      <c r="E142" s="5"/>
+      <c r="F142" s="5"/>
+    </row>
   </sheetData>
-  <mergeCells count="48">
+  <mergeCells count="84">
+    <mergeCell ref="A38:A42"/>
+    <mergeCell ref="A43:A47"/>
+    <mergeCell ref="A48:A52"/>
+    <mergeCell ref="A53:A57"/>
+    <mergeCell ref="A58:A62"/>
+    <mergeCell ref="A63:A67"/>
+    <mergeCell ref="A68:A72"/>
     <mergeCell ref="A73:A77"/>
+    <mergeCell ref="A95:A103"/>
+    <mergeCell ref="A108:A114"/>
+    <mergeCell ref="A115:A121"/>
+    <mergeCell ref="A122:A128"/>
+    <mergeCell ref="A129:A135"/>
+    <mergeCell ref="A136:A142"/>
+    <mergeCell ref="B38:B42"/>
+    <mergeCell ref="B43:B47"/>
+    <mergeCell ref="B48:B52"/>
+    <mergeCell ref="B53:B57"/>
+    <mergeCell ref="B58:B62"/>
+    <mergeCell ref="B63:B67"/>
+    <mergeCell ref="B68:B72"/>
     <mergeCell ref="B73:B77"/>
+    <mergeCell ref="B95:B103"/>
+    <mergeCell ref="B108:B114"/>
+    <mergeCell ref="B115:B121"/>
+    <mergeCell ref="B122:B128"/>
+    <mergeCell ref="B129:B135"/>
+    <mergeCell ref="B136:B142"/>
+    <mergeCell ref="C38:C42"/>
+    <mergeCell ref="C43:C47"/>
+    <mergeCell ref="C48:C52"/>
+    <mergeCell ref="C53:C57"/>
+    <mergeCell ref="C58:C62"/>
+    <mergeCell ref="C63:C67"/>
+    <mergeCell ref="C68:C72"/>
     <mergeCell ref="C73:C77"/>
+    <mergeCell ref="C95:C103"/>
+    <mergeCell ref="C108:C114"/>
+    <mergeCell ref="C115:C121"/>
+    <mergeCell ref="C122:C128"/>
+    <mergeCell ref="C129:C135"/>
+    <mergeCell ref="C136:C142"/>
+    <mergeCell ref="D38:D42"/>
+    <mergeCell ref="D43:D47"/>
+    <mergeCell ref="D48:D52"/>
+    <mergeCell ref="D53:D57"/>
+    <mergeCell ref="D58:D62"/>
+    <mergeCell ref="D63:D67"/>
+    <mergeCell ref="D68:D72"/>
     <mergeCell ref="D73:D77"/>
+    <mergeCell ref="D95:D103"/>
+    <mergeCell ref="D108:D114"/>
+    <mergeCell ref="D115:D121"/>
+    <mergeCell ref="D122:D128"/>
+    <mergeCell ref="D129:D135"/>
+    <mergeCell ref="D136:D142"/>
+    <mergeCell ref="E38:E42"/>
+    <mergeCell ref="E43:E47"/>
+    <mergeCell ref="E48:E52"/>
+    <mergeCell ref="E53:E57"/>
+    <mergeCell ref="E58:E62"/>
+    <mergeCell ref="E63:E67"/>
+    <mergeCell ref="E68:E72"/>
     <mergeCell ref="E73:E77"/>
+    <mergeCell ref="E95:E103"/>
+    <mergeCell ref="E108:E114"/>
+    <mergeCell ref="E115:E121"/>
+    <mergeCell ref="E122:E128"/>
+    <mergeCell ref="E129:E135"/>
+    <mergeCell ref="E136:E142"/>
+    <mergeCell ref="F38:F42"/>
+    <mergeCell ref="F43:F47"/>
+    <mergeCell ref="F48:F52"/>
+    <mergeCell ref="F53:F57"/>
+    <mergeCell ref="F58:F62"/>
+    <mergeCell ref="F63:F67"/>
+    <mergeCell ref="F68:F72"/>
     <mergeCell ref="F73:F77"/>
-    <mergeCell ref="A68:A72"/>
-    <mergeCell ref="B68:B72"/>
-    <mergeCell ref="C68:C72"/>
-    <mergeCell ref="D68:D72"/>
-    <mergeCell ref="E68:E72"/>
-    <mergeCell ref="F68:F72"/>
-    <mergeCell ref="A63:A67"/>
-    <mergeCell ref="B63:B67"/>
-    <mergeCell ref="C63:C67"/>
-    <mergeCell ref="D63:D67"/>
-    <mergeCell ref="E63:E67"/>
-    <mergeCell ref="F63:F67"/>
-    <mergeCell ref="A58:A62"/>
-    <mergeCell ref="B58:B62"/>
-    <mergeCell ref="C58:C62"/>
-    <mergeCell ref="D58:D62"/>
-    <mergeCell ref="E58:E62"/>
-    <mergeCell ref="F58:F62"/>
-    <mergeCell ref="A53:A57"/>
-    <mergeCell ref="B53:B57"/>
-    <mergeCell ref="C53:C57"/>
-    <mergeCell ref="D53:D57"/>
-    <mergeCell ref="E53:E57"/>
-    <mergeCell ref="F53:F57"/>
-    <mergeCell ref="A48:A52"/>
-    <mergeCell ref="B48:B52"/>
-    <mergeCell ref="C48:C52"/>
-    <mergeCell ref="D48:D52"/>
-    <mergeCell ref="E48:E52"/>
-    <mergeCell ref="F48:F52"/>
-    <mergeCell ref="A43:A47"/>
-    <mergeCell ref="B43:B47"/>
-    <mergeCell ref="C43:C47"/>
-    <mergeCell ref="D43:D47"/>
-    <mergeCell ref="E43:E47"/>
-    <mergeCell ref="F43:F47"/>
-    <mergeCell ref="A38:A42"/>
-    <mergeCell ref="B38:B42"/>
-    <mergeCell ref="C38:C42"/>
-    <mergeCell ref="D38:D42"/>
-    <mergeCell ref="E38:E42"/>
-    <mergeCell ref="F38:F42"/>
+    <mergeCell ref="F95:F103"/>
+    <mergeCell ref="F108:F114"/>
+    <mergeCell ref="F115:F121"/>
+    <mergeCell ref="F122:F128"/>
+    <mergeCell ref="F129:F135"/>
+    <mergeCell ref="F136:F142"/>
   </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/1601W.xlsx
+++ b/1601W.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="9515" activeTab="2"/>
+    <workbookView windowWidth="22943" windowHeight="9924"/>
   </bookViews>
   <sheets>
     <sheet name="第一小组" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633">
   <si>
     <t>姓名</t>
   </si>
@@ -648,6 +648,134 @@
   </si>
   <si>
     <t>代码不熟悉</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、完成了Django数据库的链接
+2、练习了Django的加法和页面跳转
+</t>
+  </si>
+  <si>
+    <t>Django代码可以运行起来不报错，但是还是不明白怎么跳转页面</t>
+  </si>
+  <si>
+    <t>Django代码运行中因为自己的粗心有报错，不过已解决</t>
+  </si>
+  <si>
+    <t>讲师布置的任务还没有太多思路，明日继续努力</t>
+  </si>
+  <si>
+    <t>1、知识图谱的计划制作
+2、跟组员讨论项目流程
+3、复习爬虫项目</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2、图谱计划未完成
+</t>
+  </si>
+  <si>
+    <t>感觉项目有难度会继续客服</t>
+  </si>
+  <si>
+    <t>1、Django进行运行，完成Django加法
+2、熟练Django页面的跳转
+3、还学习了部分爬虫</t>
+  </si>
+  <si>
+    <t>Django有待加强</t>
+  </si>
+  <si>
+    <t>Django项目报错，因为自己的问题，已解决</t>
+  </si>
+  <si>
+    <t>继续Django战斗</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.wikidataCrawler模块学习
+2.跟组员讨论项目流程
+</t>
+  </si>
+  <si>
+    <t>wikidataCrawler模块关系爬取理解不透彻</t>
+  </si>
+  <si>
+    <t>debug程序运行不熟练</t>
+  </si>
+  <si>
+    <t>使用Debug运行项目</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2018.9.05</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>晚9点15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>分</t>
+    </r>
+  </si>
+  <si>
+    <t>1.学习了集中爬虫的基本结构和框架。熟悉了其运行原理。                      2.修订了我们小组的产品设计书。</t>
+  </si>
+  <si>
+    <t>几种爬虫的技术点还不太清楚。</t>
+  </si>
+  <si>
+    <t>询问老师，了解知识图谱项目框架，运行流程</t>
+  </si>
+  <si>
+    <t>2018.09.05</t>
+  </si>
+  <si>
+    <t>练习neo4j关系管理属性添加</t>
+  </si>
+  <si>
+    <t>对neo4j多方面关联</t>
+  </si>
+  <si>
+    <t>2018.9.5</t>
+  </si>
+  <si>
+    <t>1.知识图谱的基本构建</t>
+  </si>
+  <si>
+    <t>1.了解了知识图谱的基本结构</t>
+  </si>
+  <si>
+    <t>没啥思路</t>
+  </si>
+  <si>
+    <t>把知识图谱的基本框架搭建起来</t>
+  </si>
+  <si>
+    <t>知识图谱</t>
+  </si>
+  <si>
+    <t>认真学习Django</t>
+  </si>
+  <si>
+    <t>基本熟悉流程</t>
   </si>
   <si>
     <t>刘丹清</t>
@@ -2249,9 +2377,6 @@
 3.将维基百科爬虫小模块理解并能口述</t>
   </si>
   <si>
-    <t>2018.09.05</t>
-  </si>
-  <si>
     <t>小组内讨论确定了老师留的项目的需求，并讨论梳理了项目的思路，django已经可以做到基本的增删改查</t>
   </si>
   <si>
@@ -2349,8 +2474,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -2382,13 +2507,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="14"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -2408,8 +2526,76 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2431,23 +2617,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2462,29 +2633,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -2493,7 +2641,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2507,20 +2655,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -2529,17 +2663,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2552,7 +2677,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2585,7 +2710,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2597,151 +2860,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2759,13 +2878,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2779,22 +2892,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2810,15 +2933,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2840,39 +2954,38 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2884,10 +2997,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2896,137 +3009,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3066,60 +3179,54 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3162,15 +3269,15 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3192,7 +3299,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3207,10 +3314,10 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3223,6 +3330,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -3352,7 +3468,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -3633,10 +3749,10 @@
   <sheetPr/>
   <dimension ref="A1:S185"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I4" sqref="I4"/>
+      <selection pane="bottomLeft" activeCell="C101" sqref="C101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.4"/>
@@ -3650,23 +3766,23 @@
     <col min="7" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="31" customFormat="1" spans="1:6">
-      <c r="A1" s="34" t="s">
+    <row r="1" s="29" customFormat="1" spans="1:6">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="F1" s="32" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3691,671 +3807,671 @@
       </c>
     </row>
     <row r="3" ht="94.05" customHeight="1" spans="1:6">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="D3" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="35" t="s">
+      <c r="E3" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="35" t="s">
+      <c r="F3" s="33" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" ht="40.8" spans="1:6">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="36">
+      <c r="B4" s="34">
         <v>43341</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="35" t="s">
+      <c r="D4" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="35" t="s">
+      <c r="E4" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="37" t="s">
+      <c r="F4" s="35" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" ht="40.8" spans="1:6">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="35" t="s">
+      <c r="D5" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="37" t="s">
+      <c r="E5" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="35" t="s">
+      <c r="F5" s="33" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="6" ht="244.8" spans="1:6">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="37" t="s">
+      <c r="D6" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="35" t="s">
+      <c r="E6" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="37" t="s">
+      <c r="F6" s="35" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="7" ht="81" customHeight="1" spans="1:6">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="38" t="s">
+      <c r="C7" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="35" t="s">
+      <c r="D7" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="38" t="s">
+      <c r="E7" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="38" t="s">
+      <c r="F7" s="36" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="8" ht="81.6" spans="1:6">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="36">
+      <c r="B8" s="34">
         <v>43341</v>
       </c>
-      <c r="C8" s="37" t="s">
+      <c r="C8" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="37" t="s">
+      <c r="D8" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="37" t="s">
+      <c r="E8" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="35" t="s">
+      <c r="F8" s="33" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="9" ht="94.95" customHeight="1" spans="1:6">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="37" t="s">
+      <c r="C9" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="35" t="s">
+      <c r="D9" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="E9" s="35" t="s">
+      <c r="E9" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="F9" s="37" t="s">
+      <c r="F9" s="35" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="36">
+      <c r="B10" s="34">
         <v>43341</v>
       </c>
-      <c r="C10" s="35" t="s">
+      <c r="C10" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="D10" s="35" t="s">
+      <c r="D10" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="E10" s="35" t="s">
+      <c r="E10" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="F10" s="35" t="s">
+      <c r="F10" s="33" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="11" ht="204" spans="1:6">
-      <c r="A11" s="37" t="s">
+      <c r="A11" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="B11" s="39">
+      <c r="B11" s="37">
         <v>43341</v>
       </c>
-      <c r="C11" s="37" t="s">
+      <c r="C11" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="D11" s="37" t="s">
+      <c r="D11" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="E11" s="37" t="s">
+      <c r="E11" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="F11" s="37" t="s">
+      <c r="F11" s="35" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="40"/>
-      <c r="B12" s="40"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
+      <c r="A12" s="38"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="41"/>
-      <c r="B13" s="40"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
+      <c r="A13" s="39"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="41"/>
-      <c r="B14" s="40"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
+      <c r="A14" s="39"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="41"/>
-      <c r="B15" s="40"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
+      <c r="A15" s="39"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="41"/>
-      <c r="B16" s="40"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
+      <c r="A16" s="39"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
     </row>
     <row r="17" ht="57" customHeight="1" spans="1:6">
-      <c r="A17" s="41"/>
-      <c r="B17" s="40"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
+      <c r="A17" s="39"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="40"/>
-      <c r="B18" s="40"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
+      <c r="A18" s="38"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="40"/>
-      <c r="B19" s="40"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="40"/>
-    </row>
-    <row r="20" s="32" customFormat="1" spans="1:6">
-      <c r="A20" s="42" t="s">
+      <c r="A19" s="38"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+    </row>
+    <row r="20" s="30" customFormat="1" spans="1:6">
+      <c r="A20" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="B20" s="43"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
     </row>
     <row r="21" ht="81.6" spans="1:6">
-      <c r="A21" s="37" t="s">
+      <c r="A21" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="39">
+      <c r="B21" s="37">
         <v>43342</v>
       </c>
-      <c r="C21" s="37" t="s">
+      <c r="C21" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="D21" s="37" t="s">
+      <c r="D21" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="E21" s="37" t="s">
+      <c r="E21" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="F21" s="37" t="s">
+      <c r="F21" s="35" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="22" ht="102" spans="1:6">
-      <c r="A22" s="37" t="s">
+      <c r="A22" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="B22" s="39">
+      <c r="B22" s="37">
         <v>43342</v>
       </c>
-      <c r="C22" s="37" t="s">
+      <c r="C22" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="D22" s="37" t="s">
+      <c r="D22" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="E22" s="37" t="s">
+      <c r="E22" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="F22" s="37" t="s">
+      <c r="F22" s="35" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="23" ht="40.8" spans="1:6">
-      <c r="A23" s="35" t="s">
+      <c r="A23" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="36">
+      <c r="B23" s="34">
         <v>43341</v>
       </c>
-      <c r="C23" s="37" t="s">
+      <c r="C23" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="D23" s="35" t="s">
+      <c r="D23" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="E23" s="35" t="s">
+      <c r="E23" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="F23" s="35" t="s">
+      <c r="F23" s="33" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="24" ht="61.2" spans="1:6">
-      <c r="A24" s="35" t="s">
+      <c r="A24" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="35" t="s">
+      <c r="B24" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="C24" s="37" t="s">
+      <c r="C24" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="D24" s="44" t="s">
+      <c r="D24" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="E24" s="37" t="s">
+      <c r="E24" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="F24" s="35" t="s">
+      <c r="F24" s="33" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="25" ht="102" spans="1:6">
-      <c r="A25" s="35" t="s">
+      <c r="A25" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="35" t="s">
+      <c r="B25" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="C25" s="37" t="s">
+      <c r="C25" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="D25" s="37" t="s">
+      <c r="D25" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="E25" s="35" t="s">
+      <c r="E25" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="F25" s="37" t="s">
+      <c r="F25" s="35" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="26" ht="81.6" spans="1:6">
-      <c r="A26" s="35" t="s">
+      <c r="A26" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="B26" s="36">
+      <c r="B26" s="34">
         <v>43342</v>
       </c>
-      <c r="C26" s="35" t="s">
+      <c r="C26" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="D26" s="35" t="s">
+      <c r="D26" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="E26" s="37" t="s">
+      <c r="E26" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="F26" s="35" t="s">
+      <c r="F26" s="33" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="27" ht="40.8" spans="1:7">
-      <c r="A27" s="35" t="s">
+      <c r="A27" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="B27" s="36" t="s">
+      <c r="B27" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="C27" s="35" t="s">
+      <c r="C27" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="D27" s="35" t="s">
+      <c r="D27" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="E27" s="37" t="s">
+      <c r="E27" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="F27" s="35" t="s">
+      <c r="F27" s="33" t="s">
         <v>88</v>
       </c>
       <c r="G27"/>
     </row>
     <row r="28" ht="55.05" customHeight="1" spans="1:6">
-      <c r="A28" s="35" t="s">
+      <c r="A28" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="B28" s="35" t="s">
+      <c r="B28" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="C28" s="37" t="s">
+      <c r="C28" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="D28" s="35" t="s">
+      <c r="D28" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="E28" s="35" t="s">
+      <c r="E28" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="F28" s="35" t="s">
+      <c r="F28" s="33" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="29" ht="142.8" spans="1:6">
-      <c r="A29" s="35" t="s">
+      <c r="A29" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="37" t="s">
+      <c r="B29" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="C29" s="38" t="s">
+      <c r="C29" s="36" t="s">
         <v>95</v>
       </c>
-      <c r="D29" s="35" t="s">
+      <c r="D29" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="E29" s="38" t="s">
+      <c r="E29" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="F29" s="38" t="s">
+      <c r="F29" s="36" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="30" ht="25.95" customHeight="1" spans="1:6">
-      <c r="A30" s="40"/>
-      <c r="B30" s="40"/>
-      <c r="C30" s="40"/>
-      <c r="D30" s="40"/>
-      <c r="E30" s="40"/>
-      <c r="F30" s="40"/>
+      <c r="A30" s="38"/>
+      <c r="B30" s="38"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="38"/>
     </row>
     <row r="31" ht="42" customHeight="1" spans="1:6">
-      <c r="A31" s="40"/>
-      <c r="B31" s="40"/>
-      <c r="C31" s="40"/>
-      <c r="D31" s="40"/>
-      <c r="E31" s="40"/>
-      <c r="F31" s="40"/>
+      <c r="A31" s="38"/>
+      <c r="B31" s="38"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="38"/>
     </row>
     <row r="32" ht="30" customHeight="1" spans="1:6">
-      <c r="A32" s="45"/>
-      <c r="B32" s="40"/>
-      <c r="C32" s="45"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="45"/>
+      <c r="A32" s="43"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="43"/>
     </row>
     <row r="33" ht="22.95" customHeight="1" spans="1:6">
-      <c r="A33" s="45"/>
-      <c r="B33" s="40"/>
-      <c r="C33" s="45"/>
-      <c r="D33" s="45"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="45"/>
+      <c r="A33" s="43"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="43"/>
     </row>
     <row r="34" ht="30" customHeight="1" spans="1:6">
-      <c r="A34" s="45"/>
-      <c r="B34" s="40"/>
-      <c r="C34" s="45"/>
-      <c r="D34" s="45"/>
-      <c r="E34" s="45"/>
-      <c r="F34" s="45"/>
+      <c r="A34" s="43"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="43"/>
+      <c r="F34" s="43"/>
     </row>
     <row r="35" ht="24" customHeight="1" spans="1:6">
-      <c r="A35" s="45"/>
-      <c r="B35" s="40"/>
-      <c r="C35" s="46"/>
-      <c r="D35" s="45"/>
-      <c r="E35" s="46"/>
-      <c r="F35" s="46"/>
+      <c r="A35" s="43"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="44"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="44"/>
+      <c r="F35" s="44"/>
     </row>
     <row r="36" ht="28.95" customHeight="1" spans="1:6">
-      <c r="A36" s="45"/>
-      <c r="B36" s="40"/>
-      <c r="C36" s="46"/>
-      <c r="D36" s="45"/>
-      <c r="E36" s="47"/>
-      <c r="F36" s="45"/>
+      <c r="A36" s="43"/>
+      <c r="B36" s="38"/>
+      <c r="C36" s="44"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="45"/>
+      <c r="F36" s="43"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="45"/>
-      <c r="B37" s="40"/>
-      <c r="C37" s="45"/>
-      <c r="D37" s="45"/>
-      <c r="E37" s="45"/>
-      <c r="F37" s="45"/>
-    </row>
-    <row r="38" s="33" customFormat="1" spans="1:6">
-      <c r="A38" s="42" t="s">
+      <c r="A37" s="43"/>
+      <c r="B37" s="38"/>
+      <c r="C37" s="43"/>
+      <c r="D37" s="43"/>
+      <c r="E37" s="43"/>
+      <c r="F37" s="43"/>
+    </row>
+    <row r="38" s="31" customFormat="1" spans="1:6">
+      <c r="A38" s="40" t="s">
         <v>98</v>
       </c>
-      <c r="B38" s="42"/>
-      <c r="C38" s="42"/>
-      <c r="D38" s="42"/>
-      <c r="E38" s="42"/>
-      <c r="F38" s="42"/>
+      <c r="B38" s="40"/>
+      <c r="C38" s="40"/>
+      <c r="D38" s="40"/>
+      <c r="E38" s="40"/>
+      <c r="F38" s="40"/>
     </row>
     <row r="39" ht="40.8" spans="1:6">
-      <c r="A39" s="48" t="s">
+      <c r="A39" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="B39" s="49">
+      <c r="B39" s="47">
         <v>43342</v>
       </c>
-      <c r="C39" s="50" t="s">
+      <c r="C39" s="48" t="s">
         <v>99</v>
       </c>
-      <c r="D39" s="48" t="s">
+      <c r="D39" s="46" t="s">
         <v>100</v>
       </c>
-      <c r="E39" s="48" t="s">
+      <c r="E39" s="46" t="s">
         <v>101</v>
       </c>
-      <c r="F39" s="48" t="s">
+      <c r="F39" s="46" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="40" ht="61.2" spans="1:6">
-      <c r="A40" s="50" t="s">
+      <c r="A40" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="B40" s="51">
+      <c r="B40" s="49">
         <v>43343</v>
       </c>
-      <c r="C40" s="50" t="s">
+      <c r="C40" s="48" t="s">
         <v>103</v>
       </c>
-      <c r="D40" s="50" t="s">
+      <c r="D40" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="E40" s="50" t="s">
+      <c r="E40" s="48" t="s">
         <v>105</v>
       </c>
-      <c r="F40" s="50" t="s">
+      <c r="F40" s="48" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="41" ht="102" spans="1:6">
-      <c r="A41" s="48" t="s">
+      <c r="A41" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="B41" s="48" t="s">
+      <c r="B41" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="C41" s="50" t="s">
+      <c r="C41" s="48" t="s">
         <v>108</v>
       </c>
-      <c r="D41" s="50" t="s">
+      <c r="D41" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="E41" s="48" t="s">
+      <c r="E41" s="46" t="s">
         <v>110</v>
       </c>
-      <c r="F41" s="50" t="s">
+      <c r="F41" s="48" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="42" ht="81.6" spans="1:6">
-      <c r="A42" s="48" t="s">
+      <c r="A42" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="B42" s="49">
+      <c r="B42" s="47">
         <v>43343</v>
       </c>
-      <c r="C42" s="50" t="s">
+      <c r="C42" s="48" t="s">
         <v>111</v>
       </c>
-      <c r="D42" s="50" t="s">
+      <c r="D42" s="48" t="s">
         <v>112</v>
       </c>
-      <c r="E42" s="50" t="s">
+      <c r="E42" s="48" t="s">
         <v>113</v>
       </c>
-      <c r="F42" s="50" t="s">
+      <c r="F42" s="48" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="43" ht="45" customHeight="1" spans="1:6">
-      <c r="A43" s="48" t="s">
+      <c r="A43" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="B43" s="48" t="s">
+      <c r="B43" s="46" t="s">
         <v>89</v>
       </c>
-      <c r="C43" s="50" t="s">
+      <c r="C43" s="48" t="s">
         <v>90</v>
       </c>
-      <c r="D43" s="48" t="s">
+      <c r="D43" s="46" t="s">
         <v>91</v>
       </c>
-      <c r="E43" s="48" t="s">
+      <c r="E43" s="46" t="s">
         <v>92</v>
       </c>
-      <c r="F43" s="48" t="s">
+      <c r="F43" s="46" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="44" ht="28.95" customHeight="1" spans="1:6">
-      <c r="A44" s="48" t="s">
+      <c r="A44" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="B44" s="49">
+      <c r="B44" s="47">
         <v>43342</v>
       </c>
-      <c r="C44" s="48" t="s">
+      <c r="C44" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="D44" s="48" t="s">
+      <c r="D44" s="46" t="s">
         <v>83</v>
       </c>
-      <c r="E44" s="50" t="s">
+      <c r="E44" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="F44" s="48" t="s">
+      <c r="F44" s="46" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="45" ht="49.05" customHeight="1" spans="1:6">
-      <c r="A45" s="48" t="s">
+      <c r="A45" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="B45" s="50" t="s">
+      <c r="B45" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="C45" s="52" t="s">
+      <c r="C45" s="50" t="s">
         <v>95</v>
       </c>
-      <c r="D45" s="48" t="s">
+      <c r="D45" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="E45" s="52" t="s">
+      <c r="E45" s="50" t="s">
         <v>96</v>
       </c>
-      <c r="F45" s="52" t="s">
+      <c r="F45" s="50" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="46" ht="67.05" customHeight="1" spans="1:19">
-      <c r="A46" s="48" t="s">
+      <c r="A46" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="B46" s="48" t="s">
+      <c r="B46" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="C46" s="50" t="s">
+      <c r="C46" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="D46" s="53" t="s">
+      <c r="D46" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="E46" s="50" t="s">
+      <c r="E46" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="F46" s="48" t="s">
+      <c r="F46" s="46" t="s">
         <v>77</v>
       </c>
       <c r="G46"/>
@@ -4373,326 +4489,326 @@
       <c r="S46"/>
     </row>
     <row r="47" ht="46.05" customHeight="1" spans="1:6">
-      <c r="A47" s="48" t="s">
+      <c r="A47" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="B47" s="49" t="s">
+      <c r="B47" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="C47" s="48" t="s">
+      <c r="C47" s="46" t="s">
         <v>115</v>
       </c>
-      <c r="D47" s="48" t="s">
+      <c r="D47" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="E47" s="50" t="s">
+      <c r="E47" s="48" t="s">
         <v>87</v>
       </c>
-      <c r="F47" s="48" t="s">
+      <c r="F47" s="46" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="48" ht="25.05" customHeight="1" spans="1:6">
-      <c r="A48" s="54"/>
-      <c r="B48" s="54"/>
-      <c r="C48" s="54"/>
-      <c r="D48" s="54"/>
-      <c r="E48" s="54"/>
-      <c r="F48" s="54"/>
+      <c r="A48" s="52"/>
+      <c r="B48" s="52"/>
+      <c r="C48" s="52"/>
+      <c r="D48" s="52"/>
+      <c r="E48" s="52"/>
+      <c r="F48" s="52"/>
     </row>
     <row r="49" ht="33" customHeight="1" spans="1:6">
-      <c r="A49" s="55"/>
-      <c r="B49" s="54"/>
-      <c r="C49" s="55"/>
-      <c r="D49" s="55"/>
-      <c r="E49" s="55"/>
-      <c r="F49" s="54"/>
+      <c r="A49" s="53"/>
+      <c r="B49" s="52"/>
+      <c r="C49" s="53"/>
+      <c r="D49" s="53"/>
+      <c r="E49" s="53"/>
+      <c r="F49" s="52"/>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="54"/>
-      <c r="B50" s="54"/>
-      <c r="C50" s="54"/>
-      <c r="D50" s="54"/>
-      <c r="E50" s="54"/>
-      <c r="F50" s="54"/>
+      <c r="A50" s="52"/>
+      <c r="B50" s="52"/>
+      <c r="C50" s="52"/>
+      <c r="D50" s="52"/>
+      <c r="E50" s="52"/>
+      <c r="F50" s="52"/>
     </row>
     <row r="51" ht="45" customHeight="1" spans="1:6">
-      <c r="A51" s="54"/>
-      <c r="B51" s="54"/>
-      <c r="C51" s="54"/>
-      <c r="D51" s="56"/>
-      <c r="E51" s="54"/>
-      <c r="F51" s="54"/>
+      <c r="A51" s="52"/>
+      <c r="B51" s="52"/>
+      <c r="C51" s="52"/>
+      <c r="D51" s="54"/>
+      <c r="E51" s="52"/>
+      <c r="F51" s="52"/>
     </row>
     <row r="52" ht="28.95" customHeight="1" spans="1:6">
-      <c r="A52" s="54"/>
-      <c r="B52" s="54"/>
-      <c r="C52" s="54"/>
-      <c r="D52" s="54"/>
-      <c r="E52" s="54"/>
-      <c r="F52" s="54"/>
+      <c r="A52" s="52"/>
+      <c r="B52" s="52"/>
+      <c r="C52" s="52"/>
+      <c r="D52" s="52"/>
+      <c r="E52" s="52"/>
+      <c r="F52" s="52"/>
     </row>
     <row r="53" ht="25.95" customHeight="1" spans="1:6">
-      <c r="A53" s="54"/>
-      <c r="B53" s="54"/>
-      <c r="C53" s="54"/>
-      <c r="D53" s="54"/>
-      <c r="E53" s="54"/>
-      <c r="F53" s="54"/>
+      <c r="A53" s="52"/>
+      <c r="B53" s="52"/>
+      <c r="C53" s="52"/>
+      <c r="D53" s="52"/>
+      <c r="E53" s="52"/>
+      <c r="F53" s="52"/>
     </row>
     <row r="54" ht="28.95" customHeight="1" spans="1:6">
-      <c r="A54" s="54"/>
-      <c r="B54" s="54"/>
-      <c r="C54" s="54"/>
-      <c r="D54" s="54"/>
-      <c r="E54" s="54"/>
-      <c r="F54" s="54"/>
+      <c r="A54" s="52"/>
+      <c r="B54" s="52"/>
+      <c r="C54" s="52"/>
+      <c r="D54" s="52"/>
+      <c r="E54" s="52"/>
+      <c r="F54" s="52"/>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="54"/>
-      <c r="B55" s="54"/>
-      <c r="C55" s="54"/>
-      <c r="D55" s="54"/>
-      <c r="E55" s="54"/>
-      <c r="F55" s="54"/>
-    </row>
-    <row r="56" s="33" customFormat="1" spans="1:1">
-      <c r="A56" s="33" t="s">
+      <c r="A55" s="52"/>
+      <c r="B55" s="52"/>
+      <c r="C55" s="52"/>
+      <c r="D55" s="52"/>
+      <c r="E55" s="52"/>
+      <c r="F55" s="52"/>
+    </row>
+    <row r="56" s="31" customFormat="1" spans="1:1">
+      <c r="A56" s="31" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="57" ht="102" spans="1:6">
-      <c r="A57" s="48" t="s">
+      <c r="A57" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="B57" s="57" t="s">
+      <c r="B57" s="55" t="s">
         <v>117</v>
       </c>
-      <c r="C57" s="57" t="s">
+      <c r="C57" s="55" t="s">
         <v>118</v>
       </c>
-      <c r="D57" s="57" t="s">
+      <c r="D57" s="55" t="s">
         <v>119</v>
       </c>
-      <c r="E57" s="57" t="s">
+      <c r="E57" s="55" t="s">
         <v>120</v>
       </c>
-      <c r="F57" s="57" t="s">
+      <c r="F57" s="55" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="58" ht="81.6" spans="1:6">
-      <c r="A58" s="48" t="s">
+      <c r="A58" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="B58" s="58">
+      <c r="B58" s="56">
         <v>43346</v>
       </c>
-      <c r="C58" s="54" t="s">
+      <c r="C58" s="52" t="s">
         <v>122</v>
       </c>
-      <c r="D58" s="54" t="s">
+      <c r="D58" s="52" t="s">
         <v>123</v>
       </c>
-      <c r="E58" s="54" t="s">
+      <c r="E58" s="52" t="s">
         <v>124</v>
       </c>
-      <c r="F58" s="54" t="s">
+      <c r="F58" s="52" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="59" ht="61.2" spans="1:6">
-      <c r="A59" s="48" t="s">
+      <c r="A59" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="B59" s="50" t="s">
+      <c r="B59" s="48" t="s">
         <v>126</v>
       </c>
-      <c r="C59" s="59" t="s">
+      <c r="C59" s="57" t="s">
         <v>127</v>
       </c>
-      <c r="D59" s="50" t="s">
+      <c r="D59" s="48" t="s">
         <v>128</v>
       </c>
-      <c r="E59" s="57" t="s">
+      <c r="E59" s="55" t="s">
         <v>129</v>
       </c>
-      <c r="F59" s="59" t="s">
+      <c r="F59" s="57" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="60" ht="102" spans="1:6">
-      <c r="A60" s="48" t="s">
+      <c r="A60" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="B60" s="51">
+      <c r="B60" s="49">
         <v>43346</v>
       </c>
-      <c r="C60" s="50" t="s">
+      <c r="C60" s="48" t="s">
         <v>131</v>
       </c>
-      <c r="D60" s="50" t="s">
+      <c r="D60" s="48" t="s">
         <v>132</v>
       </c>
-      <c r="E60" s="50" t="s">
+      <c r="E60" s="48" t="s">
         <v>133</v>
       </c>
-      <c r="F60" s="50" t="s">
+      <c r="F60" s="48" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="61" ht="34.8" spans="1:6">
-      <c r="A61" s="60" t="s">
+      <c r="A61" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="B61" s="61" t="s">
+      <c r="B61" s="59" t="s">
         <v>117</v>
       </c>
-      <c r="C61" s="55" t="s">
+      <c r="C61" s="53" t="s">
         <v>135</v>
       </c>
-      <c r="D61" s="61" t="s">
+      <c r="D61" s="59" t="s">
         <v>136</v>
       </c>
-      <c r="E61" s="61" t="s">
+      <c r="E61" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="F61" s="61" t="s">
+      <c r="F61" s="59" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="62" ht="61.2" spans="1:6">
-      <c r="A62" s="48" t="s">
+      <c r="A62" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="B62" s="54" t="s">
+      <c r="B62" s="52" t="s">
         <v>138</v>
       </c>
-      <c r="C62" s="54" t="s">
+      <c r="C62" s="52" t="s">
         <v>139</v>
       </c>
-      <c r="D62" s="50" t="s">
+      <c r="D62" s="48" t="s">
         <v>140</v>
       </c>
-      <c r="E62" s="50" t="s">
+      <c r="E62" s="48" t="s">
         <v>141</v>
       </c>
-      <c r="F62" s="50" t="s">
+      <c r="F62" s="48" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="63" ht="61.2" spans="1:6">
-      <c r="A63" s="48" t="s">
+      <c r="A63" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="B63" s="58">
+      <c r="B63" s="56">
         <v>43346</v>
       </c>
-      <c r="C63" s="54" t="s">
+      <c r="C63" s="52" t="s">
         <v>143</v>
       </c>
-      <c r="D63" s="50" t="s">
+      <c r="D63" s="48" t="s">
         <v>144</v>
       </c>
-      <c r="E63" s="50" t="s">
+      <c r="E63" s="48" t="s">
         <v>145</v>
       </c>
-      <c r="F63" s="50" t="s">
+      <c r="F63" s="48" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="64" customFormat="1" ht="33" customHeight="1" spans="1:6">
-      <c r="A64" s="48" t="s">
+      <c r="A64" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="B64" s="49">
+      <c r="B64" s="47">
         <v>43346</v>
       </c>
-      <c r="C64" s="48" t="s">
+      <c r="C64" s="46" t="s">
         <v>147</v>
       </c>
-      <c r="D64" s="48" t="s">
+      <c r="D64" s="46" t="s">
         <v>148</v>
       </c>
-      <c r="E64" s="50" t="s">
+      <c r="E64" s="48" t="s">
         <v>149</v>
       </c>
-      <c r="F64" s="48" t="s">
+      <c r="F64" s="46" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="65" ht="27" customHeight="1" spans="1:6">
-      <c r="A65" s="54" t="s">
+      <c r="A65" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="B65" s="58">
+      <c r="B65" s="56">
         <v>43346</v>
       </c>
-      <c r="C65" s="54" t="s">
+      <c r="C65" s="52" t="s">
         <v>150</v>
       </c>
-      <c r="D65" s="62"/>
-      <c r="E65" s="54"/>
-      <c r="F65" s="54"/>
+      <c r="D65" s="60"/>
+      <c r="E65" s="52"/>
+      <c r="F65" s="52"/>
     </row>
     <row r="66" ht="33" customHeight="1" spans="1:6">
-      <c r="A66" s="54"/>
-      <c r="B66" s="54"/>
-      <c r="C66" s="54"/>
-      <c r="D66" s="54"/>
-      <c r="E66" s="54"/>
-      <c r="F66" s="54"/>
+      <c r="A66" s="52"/>
+      <c r="B66" s="52"/>
+      <c r="C66" s="52"/>
+      <c r="D66" s="52"/>
+      <c r="E66" s="52"/>
+      <c r="F66" s="52"/>
     </row>
     <row r="67" ht="30" customHeight="1" spans="1:6">
-      <c r="A67" s="54"/>
-      <c r="B67" s="54"/>
-      <c r="C67" s="54"/>
-      <c r="D67" s="54"/>
-      <c r="E67" s="54"/>
-      <c r="F67" s="54"/>
+      <c r="A67" s="52"/>
+      <c r="B67" s="52"/>
+      <c r="C67" s="52"/>
+      <c r="D67" s="52"/>
+      <c r="E67" s="52"/>
+      <c r="F67" s="52"/>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="54"/>
-      <c r="B68" s="54"/>
-      <c r="C68" s="54"/>
-      <c r="D68" s="54"/>
-      <c r="E68" s="54"/>
-      <c r="F68" s="54"/>
+      <c r="A68" s="52"/>
+      <c r="B68" s="52"/>
+      <c r="C68" s="52"/>
+      <c r="D68" s="52"/>
+      <c r="E68" s="52"/>
+      <c r="F68" s="52"/>
     </row>
     <row r="69" spans="1:6">
-      <c r="A69" s="54"/>
-      <c r="B69" s="54"/>
-      <c r="C69" s="54"/>
-      <c r="D69" s="54"/>
-      <c r="E69" s="54"/>
-      <c r="F69" s="54"/>
+      <c r="A69" s="52"/>
+      <c r="B69" s="52"/>
+      <c r="C69" s="52"/>
+      <c r="D69" s="52"/>
+      <c r="E69" s="52"/>
+      <c r="F69" s="52"/>
     </row>
     <row r="70" ht="22.95" customHeight="1" spans="1:6">
-      <c r="A70" s="54"/>
-      <c r="B70" s="54"/>
-      <c r="C70" s="54"/>
-      <c r="D70" s="54"/>
-      <c r="E70" s="54"/>
-      <c r="F70" s="54"/>
+      <c r="A70" s="52"/>
+      <c r="B70" s="52"/>
+      <c r="C70" s="52"/>
+      <c r="D70" s="52"/>
+      <c r="E70" s="52"/>
+      <c r="F70" s="52"/>
     </row>
     <row r="71" ht="33" customHeight="1" spans="1:6">
-      <c r="A71" s="54"/>
-      <c r="B71" s="54"/>
-      <c r="C71" s="54"/>
-      <c r="D71" s="54"/>
-      <c r="E71" s="54"/>
-      <c r="F71" s="54"/>
+      <c r="A71" s="52"/>
+      <c r="B71" s="52"/>
+      <c r="C71" s="52"/>
+      <c r="D71" s="52"/>
+      <c r="E71" s="52"/>
+      <c r="F71" s="52"/>
     </row>
     <row r="72" spans="1:6">
-      <c r="A72" s="54"/>
-      <c r="B72" s="54"/>
-      <c r="C72" s="54"/>
-      <c r="D72" s="54"/>
-      <c r="E72" s="54"/>
-      <c r="F72" s="54"/>
-    </row>
-    <row r="73" s="33" customFormat="1" spans="1:1">
-      <c r="A73" s="33" t="s">
+      <c r="A72" s="52"/>
+      <c r="B72" s="52"/>
+      <c r="C72" s="52"/>
+      <c r="D72" s="52"/>
+      <c r="E72" s="52"/>
+      <c r="F72" s="52"/>
+    </row>
+    <row r="73" s="31" customFormat="1" spans="1:1">
+      <c r="A73" s="31" t="s">
         <v>98</v>
       </c>
     </row>
@@ -4720,7 +4836,7 @@
       <c r="A75" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B75" s="63">
+      <c r="B75" s="61">
         <v>43347</v>
       </c>
       <c r="C75" s="5" t="s">
@@ -4760,7 +4876,7 @@
       <c r="A77" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B77" s="18">
+      <c r="B77" s="16">
         <v>43347</v>
       </c>
       <c r="C77" s="5" t="s">
@@ -4800,7 +4916,7 @@
       <c r="A79" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B79" s="18">
+      <c r="B79" s="16">
         <v>43347</v>
       </c>
       <c r="C79" s="5" t="s">
@@ -4817,10 +4933,10 @@
       </c>
     </row>
     <row r="80" ht="28.8" spans="1:6">
-      <c r="A80" s="64" t="s">
+      <c r="A80" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="B80" s="64" t="s">
+      <c r="B80" s="62" t="s">
         <v>151</v>
       </c>
       <c r="C80" s="4" t="s">
@@ -4829,10 +4945,10 @@
       <c r="D80" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="E80" s="65" t="s">
+      <c r="E80" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="F80" s="64" t="s">
+      <c r="F80" s="62" t="s">
         <v>179</v>
       </c>
     </row>
@@ -4840,7 +4956,7 @@
       <c r="A81" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B81" s="18">
+      <c r="B81" s="16">
         <v>43347</v>
       </c>
       <c r="C81" s="5" t="s">
@@ -4857,9 +4973,15 @@
       </c>
     </row>
     <row r="82" ht="28.05" customHeight="1" spans="1:6">
-      <c r="A82" s="5"/>
-      <c r="B82" s="5"/>
-      <c r="C82" s="5"/>
+      <c r="A82" s="64" t="s">
+        <v>12</v>
+      </c>
+      <c r="B82" s="65">
+        <v>43346</v>
+      </c>
+      <c r="C82" s="64" t="s">
+        <v>150</v>
+      </c>
       <c r="D82" s="5"/>
       <c r="E82" s="5"/>
       <c r="F82" s="5"/>
@@ -4928,82 +5050,184 @@
       <c r="E90" s="5"/>
       <c r="F90" s="5"/>
     </row>
-    <row r="91" s="33" customFormat="1" spans="1:6">
-      <c r="A91" s="42"/>
-      <c r="B91" s="42"/>
-      <c r="C91" s="42"/>
-      <c r="D91" s="42"/>
-      <c r="E91" s="42"/>
-      <c r="F91" s="42"/>
-    </row>
-    <row r="92" spans="1:6">
-      <c r="A92" s="5"/>
-      <c r="B92" s="5"/>
-      <c r="C92" s="5"/>
-      <c r="D92" s="5"/>
-      <c r="E92" s="5"/>
-      <c r="F92" s="5"/>
+    <row r="91" s="31" customFormat="1" spans="1:6">
+      <c r="A91" s="40"/>
+      <c r="B91" s="40"/>
+      <c r="C91" s="40"/>
+      <c r="D91" s="40"/>
+      <c r="E91" s="40"/>
+      <c r="F91" s="40"/>
+    </row>
+    <row r="92" ht="102" spans="1:6">
+      <c r="A92" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B92" s="61">
+        <v>43348</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="E92" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="F92" s="5" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="93" ht="33" customHeight="1" spans="1:6">
-      <c r="A93" s="5"/>
-      <c r="B93" s="5"/>
-      <c r="C93" s="5"/>
-      <c r="D93" s="66"/>
-      <c r="E93" s="5"/>
-      <c r="F93" s="5"/>
+      <c r="A93" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B93" s="61">
+        <v>43348</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="E93" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="F93" s="5" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="94" ht="27" customHeight="1" spans="1:6">
-      <c r="A94" s="5"/>
-      <c r="B94" s="5"/>
-      <c r="C94" s="5"/>
-      <c r="D94" s="5"/>
-      <c r="E94" s="5"/>
-      <c r="F94" s="5"/>
-    </row>
-    <row r="95" spans="1:6">
-      <c r="A95" s="5"/>
-      <c r="B95" s="5"/>
-      <c r="C95" s="5"/>
-      <c r="D95" s="5"/>
-      <c r="E95" s="5"/>
-      <c r="F95" s="5"/>
+      <c r="A94" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B94" s="61">
+        <v>43348</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="E94" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="F94" s="5" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="95" ht="61.2" spans="1:6">
+      <c r="A95" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B95" s="61">
+        <v>43348</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E95" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="F95" s="5" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="96" ht="28.05" customHeight="1" spans="1:6">
-      <c r="A96" s="5"/>
-      <c r="B96" s="5"/>
-      <c r="C96" s="5"/>
-      <c r="D96" s="5"/>
-      <c r="E96" s="5"/>
-      <c r="F96" s="5"/>
+      <c r="A96" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E96" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="F96" s="5" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="97" ht="28.95" customHeight="1" spans="1:6">
-      <c r="A97" s="5"/>
-      <c r="B97" s="5"/>
-      <c r="C97" s="5"/>
-      <c r="D97" s="5"/>
-      <c r="E97" s="5"/>
-      <c r="F97" s="5"/>
-    </row>
-    <row r="98" spans="1:6">
-      <c r="A98" s="5"/>
-      <c r="B98" s="5"/>
-      <c r="C98" s="5"/>
-      <c r="D98" s="5"/>
-      <c r="E98" s="5"/>
-      <c r="F98" s="5"/>
+      <c r="A97" s="66" t="s">
+        <v>23</v>
+      </c>
+      <c r="B97" s="66" t="s">
+        <v>201</v>
+      </c>
+      <c r="C97" s="66" t="s">
+        <v>202</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E97" s="66" t="s">
+        <v>27</v>
+      </c>
+      <c r="F97" s="66" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="98" ht="40.8" spans="1:6">
+      <c r="A98" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="E98" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="F98" s="5" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="99" spans="1:6">
-      <c r="A99" s="5"/>
-      <c r="B99" s="5"/>
-      <c r="C99" s="5"/>
-      <c r="D99" s="5"/>
-      <c r="E99" s="5"/>
-      <c r="F99" s="5"/>
+      <c r="A99" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B99" s="61">
+        <v>43348</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="E99" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="F99" s="5" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="100" ht="24" customHeight="1" spans="1:6">
-      <c r="A100" s="5"/>
-      <c r="B100" s="5"/>
-      <c r="C100" s="5"/>
+      <c r="A100" s="64" t="s">
+        <v>12</v>
+      </c>
+      <c r="B100" s="65">
+        <v>43348</v>
+      </c>
+      <c r="C100" s="64" t="s">
+        <v>150</v>
+      </c>
       <c r="D100" s="5"/>
       <c r="E100" s="5"/>
       <c r="F100" s="5"/>
@@ -5072,13 +5296,13 @@
       <c r="E108" s="5"/>
       <c r="F108" s="5"/>
     </row>
-    <row r="109" s="33" customFormat="1" spans="1:6">
-      <c r="A109" s="42"/>
-      <c r="B109" s="42"/>
-      <c r="C109" s="42"/>
-      <c r="D109" s="42"/>
-      <c r="E109" s="42"/>
-      <c r="F109" s="42"/>
+    <row r="109" s="31" customFormat="1" spans="1:6">
+      <c r="A109" s="40"/>
+      <c r="B109" s="40"/>
+      <c r="C109" s="40"/>
+      <c r="D109" s="40"/>
+      <c r="E109" s="40"/>
+      <c r="F109" s="40"/>
     </row>
     <row r="110" ht="27" customHeight="1" spans="1:6">
       <c r="A110" s="5"/>
@@ -5098,7 +5322,7 @@
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="5"/>
-      <c r="B112" s="63"/>
+      <c r="B112" s="61"/>
       <c r="C112" s="5"/>
       <c r="D112" s="5"/>
       <c r="E112" s="5"/>
@@ -5106,7 +5330,7 @@
     </row>
     <row r="113" ht="13.95" customHeight="1" spans="1:6">
       <c r="A113" s="5"/>
-      <c r="B113" s="63"/>
+      <c r="B113" s="61"/>
       <c r="C113" s="5"/>
       <c r="D113" s="5"/>
       <c r="E113" s="5"/>
@@ -5124,7 +5348,7 @@
       <c r="A115" s="5"/>
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
-      <c r="D115" s="66"/>
+      <c r="D115" s="67"/>
       <c r="E115" s="5"/>
       <c r="F115" s="5"/>
     </row>
@@ -5178,29 +5402,29 @@
     </row>
     <row r="123" ht="22.95" customHeight="1"/>
     <row r="126" spans="2:2">
-      <c r="B126" s="67"/>
+      <c r="B126" s="68"/>
     </row>
     <row r="127" ht="9" customHeight="1" spans="2:2">
-      <c r="B127" s="67"/>
-    </row>
-    <row r="128" s="33" customFormat="1"/>
+      <c r="B127" s="68"/>
+    </row>
+    <row r="128" s="31" customFormat="1"/>
     <row r="130" ht="27" customHeight="1" spans="4:4">
-      <c r="D130" s="68"/>
+      <c r="D130" s="69"/>
     </row>
     <row r="131" spans="2:2">
-      <c r="B131" s="69"/>
+      <c r="B131" s="70"/>
     </row>
     <row r="132" ht="7.95" customHeight="1" spans="2:2">
-      <c r="B132" s="69"/>
+      <c r="B132" s="70"/>
     </row>
     <row r="133" ht="34.05" customHeight="1"/>
     <row r="134" ht="30" customHeight="1"/>
     <row r="135" ht="28.05" customHeight="1"/>
     <row r="138" spans="2:2">
-      <c r="B138" s="67"/>
+      <c r="B138" s="68"/>
     </row>
     <row r="139" ht="13.05" customHeight="1" spans="2:2">
-      <c r="B139" s="67"/>
+      <c r="B139" s="68"/>
     </row>
     <row r="140" ht="28.05" customHeight="1"/>
     <row r="143" ht="22.05" customHeight="1"/>
@@ -5208,22 +5432,22 @@
     <row r="145" ht="22.05" customHeight="1"/>
     <row r="146" ht="22.05" customHeight="1"/>
     <row r="147" ht="21" customHeight="1"/>
-    <row r="148" s="33" customFormat="1"/>
+    <row r="148" s="31" customFormat="1"/>
     <row r="149" ht="22.95" customHeight="1"/>
     <row r="150" spans="2:2">
-      <c r="B150" s="69"/>
+      <c r="B150" s="70"/>
     </row>
     <row r="151" spans="2:2">
-      <c r="B151" s="69"/>
+      <c r="B151" s="70"/>
     </row>
     <row r="152" spans="2:2">
-      <c r="B152" s="69"/>
+      <c r="B152" s="70"/>
     </row>
     <row r="153" spans="2:2">
-      <c r="B153" s="69"/>
+      <c r="B153" s="70"/>
     </row>
     <row r="154" spans="4:4">
-      <c r="D154" s="70"/>
+      <c r="D154" s="71"/>
     </row>
     <row r="155" ht="24" customHeight="1"/>
     <row r="156" ht="22.95" customHeight="1"/>
@@ -5233,51 +5457,51 @@
     <row r="161" ht="24" customHeight="1"/>
     <row r="163" ht="28.95" customHeight="1"/>
     <row r="164" ht="25.95" customHeight="1" spans="2:2">
-      <c r="B164" s="69"/>
-    </row>
-    <row r="165" s="33" customFormat="1"/>
+      <c r="B164" s="70"/>
+    </row>
+    <row r="165" s="31" customFormat="1"/>
     <row r="166" ht="25.95" customHeight="1" spans="4:4">
-      <c r="D166" s="68"/>
+      <c r="D166" s="69"/>
     </row>
     <row r="168" ht="27" customHeight="1"/>
     <row r="169" ht="13.05" customHeight="1" spans="2:2">
-      <c r="B169" s="69"/>
+      <c r="B169" s="70"/>
     </row>
     <row r="170" ht="13.05" customHeight="1" spans="2:2">
-      <c r="B170" s="69"/>
+      <c r="B170" s="70"/>
     </row>
     <row r="171" spans="2:2">
-      <c r="B171" s="69"/>
+      <c r="B171" s="70"/>
     </row>
     <row r="172" ht="12" customHeight="1" spans="2:2">
-      <c r="B172" s="69"/>
+      <c r="B172" s="70"/>
     </row>
     <row r="173" ht="34.05" customHeight="1"/>
     <row r="175" ht="31.05" customHeight="1"/>
-    <row r="177" s="33" customFormat="1"/>
+    <row r="177" s="31" customFormat="1"/>
     <row r="178" spans="2:2">
-      <c r="B178" s="69"/>
+      <c r="B178" s="70"/>
     </row>
     <row r="179" spans="2:2">
-      <c r="B179" s="69"/>
+      <c r="B179" s="70"/>
     </row>
     <row r="180" spans="2:2">
-      <c r="B180" s="67"/>
+      <c r="B180" s="68"/>
     </row>
     <row r="181" spans="2:2">
-      <c r="B181" s="67"/>
+      <c r="B181" s="68"/>
     </row>
     <row r="182" spans="2:2">
-      <c r="B182" s="67"/>
+      <c r="B182" s="68"/>
     </row>
     <row r="183" spans="2:2">
-      <c r="B183" s="67"/>
+      <c r="B183" s="68"/>
     </row>
     <row r="184" spans="2:2">
-      <c r="B184" s="67"/>
+      <c r="B184" s="68"/>
     </row>
     <row r="185" spans="2:2">
-      <c r="B185" s="67"/>
+      <c r="B185" s="68"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5327,202 +5551,202 @@
     </row>
     <row r="2" ht="81.6" spans="1:6">
       <c r="A2" s="4" t="s">
-        <v>182</v>
+        <v>212</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>46</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>183</v>
+        <v>213</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>184</v>
+        <v>214</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>185</v>
+        <v>215</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>186</v>
+        <v>216</v>
       </c>
     </row>
     <row r="3" ht="61.2" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>187</v>
+        <v>217</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>188</v>
+        <v>218</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>189</v>
+        <v>219</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>190</v>
+        <v>220</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>191</v>
+        <v>221</v>
       </c>
     </row>
     <row r="4" ht="306" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="B4" s="10">
         <v>43341</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>193</v>
+        <v>223</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>195</v>
+        <v>224</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>225</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>196</v>
+        <v>226</v>
       </c>
     </row>
     <row r="5" ht="102" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="B5" s="16">
+        <v>227</v>
+      </c>
+      <c r="B5" s="14">
         <v>43341</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>198</v>
+        <v>228</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>199</v>
+        <v>229</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>201</v>
+        <v>231</v>
       </c>
     </row>
     <row r="6" ht="61.2" spans="1:6">
       <c r="A6" s="4" t="s">
-        <v>202</v>
+        <v>232</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>203</v>
+        <v>233</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>204</v>
+        <v>234</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>205</v>
+        <v>235</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>206</v>
+        <v>236</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>207</v>
+        <v>237</v>
       </c>
     </row>
     <row r="7" ht="102" spans="1:6">
       <c r="A7" s="4" t="s">
-        <v>208</v>
+        <v>238</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>46</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>210</v>
+        <v>239</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>240</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>211</v>
+        <v>241</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>212</v>
+        <v>242</v>
       </c>
     </row>
     <row r="8" ht="224.4" spans="1:6">
       <c r="A8" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="B8" s="18">
+        <v>243</v>
+      </c>
+      <c r="B8" s="16">
         <v>43341</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>214</v>
+        <v>244</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>215</v>
+        <v>245</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>216</v>
+        <v>246</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>217</v>
+        <v>247</v>
       </c>
     </row>
     <row r="9" ht="102" spans="1:6">
       <c r="A9" s="4" t="s">
-        <v>218</v>
+        <v>248</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>46</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>219</v>
+        <v>249</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>221</v>
+        <v>251</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>222</v>
+        <v>252</v>
       </c>
     </row>
     <row r="10" ht="163.2" spans="1:6">
       <c r="A10" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="B10" s="19">
+        <v>253</v>
+      </c>
+      <c r="B10" s="17">
         <v>43341</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>225</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>226</v>
-      </c>
-      <c r="F10" s="21" t="s">
-        <v>227</v>
+        <v>254</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>256</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="11" ht="102" spans="1:6">
       <c r="A11" s="2" t="s">
-        <v>228</v>
+        <v>258</v>
       </c>
       <c r="B11" s="10">
         <v>43341</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>229</v>
+        <v>259</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>230</v>
+        <v>260</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="F11" s="22" t="s">
-        <v>232</v>
+        <v>261</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="12" ht="20.4" spans="1:6">
@@ -5544,7 +5768,7 @@
     <row r="14" ht="20.4" spans="1:6">
       <c r="A14" s="12"/>
       <c r="B14" s="4"/>
-      <c r="C14" s="21"/>
+      <c r="C14" s="19"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -5577,202 +5801,202 @@
     </row>
     <row r="18" ht="163.2" spans="1:6">
       <c r="A18" s="2" t="s">
-        <v>182</v>
+        <v>212</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>233</v>
+        <v>263</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>234</v>
+        <v>264</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>235</v>
+        <v>265</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>236</v>
+        <v>266</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>237</v>
+        <v>267</v>
       </c>
     </row>
     <row r="19" ht="61.2" spans="1:6">
       <c r="A19" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="B19" s="16">
+        <v>227</v>
+      </c>
+      <c r="B19" s="14">
         <v>43343</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>238</v>
+        <v>268</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>239</v>
+        <v>269</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>241</v>
+        <v>271</v>
       </c>
     </row>
     <row r="20" ht="81.6" spans="1:6">
       <c r="A20" s="2" t="s">
-        <v>187</v>
+        <v>217</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>242</v>
+        <v>272</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>243</v>
+        <v>273</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>244</v>
+        <v>274</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>191</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" ht="61.2" spans="1:6">
       <c r="A21" s="4" t="s">
-        <v>245</v>
+        <v>275</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>246</v>
+        <v>276</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>247</v>
+        <v>277</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>248</v>
+        <v>278</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>249</v>
+        <v>279</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>250</v>
+        <v>280</v>
       </c>
     </row>
     <row r="22" ht="409.5" spans="1:6">
       <c r="A22" s="2" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="B22" s="10">
         <v>43343</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>251</v>
+        <v>281</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>252</v>
+        <v>282</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="F22" s="15" t="s">
-        <v>254</v>
+        <v>283</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="23" ht="61.2" spans="1:6">
       <c r="A23" s="3" t="s">
-        <v>208</v>
+        <v>238</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>233</v>
+        <v>263</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>255</v>
+        <v>285</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>256</v>
+        <v>286</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>257</v>
+        <v>287</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>258</v>
+        <v>288</v>
       </c>
     </row>
     <row r="24" ht="122.4" spans="1:6">
       <c r="A24" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="B24" s="23">
+        <v>243</v>
+      </c>
+      <c r="B24" s="21">
         <v>43343</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>259</v>
+        <v>289</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>260</v>
+        <v>290</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>261</v>
+        <v>291</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>262</v>
+        <v>292</v>
       </c>
     </row>
     <row r="25" ht="163.2" spans="1:6">
       <c r="A25" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="B25" s="24">
+        <v>258</v>
+      </c>
+      <c r="B25" s="22">
         <v>43343</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>263</v>
+        <v>293</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>264</v>
+        <v>294</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>265</v>
+        <v>295</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>266</v>
+        <v>296</v>
       </c>
     </row>
     <row r="26" ht="204" spans="1:6">
       <c r="A26" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="B26" s="23">
+        <v>253</v>
+      </c>
+      <c r="B26" s="21">
         <v>43343</v>
       </c>
-      <c r="C26" s="25" t="s">
-        <v>267</v>
-      </c>
-      <c r="D26" s="25" t="s">
-        <v>268</v>
-      </c>
-      <c r="E26" s="25" t="s">
-        <v>269</v>
+      <c r="C26" s="23" t="s">
+        <v>297</v>
+      </c>
+      <c r="D26" s="23" t="s">
+        <v>298</v>
+      </c>
+      <c r="E26" s="23" t="s">
+        <v>299</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>270</v>
+        <v>300</v>
       </c>
     </row>
     <row r="27" ht="102" spans="1:6">
       <c r="A27" s="6" t="s">
-        <v>218</v>
+        <v>248</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>233</v>
+        <v>263</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>271</v>
+        <v>301</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>272</v>
+        <v>302</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>273</v>
+        <v>303</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>274</v>
+        <v>304</v>
       </c>
     </row>
     <row r="28" ht="20.4" spans="1:6">
@@ -5784,52 +6008,52 @@
       <c r="F28" s="2"/>
     </row>
     <row r="29" ht="20.4" spans="1:6">
-      <c r="A29" s="26"/>
+      <c r="A29" s="24"/>
       <c r="B29" s="2"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="26"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="24"/>
     </row>
     <row r="30" ht="20.4" spans="1:6">
-      <c r="A30" s="26"/>
+      <c r="A30" s="24"/>
       <c r="B30" s="2"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="26"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="24"/>
     </row>
     <row r="31" ht="20.4" spans="1:6">
-      <c r="A31" s="26"/>
+      <c r="A31" s="24"/>
       <c r="B31" s="2"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="26"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="24"/>
     </row>
     <row r="32" ht="20.4" spans="1:6">
-      <c r="A32" s="26"/>
+      <c r="A32" s="24"/>
       <c r="B32" s="2"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
     </row>
     <row r="33" ht="20.4" spans="1:6">
-      <c r="A33" s="26"/>
+      <c r="A33" s="24"/>
       <c r="B33" s="2"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="26"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="24"/>
     </row>
     <row r="34" ht="20.4" spans="1:6">
-      <c r="A34" s="26"/>
+      <c r="A34" s="24"/>
       <c r="B34" s="2"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="26"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
     </row>
     <row r="35" ht="20.4" spans="1:6">
       <c r="A35" s="11" t="s">
@@ -5843,208 +6067,208 @@
     </row>
     <row r="36" ht="122.4" spans="1:6">
       <c r="A36" s="2" t="s">
-        <v>182</v>
+        <v>212</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>138</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>275</v>
+        <v>305</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>276</v>
+        <v>306</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>277</v>
+        <v>307</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>278</v>
+        <v>308</v>
       </c>
     </row>
     <row r="37" ht="81.6" spans="1:6">
       <c r="A37" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="B37" s="16">
+        <v>227</v>
+      </c>
+      <c r="B37" s="14">
         <v>43346</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>279</v>
+        <v>309</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>280</v>
+        <v>310</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>281</v>
+        <v>311</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>282</v>
+        <v>312</v>
       </c>
     </row>
     <row r="38" ht="61.2" spans="1:6">
       <c r="A38" s="4" t="s">
-        <v>283</v>
+        <v>313</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>284</v>
+        <v>314</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>285</v>
+        <v>315</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>286</v>
+        <v>316</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>287</v>
+        <v>317</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>250</v>
+        <v>280</v>
       </c>
     </row>
     <row r="39" ht="40.8" spans="1:6">
       <c r="A39" s="2" t="s">
-        <v>187</v>
+        <v>217</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>117</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>288</v>
+        <v>318</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>289</v>
+        <v>319</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>290</v>
+        <v>320</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>191</v>
+        <v>221</v>
       </c>
     </row>
     <row r="40" ht="122.4" spans="1:6">
       <c r="A40" s="2" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>138</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>291</v>
+        <v>321</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>292</v>
+        <v>322</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>293</v>
+        <v>323</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>294</v>
+        <v>324</v>
       </c>
     </row>
     <row r="41" ht="102" spans="1:6">
       <c r="A41" s="6" t="s">
-        <v>208</v>
+        <v>238</v>
       </c>
       <c r="B41" s="6" t="s">
         <v>138</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>295</v>
+        <v>325</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>296</v>
+        <v>326</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>297</v>
+        <v>327</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>298</v>
+        <v>328</v>
       </c>
     </row>
     <row r="42" ht="102" spans="1:6">
       <c r="A42" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="B42" s="24">
+        <v>258</v>
+      </c>
+      <c r="B42" s="22">
         <v>43346</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>299</v>
+        <v>329</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>301</v>
+        <v>331</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>302</v>
+        <v>332</v>
       </c>
     </row>
     <row r="43" ht="183.6" spans="1:6">
       <c r="A43" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="B43" s="23">
+        <v>243</v>
+      </c>
+      <c r="B43" s="21">
         <v>43346</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>303</v>
+        <v>333</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>304</v>
+        <v>334</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>305</v>
+        <v>335</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>306</v>
+        <v>336</v>
       </c>
     </row>
     <row r="44" ht="81.6" spans="1:6">
       <c r="A44" s="4" t="s">
-        <v>218</v>
+        <v>248</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>307</v>
+        <v>337</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>308</v>
+        <v>338</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>309</v>
+        <v>339</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>310</v>
+        <v>340</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>311</v>
+        <v>341</v>
       </c>
     </row>
     <row r="45" ht="122.4" spans="1:6">
       <c r="A45" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="B45" s="23">
+        <v>253</v>
+      </c>
+      <c r="B45" s="21">
         <v>43346</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>312</v>
+        <v>342</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>313</v>
+        <v>343</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>314</v>
+        <v>344</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>315</v>
+        <v>345</v>
       </c>
     </row>
     <row r="46" ht="20.4" spans="1:6">
       <c r="A46" s="6"/>
       <c r="B46" s="3"/>
-      <c r="C46" s="20"/>
+      <c r="C46" s="18"/>
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
@@ -6099,7 +6323,7 @@
     </row>
     <row r="53" ht="20.4" spans="1:6">
       <c r="A53" s="11" t="s">
-        <v>316</v>
+        <v>346</v>
       </c>
       <c r="B53" s="11"/>
       <c r="C53" s="11"/>
@@ -6109,200 +6333,200 @@
     </row>
     <row r="54" ht="20.4" spans="1:6">
       <c r="A54" s="2" t="s">
-        <v>182</v>
+        <v>212</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>160</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>317</v>
+        <v>347</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>318</v>
+        <v>348</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>319</v>
+        <v>349</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>320</v>
+        <v>350</v>
       </c>
     </row>
     <row r="55" ht="61.2" spans="1:6">
       <c r="A55" s="4" t="s">
-        <v>321</v>
+        <v>351</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>322</v>
+        <v>352</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>323</v>
+        <v>353</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>324</v>
+        <v>354</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>325</v>
+        <v>355</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>326</v>
+        <v>356</v>
       </c>
     </row>
     <row r="56" ht="40.8" spans="1:6">
       <c r="A56" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="B56" s="16">
+        <v>227</v>
+      </c>
+      <c r="B56" s="14">
         <v>43347</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>327</v>
+        <v>357</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>328</v>
+        <v>358</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>329</v>
+        <v>359</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>330</v>
+        <v>360</v>
       </c>
     </row>
     <row r="57" ht="20.4" spans="1:6">
       <c r="A57" s="2" t="s">
-        <v>187</v>
+        <v>217</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>151</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>331</v>
+        <v>361</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>332</v>
+        <v>362</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>333</v>
+        <v>363</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>191</v>
+        <v>221</v>
       </c>
     </row>
     <row r="58" ht="163.2" spans="1:6">
       <c r="A58" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="B58" s="24">
+        <v>222</v>
+      </c>
+      <c r="B58" s="22">
         <v>43347</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>334</v>
+        <v>364</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>335</v>
+        <v>365</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>336</v>
+        <v>366</v>
       </c>
       <c r="F58" s="5"/>
     </row>
     <row r="59" ht="81.6" spans="1:6">
       <c r="A59" s="6" t="s">
-        <v>208</v>
+        <v>238</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>160</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>337</v>
+        <v>367</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>338</v>
+        <v>368</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>339</v>
+        <v>369</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>340</v>
+        <v>370</v>
       </c>
     </row>
     <row r="60" ht="102" spans="1:6">
       <c r="A60" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="B60" s="23">
+        <v>243</v>
+      </c>
+      <c r="B60" s="21">
         <v>43347</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>341</v>
+        <v>371</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>342</v>
+        <v>372</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>343</v>
+        <v>373</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>344</v>
+        <v>374</v>
       </c>
     </row>
     <row r="61" ht="81.6" spans="1:6">
       <c r="A61" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="B61" s="23">
+        <v>253</v>
+      </c>
+      <c r="B61" s="21">
         <v>43347</v>
       </c>
-      <c r="C61" s="25" t="s">
-        <v>345</v>
-      </c>
-      <c r="D61" s="25" t="s">
-        <v>346</v>
-      </c>
-      <c r="E61" s="25" t="s">
-        <v>347</v>
-      </c>
-      <c r="F61" s="25" t="s">
-        <v>348</v>
+      <c r="C61" s="23" t="s">
+        <v>375</v>
+      </c>
+      <c r="D61" s="23" t="s">
+        <v>376</v>
+      </c>
+      <c r="E61" s="23" t="s">
+        <v>377</v>
+      </c>
+      <c r="F61" s="23" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="62" ht="142.8" spans="1:6">
       <c r="A62" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="B62" s="24">
+        <v>258</v>
+      </c>
+      <c r="B62" s="22">
         <v>43347</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>349</v>
+        <v>379</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>350</v>
-      </c>
-      <c r="E62" s="22" t="s">
-        <v>351</v>
+        <v>380</v>
+      </c>
+      <c r="E62" s="20" t="s">
+        <v>381</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>352</v>
+        <v>382</v>
       </c>
     </row>
     <row r="63" ht="61.2" spans="1:6">
       <c r="A63" s="4" t="s">
-        <v>218</v>
+        <v>248</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>353</v>
+        <v>383</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>354</v>
+        <v>384</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>355</v>
+        <v>385</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>356</v>
+        <v>386</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>357</v>
+        <v>387</v>
       </c>
     </row>
   </sheetData>
@@ -6316,7 +6540,7 @@
   <sheetPr/>
   <dimension ref="A1:K142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
+    <sheetView topLeftCell="A126" workbookViewId="0">
       <selection activeCell="F136" sqref="F136:F142"/>
     </sheetView>
   </sheetViews>
@@ -6352,207 +6576,207 @@
     </row>
     <row r="2" ht="122.4" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>358</v>
+        <v>388</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>359</v>
+        <v>389</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>360</v>
+        <v>390</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>361</v>
+        <v>391</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>362</v>
+        <v>392</v>
       </c>
     </row>
     <row r="3" ht="102" spans="1:6">
       <c r="A3" s="4" t="s">
-        <v>363</v>
+        <v>393</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>364</v>
+        <v>394</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>365</v>
+        <v>395</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>366</v>
+        <v>396</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>367</v>
+        <v>397</v>
       </c>
     </row>
     <row r="4" ht="40.8" spans="1:6">
       <c r="A4" s="4" t="s">
-        <v>368</v>
+        <v>398</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>369</v>
+        <v>399</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>370</v>
+        <v>400</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>371</v>
+        <v>401</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>372</v>
+        <v>402</v>
       </c>
     </row>
     <row r="5" ht="142.8" spans="1:6">
       <c r="A5" s="4" t="s">
-        <v>373</v>
+        <v>403</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>374</v>
+        <v>404</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>375</v>
+        <v>405</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>376</v>
+        <v>406</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>377</v>
+        <v>407</v>
       </c>
     </row>
     <row r="6" ht="326.4" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>378</v>
+        <v>408</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>379</v>
+        <v>409</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>380</v>
+        <v>410</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>381</v>
+        <v>411</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>382</v>
+        <v>412</v>
       </c>
     </row>
     <row r="7" ht="409.5" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>383</v>
+        <v>413</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>384</v>
+        <v>414</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>385</v>
+        <v>415</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>386</v>
+        <v>416</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>387</v>
+        <v>417</v>
       </c>
     </row>
     <row r="8" ht="285.6" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>388</v>
+        <v>418</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>389</v>
+        <v>419</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>390</v>
+        <v>420</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>391</v>
+        <v>421</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>392</v>
+        <v>422</v>
       </c>
     </row>
     <row r="9" ht="40.8" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>393</v>
+        <v>423</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>394</v>
+        <v>424</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>395</v>
+        <v>425</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>396</v>
+        <v>426</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>397</v>
+        <v>427</v>
       </c>
     </row>
     <row r="10" ht="142.8" spans="1:6">
       <c r="A10" s="2" t="s">
-        <v>398</v>
+        <v>428</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>374</v>
+        <v>404</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>399</v>
+        <v>429</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>400</v>
+        <v>430</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>401</v>
+        <v>431</v>
       </c>
     </row>
     <row r="11" ht="204" spans="1:6">
       <c r="A11" s="2" t="s">
-        <v>402</v>
+        <v>432</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>403</v>
+        <v>433</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>404</v>
+        <v>434</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>405</v>
+        <v>435</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>406</v>
+        <v>436</v>
       </c>
     </row>
     <row r="12" ht="20.4" spans="1:6">
       <c r="A12" s="7" t="s">
-        <v>316</v>
+        <v>346</v>
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -6582,207 +6806,207 @@
     </row>
     <row r="14" ht="81.6" spans="1:6">
       <c r="A14" s="2" t="s">
-        <v>398</v>
+        <v>428</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>74</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>407</v>
+        <v>437</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>408</v>
+        <v>438</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>409</v>
+        <v>439</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>410</v>
+        <v>440</v>
       </c>
     </row>
     <row r="15" ht="326.4" spans="1:6">
       <c r="A15" s="2" t="s">
-        <v>388</v>
+        <v>418</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>74</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>411</v>
+        <v>441</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>412</v>
+        <v>442</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>414</v>
+        <v>444</v>
       </c>
     </row>
     <row r="16" ht="142.8" spans="1:6">
       <c r="A16" s="2" t="s">
-        <v>358</v>
+        <v>388</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>74</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>415</v>
+        <v>445</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>416</v>
+        <v>446</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>417</v>
+        <v>447</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>418</v>
+        <v>448</v>
       </c>
     </row>
     <row r="17" ht="81.6" spans="1:6">
       <c r="A17" s="2" t="s">
-        <v>419</v>
+        <v>449</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>74</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>420</v>
+        <v>450</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>421</v>
+        <v>451</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>422</v>
+        <v>452</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>423</v>
+        <v>453</v>
       </c>
     </row>
     <row r="18" ht="122.4" spans="1:6">
       <c r="A18" s="2" t="s">
-        <v>424</v>
+        <v>454</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>74</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>425</v>
+        <v>455</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>426</v>
+        <v>456</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>427</v>
+        <v>457</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>428</v>
+        <v>458</v>
       </c>
     </row>
     <row r="19" ht="367.2" spans="1:6">
       <c r="A19" s="2" t="s">
-        <v>378</v>
+        <v>408</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>74</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>429</v>
+        <v>459</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>430</v>
+        <v>460</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>431</v>
+        <v>461</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>432</v>
+        <v>462</v>
       </c>
     </row>
     <row r="20" ht="142.8" spans="1:6">
       <c r="A20" s="2" t="s">
-        <v>433</v>
+        <v>463</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>89</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>434</v>
+        <v>464</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>435</v>
+        <v>465</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>436</v>
+        <v>466</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>437</v>
+        <v>467</v>
       </c>
     </row>
     <row r="21" ht="81.6" spans="1:6">
       <c r="A21" s="2" t="s">
-        <v>393</v>
+        <v>423</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>89</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>438</v>
+        <v>468</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>439</v>
+        <v>469</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>440</v>
+        <v>470</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>441</v>
+        <v>471</v>
       </c>
     </row>
     <row r="22" ht="409.5" spans="1:6">
       <c r="A22" s="2" t="s">
-        <v>383</v>
+        <v>413</v>
       </c>
       <c r="B22" s="10" t="s">
         <v>89</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>442</v>
+        <v>472</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>443</v>
+        <v>473</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>444</v>
+        <v>474</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>445</v>
+        <v>475</v>
       </c>
     </row>
     <row r="23" ht="102" spans="1:6">
       <c r="A23" s="2" t="s">
-        <v>446</v>
+        <v>476</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>89</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>447</v>
+        <v>477</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>448</v>
+        <v>478</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>449</v>
+        <v>479</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>406</v>
+        <v>436</v>
       </c>
     </row>
     <row r="24" ht="20.4" spans="1:6">
       <c r="A24" s="7" t="s">
-        <v>450</v>
+        <v>480</v>
       </c>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -6810,202 +7034,202 @@
     </row>
     <row r="26" ht="81.6" spans="1:6">
       <c r="A26" s="2" t="s">
-        <v>398</v>
+        <v>428</v>
       </c>
       <c r="B26" s="10" t="s">
         <v>107</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>451</v>
+        <v>481</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>452</v>
+        <v>482</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>453</v>
+        <v>483</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>454</v>
+        <v>484</v>
       </c>
     </row>
     <row r="27" ht="387.6" spans="1:6">
       <c r="A27" s="2" t="s">
-        <v>378</v>
+        <v>408</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>455</v>
+        <v>485</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>456</v>
+        <v>486</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>457</v>
+        <v>487</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>458</v>
+        <v>488</v>
       </c>
     </row>
     <row r="28" ht="142.8" spans="1:6">
       <c r="A28" s="2" t="s">
-        <v>383</v>
+        <v>413</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>459</v>
+        <v>489</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>460</v>
+        <v>490</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>461</v>
+        <v>491</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>462</v>
+        <v>492</v>
       </c>
     </row>
     <row r="29" ht="409.5" spans="1:6">
       <c r="A29" s="2" t="s">
-        <v>424</v>
+        <v>454</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>463</v>
+        <v>493</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>464</v>
+        <v>494</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>465</v>
+        <v>495</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>466</v>
+        <v>496</v>
       </c>
     </row>
     <row r="30" ht="122.4" spans="1:6">
       <c r="A30" s="2" t="s">
-        <v>393</v>
+        <v>423</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>467</v>
+        <v>497</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>468</v>
+        <v>498</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>469</v>
+        <v>499</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>470</v>
+        <v>500</v>
       </c>
     </row>
     <row r="31" ht="409.5" spans="1:6">
       <c r="A31" s="2" t="s">
-        <v>388</v>
+        <v>418</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>471</v>
+        <v>501</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>472</v>
+        <v>502</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>473</v>
+        <v>503</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>474</v>
+        <v>504</v>
       </c>
     </row>
     <row r="32" ht="163.2" spans="1:6">
       <c r="A32" s="2" t="s">
-        <v>358</v>
+        <v>388</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>475</v>
+        <v>505</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>476</v>
+        <v>506</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>477</v>
+        <v>507</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>478</v>
+        <v>508</v>
       </c>
     </row>
     <row r="33" ht="409.5" spans="1:6">
       <c r="A33" s="2" t="s">
-        <v>373</v>
+        <v>403</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>479</v>
+        <v>509</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>480</v>
+        <v>510</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>481</v>
+        <v>511</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>482</v>
+        <v>512</v>
       </c>
     </row>
     <row r="34" ht="102" spans="1:6">
       <c r="A34" s="2" t="s">
-        <v>446</v>
+        <v>476</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>483</v>
+        <v>513</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>484</v>
+        <v>514</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>485</v>
+        <v>515</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>486</v>
+        <v>516</v>
       </c>
     </row>
     <row r="35" ht="81.6" spans="1:6">
       <c r="A35" s="2" t="s">
-        <v>419</v>
+        <v>449</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>487</v>
+        <v>517</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>488</v>
+        <v>518</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>461</v>
+        <v>491</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>489</v>
+        <v>519</v>
       </c>
     </row>
     <row r="36" ht="20.4" spans="1:6">
@@ -7040,22 +7264,22 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="5" t="s">
-        <v>358</v>
+        <v>388</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>117</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>490</v>
+        <v>520</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>491</v>
+        <v>521</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>492</v>
+        <v>522</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>493</v>
+        <v>523</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7092,22 +7316,22 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="5" t="s">
-        <v>388</v>
+        <v>418</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>117</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>494</v>
+        <v>524</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>495</v>
+        <v>525</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>496</v>
+        <v>526</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>497</v>
+        <v>527</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -7144,22 +7368,22 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="5" t="s">
-        <v>393</v>
+        <v>423</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>117</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>498</v>
+        <v>528</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>499</v>
+        <v>529</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>500</v>
+        <v>530</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>501</v>
+        <v>531</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -7196,22 +7420,22 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="5" t="s">
-        <v>398</v>
+        <v>428</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>117</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>502</v>
+        <v>532</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>503</v>
+        <v>533</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>504</v>
+        <v>534</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>505</v>
+        <v>535</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -7248,22 +7472,22 @@
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="5" t="s">
-        <v>378</v>
+        <v>408</v>
       </c>
       <c r="B58" s="5" t="s">
         <v>117</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>506</v>
+        <v>536</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>507</v>
+        <v>537</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>508</v>
+        <v>538</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>509</v>
+        <v>539</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -7300,22 +7524,22 @@
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="5" t="s">
-        <v>424</v>
+        <v>454</v>
       </c>
       <c r="B63" s="5" t="s">
         <v>117</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>510</v>
+        <v>540</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>511</v>
+        <v>541</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>512</v>
+        <v>542</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>513</v>
+        <v>543</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -7352,22 +7576,22 @@
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="5" t="s">
-        <v>383</v>
+        <v>413</v>
       </c>
       <c r="B68" s="5" t="s">
         <v>117</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>514</v>
+        <v>544</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>515</v>
+        <v>545</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>516</v>
+        <v>546</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>517</v>
+        <v>547</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -7404,22 +7628,22 @@
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="5" t="s">
-        <v>373</v>
+        <v>403</v>
       </c>
       <c r="B73" s="5" t="s">
         <v>117</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>518</v>
+        <v>548</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>519</v>
+        <v>549</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>520</v>
+        <v>550</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>521</v>
+        <v>551</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -7456,42 +7680,42 @@
     </row>
     <row r="78" ht="204" spans="1:6">
       <c r="A78" s="2" t="s">
-        <v>419</v>
+        <v>449</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>117</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>506</v>
+        <v>536</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>522</v>
+        <v>552</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>512</v>
+        <v>542</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>513</v>
+        <v>543</v>
       </c>
     </row>
     <row r="79" ht="122.4" spans="1:6">
       <c r="A79" s="2" t="s">
-        <v>446</v>
+        <v>476</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>117</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>523</v>
+        <v>553</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>524</v>
+        <v>554</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>525</v>
+        <v>555</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>406</v>
+        <v>436</v>
       </c>
     </row>
     <row r="80" ht="20.4" spans="1:6">
@@ -7534,202 +7758,202 @@
     </row>
     <row r="83" ht="409.5" spans="1:6">
       <c r="A83" s="4" t="s">
-        <v>378</v>
+        <v>408</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>151</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>526</v>
+        <v>556</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>527</v>
+        <v>557</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>528</v>
+        <v>558</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>529</v>
+        <v>559</v>
       </c>
     </row>
     <row r="84" ht="102" spans="1:6">
       <c r="A84" s="4" t="s">
-        <v>398</v>
+        <v>428</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>151</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>530</v>
+        <v>560</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>531</v>
+        <v>561</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>532</v>
+        <v>562</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>533</v>
+        <v>563</v>
       </c>
     </row>
     <row r="85" ht="224.4" spans="1:6">
       <c r="A85" s="4" t="s">
-        <v>358</v>
+        <v>388</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>151</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>534</v>
+        <v>564</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>535</v>
+        <v>565</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>536</v>
+        <v>566</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>537</v>
+        <v>567</v>
       </c>
     </row>
     <row r="86" ht="285.6" spans="1:6">
       <c r="A86" s="4" t="s">
-        <v>433</v>
+        <v>463</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>151</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>538</v>
+        <v>568</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>539</v>
+        <v>569</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>540</v>
+        <v>570</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>541</v>
+        <v>571</v>
       </c>
     </row>
     <row r="87" ht="142.8" spans="1:6">
       <c r="A87" s="4" t="s">
-        <v>383</v>
+        <v>413</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>151</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>542</v>
+        <v>572</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>539</v>
+        <v>569</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>543</v>
+        <v>573</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>544</v>
+        <v>574</v>
       </c>
     </row>
     <row r="88" ht="81.6" spans="1:6">
       <c r="A88" s="4" t="s">
-        <v>424</v>
+        <v>454</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>151</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>545</v>
+        <v>575</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>546</v>
+        <v>576</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>547</v>
+        <v>577</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>548</v>
+        <v>578</v>
       </c>
     </row>
     <row r="89" ht="102" spans="1:6">
       <c r="A89" s="4" t="s">
-        <v>393</v>
+        <v>423</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>151</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>549</v>
+        <v>579</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>550</v>
+        <v>580</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>551</v>
+        <v>581</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>552</v>
+        <v>582</v>
       </c>
     </row>
     <row r="90" ht="142.8" spans="1:6">
       <c r="A90" s="12" t="s">
-        <v>388</v>
+        <v>418</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>151</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>553</v>
+        <v>583</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>554</v>
+        <v>584</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>555</v>
+        <v>585</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>556</v>
+        <v>586</v>
       </c>
     </row>
     <row r="91" ht="102" spans="1:6">
       <c r="A91" s="12" t="s">
-        <v>446</v>
+        <v>476</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>151</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>557</v>
+        <v>587</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>558</v>
+        <v>588</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>559</v>
+        <v>589</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>560</v>
+        <v>590</v>
       </c>
     </row>
     <row r="92" ht="61.2" spans="1:6">
       <c r="A92" s="12" t="s">
-        <v>419</v>
+        <v>449</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>151</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>561</v>
+        <v>591</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>562</v>
+        <v>592</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>563</v>
+        <v>593</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>564</v>
+        <v>594</v>
       </c>
     </row>
     <row r="93" ht="20.4" spans="1:6">
@@ -7764,22 +7988,22 @@
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="5" t="s">
-        <v>565</v>
+        <v>595</v>
       </c>
       <c r="B95" s="5">
         <v>9.5</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>566</v>
+        <v>596</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>567</v>
+        <v>597</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>568</v>
+        <v>598</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>569</v>
+        <v>599</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -7847,63 +8071,63 @@
       <c r="F103" s="2"/>
     </row>
     <row r="104" ht="265.2" spans="1:6">
-      <c r="A104" s="13" t="s">
-        <v>378</v>
-      </c>
-      <c r="B104" s="13" t="s">
-        <v>570</v>
-      </c>
-      <c r="C104" s="14" t="s">
-        <v>571</v>
-      </c>
-      <c r="D104" s="13" t="s">
-        <v>572</v>
-      </c>
-      <c r="E104" s="13" t="s">
-        <v>573</v>
-      </c>
-      <c r="F104" s="13" t="s">
-        <v>574</v>
+      <c r="A104" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>600</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="D104" s="5" t="s">
+        <v>602</v>
+      </c>
+      <c r="E104" s="5" t="s">
+        <v>603</v>
+      </c>
+      <c r="F104" s="5" t="s">
+        <v>604</v>
       </c>
     </row>
     <row r="105" ht="102" spans="1:6">
-      <c r="A105" s="13" t="s">
-        <v>383</v>
-      </c>
-      <c r="B105" s="13" t="s">
-        <v>575</v>
-      </c>
-      <c r="C105" s="13" t="s">
-        <v>576</v>
-      </c>
-      <c r="D105" s="13" t="s">
-        <v>577</v>
-      </c>
-      <c r="E105" s="13" t="s">
-        <v>578</v>
-      </c>
-      <c r="F105" s="13" t="s">
-        <v>579</v>
+      <c r="A105" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>605</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>606</v>
+      </c>
+      <c r="E105" s="5" t="s">
+        <v>607</v>
+      </c>
+      <c r="F105" s="5" t="s">
+        <v>608</v>
       </c>
     </row>
     <row r="106" ht="409.5" spans="1:11">
       <c r="A106" s="4" t="s">
-        <v>373</v>
-      </c>
-      <c r="B106" s="13" t="s">
-        <v>580</v>
-      </c>
-      <c r="C106" s="14" t="s">
-        <v>518</v>
-      </c>
-      <c r="D106" s="14" t="s">
-        <v>519</v>
-      </c>
-      <c r="E106" s="14" t="s">
-        <v>520</v>
-      </c>
-      <c r="F106" s="14" t="s">
-        <v>521</v>
+        <v>403</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>609</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="F106" s="3" t="s">
+        <v>551</v>
       </c>
       <c r="G106" s="2"/>
       <c r="H106" s="2"/>
@@ -7913,42 +8137,42 @@
     </row>
     <row r="107" ht="142.8" spans="1:6">
       <c r="A107" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="B107" s="13" t="s">
-        <v>575</v>
-      </c>
-      <c r="C107" s="14" t="s">
-        <v>581</v>
+        <v>428</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>610</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>582</v>
+        <v>611</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>583</v>
-      </c>
-      <c r="F107" s="14" t="s">
-        <v>584</v>
+        <v>612</v>
+      </c>
+      <c r="F107" s="3" t="s">
+        <v>613</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="5" t="s">
-        <v>388</v>
+        <v>418</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>575</v>
+        <v>201</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>585</v>
+        <v>614</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>586</v>
+        <v>615</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>587</v>
+        <v>616</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>588</v>
+        <v>617</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -8001,22 +8225,22 @@
     </row>
     <row r="115" ht="20.4" spans="1:9">
       <c r="A115" s="5" t="s">
-        <v>358</v>
+        <v>388</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>575</v>
+        <v>201</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>589</v>
+        <v>618</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>590</v>
+        <v>619</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>591</v>
+        <v>620</v>
       </c>
       <c r="F115" s="5" t="s">
-        <v>592</v>
+        <v>621</v>
       </c>
       <c r="G115" s="2"/>
       <c r="H115" s="2"/>
@@ -8072,22 +8296,22 @@
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="5" t="s">
-        <v>393</v>
+        <v>423</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>575</v>
+        <v>201</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>593</v>
+        <v>622</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>594</v>
+        <v>623</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>595</v>
+        <v>624</v>
       </c>
       <c r="F122" s="5" t="s">
-        <v>596</v>
+        <v>625</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -8140,22 +8364,22 @@
     </row>
     <row r="129" spans="1:6">
       <c r="A129" s="5" t="s">
-        <v>446</v>
+        <v>476</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>575</v>
+        <v>201</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>597</v>
+        <v>626</v>
       </c>
       <c r="D129" s="5" t="s">
-        <v>598</v>
+        <v>627</v>
       </c>
       <c r="E129" s="5" t="s">
-        <v>599</v>
+        <v>628</v>
       </c>
       <c r="F129" s="5" t="s">
-        <v>560</v>
+        <v>590</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -8208,22 +8432,22 @@
     </row>
     <row r="136" spans="1:6">
       <c r="A136" s="5" t="s">
-        <v>419</v>
+        <v>449</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>575</v>
+        <v>201</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>600</v>
+        <v>629</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>601</v>
+        <v>630</v>
       </c>
       <c r="E136" s="5" t="s">
-        <v>602</v>
+        <v>631</v>
       </c>
       <c r="F136" s="5" t="s">
-        <v>603</v>
+        <v>632</v>
       </c>
     </row>
     <row r="137" spans="1:6">

--- a/1601W.xlsx
+++ b/1601W.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669">
   <si>
     <t>姓名</t>
   </si>
@@ -776,6 +776,150 @@
   </si>
   <si>
     <t>基本熟悉流程</t>
+  </si>
+  <si>
+    <t>复习了一下github，学习了一下Django</t>
+  </si>
+  <si>
+    <t>github复习完成，Django没有学习明白</t>
+  </si>
+  <si>
+    <t>在复习github中已经推送上去了，但是不知情</t>
+  </si>
+  <si>
+    <t>努力跟进讲师进度，并自觉进行复习</t>
+  </si>
+  <si>
+    <t>2018.09.06</t>
+  </si>
+  <si>
+    <t>1.爬虫基础知识学习
+2.知识图谱需求思路整理</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+项目无进展</t>
+  </si>
+  <si>
+    <t>知识图谱病虫害信息爬取未完成</t>
+  </si>
+  <si>
+    <t>1.完成知识图谱病虫害信息爬取
+2.wiki百科植物类和病害关系查找</t>
+  </si>
+  <si>
+    <t>2018.9.6</t>
+  </si>
+  <si>
+    <t>1.构建网络页面   2.爬虫的基本操作</t>
+  </si>
+  <si>
+    <t>1.网络页面已经能够构建  2.爬虫还不熟悉</t>
+  </si>
+  <si>
+    <t>没有一个明确的方向</t>
+  </si>
+  <si>
+    <t>把爬虫的知识梳理一下，爬去指定信息</t>
+  </si>
+  <si>
+    <t>整理项目思路</t>
+  </si>
+  <si>
+    <t>对知识图谱进一步的理解</t>
+  </si>
+  <si>
+    <t>2.目前出现错误已解决</t>
+  </si>
+  <si>
+    <t>对neo5j多方面关联</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2018.9.06</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>晚9点15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>分</t>
+    </r>
+  </si>
+  <si>
+    <t>1.研究并学习了农业知识图谱新功能添加的研发思路。                            2.用debug研究了dfs_tree_crawler爬虫模块的思路和框架</t>
+  </si>
+  <si>
+    <t>还有两个爬虫有待研究</t>
+  </si>
+  <si>
+    <t>继续研究爬虫模块以及项目的框架结构</t>
+  </si>
+  <si>
+    <t>1、病害关系明确
+2、爬取互动百科失败
+3、nltl正在自学</t>
+  </si>
+  <si>
+    <t>1、互动百科标签正则错误
+2、词性标注效果不明白</t>
+  </si>
+  <si>
+    <t>正在google正则方法
+但是效果不明显</t>
+  </si>
+  <si>
+    <t>项目进展不大、但是正在努力加油王辉</t>
+  </si>
+  <si>
+    <t>知识图谱具体流程与思想与具体步骤与思路</t>
+  </si>
+  <si>
+    <t>Django单表增删改查</t>
+  </si>
+  <si>
+    <t>具体代码有些不清晰</t>
+  </si>
+  <si>
+    <t>1：安装jdk,并配置neo4j 2:下载需要安装的库thulac,py2neo,pyfasttext,pinyin 3：并看neo4j的基本介绍</t>
+  </si>
+  <si>
+    <t>MOngodb安装报错</t>
+  </si>
+  <si>
+    <t>下载pyfasttext报错</t>
+  </si>
+  <si>
+    <t>增删改查一套，爬虫爬到了知识图谱</t>
+  </si>
+  <si>
+    <t>完毕</t>
+  </si>
+  <si>
+    <t>跳转页面不太成熟，爬虫下一页不太会</t>
+  </si>
+  <si>
+    <t>掌握增删改查，学会爬虫追踪</t>
   </si>
   <si>
     <t>刘丹清</t>
@@ -2474,10 +2618,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -2533,110 +2677,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2655,9 +2699,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2670,8 +2751,71 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2710,13 +2854,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2728,31 +2932,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2764,103 +2950,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2878,7 +2980,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2889,6 +3033,74 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2921,74 +3133,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2997,10 +3141,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3009,16 +3153,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3027,115 +3171,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3341,8 +3485,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3750,9 +3894,9 @@
   <dimension ref="A1:S185"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A115" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C101" sqref="C101"/>
+      <selection pane="bottomLeft" activeCell="A118" sqref="A118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.4"/>
@@ -5304,77 +5448,183 @@
       <c r="E109" s="40"/>
       <c r="F109" s="40"/>
     </row>
-    <row r="110" ht="27" customHeight="1" spans="1:6">
-      <c r="A110" s="5"/>
-      <c r="B110" s="5"/>
-      <c r="C110" s="5"/>
-      <c r="D110" s="5"/>
-      <c r="E110" s="5"/>
-      <c r="F110" s="5"/>
-    </row>
-    <row r="111" spans="1:6">
-      <c r="A111" s="5"/>
-      <c r="B111" s="5"/>
-      <c r="C111" s="5"/>
-      <c r="D111" s="5"/>
-      <c r="E111" s="5"/>
-      <c r="F111" s="5"/>
-    </row>
-    <row r="112" spans="1:6">
-      <c r="A112" s="5"/>
-      <c r="B112" s="61"/>
-      <c r="C112" s="5"/>
-      <c r="D112" s="5"/>
-      <c r="E112" s="5"/>
-      <c r="F112" s="5"/>
-    </row>
-    <row r="113" ht="13.95" customHeight="1" spans="1:6">
-      <c r="A113" s="5"/>
-      <c r="B113" s="61"/>
-      <c r="C113" s="5"/>
-      <c r="D113" s="5"/>
-      <c r="E113" s="5"/>
-      <c r="F113" s="5"/>
-    </row>
-    <row r="114" ht="28.05" customHeight="1" spans="1:6">
-      <c r="A114" s="5"/>
-      <c r="B114" s="5"/>
-      <c r="C114" s="5"/>
-      <c r="D114" s="5"/>
-      <c r="E114" s="5"/>
-      <c r="F114" s="5"/>
-    </row>
-    <row r="115" ht="27" customHeight="1" spans="1:6">
-      <c r="A115" s="5"/>
-      <c r="B115" s="5"/>
-      <c r="C115" s="5"/>
-      <c r="D115" s="67"/>
-      <c r="E115" s="5"/>
-      <c r="F115" s="5"/>
+    <row r="110" ht="81.6" spans="1:6">
+      <c r="A110" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B110" s="61">
+        <v>43349</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="D110" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="E110" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="F110" s="5" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="111" ht="81.6" spans="1:6">
+      <c r="A111" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="D111" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="E111" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="F111" s="5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="112" ht="61.2" spans="1:6">
+      <c r="A112" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="D112" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="E112" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="F112" s="5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="113" ht="40.8" spans="1:6">
+      <c r="A113" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="D113" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="E113" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="F113" s="5" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="114" ht="81.6" spans="1:6">
+      <c r="A114" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="C114" s="67" t="s">
+        <v>231</v>
+      </c>
+      <c r="D114" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E114" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="F114" s="5" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="115" ht="81.6" spans="1:6">
+      <c r="A115" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B115" s="61">
+        <v>43349</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="D115" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="E115" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="F115" s="5" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="116" ht="27" customHeight="1" spans="1:6">
-      <c r="A116" s="5"/>
-      <c r="B116" s="5"/>
-      <c r="C116" s="5"/>
-      <c r="D116" s="5"/>
-      <c r="E116" s="5"/>
-      <c r="F116" s="5"/>
-    </row>
-    <row r="117" ht="28.05" customHeight="1" spans="1:6">
-      <c r="A117" s="5"/>
-      <c r="B117" s="5"/>
-      <c r="C117" s="5"/>
+      <c r="A116" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B116" s="61">
+        <v>43349</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="D116" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="E116" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="F116" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="117" ht="61.2" spans="1:6">
+      <c r="A117" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B117" s="61">
+        <v>43349</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>241</v>
+      </c>
       <c r="D117" s="5"/>
-      <c r="E117" s="5"/>
-      <c r="F117" s="5"/>
-    </row>
-    <row r="118" ht="19.95" customHeight="1" spans="1:6">
-      <c r="A118" s="5"/>
-      <c r="B118" s="5"/>
-      <c r="C118" s="5"/>
-      <c r="D118" s="5"/>
-      <c r="E118" s="5"/>
-      <c r="F118" s="5"/>
+      <c r="E117" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="F117" s="5" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="118" ht="61.2" spans="1:6">
+      <c r="A118" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B118" s="61">
+        <v>43349</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="D118" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="E118" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="F118" s="5" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="119" ht="21" customHeight="1" spans="1:6">
       <c r="A119" s="5"/>
@@ -5551,202 +5801,202 @@
     </row>
     <row r="2" ht="81.6" spans="1:6">
       <c r="A2" s="4" t="s">
-        <v>212</v>
+        <v>248</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>46</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>213</v>
+        <v>249</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>214</v>
+        <v>250</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>215</v>
+        <v>251</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>216</v>
+        <v>252</v>
       </c>
     </row>
     <row r="3" ht="61.2" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>217</v>
+        <v>253</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>218</v>
+        <v>254</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>219</v>
+        <v>255</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>220</v>
+        <v>256</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>221</v>
+        <v>257</v>
       </c>
     </row>
     <row r="4" ht="306" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>222</v>
+        <v>258</v>
       </c>
       <c r="B4" s="10">
         <v>43341</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>223</v>
+        <v>259</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>224</v>
+        <v>260</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>225</v>
+        <v>261</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>226</v>
+        <v>262</v>
       </c>
     </row>
     <row r="5" ht="102" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>227</v>
+        <v>263</v>
       </c>
       <c r="B5" s="14">
         <v>43341</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>228</v>
+        <v>264</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>229</v>
+        <v>265</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>230</v>
+        <v>266</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>231</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6" ht="61.2" spans="1:6">
       <c r="A6" s="4" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>233</v>
+        <v>269</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>234</v>
+        <v>270</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>235</v>
+        <v>271</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>236</v>
+        <v>272</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>237</v>
+        <v>273</v>
       </c>
     </row>
     <row r="7" ht="102" spans="1:6">
       <c r="A7" s="4" t="s">
-        <v>238</v>
+        <v>274</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>46</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>239</v>
+        <v>275</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>240</v>
+        <v>276</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>241</v>
+        <v>277</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>242</v>
+        <v>278</v>
       </c>
     </row>
     <row r="8" ht="224.4" spans="1:6">
       <c r="A8" s="4" t="s">
-        <v>243</v>
+        <v>279</v>
       </c>
       <c r="B8" s="16">
         <v>43341</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>244</v>
+        <v>280</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>245</v>
+        <v>281</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>246</v>
+        <v>282</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>247</v>
+        <v>283</v>
       </c>
     </row>
     <row r="9" ht="102" spans="1:6">
       <c r="A9" s="4" t="s">
-        <v>248</v>
+        <v>284</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>46</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>249</v>
+        <v>285</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>250</v>
+        <v>286</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>251</v>
+        <v>287</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>252</v>
+        <v>288</v>
       </c>
     </row>
     <row r="10" ht="163.2" spans="1:6">
       <c r="A10" s="4" t="s">
-        <v>253</v>
+        <v>289</v>
       </c>
       <c r="B10" s="17">
         <v>43341</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>254</v>
+        <v>290</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>255</v>
+        <v>291</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>256</v>
+        <v>292</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>257</v>
+        <v>293</v>
       </c>
     </row>
     <row r="11" ht="102" spans="1:6">
       <c r="A11" s="2" t="s">
-        <v>258</v>
+        <v>294</v>
       </c>
       <c r="B11" s="10">
         <v>43341</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>259</v>
+        <v>295</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>260</v>
+        <v>296</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>261</v>
+        <v>297</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>262</v>
+        <v>298</v>
       </c>
     </row>
     <row r="12" ht="20.4" spans="1:6">
@@ -5801,202 +6051,202 @@
     </row>
     <row r="18" ht="163.2" spans="1:6">
       <c r="A18" s="2" t="s">
-        <v>212</v>
+        <v>248</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>263</v>
+        <v>299</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>264</v>
+        <v>300</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>265</v>
+        <v>301</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>266</v>
+        <v>302</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>267</v>
+        <v>303</v>
       </c>
     </row>
     <row r="19" ht="61.2" spans="1:6">
       <c r="A19" s="2" t="s">
-        <v>227</v>
+        <v>263</v>
       </c>
       <c r="B19" s="14">
         <v>43343</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>268</v>
+        <v>304</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>269</v>
+        <v>305</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>270</v>
+        <v>306</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>271</v>
+        <v>307</v>
       </c>
     </row>
     <row r="20" ht="81.6" spans="1:6">
       <c r="A20" s="2" t="s">
-        <v>217</v>
+        <v>253</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>272</v>
+        <v>308</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>273</v>
+        <v>309</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>274</v>
+        <v>310</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>221</v>
+        <v>257</v>
       </c>
     </row>
     <row r="21" ht="61.2" spans="1:6">
       <c r="A21" s="4" t="s">
-        <v>275</v>
+        <v>311</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>276</v>
+        <v>312</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>277</v>
+        <v>313</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>278</v>
+        <v>314</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>279</v>
+        <v>315</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>280</v>
+        <v>316</v>
       </c>
     </row>
     <row r="22" ht="409.5" spans="1:6">
       <c r="A22" s="2" t="s">
-        <v>222</v>
+        <v>258</v>
       </c>
       <c r="B22" s="10">
         <v>43343</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>281</v>
+        <v>317</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>282</v>
+        <v>318</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>283</v>
+        <v>319</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>284</v>
+        <v>320</v>
       </c>
     </row>
     <row r="23" ht="61.2" spans="1:6">
       <c r="A23" s="3" t="s">
-        <v>238</v>
+        <v>274</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>263</v>
+        <v>299</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>285</v>
+        <v>321</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>286</v>
+        <v>322</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>287</v>
+        <v>323</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>288</v>
+        <v>324</v>
       </c>
     </row>
     <row r="24" ht="122.4" spans="1:6">
       <c r="A24" s="4" t="s">
-        <v>243</v>
+        <v>279</v>
       </c>
       <c r="B24" s="21">
         <v>43343</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>289</v>
+        <v>325</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>290</v>
+        <v>326</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>291</v>
+        <v>327</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>292</v>
+        <v>328</v>
       </c>
     </row>
     <row r="25" ht="163.2" spans="1:6">
       <c r="A25" s="4" t="s">
-        <v>258</v>
+        <v>294</v>
       </c>
       <c r="B25" s="22">
         <v>43343</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>293</v>
+        <v>329</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>294</v>
+        <v>330</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>295</v>
+        <v>331</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>296</v>
+        <v>332</v>
       </c>
     </row>
     <row r="26" ht="204" spans="1:6">
       <c r="A26" s="4" t="s">
-        <v>253</v>
+        <v>289</v>
       </c>
       <c r="B26" s="21">
         <v>43343</v>
       </c>
       <c r="C26" s="23" t="s">
-        <v>297</v>
+        <v>333</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>298</v>
+        <v>334</v>
       </c>
       <c r="E26" s="23" t="s">
-        <v>299</v>
+        <v>335</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>300</v>
+        <v>336</v>
       </c>
     </row>
     <row r="27" ht="102" spans="1:6">
       <c r="A27" s="6" t="s">
-        <v>248</v>
+        <v>284</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>263</v>
+        <v>299</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>301</v>
+        <v>337</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>302</v>
+        <v>338</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>303</v>
+        <v>339</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>304</v>
+        <v>340</v>
       </c>
     </row>
     <row r="28" ht="20.4" spans="1:6">
@@ -6067,202 +6317,202 @@
     </row>
     <row r="36" ht="122.4" spans="1:6">
       <c r="A36" s="2" t="s">
-        <v>212</v>
+        <v>248</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>138</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>305</v>
+        <v>341</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>306</v>
+        <v>342</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>307</v>
+        <v>343</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>308</v>
+        <v>344</v>
       </c>
     </row>
     <row r="37" ht="81.6" spans="1:6">
       <c r="A37" s="2" t="s">
-        <v>227</v>
+        <v>263</v>
       </c>
       <c r="B37" s="14">
         <v>43346</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>309</v>
+        <v>345</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>310</v>
+        <v>346</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>311</v>
+        <v>347</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>312</v>
+        <v>348</v>
       </c>
     </row>
     <row r="38" ht="61.2" spans="1:6">
       <c r="A38" s="4" t="s">
-        <v>313</v>
+        <v>349</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>314</v>
+        <v>350</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>315</v>
+        <v>351</v>
       </c>
       <c r="D38" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="F38" s="2" t="s">
         <v>316</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="39" ht="40.8" spans="1:6">
       <c r="A39" s="2" t="s">
-        <v>217</v>
+        <v>253</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>117</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>318</v>
+        <v>354</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>319</v>
+        <v>355</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>320</v>
+        <v>356</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>221</v>
+        <v>257</v>
       </c>
     </row>
     <row r="40" ht="122.4" spans="1:6">
       <c r="A40" s="2" t="s">
-        <v>222</v>
+        <v>258</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>138</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>321</v>
+        <v>357</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>322</v>
+        <v>358</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>323</v>
+        <v>359</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>324</v>
+        <v>360</v>
       </c>
     </row>
     <row r="41" ht="102" spans="1:6">
       <c r="A41" s="6" t="s">
-        <v>238</v>
+        <v>274</v>
       </c>
       <c r="B41" s="6" t="s">
         <v>138</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>325</v>
+        <v>361</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>326</v>
+        <v>362</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>327</v>
+        <v>363</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>328</v>
+        <v>364</v>
       </c>
     </row>
     <row r="42" ht="102" spans="1:6">
       <c r="A42" s="4" t="s">
-        <v>258</v>
+        <v>294</v>
       </c>
       <c r="B42" s="22">
         <v>43346</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>329</v>
+        <v>365</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>330</v>
+        <v>366</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>331</v>
+        <v>367</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>332</v>
+        <v>368</v>
       </c>
     </row>
     <row r="43" ht="183.6" spans="1:6">
       <c r="A43" s="4" t="s">
-        <v>243</v>
+        <v>279</v>
       </c>
       <c r="B43" s="21">
         <v>43346</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>333</v>
+        <v>369</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>334</v>
+        <v>370</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>336</v>
+        <v>372</v>
       </c>
     </row>
     <row r="44" ht="81.6" spans="1:6">
       <c r="A44" s="4" t="s">
-        <v>248</v>
+        <v>284</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>337</v>
+        <v>373</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>338</v>
+        <v>374</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>339</v>
+        <v>375</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>340</v>
+        <v>376</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>341</v>
+        <v>377</v>
       </c>
     </row>
     <row r="45" ht="122.4" spans="1:6">
       <c r="A45" s="4" t="s">
-        <v>253</v>
+        <v>289</v>
       </c>
       <c r="B45" s="21">
         <v>43346</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>342</v>
+        <v>378</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>343</v>
+        <v>379</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>344</v>
+        <v>380</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>345</v>
+        <v>381</v>
       </c>
     </row>
     <row r="46" ht="20.4" spans="1:6">
@@ -6323,7 +6573,7 @@
     </row>
     <row r="53" ht="20.4" spans="1:6">
       <c r="A53" s="11" t="s">
-        <v>346</v>
+        <v>382</v>
       </c>
       <c r="B53" s="11"/>
       <c r="C53" s="11"/>
@@ -6333,200 +6583,200 @@
     </row>
     <row r="54" ht="20.4" spans="1:6">
       <c r="A54" s="2" t="s">
-        <v>212</v>
+        <v>248</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>160</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>347</v>
+        <v>383</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>348</v>
+        <v>384</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>349</v>
+        <v>385</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
     </row>
     <row r="55" ht="61.2" spans="1:6">
       <c r="A55" s="4" t="s">
-        <v>351</v>
+        <v>387</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>352</v>
+        <v>388</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>353</v>
+        <v>389</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>354</v>
+        <v>390</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>355</v>
+        <v>391</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>356</v>
+        <v>392</v>
       </c>
     </row>
     <row r="56" ht="40.8" spans="1:6">
       <c r="A56" s="2" t="s">
-        <v>227</v>
+        <v>263</v>
       </c>
       <c r="B56" s="14">
         <v>43347</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>357</v>
+        <v>393</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>358</v>
+        <v>394</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>359</v>
+        <v>395</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>360</v>
+        <v>396</v>
       </c>
     </row>
     <row r="57" ht="20.4" spans="1:6">
       <c r="A57" s="2" t="s">
-        <v>217</v>
+        <v>253</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>151</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>361</v>
+        <v>397</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>362</v>
+        <v>398</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>363</v>
+        <v>399</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>221</v>
+        <v>257</v>
       </c>
     </row>
     <row r="58" ht="163.2" spans="1:6">
       <c r="A58" s="4" t="s">
-        <v>222</v>
+        <v>258</v>
       </c>
       <c r="B58" s="22">
         <v>43347</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>364</v>
+        <v>400</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>365</v>
+        <v>401</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>366</v>
+        <v>402</v>
       </c>
       <c r="F58" s="5"/>
     </row>
     <row r="59" ht="81.6" spans="1:6">
       <c r="A59" s="6" t="s">
-        <v>238</v>
+        <v>274</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>160</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>367</v>
+        <v>403</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>368</v>
+        <v>404</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>369</v>
+        <v>405</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>370</v>
+        <v>406</v>
       </c>
     </row>
     <row r="60" ht="102" spans="1:6">
       <c r="A60" s="4" t="s">
-        <v>243</v>
+        <v>279</v>
       </c>
       <c r="B60" s="21">
         <v>43347</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>371</v>
+        <v>407</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>372</v>
+        <v>408</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>373</v>
+        <v>409</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>374</v>
+        <v>410</v>
       </c>
     </row>
     <row r="61" ht="81.6" spans="1:6">
       <c r="A61" s="4" t="s">
-        <v>253</v>
+        <v>289</v>
       </c>
       <c r="B61" s="21">
         <v>43347</v>
       </c>
       <c r="C61" s="23" t="s">
-        <v>375</v>
+        <v>411</v>
       </c>
       <c r="D61" s="23" t="s">
-        <v>376</v>
+        <v>412</v>
       </c>
       <c r="E61" s="23" t="s">
-        <v>377</v>
+        <v>413</v>
       </c>
       <c r="F61" s="23" t="s">
-        <v>378</v>
+        <v>414</v>
       </c>
     </row>
     <row r="62" ht="142.8" spans="1:6">
       <c r="A62" s="4" t="s">
-        <v>258</v>
+        <v>294</v>
       </c>
       <c r="B62" s="22">
         <v>43347</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>379</v>
+        <v>415</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>380</v>
+        <v>416</v>
       </c>
       <c r="E62" s="20" t="s">
-        <v>381</v>
+        <v>417</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>382</v>
+        <v>418</v>
       </c>
     </row>
     <row r="63" ht="61.2" spans="1:6">
       <c r="A63" s="4" t="s">
-        <v>248</v>
+        <v>284</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>383</v>
+        <v>419</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>384</v>
+        <v>420</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>385</v>
+        <v>421</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>386</v>
+        <v>422</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>387</v>
+        <v>423</v>
       </c>
     </row>
   </sheetData>
@@ -6576,207 +6826,207 @@
     </row>
     <row r="2" ht="122.4" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>388</v>
+        <v>424</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>389</v>
+        <v>425</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>390</v>
+        <v>426</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>391</v>
+        <v>427</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>392</v>
+        <v>428</v>
       </c>
     </row>
     <row r="3" ht="102" spans="1:6">
       <c r="A3" s="4" t="s">
-        <v>393</v>
+        <v>429</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>394</v>
+        <v>430</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>395</v>
+        <v>431</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>396</v>
+        <v>432</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>397</v>
+        <v>433</v>
       </c>
     </row>
     <row r="4" ht="40.8" spans="1:6">
       <c r="A4" s="4" t="s">
-        <v>398</v>
+        <v>434</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>399</v>
+        <v>435</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>400</v>
+        <v>436</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>401</v>
+        <v>437</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>402</v>
+        <v>438</v>
       </c>
     </row>
     <row r="5" ht="142.8" spans="1:6">
       <c r="A5" s="4" t="s">
-        <v>403</v>
+        <v>439</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>404</v>
+        <v>440</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>405</v>
+        <v>441</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>406</v>
+        <v>442</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>407</v>
+        <v>443</v>
       </c>
     </row>
     <row r="6" ht="326.4" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>408</v>
+        <v>444</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>409</v>
+        <v>445</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>410</v>
+        <v>446</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>411</v>
+        <v>447</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>412</v>
+        <v>448</v>
       </c>
     </row>
     <row r="7" ht="409.5" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>413</v>
+        <v>449</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>414</v>
+        <v>450</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>415</v>
+        <v>451</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>416</v>
+        <v>452</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>417</v>
+        <v>453</v>
       </c>
     </row>
     <row r="8" ht="285.6" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>418</v>
+        <v>454</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>419</v>
+        <v>455</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>420</v>
+        <v>456</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>421</v>
+        <v>457</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>422</v>
+        <v>458</v>
       </c>
     </row>
     <row r="9" ht="40.8" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>423</v>
+        <v>459</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>424</v>
+        <v>460</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>425</v>
+        <v>461</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>426</v>
+        <v>462</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>427</v>
+        <v>463</v>
       </c>
     </row>
     <row r="10" ht="142.8" spans="1:6">
       <c r="A10" s="2" t="s">
-        <v>428</v>
+        <v>464</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>404</v>
+        <v>440</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>429</v>
+        <v>465</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>430</v>
+        <v>466</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>431</v>
+        <v>467</v>
       </c>
     </row>
     <row r="11" ht="204" spans="1:6">
       <c r="A11" s="2" t="s">
-        <v>432</v>
+        <v>468</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>433</v>
+        <v>469</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>434</v>
+        <v>470</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>435</v>
+        <v>471</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>436</v>
+        <v>472</v>
       </c>
     </row>
     <row r="12" ht="20.4" spans="1:6">
       <c r="A12" s="7" t="s">
-        <v>346</v>
+        <v>382</v>
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -6806,207 +7056,207 @@
     </row>
     <row r="14" ht="81.6" spans="1:6">
       <c r="A14" s="2" t="s">
-        <v>428</v>
+        <v>464</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>74</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>437</v>
+        <v>473</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>438</v>
+        <v>474</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>439</v>
+        <v>475</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>440</v>
+        <v>476</v>
       </c>
     </row>
     <row r="15" ht="326.4" spans="1:6">
       <c r="A15" s="2" t="s">
-        <v>418</v>
+        <v>454</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>74</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>441</v>
+        <v>477</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>442</v>
+        <v>478</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>443</v>
+        <v>479</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>444</v>
+        <v>480</v>
       </c>
     </row>
     <row r="16" ht="142.8" spans="1:6">
       <c r="A16" s="2" t="s">
-        <v>388</v>
+        <v>424</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>74</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>445</v>
+        <v>481</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>446</v>
+        <v>482</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>447</v>
+        <v>483</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
     </row>
     <row r="17" ht="81.6" spans="1:6">
       <c r="A17" s="2" t="s">
-        <v>449</v>
+        <v>485</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>74</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>450</v>
+        <v>486</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>451</v>
+        <v>487</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>452</v>
+        <v>488</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>453</v>
+        <v>489</v>
       </c>
     </row>
     <row r="18" ht="122.4" spans="1:6">
       <c r="A18" s="2" t="s">
-        <v>454</v>
+        <v>490</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>74</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>455</v>
+        <v>491</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>456</v>
+        <v>492</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>457</v>
+        <v>493</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>458</v>
+        <v>494</v>
       </c>
     </row>
     <row r="19" ht="367.2" spans="1:6">
       <c r="A19" s="2" t="s">
-        <v>408</v>
+        <v>444</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>74</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>459</v>
+        <v>495</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>460</v>
+        <v>496</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>461</v>
+        <v>497</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>462</v>
+        <v>498</v>
       </c>
     </row>
     <row r="20" ht="142.8" spans="1:6">
       <c r="A20" s="2" t="s">
-        <v>463</v>
+        <v>499</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>89</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>464</v>
+        <v>500</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>465</v>
+        <v>501</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>466</v>
+        <v>502</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>467</v>
+        <v>503</v>
       </c>
     </row>
     <row r="21" ht="81.6" spans="1:6">
       <c r="A21" s="2" t="s">
-        <v>423</v>
+        <v>459</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>89</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>468</v>
+        <v>504</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>469</v>
+        <v>505</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>470</v>
+        <v>506</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>471</v>
+        <v>507</v>
       </c>
     </row>
     <row r="22" ht="409.5" spans="1:6">
       <c r="A22" s="2" t="s">
-        <v>413</v>
+        <v>449</v>
       </c>
       <c r="B22" s="10" t="s">
         <v>89</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>472</v>
+        <v>508</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>473</v>
+        <v>509</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>474</v>
+        <v>510</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>475</v>
+        <v>511</v>
       </c>
     </row>
     <row r="23" ht="102" spans="1:6">
       <c r="A23" s="2" t="s">
-        <v>476</v>
+        <v>512</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>89</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>477</v>
+        <v>513</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>478</v>
+        <v>514</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>479</v>
+        <v>515</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>436</v>
+        <v>472</v>
       </c>
     </row>
     <row r="24" ht="20.4" spans="1:6">
       <c r="A24" s="7" t="s">
-        <v>480</v>
+        <v>516</v>
       </c>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -7034,202 +7284,202 @@
     </row>
     <row r="26" ht="81.6" spans="1:6">
       <c r="A26" s="2" t="s">
-        <v>428</v>
+        <v>464</v>
       </c>
       <c r="B26" s="10" t="s">
         <v>107</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>481</v>
+        <v>517</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>482</v>
+        <v>518</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>483</v>
+        <v>519</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>484</v>
+        <v>520</v>
       </c>
     </row>
     <row r="27" ht="387.6" spans="1:6">
       <c r="A27" s="2" t="s">
-        <v>408</v>
+        <v>444</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>485</v>
+        <v>521</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>486</v>
+        <v>522</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>487</v>
+        <v>523</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>488</v>
+        <v>524</v>
       </c>
     </row>
     <row r="28" ht="142.8" spans="1:6">
       <c r="A28" s="2" t="s">
-        <v>413</v>
+        <v>449</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>489</v>
+        <v>525</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>490</v>
+        <v>526</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>491</v>
+        <v>527</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>492</v>
+        <v>528</v>
       </c>
     </row>
     <row r="29" ht="409.5" spans="1:6">
       <c r="A29" s="2" t="s">
-        <v>454</v>
+        <v>490</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>493</v>
+        <v>529</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>494</v>
+        <v>530</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>495</v>
+        <v>531</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>496</v>
+        <v>532</v>
       </c>
     </row>
     <row r="30" ht="122.4" spans="1:6">
       <c r="A30" s="2" t="s">
-        <v>423</v>
+        <v>459</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>497</v>
+        <v>533</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>498</v>
+        <v>534</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>499</v>
+        <v>535</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>500</v>
+        <v>536</v>
       </c>
     </row>
     <row r="31" ht="409.5" spans="1:6">
       <c r="A31" s="2" t="s">
-        <v>418</v>
+        <v>454</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>501</v>
+        <v>537</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>502</v>
+        <v>538</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>503</v>
+        <v>539</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>504</v>
+        <v>540</v>
       </c>
     </row>
     <row r="32" ht="163.2" spans="1:6">
       <c r="A32" s="2" t="s">
-        <v>388</v>
+        <v>424</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>505</v>
+        <v>541</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>506</v>
+        <v>542</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>507</v>
+        <v>543</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>508</v>
+        <v>544</v>
       </c>
     </row>
     <row r="33" ht="409.5" spans="1:6">
       <c r="A33" s="2" t="s">
-        <v>403</v>
+        <v>439</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>509</v>
+        <v>545</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>510</v>
+        <v>546</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>511</v>
+        <v>547</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>512</v>
+        <v>548</v>
       </c>
     </row>
     <row r="34" ht="102" spans="1:6">
       <c r="A34" s="2" t="s">
-        <v>476</v>
+        <v>512</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>513</v>
+        <v>549</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>514</v>
+        <v>550</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>515</v>
+        <v>551</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>516</v>
+        <v>552</v>
       </c>
     </row>
     <row r="35" ht="81.6" spans="1:6">
       <c r="A35" s="2" t="s">
-        <v>449</v>
+        <v>485</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>517</v>
+        <v>553</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>518</v>
+        <v>554</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>491</v>
+        <v>527</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>519</v>
+        <v>555</v>
       </c>
     </row>
     <row r="36" ht="20.4" spans="1:6">
@@ -7264,22 +7514,22 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="5" t="s">
-        <v>388</v>
+        <v>424</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>117</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>520</v>
+        <v>556</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>521</v>
+        <v>557</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>522</v>
+        <v>558</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>523</v>
+        <v>559</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7316,22 +7566,22 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="5" t="s">
-        <v>418</v>
+        <v>454</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>117</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>524</v>
+        <v>560</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>525</v>
+        <v>561</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>526</v>
+        <v>562</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>527</v>
+        <v>563</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -7368,22 +7618,22 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="5" t="s">
-        <v>423</v>
+        <v>459</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>117</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>528</v>
+        <v>564</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>529</v>
+        <v>565</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>530</v>
+        <v>566</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>531</v>
+        <v>567</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -7420,22 +7670,22 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="5" t="s">
-        <v>428</v>
+        <v>464</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>117</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>532</v>
+        <v>568</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>533</v>
+        <v>569</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>534</v>
+        <v>570</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>535</v>
+        <v>571</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -7472,22 +7722,22 @@
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="5" t="s">
-        <v>408</v>
+        <v>444</v>
       </c>
       <c r="B58" s="5" t="s">
         <v>117</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>536</v>
+        <v>572</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>537</v>
+        <v>573</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>538</v>
+        <v>574</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>539</v>
+        <v>575</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -7524,22 +7774,22 @@
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="5" t="s">
-        <v>454</v>
+        <v>490</v>
       </c>
       <c r="B63" s="5" t="s">
         <v>117</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>540</v>
+        <v>576</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>541</v>
+        <v>577</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>542</v>
+        <v>578</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>543</v>
+        <v>579</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -7576,22 +7826,22 @@
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="5" t="s">
-        <v>413</v>
+        <v>449</v>
       </c>
       <c r="B68" s="5" t="s">
         <v>117</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>544</v>
+        <v>580</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>545</v>
+        <v>581</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>546</v>
+        <v>582</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>547</v>
+        <v>583</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -7628,22 +7878,22 @@
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="5" t="s">
-        <v>403</v>
+        <v>439</v>
       </c>
       <c r="B73" s="5" t="s">
         <v>117</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>548</v>
+        <v>584</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>549</v>
+        <v>585</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>550</v>
+        <v>586</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>551</v>
+        <v>587</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -7680,42 +7930,42 @@
     </row>
     <row r="78" ht="204" spans="1:6">
       <c r="A78" s="2" t="s">
-        <v>449</v>
+        <v>485</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>117</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>536</v>
+        <v>572</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>552</v>
+        <v>588</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>542</v>
+        <v>578</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>543</v>
+        <v>579</v>
       </c>
     </row>
     <row r="79" ht="122.4" spans="1:6">
       <c r="A79" s="2" t="s">
-        <v>476</v>
+        <v>512</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>117</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>553</v>
+        <v>589</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>554</v>
+        <v>590</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>555</v>
+        <v>591</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>436</v>
+        <v>472</v>
       </c>
     </row>
     <row r="80" ht="20.4" spans="1:6">
@@ -7758,202 +8008,202 @@
     </row>
     <row r="83" ht="409.5" spans="1:6">
       <c r="A83" s="4" t="s">
-        <v>408</v>
+        <v>444</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>151</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>556</v>
+        <v>592</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>557</v>
+        <v>593</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>558</v>
+        <v>594</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>559</v>
+        <v>595</v>
       </c>
     </row>
     <row r="84" ht="102" spans="1:6">
       <c r="A84" s="4" t="s">
-        <v>428</v>
+        <v>464</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>151</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>560</v>
+        <v>596</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>561</v>
+        <v>597</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>562</v>
+        <v>598</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>563</v>
+        <v>599</v>
       </c>
     </row>
     <row r="85" ht="224.4" spans="1:6">
       <c r="A85" s="4" t="s">
-        <v>388</v>
+        <v>424</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>151</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>564</v>
+        <v>600</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>565</v>
+        <v>601</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>566</v>
+        <v>602</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>567</v>
+        <v>603</v>
       </c>
     </row>
     <row r="86" ht="285.6" spans="1:6">
       <c r="A86" s="4" t="s">
-        <v>463</v>
+        <v>499</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>151</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>568</v>
+        <v>604</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>569</v>
+        <v>605</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>570</v>
+        <v>606</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>571</v>
+        <v>607</v>
       </c>
     </row>
     <row r="87" ht="142.8" spans="1:6">
       <c r="A87" s="4" t="s">
-        <v>413</v>
+        <v>449</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>151</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>572</v>
+        <v>608</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>569</v>
+        <v>605</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>573</v>
+        <v>609</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>574</v>
+        <v>610</v>
       </c>
     </row>
     <row r="88" ht="81.6" spans="1:6">
       <c r="A88" s="4" t="s">
-        <v>454</v>
+        <v>490</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>151</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>575</v>
+        <v>611</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>576</v>
+        <v>612</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>577</v>
+        <v>613</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>578</v>
+        <v>614</v>
       </c>
     </row>
     <row r="89" ht="102" spans="1:6">
       <c r="A89" s="4" t="s">
-        <v>423</v>
+        <v>459</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>151</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>579</v>
+        <v>615</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>580</v>
+        <v>616</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>581</v>
+        <v>617</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>582</v>
+        <v>618</v>
       </c>
     </row>
     <row r="90" ht="142.8" spans="1:6">
       <c r="A90" s="12" t="s">
-        <v>418</v>
+        <v>454</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>151</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>583</v>
+        <v>619</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>584</v>
+        <v>620</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>585</v>
+        <v>621</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>586</v>
+        <v>622</v>
       </c>
     </row>
     <row r="91" ht="102" spans="1:6">
       <c r="A91" s="12" t="s">
-        <v>476</v>
+        <v>512</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>151</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>587</v>
+        <v>623</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>588</v>
+        <v>624</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>589</v>
+        <v>625</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>590</v>
+        <v>626</v>
       </c>
     </row>
     <row r="92" ht="61.2" spans="1:6">
       <c r="A92" s="12" t="s">
-        <v>449</v>
+        <v>485</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>151</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>591</v>
+        <v>627</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>592</v>
+        <v>628</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>593</v>
+        <v>629</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>594</v>
+        <v>630</v>
       </c>
     </row>
     <row r="93" ht="20.4" spans="1:6">
@@ -7988,22 +8238,22 @@
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="5" t="s">
-        <v>595</v>
+        <v>631</v>
       </c>
       <c r="B95" s="5">
         <v>9.5</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>596</v>
+        <v>632</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>597</v>
+        <v>633</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>598</v>
+        <v>634</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>599</v>
+        <v>635</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -8072,62 +8322,62 @@
     </row>
     <row r="104" ht="265.2" spans="1:6">
       <c r="A104" s="5" t="s">
-        <v>408</v>
+        <v>444</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>600</v>
+        <v>636</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>601</v>
+        <v>637</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>602</v>
+        <v>638</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>603</v>
+        <v>639</v>
       </c>
       <c r="F104" s="5" t="s">
-        <v>604</v>
+        <v>640</v>
       </c>
     </row>
     <row r="105" ht="102" spans="1:6">
       <c r="A105" s="5" t="s">
-        <v>413</v>
+        <v>449</v>
       </c>
       <c r="B105" s="5" t="s">
         <v>201</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>605</v>
+        <v>641</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>606</v>
+        <v>642</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>607</v>
+        <v>643</v>
       </c>
       <c r="F105" s="5" t="s">
-        <v>608</v>
+        <v>644</v>
       </c>
     </row>
     <row r="106" ht="409.5" spans="1:11">
       <c r="A106" s="4" t="s">
-        <v>403</v>
+        <v>439</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>609</v>
+        <v>645</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>548</v>
+        <v>584</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>549</v>
+        <v>585</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>550</v>
+        <v>586</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>551</v>
+        <v>587</v>
       </c>
       <c r="G106" s="2"/>
       <c r="H106" s="2"/>
@@ -8137,42 +8387,42 @@
     </row>
     <row r="107" ht="142.8" spans="1:6">
       <c r="A107" s="4" t="s">
-        <v>428</v>
+        <v>464</v>
       </c>
       <c r="B107" s="5" t="s">
         <v>201</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>610</v>
+        <v>646</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>611</v>
+        <v>647</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>612</v>
+        <v>648</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>613</v>
+        <v>649</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="5" t="s">
-        <v>418</v>
+        <v>454</v>
       </c>
       <c r="B108" s="5" t="s">
         <v>201</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>614</v>
+        <v>650</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>615</v>
+        <v>651</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>616</v>
+        <v>652</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>617</v>
+        <v>653</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -8225,22 +8475,22 @@
     </row>
     <row r="115" ht="20.4" spans="1:9">
       <c r="A115" s="5" t="s">
-        <v>388</v>
+        <v>424</v>
       </c>
       <c r="B115" s="5" t="s">
         <v>201</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>618</v>
+        <v>654</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>619</v>
+        <v>655</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>620</v>
+        <v>656</v>
       </c>
       <c r="F115" s="5" t="s">
-        <v>621</v>
+        <v>657</v>
       </c>
       <c r="G115" s="2"/>
       <c r="H115" s="2"/>
@@ -8296,22 +8546,22 @@
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="5" t="s">
-        <v>423</v>
+        <v>459</v>
       </c>
       <c r="B122" s="5" t="s">
         <v>201</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>622</v>
+        <v>658</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>623</v>
+        <v>659</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>624</v>
+        <v>660</v>
       </c>
       <c r="F122" s="5" t="s">
-        <v>625</v>
+        <v>661</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -8364,22 +8614,22 @@
     </row>
     <row r="129" spans="1:6">
       <c r="A129" s="5" t="s">
-        <v>476</v>
+        <v>512</v>
       </c>
       <c r="B129" s="5" t="s">
         <v>201</v>
       </c>
       <c r="C129" s="5" t="s">
+        <v>662</v>
+      </c>
+      <c r="D129" s="5" t="s">
+        <v>663</v>
+      </c>
+      <c r="E129" s="5" t="s">
+        <v>664</v>
+      </c>
+      <c r="F129" s="5" t="s">
         <v>626</v>
-      </c>
-      <c r="D129" s="5" t="s">
-        <v>627</v>
-      </c>
-      <c r="E129" s="5" t="s">
-        <v>628</v>
-      </c>
-      <c r="F129" s="5" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -8432,22 +8682,22 @@
     </row>
     <row r="136" spans="1:6">
       <c r="A136" s="5" t="s">
-        <v>449</v>
+        <v>485</v>
       </c>
       <c r="B136" s="5" t="s">
         <v>201</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>629</v>
+        <v>665</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>630</v>
+        <v>666</v>
       </c>
       <c r="E136" s="5" t="s">
-        <v>631</v>
+        <v>667</v>
       </c>
       <c r="F136" s="5" t="s">
-        <v>632</v>
+        <v>668</v>
       </c>
     </row>
     <row r="137" spans="1:6">

--- a/1601W.xlsx
+++ b/1601W.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="9924"/>
+    <workbookView windowWidth="22943" windowHeight="9515" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="第一小组" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703">
   <si>
     <t>姓名</t>
   </si>
@@ -2612,16 +2612,151 @@
   <si>
     <t>跟上组里进度，早日完成知识图谱的项目</t>
   </si>
+  <si>
+    <t>1.理解wikidataSpider模块的流程与实现
+2.梳理新增的病虫害业务需求的思路
+3.debug调试理解代码块
+4.对三元组存储实体及其间关系的认识</t>
+  </si>
+  <si>
+    <t>1.理解维基百科爬取数据
+及比对的流程
+2.对需求步骤的分工有了
+更详细的细化
+3.有了对debug的简单认识，
+但还是不会进入函数内部
+debug调试
+4.在字典键值存储数据的
+基础上认识到三元组
+这种新型数据存储方式</t>
+  </si>
+  <si>
+    <t>1.在运行维基百科爬虫模块时
+出现KeyError: 'Spider not found: wikidataCrawler'
+解决：用的是普通的run而不是debug，目录缺失
+2.在梳理Django项目时不太理解表名在代码中所处的位置与
+app_name的作用
+3.对维基百科代码模块的理解还不够深入</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.理解关于维基百科relation的建立
+并将新的业务需求relation表示出来
+2.对算法模块进行详细的理解与原理
+的阐述
+3.对Django项目做最后的总结
+</t>
+  </si>
+  <si>
+    <t>完善django框架中，的增删改查；在scrapy框架中，重新复习中又遇到了新的bug,包括数据库保关系的连接；另外更加完善老师布置的需求，思路等问题</t>
+  </si>
+  <si>
+    <t>更加熟悉和完善 框架知识；包括一些传值等系列小问题</t>
+  </si>
+  <si>
+    <t>思路的中间中，包括自己在词条和词条关系方面存在问题，细节问题；脱离教程和文案，自主作业完成度不够</t>
+  </si>
+  <si>
+    <t>更加熟悉框架中的作用。，完善思路，继续加强训练。脱离教程，自己来尝试爬取新网页</t>
+  </si>
+  <si>
+    <t>对于项目增删改查的了解有了进一步提升
+对于GitHub进行了复习，对于一些个算法
+进行了复兴</t>
+  </si>
+  <si>
+    <t>对于知识的掌握还是
+不够牢固，在此基础上进行一定的加深</t>
+  </si>
+  <si>
+    <t>对于知识图谱
+的项目掌握有不足，对于各种参数的调配还是不理解</t>
+  </si>
+  <si>
+    <t>在此技术上进行一个推荐，不断的进行更为细致的划分</t>
+  </si>
+  <si>
+    <t>今天继续学习了关于知识图谱项目的内容，并对django框架继续升入学习</t>
+  </si>
+  <si>
+    <t>对django框架的增删改查熟练的使用，并对团队项目完成分工</t>
+  </si>
+  <si>
+    <t>在增删改查的时候遇到了传参的问题，已经解决</t>
+  </si>
+  <si>
+    <t>明确知识图谱项目分工，对自己的模块开始进行</t>
+  </si>
+  <si>
+    <t>1.了解了wikidataCrawler的运行流程，进一步搞懂了农业知识图谱的流程，理清了老师布置的项目需求和项目思路：植物类（第6类）与 植物病害类(第10类) 建立关系；点击植物病害类,若无图片,为病害添加图片；点击植物病害类,若无图片,为病害添加图片。思路：1: 在互动百科中爬取植物病害的数据
+2: 爬取数据与第10类作对比,将第10类没有的病害添加进去（重新去重过滤后存入一新的文档）
+3: 将添加好的第10类病害按有无图片分为两类
+4: 通过爬虫获取图片,把图片添加到无图片的病害中
+5: 将第6类与第10类建立关系(通过两类的词条相似度对比，建立对应的类似key-value关系存入.csv文件)</t>
+  </si>
+  <si>
+    <t>wikidataCrawler成功运行，并用debug看了这个项目的运行流程</t>
+  </si>
+  <si>
+    <t>爬虫过程中总是不熟悉流程，通过反复敲了几个scrapy的实战项目最终掌握了。</t>
+  </si>
+  <si>
+    <t>今天主要是理清了我们小组的项目需求和项目思路，明天争取按照思路敲好项目</t>
+  </si>
+  <si>
+    <t>梳理知识图谱的思路，及代码</t>
+  </si>
+  <si>
+    <t>完成了对病害的爬取</t>
+  </si>
+  <si>
+    <t>爬取时 html.find()
+抓取不到h3嵌套a标签</t>
+  </si>
+  <si>
+    <t>将思路用代码方式实现</t>
+  </si>
+  <si>
+    <t>已经爬取了数据，正在确定存取方式和关系，</t>
+  </si>
+  <si>
+    <t>维基百科并没有植物与病害的关系，我们可能需要手动添加</t>
+  </si>
+  <si>
+    <t>百科上本身分类不全</t>
+  </si>
+  <si>
+    <t>解决关系和存取方式</t>
+  </si>
+  <si>
+    <t>1.讨论修改项目需求
+2.做django模糊分页</t>
+  </si>
+  <si>
+    <t>1.熟练增删改查
+2.查询老师给的项目的各个知识点</t>
+  </si>
+  <si>
+    <t>没什么问题，自己调整心态</t>
+  </si>
+  <si>
+    <t>练习django web端增删改查回显等</t>
+  </si>
+  <si>
+    <t>知识图谱不怎么懂</t>
+  </si>
+  <si>
+    <t>今天先吃饱，不然怎么去想明天吃什么</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -2677,15 +2812,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2707,7 +2836,43 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2738,29 +2903,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2768,7 +2911,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2792,7 +2935,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2800,22 +2943,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2854,31 +2989,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2896,7 +3013,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2908,19 +3049,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2932,7 +3067,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2944,7 +3133,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2956,19 +3145,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2980,49 +3157,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3036,6 +3171,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -3045,20 +3195,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3078,43 +3225,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3133,6 +3248,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3144,7 +3279,7 @@
     <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3156,134 +3291,134 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3322,6 +3457,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3612,7 +3750,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -3893,8 +4031,8 @@
   <sheetPr/>
   <dimension ref="A1:S185"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A115" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A112" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="A118" sqref="A118"/>
     </sheetView>
@@ -3910,23 +4048,23 @@
     <col min="7" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="29" customFormat="1" spans="1:6">
-      <c r="A1" s="32" t="s">
+    <row r="1" s="30" customFormat="1" spans="1:6">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="33" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3951,671 +4089,671 @@
       </c>
     </row>
     <row r="3" ht="94.05" customHeight="1" spans="1:6">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="D3" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="E3" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="33" t="s">
+      <c r="F3" s="34" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" ht="40.8" spans="1:6">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="34">
+      <c r="B4" s="35">
         <v>43341</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="33" t="s">
+      <c r="D4" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="E4" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="35" t="s">
+      <c r="F4" s="36" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" ht="40.8" spans="1:6">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="33" t="s">
+      <c r="D5" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="35" t="s">
+      <c r="E5" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="33" t="s">
+      <c r="F5" s="34" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="6" ht="244.8" spans="1:6">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="35" t="s">
+      <c r="D6" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="33" t="s">
+      <c r="E6" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="35" t="s">
+      <c r="F6" s="36" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="7" ht="81" customHeight="1" spans="1:6">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="33" t="s">
+      <c r="D7" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="36" t="s">
+      <c r="E7" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="36" t="s">
+      <c r="F7" s="37" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="8" ht="81.6" spans="1:6">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="34">
+      <c r="B8" s="35">
         <v>43341</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="35" t="s">
+      <c r="D8" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="35" t="s">
+      <c r="E8" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="33" t="s">
+      <c r="F8" s="34" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="9" ht="94.95" customHeight="1" spans="1:6">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="35" t="s">
+      <c r="C9" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="33" t="s">
+      <c r="D9" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="E9" s="33" t="s">
+      <c r="E9" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="F9" s="35" t="s">
+      <c r="F9" s="36" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="34">
+      <c r="B10" s="35">
         <v>43341</v>
       </c>
-      <c r="C10" s="33" t="s">
+      <c r="C10" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="D10" s="33" t="s">
+      <c r="D10" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="E10" s="33" t="s">
+      <c r="E10" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="F10" s="33" t="s">
+      <c r="F10" s="34" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="11" ht="204" spans="1:6">
-      <c r="A11" s="35" t="s">
+      <c r="A11" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="B11" s="37">
+      <c r="B11" s="38">
         <v>43341</v>
       </c>
-      <c r="C11" s="35" t="s">
+      <c r="C11" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="D11" s="35" t="s">
+      <c r="D11" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="E11" s="35" t="s">
+      <c r="E11" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="F11" s="35" t="s">
+      <c r="F11" s="36" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="38"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
+      <c r="A12" s="39"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="39"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
+      <c r="A13" s="40"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="39"/>
-      <c r="B14" s="38"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
+      <c r="A14" s="40"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="39"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
+      <c r="A15" s="40"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="39"/>
-      <c r="B16" s="38"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
+      <c r="A16" s="40"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
     </row>
     <row r="17" ht="57" customHeight="1" spans="1:6">
-      <c r="A17" s="39"/>
-      <c r="B17" s="38"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
+      <c r="A17" s="40"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="38"/>
-      <c r="B18" s="38"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
+      <c r="A18" s="39"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="38"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-    </row>
-    <row r="20" s="30" customFormat="1" spans="1:6">
-      <c r="A20" s="40" t="s">
+      <c r="A19" s="39"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+    </row>
+    <row r="20" s="31" customFormat="1" spans="1:6">
+      <c r="A20" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="B20" s="41"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
     </row>
     <row r="21" ht="81.6" spans="1:6">
-      <c r="A21" s="35" t="s">
+      <c r="A21" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="37">
+      <c r="B21" s="38">
         <v>43342</v>
       </c>
-      <c r="C21" s="35" t="s">
+      <c r="C21" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="D21" s="35" t="s">
+      <c r="D21" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="E21" s="35" t="s">
+      <c r="E21" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="F21" s="35" t="s">
+      <c r="F21" s="36" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="22" ht="102" spans="1:6">
-      <c r="A22" s="35" t="s">
+      <c r="A22" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="B22" s="37">
+      <c r="B22" s="38">
         <v>43342</v>
       </c>
-      <c r="C22" s="35" t="s">
+      <c r="C22" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="D22" s="35" t="s">
+      <c r="D22" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="E22" s="35" t="s">
+      <c r="E22" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="F22" s="35" t="s">
+      <c r="F22" s="36" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="23" ht="40.8" spans="1:6">
-      <c r="A23" s="33" t="s">
+      <c r="A23" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="34">
+      <c r="B23" s="35">
         <v>43341</v>
       </c>
-      <c r="C23" s="35" t="s">
+      <c r="C23" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="D23" s="33" t="s">
+      <c r="D23" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="E23" s="33" t="s">
+      <c r="E23" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="F23" s="33" t="s">
+      <c r="F23" s="34" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="24" ht="61.2" spans="1:6">
-      <c r="A24" s="33" t="s">
+      <c r="A24" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="33" t="s">
+      <c r="B24" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="C24" s="35" t="s">
+      <c r="C24" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="D24" s="42" t="s">
+      <c r="D24" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="E24" s="35" t="s">
+      <c r="E24" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="F24" s="33" t="s">
+      <c r="F24" s="34" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="25" ht="102" spans="1:6">
-      <c r="A25" s="33" t="s">
+      <c r="A25" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="33" t="s">
+      <c r="B25" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="C25" s="35" t="s">
+      <c r="C25" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="D25" s="35" t="s">
+      <c r="D25" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="E25" s="33" t="s">
+      <c r="E25" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="F25" s="35" t="s">
+      <c r="F25" s="36" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="26" ht="81.6" spans="1:6">
-      <c r="A26" s="33" t="s">
+      <c r="A26" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="B26" s="34">
+      <c r="B26" s="35">
         <v>43342</v>
       </c>
-      <c r="C26" s="33" t="s">
+      <c r="C26" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="D26" s="33" t="s">
+      <c r="D26" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="E26" s="35" t="s">
+      <c r="E26" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="F26" s="33" t="s">
+      <c r="F26" s="34" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="27" ht="40.8" spans="1:7">
-      <c r="A27" s="33" t="s">
+      <c r="A27" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="B27" s="34" t="s">
+      <c r="B27" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="C27" s="33" t="s">
+      <c r="C27" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="D27" s="33" t="s">
+      <c r="D27" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="E27" s="35" t="s">
+      <c r="E27" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="F27" s="33" t="s">
+      <c r="F27" s="34" t="s">
         <v>88</v>
       </c>
       <c r="G27"/>
     </row>
     <row r="28" ht="55.05" customHeight="1" spans="1:6">
-      <c r="A28" s="33" t="s">
+      <c r="A28" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="B28" s="33" t="s">
+      <c r="B28" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="C28" s="35" t="s">
+      <c r="C28" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="D28" s="33" t="s">
+      <c r="D28" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="E28" s="33" t="s">
+      <c r="E28" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="F28" s="33" t="s">
+      <c r="F28" s="34" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="29" ht="142.8" spans="1:6">
-      <c r="A29" s="33" t="s">
+      <c r="A29" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="35" t="s">
+      <c r="B29" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="C29" s="36" t="s">
+      <c r="C29" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="D29" s="33" t="s">
+      <c r="D29" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="E29" s="36" t="s">
+      <c r="E29" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="F29" s="36" t="s">
+      <c r="F29" s="37" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="30" ht="25.95" customHeight="1" spans="1:6">
-      <c r="A30" s="38"/>
-      <c r="B30" s="38"/>
-      <c r="C30" s="38"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="38"/>
+      <c r="A30" s="39"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="39"/>
     </row>
     <row r="31" ht="42" customHeight="1" spans="1:6">
-      <c r="A31" s="38"/>
-      <c r="B31" s="38"/>
-      <c r="C31" s="38"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="38"/>
+      <c r="A31" s="39"/>
+      <c r="B31" s="39"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="39"/>
     </row>
     <row r="32" ht="30" customHeight="1" spans="1:6">
-      <c r="A32" s="43"/>
-      <c r="B32" s="38"/>
-      <c r="C32" s="43"/>
-      <c r="D32" s="43"/>
-      <c r="E32" s="43"/>
-      <c r="F32" s="43"/>
+      <c r="A32" s="44"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="44"/>
+      <c r="D32" s="44"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="44"/>
     </row>
     <row r="33" ht="22.95" customHeight="1" spans="1:6">
-      <c r="A33" s="43"/>
-      <c r="B33" s="38"/>
-      <c r="C33" s="43"/>
-      <c r="D33" s="43"/>
-      <c r="E33" s="43"/>
-      <c r="F33" s="43"/>
+      <c r="A33" s="44"/>
+      <c r="B33" s="39"/>
+      <c r="C33" s="44"/>
+      <c r="D33" s="44"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="44"/>
     </row>
     <row r="34" ht="30" customHeight="1" spans="1:6">
-      <c r="A34" s="43"/>
-      <c r="B34" s="38"/>
-      <c r="C34" s="43"/>
-      <c r="D34" s="43"/>
-      <c r="E34" s="43"/>
-      <c r="F34" s="43"/>
+      <c r="A34" s="44"/>
+      <c r="B34" s="39"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="44"/>
     </row>
     <row r="35" ht="24" customHeight="1" spans="1:6">
-      <c r="A35" s="43"/>
-      <c r="B35" s="38"/>
-      <c r="C35" s="44"/>
-      <c r="D35" s="43"/>
-      <c r="E35" s="44"/>
-      <c r="F35" s="44"/>
+      <c r="A35" s="44"/>
+      <c r="B35" s="39"/>
+      <c r="C35" s="45"/>
+      <c r="D35" s="44"/>
+      <c r="E35" s="45"/>
+      <c r="F35" s="45"/>
     </row>
     <row r="36" ht="28.95" customHeight="1" spans="1:6">
-      <c r="A36" s="43"/>
-      <c r="B36" s="38"/>
-      <c r="C36" s="44"/>
-      <c r="D36" s="43"/>
-      <c r="E36" s="45"/>
-      <c r="F36" s="43"/>
+      <c r="A36" s="44"/>
+      <c r="B36" s="39"/>
+      <c r="C36" s="45"/>
+      <c r="D36" s="44"/>
+      <c r="E36" s="46"/>
+      <c r="F36" s="44"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="43"/>
-      <c r="B37" s="38"/>
-      <c r="C37" s="43"/>
-      <c r="D37" s="43"/>
-      <c r="E37" s="43"/>
-      <c r="F37" s="43"/>
-    </row>
-    <row r="38" s="31" customFormat="1" spans="1:6">
-      <c r="A38" s="40" t="s">
+      <c r="A37" s="44"/>
+      <c r="B37" s="39"/>
+      <c r="C37" s="44"/>
+      <c r="D37" s="44"/>
+      <c r="E37" s="44"/>
+      <c r="F37" s="44"/>
+    </row>
+    <row r="38" s="32" customFormat="1" spans="1:6">
+      <c r="A38" s="41" t="s">
         <v>98</v>
       </c>
-      <c r="B38" s="40"/>
-      <c r="C38" s="40"/>
-      <c r="D38" s="40"/>
-      <c r="E38" s="40"/>
-      <c r="F38" s="40"/>
+      <c r="B38" s="41"/>
+      <c r="C38" s="41"/>
+      <c r="D38" s="41"/>
+      <c r="E38" s="41"/>
+      <c r="F38" s="41"/>
     </row>
     <row r="39" ht="40.8" spans="1:6">
-      <c r="A39" s="46" t="s">
+      <c r="A39" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="B39" s="47">
+      <c r="B39" s="48">
         <v>43342</v>
       </c>
-      <c r="C39" s="48" t="s">
+      <c r="C39" s="49" t="s">
         <v>99</v>
       </c>
-      <c r="D39" s="46" t="s">
+      <c r="D39" s="47" t="s">
         <v>100</v>
       </c>
-      <c r="E39" s="46" t="s">
+      <c r="E39" s="47" t="s">
         <v>101</v>
       </c>
-      <c r="F39" s="46" t="s">
+      <c r="F39" s="47" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="40" ht="61.2" spans="1:6">
-      <c r="A40" s="48" t="s">
+      <c r="A40" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="B40" s="49">
+      <c r="B40" s="50">
         <v>43343</v>
       </c>
-      <c r="C40" s="48" t="s">
+      <c r="C40" s="49" t="s">
         <v>103</v>
       </c>
-      <c r="D40" s="48" t="s">
+      <c r="D40" s="49" t="s">
         <v>104</v>
       </c>
-      <c r="E40" s="48" t="s">
+      <c r="E40" s="49" t="s">
         <v>105</v>
       </c>
-      <c r="F40" s="48" t="s">
+      <c r="F40" s="49" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="41" ht="102" spans="1:6">
-      <c r="A41" s="46" t="s">
+      <c r="A41" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="B41" s="46" t="s">
+      <c r="B41" s="47" t="s">
         <v>107</v>
       </c>
-      <c r="C41" s="48" t="s">
+      <c r="C41" s="49" t="s">
         <v>108</v>
       </c>
-      <c r="D41" s="48" t="s">
+      <c r="D41" s="49" t="s">
         <v>109</v>
       </c>
-      <c r="E41" s="46" t="s">
+      <c r="E41" s="47" t="s">
         <v>110</v>
       </c>
-      <c r="F41" s="48" t="s">
+      <c r="F41" s="49" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="42" ht="81.6" spans="1:6">
-      <c r="A42" s="46" t="s">
+      <c r="A42" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="B42" s="47">
+      <c r="B42" s="48">
         <v>43343</v>
       </c>
-      <c r="C42" s="48" t="s">
+      <c r="C42" s="49" t="s">
         <v>111</v>
       </c>
-      <c r="D42" s="48" t="s">
+      <c r="D42" s="49" t="s">
         <v>112</v>
       </c>
-      <c r="E42" s="48" t="s">
+      <c r="E42" s="49" t="s">
         <v>113</v>
       </c>
-      <c r="F42" s="48" t="s">
+      <c r="F42" s="49" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="43" ht="45" customHeight="1" spans="1:6">
-      <c r="A43" s="46" t="s">
+      <c r="A43" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="B43" s="46" t="s">
+      <c r="B43" s="47" t="s">
         <v>89</v>
       </c>
-      <c r="C43" s="48" t="s">
+      <c r="C43" s="49" t="s">
         <v>90</v>
       </c>
-      <c r="D43" s="46" t="s">
+      <c r="D43" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="E43" s="46" t="s">
+      <c r="E43" s="47" t="s">
         <v>92</v>
       </c>
-      <c r="F43" s="46" t="s">
+      <c r="F43" s="47" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="44" ht="28.95" customHeight="1" spans="1:6">
-      <c r="A44" s="46" t="s">
+      <c r="A44" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="B44" s="47">
+      <c r="B44" s="48">
         <v>43342</v>
       </c>
-      <c r="C44" s="46" t="s">
+      <c r="C44" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="D44" s="46" t="s">
+      <c r="D44" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="E44" s="48" t="s">
+      <c r="E44" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="F44" s="46" t="s">
+      <c r="F44" s="47" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="45" ht="49.05" customHeight="1" spans="1:6">
-      <c r="A45" s="46" t="s">
+      <c r="A45" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="B45" s="48" t="s">
+      <c r="B45" s="49" t="s">
         <v>94</v>
       </c>
-      <c r="C45" s="50" t="s">
+      <c r="C45" s="51" t="s">
         <v>95</v>
       </c>
-      <c r="D45" s="46" t="s">
+      <c r="D45" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="E45" s="50" t="s">
+      <c r="E45" s="51" t="s">
         <v>96</v>
       </c>
-      <c r="F45" s="50" t="s">
+      <c r="F45" s="51" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="46" ht="67.05" customHeight="1" spans="1:19">
-      <c r="A46" s="46" t="s">
+      <c r="A46" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="B46" s="46" t="s">
+      <c r="B46" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="C46" s="48" t="s">
+      <c r="C46" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="D46" s="51" t="s">
+      <c r="D46" s="52" t="s">
         <v>76</v>
       </c>
-      <c r="E46" s="48" t="s">
+      <c r="E46" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="F46" s="46" t="s">
+      <c r="F46" s="47" t="s">
         <v>77</v>
       </c>
       <c r="G46"/>
@@ -4633,326 +4771,326 @@
       <c r="S46"/>
     </row>
     <row r="47" ht="46.05" customHeight="1" spans="1:6">
-      <c r="A47" s="46" t="s">
+      <c r="A47" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="B47" s="47" t="s">
+      <c r="B47" s="48" t="s">
         <v>85</v>
       </c>
-      <c r="C47" s="46" t="s">
+      <c r="C47" s="47" t="s">
         <v>115</v>
       </c>
-      <c r="D47" s="46" t="s">
+      <c r="D47" s="47" t="s">
         <v>86</v>
       </c>
-      <c r="E47" s="48" t="s">
+      <c r="E47" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="F47" s="46" t="s">
+      <c r="F47" s="47" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="48" ht="25.05" customHeight="1" spans="1:6">
-      <c r="A48" s="52"/>
-      <c r="B48" s="52"/>
-      <c r="C48" s="52"/>
-      <c r="D48" s="52"/>
-      <c r="E48" s="52"/>
-      <c r="F48" s="52"/>
+      <c r="A48" s="53"/>
+      <c r="B48" s="53"/>
+      <c r="C48" s="53"/>
+      <c r="D48" s="53"/>
+      <c r="E48" s="53"/>
+      <c r="F48" s="53"/>
     </row>
     <row r="49" ht="33" customHeight="1" spans="1:6">
-      <c r="A49" s="53"/>
-      <c r="B49" s="52"/>
-      <c r="C49" s="53"/>
-      <c r="D49" s="53"/>
-      <c r="E49" s="53"/>
-      <c r="F49" s="52"/>
+      <c r="A49" s="54"/>
+      <c r="B49" s="53"/>
+      <c r="C49" s="54"/>
+      <c r="D49" s="54"/>
+      <c r="E49" s="54"/>
+      <c r="F49" s="53"/>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="52"/>
-      <c r="B50" s="52"/>
-      <c r="C50" s="52"/>
-      <c r="D50" s="52"/>
-      <c r="E50" s="52"/>
-      <c r="F50" s="52"/>
+      <c r="A50" s="53"/>
+      <c r="B50" s="53"/>
+      <c r="C50" s="53"/>
+      <c r="D50" s="53"/>
+      <c r="E50" s="53"/>
+      <c r="F50" s="53"/>
     </row>
     <row r="51" ht="45" customHeight="1" spans="1:6">
-      <c r="A51" s="52"/>
-      <c r="B51" s="52"/>
-      <c r="C51" s="52"/>
-      <c r="D51" s="54"/>
-      <c r="E51" s="52"/>
-      <c r="F51" s="52"/>
+      <c r="A51" s="53"/>
+      <c r="B51" s="53"/>
+      <c r="C51" s="53"/>
+      <c r="D51" s="55"/>
+      <c r="E51" s="53"/>
+      <c r="F51" s="53"/>
     </row>
     <row r="52" ht="28.95" customHeight="1" spans="1:6">
-      <c r="A52" s="52"/>
-      <c r="B52" s="52"/>
-      <c r="C52" s="52"/>
-      <c r="D52" s="52"/>
-      <c r="E52" s="52"/>
-      <c r="F52" s="52"/>
+      <c r="A52" s="53"/>
+      <c r="B52" s="53"/>
+      <c r="C52" s="53"/>
+      <c r="D52" s="53"/>
+      <c r="E52" s="53"/>
+      <c r="F52" s="53"/>
     </row>
     <row r="53" ht="25.95" customHeight="1" spans="1:6">
-      <c r="A53" s="52"/>
-      <c r="B53" s="52"/>
-      <c r="C53" s="52"/>
-      <c r="D53" s="52"/>
-      <c r="E53" s="52"/>
-      <c r="F53" s="52"/>
+      <c r="A53" s="53"/>
+      <c r="B53" s="53"/>
+      <c r="C53" s="53"/>
+      <c r="D53" s="53"/>
+      <c r="E53" s="53"/>
+      <c r="F53" s="53"/>
     </row>
     <row r="54" ht="28.95" customHeight="1" spans="1:6">
-      <c r="A54" s="52"/>
-      <c r="B54" s="52"/>
-      <c r="C54" s="52"/>
-      <c r="D54" s="52"/>
-      <c r="E54" s="52"/>
-      <c r="F54" s="52"/>
+      <c r="A54" s="53"/>
+      <c r="B54" s="53"/>
+      <c r="C54" s="53"/>
+      <c r="D54" s="53"/>
+      <c r="E54" s="53"/>
+      <c r="F54" s="53"/>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="52"/>
-      <c r="B55" s="52"/>
-      <c r="C55" s="52"/>
-      <c r="D55" s="52"/>
-      <c r="E55" s="52"/>
-      <c r="F55" s="52"/>
-    </row>
-    <row r="56" s="31" customFormat="1" spans="1:1">
-      <c r="A56" s="31" t="s">
+      <c r="A55" s="53"/>
+      <c r="B55" s="53"/>
+      <c r="C55" s="53"/>
+      <c r="D55" s="53"/>
+      <c r="E55" s="53"/>
+      <c r="F55" s="53"/>
+    </row>
+    <row r="56" s="32" customFormat="1" spans="1:1">
+      <c r="A56" s="32" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="57" ht="102" spans="1:6">
-      <c r="A57" s="46" t="s">
+      <c r="A57" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="B57" s="55" t="s">
+      <c r="B57" s="56" t="s">
         <v>117</v>
       </c>
-      <c r="C57" s="55" t="s">
+      <c r="C57" s="56" t="s">
         <v>118</v>
       </c>
-      <c r="D57" s="55" t="s">
+      <c r="D57" s="56" t="s">
         <v>119</v>
       </c>
-      <c r="E57" s="55" t="s">
+      <c r="E57" s="56" t="s">
         <v>120</v>
       </c>
-      <c r="F57" s="55" t="s">
+      <c r="F57" s="56" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="58" ht="81.6" spans="1:6">
-      <c r="A58" s="46" t="s">
+      <c r="A58" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="B58" s="56">
+      <c r="B58" s="57">
         <v>43346</v>
       </c>
-      <c r="C58" s="52" t="s">
+      <c r="C58" s="53" t="s">
         <v>122</v>
       </c>
-      <c r="D58" s="52" t="s">
+      <c r="D58" s="53" t="s">
         <v>123</v>
       </c>
-      <c r="E58" s="52" t="s">
+      <c r="E58" s="53" t="s">
         <v>124</v>
       </c>
-      <c r="F58" s="52" t="s">
+      <c r="F58" s="53" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="59" ht="61.2" spans="1:6">
-      <c r="A59" s="46" t="s">
+      <c r="A59" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="B59" s="48" t="s">
+      <c r="B59" s="49" t="s">
         <v>126</v>
       </c>
-      <c r="C59" s="57" t="s">
+      <c r="C59" s="58" t="s">
         <v>127</v>
       </c>
-      <c r="D59" s="48" t="s">
+      <c r="D59" s="49" t="s">
         <v>128</v>
       </c>
-      <c r="E59" s="55" t="s">
+      <c r="E59" s="56" t="s">
         <v>129</v>
       </c>
-      <c r="F59" s="57" t="s">
+      <c r="F59" s="58" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="60" ht="102" spans="1:6">
-      <c r="A60" s="46" t="s">
+      <c r="A60" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="B60" s="49">
+      <c r="B60" s="50">
         <v>43346</v>
       </c>
-      <c r="C60" s="48" t="s">
+      <c r="C60" s="49" t="s">
         <v>131</v>
       </c>
-      <c r="D60" s="48" t="s">
+      <c r="D60" s="49" t="s">
         <v>132</v>
       </c>
-      <c r="E60" s="48" t="s">
+      <c r="E60" s="49" t="s">
         <v>133</v>
       </c>
-      <c r="F60" s="48" t="s">
+      <c r="F60" s="49" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="61" ht="34.8" spans="1:6">
-      <c r="A61" s="58" t="s">
+      <c r="A61" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="B61" s="59" t="s">
+      <c r="B61" s="60" t="s">
         <v>117</v>
       </c>
-      <c r="C61" s="53" t="s">
+      <c r="C61" s="54" t="s">
         <v>135</v>
       </c>
-      <c r="D61" s="59" t="s">
+      <c r="D61" s="60" t="s">
         <v>136</v>
       </c>
-      <c r="E61" s="59" t="s">
+      <c r="E61" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="F61" s="59" t="s">
+      <c r="F61" s="60" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="62" ht="61.2" spans="1:6">
-      <c r="A62" s="46" t="s">
+      <c r="A62" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="B62" s="52" t="s">
+      <c r="B62" s="53" t="s">
         <v>138</v>
       </c>
-      <c r="C62" s="52" t="s">
+      <c r="C62" s="53" t="s">
         <v>139</v>
       </c>
-      <c r="D62" s="48" t="s">
+      <c r="D62" s="49" t="s">
         <v>140</v>
       </c>
-      <c r="E62" s="48" t="s">
+      <c r="E62" s="49" t="s">
         <v>141</v>
       </c>
-      <c r="F62" s="48" t="s">
+      <c r="F62" s="49" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="63" ht="61.2" spans="1:6">
-      <c r="A63" s="46" t="s">
+      <c r="A63" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="B63" s="56">
+      <c r="B63" s="57">
         <v>43346</v>
       </c>
-      <c r="C63" s="52" t="s">
+      <c r="C63" s="53" t="s">
         <v>143</v>
       </c>
-      <c r="D63" s="48" t="s">
+      <c r="D63" s="49" t="s">
         <v>144</v>
       </c>
-      <c r="E63" s="48" t="s">
+      <c r="E63" s="49" t="s">
         <v>145</v>
       </c>
-      <c r="F63" s="48" t="s">
+      <c r="F63" s="49" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="64" customFormat="1" ht="33" customHeight="1" spans="1:6">
-      <c r="A64" s="46" t="s">
+      <c r="A64" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="B64" s="47">
+      <c r="B64" s="48">
         <v>43346</v>
       </c>
-      <c r="C64" s="46" t="s">
+      <c r="C64" s="47" t="s">
         <v>147</v>
       </c>
-      <c r="D64" s="46" t="s">
+      <c r="D64" s="47" t="s">
         <v>148</v>
       </c>
-      <c r="E64" s="48" t="s">
+      <c r="E64" s="49" t="s">
         <v>149</v>
       </c>
-      <c r="F64" s="46" t="s">
+      <c r="F64" s="47" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="65" ht="27" customHeight="1" spans="1:6">
-      <c r="A65" s="52" t="s">
+      <c r="A65" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="B65" s="56">
+      <c r="B65" s="57">
         <v>43346</v>
       </c>
-      <c r="C65" s="52" t="s">
+      <c r="C65" s="53" t="s">
         <v>150</v>
       </c>
-      <c r="D65" s="60"/>
-      <c r="E65" s="52"/>
-      <c r="F65" s="52"/>
+      <c r="D65" s="61"/>
+      <c r="E65" s="53"/>
+      <c r="F65" s="53"/>
     </row>
     <row r="66" ht="33" customHeight="1" spans="1:6">
-      <c r="A66" s="52"/>
-      <c r="B66" s="52"/>
-      <c r="C66" s="52"/>
-      <c r="D66" s="52"/>
-      <c r="E66" s="52"/>
-      <c r="F66" s="52"/>
+      <c r="A66" s="53"/>
+      <c r="B66" s="53"/>
+      <c r="C66" s="53"/>
+      <c r="D66" s="53"/>
+      <c r="E66" s="53"/>
+      <c r="F66" s="53"/>
     </row>
     <row r="67" ht="30" customHeight="1" spans="1:6">
-      <c r="A67" s="52"/>
-      <c r="B67" s="52"/>
-      <c r="C67" s="52"/>
-      <c r="D67" s="52"/>
-      <c r="E67" s="52"/>
-      <c r="F67" s="52"/>
+      <c r="A67" s="53"/>
+      <c r="B67" s="53"/>
+      <c r="C67" s="53"/>
+      <c r="D67" s="53"/>
+      <c r="E67" s="53"/>
+      <c r="F67" s="53"/>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="52"/>
-      <c r="B68" s="52"/>
-      <c r="C68" s="52"/>
-      <c r="D68" s="52"/>
-      <c r="E68" s="52"/>
-      <c r="F68" s="52"/>
+      <c r="A68" s="53"/>
+      <c r="B68" s="53"/>
+      <c r="C68" s="53"/>
+      <c r="D68" s="53"/>
+      <c r="E68" s="53"/>
+      <c r="F68" s="53"/>
     </row>
     <row r="69" spans="1:6">
-      <c r="A69" s="52"/>
-      <c r="B69" s="52"/>
-      <c r="C69" s="52"/>
-      <c r="D69" s="52"/>
-      <c r="E69" s="52"/>
-      <c r="F69" s="52"/>
+      <c r="A69" s="53"/>
+      <c r="B69" s="53"/>
+      <c r="C69" s="53"/>
+      <c r="D69" s="53"/>
+      <c r="E69" s="53"/>
+      <c r="F69" s="53"/>
     </row>
     <row r="70" ht="22.95" customHeight="1" spans="1:6">
-      <c r="A70" s="52"/>
-      <c r="B70" s="52"/>
-      <c r="C70" s="52"/>
-      <c r="D70" s="52"/>
-      <c r="E70" s="52"/>
-      <c r="F70" s="52"/>
+      <c r="A70" s="53"/>
+      <c r="B70" s="53"/>
+      <c r="C70" s="53"/>
+      <c r="D70" s="53"/>
+      <c r="E70" s="53"/>
+      <c r="F70" s="53"/>
     </row>
     <row r="71" ht="33" customHeight="1" spans="1:6">
-      <c r="A71" s="52"/>
-      <c r="B71" s="52"/>
-      <c r="C71" s="52"/>
-      <c r="D71" s="52"/>
-      <c r="E71" s="52"/>
-      <c r="F71" s="52"/>
+      <c r="A71" s="53"/>
+      <c r="B71" s="53"/>
+      <c r="C71" s="53"/>
+      <c r="D71" s="53"/>
+      <c r="E71" s="53"/>
+      <c r="F71" s="53"/>
     </row>
     <row r="72" spans="1:6">
-      <c r="A72" s="52"/>
-      <c r="B72" s="52"/>
-      <c r="C72" s="52"/>
-      <c r="D72" s="52"/>
-      <c r="E72" s="52"/>
-      <c r="F72" s="52"/>
-    </row>
-    <row r="73" s="31" customFormat="1" spans="1:1">
-      <c r="A73" s="31" t="s">
+      <c r="A72" s="53"/>
+      <c r="B72" s="53"/>
+      <c r="C72" s="53"/>
+      <c r="D72" s="53"/>
+      <c r="E72" s="53"/>
+      <c r="F72" s="53"/>
+    </row>
+    <row r="73" s="32" customFormat="1" spans="1:1">
+      <c r="A73" s="32" t="s">
         <v>98</v>
       </c>
     </row>
@@ -4980,7 +5118,7 @@
       <c r="A75" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B75" s="61">
+      <c r="B75" s="62">
         <v>43347</v>
       </c>
       <c r="C75" s="5" t="s">
@@ -5020,7 +5158,7 @@
       <c r="A77" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B77" s="16">
+      <c r="B77" s="17">
         <v>43347</v>
       </c>
       <c r="C77" s="5" t="s">
@@ -5060,7 +5198,7 @@
       <c r="A79" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B79" s="16">
+      <c r="B79" s="17">
         <v>43347</v>
       </c>
       <c r="C79" s="5" t="s">
@@ -5077,10 +5215,10 @@
       </c>
     </row>
     <row r="80" ht="28.8" spans="1:6">
-      <c r="A80" s="62" t="s">
+      <c r="A80" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="B80" s="62" t="s">
+      <c r="B80" s="63" t="s">
         <v>151</v>
       </c>
       <c r="C80" s="4" t="s">
@@ -5089,10 +5227,10 @@
       <c r="D80" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="E80" s="63" t="s">
+      <c r="E80" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="F80" s="62" t="s">
+      <c r="F80" s="63" t="s">
         <v>179</v>
       </c>
     </row>
@@ -5100,7 +5238,7 @@
       <c r="A81" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B81" s="16">
+      <c r="B81" s="17">
         <v>43347</v>
       </c>
       <c r="C81" s="5" t="s">
@@ -5117,13 +5255,13 @@
       </c>
     </row>
     <row r="82" ht="28.05" customHeight="1" spans="1:6">
-      <c r="A82" s="64" t="s">
+      <c r="A82" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="B82" s="65">
+      <c r="B82" s="66">
         <v>43346</v>
       </c>
-      <c r="C82" s="64" t="s">
+      <c r="C82" s="65" t="s">
         <v>150</v>
       </c>
       <c r="D82" s="5"/>
@@ -5194,19 +5332,19 @@
       <c r="E90" s="5"/>
       <c r="F90" s="5"/>
     </row>
-    <row r="91" s="31" customFormat="1" spans="1:6">
-      <c r="A91" s="40"/>
-      <c r="B91" s="40"/>
-      <c r="C91" s="40"/>
-      <c r="D91" s="40"/>
-      <c r="E91" s="40"/>
-      <c r="F91" s="40"/>
+    <row r="91" s="32" customFormat="1" spans="1:6">
+      <c r="A91" s="41"/>
+      <c r="B91" s="41"/>
+      <c r="C91" s="41"/>
+      <c r="D91" s="41"/>
+      <c r="E91" s="41"/>
+      <c r="F91" s="41"/>
     </row>
     <row r="92" ht="102" spans="1:6">
       <c r="A92" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B92" s="61">
+      <c r="B92" s="62">
         <v>43348</v>
       </c>
       <c r="C92" s="5" t="s">
@@ -5226,7 +5364,7 @@
       <c r="A93" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B93" s="61">
+      <c r="B93" s="62">
         <v>43348</v>
       </c>
       <c r="C93" s="5" t="s">
@@ -5246,7 +5384,7 @@
       <c r="A94" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B94" s="61">
+      <c r="B94" s="62">
         <v>43348</v>
       </c>
       <c r="C94" s="5" t="s">
@@ -5266,7 +5404,7 @@
       <c r="A95" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B95" s="61">
+      <c r="B95" s="62">
         <v>43348</v>
       </c>
       <c r="C95" s="5" t="s">
@@ -5303,22 +5441,22 @@
       </c>
     </row>
     <row r="97" ht="28.95" customHeight="1" spans="1:6">
-      <c r="A97" s="66" t="s">
+      <c r="A97" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="B97" s="66" t="s">
+      <c r="B97" s="67" t="s">
         <v>201</v>
       </c>
-      <c r="C97" s="66" t="s">
+      <c r="C97" s="67" t="s">
         <v>202</v>
       </c>
       <c r="D97" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="E97" s="66" t="s">
+      <c r="E97" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="F97" s="66" t="s">
+      <c r="F97" s="67" t="s">
         <v>203</v>
       </c>
     </row>
@@ -5346,7 +5484,7 @@
       <c r="A99" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B99" s="61">
+      <c r="B99" s="62">
         <v>43348</v>
       </c>
       <c r="C99" s="5" t="s">
@@ -5363,13 +5501,13 @@
       </c>
     </row>
     <row r="100" ht="24" customHeight="1" spans="1:6">
-      <c r="A100" s="64" t="s">
+      <c r="A100" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="B100" s="65">
+      <c r="B100" s="66">
         <v>43348</v>
       </c>
-      <c r="C100" s="64" t="s">
+      <c r="C100" s="65" t="s">
         <v>150</v>
       </c>
       <c r="D100" s="5"/>
@@ -5440,19 +5578,19 @@
       <c r="E108" s="5"/>
       <c r="F108" s="5"/>
     </row>
-    <row r="109" s="31" customFormat="1" spans="1:6">
-      <c r="A109" s="40"/>
-      <c r="B109" s="40"/>
-      <c r="C109" s="40"/>
-      <c r="D109" s="40"/>
-      <c r="E109" s="40"/>
-      <c r="F109" s="40"/>
+    <row r="109" s="32" customFormat="1" spans="1:6">
+      <c r="A109" s="41"/>
+      <c r="B109" s="41"/>
+      <c r="C109" s="41"/>
+      <c r="D109" s="41"/>
+      <c r="E109" s="41"/>
+      <c r="F109" s="41"/>
     </row>
     <row r="110" ht="81.6" spans="1:6">
       <c r="A110" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B110" s="61">
+      <c r="B110" s="62">
         <v>43349</v>
       </c>
       <c r="C110" s="5" t="s">
@@ -5535,7 +5673,7 @@
       <c r="B114" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="C114" s="67" t="s">
+      <c r="C114" s="68" t="s">
         <v>231</v>
       </c>
       <c r="D114" s="5" t="s">
@@ -5552,7 +5690,7 @@
       <c r="A115" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B115" s="61">
+      <c r="B115" s="62">
         <v>43349</v>
       </c>
       <c r="C115" s="5" t="s">
@@ -5572,7 +5710,7 @@
       <c r="A116" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B116" s="61">
+      <c r="B116" s="62">
         <v>43349</v>
       </c>
       <c r="C116" s="5" t="s">
@@ -5592,7 +5730,7 @@
       <c r="A117" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B117" s="61">
+      <c r="B117" s="62">
         <v>43349</v>
       </c>
       <c r="C117" s="5" t="s">
@@ -5610,7 +5748,7 @@
       <c r="A118" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B118" s="61">
+      <c r="B118" s="62">
         <v>43349</v>
       </c>
       <c r="C118" s="5" t="s">
@@ -5652,29 +5790,29 @@
     </row>
     <row r="123" ht="22.95" customHeight="1"/>
     <row r="126" spans="2:2">
-      <c r="B126" s="68"/>
+      <c r="B126" s="69"/>
     </row>
     <row r="127" ht="9" customHeight="1" spans="2:2">
-      <c r="B127" s="68"/>
-    </row>
-    <row r="128" s="31" customFormat="1"/>
+      <c r="B127" s="69"/>
+    </row>
+    <row r="128" s="32" customFormat="1"/>
     <row r="130" ht="27" customHeight="1" spans="4:4">
-      <c r="D130" s="69"/>
+      <c r="D130" s="70"/>
     </row>
     <row r="131" spans="2:2">
-      <c r="B131" s="70"/>
+      <c r="B131" s="71"/>
     </row>
     <row r="132" ht="7.95" customHeight="1" spans="2:2">
-      <c r="B132" s="70"/>
+      <c r="B132" s="71"/>
     </row>
     <row r="133" ht="34.05" customHeight="1"/>
     <row r="134" ht="30" customHeight="1"/>
     <row r="135" ht="28.05" customHeight="1"/>
     <row r="138" spans="2:2">
-      <c r="B138" s="68"/>
+      <c r="B138" s="69"/>
     </row>
     <row r="139" ht="13.05" customHeight="1" spans="2:2">
-      <c r="B139" s="68"/>
+      <c r="B139" s="69"/>
     </row>
     <row r="140" ht="28.05" customHeight="1"/>
     <row r="143" ht="22.05" customHeight="1"/>
@@ -5682,22 +5820,22 @@
     <row r="145" ht="22.05" customHeight="1"/>
     <row r="146" ht="22.05" customHeight="1"/>
     <row r="147" ht="21" customHeight="1"/>
-    <row r="148" s="31" customFormat="1"/>
+    <row r="148" s="32" customFormat="1"/>
     <row r="149" ht="22.95" customHeight="1"/>
     <row r="150" spans="2:2">
-      <c r="B150" s="70"/>
+      <c r="B150" s="71"/>
     </row>
     <row r="151" spans="2:2">
-      <c r="B151" s="70"/>
+      <c r="B151" s="71"/>
     </row>
     <row r="152" spans="2:2">
-      <c r="B152" s="70"/>
+      <c r="B152" s="71"/>
     </row>
     <row r="153" spans="2:2">
-      <c r="B153" s="70"/>
+      <c r="B153" s="71"/>
     </row>
     <row r="154" spans="4:4">
-      <c r="D154" s="71"/>
+      <c r="D154" s="72"/>
     </row>
     <row r="155" ht="24" customHeight="1"/>
     <row r="156" ht="22.95" customHeight="1"/>
@@ -5707,51 +5845,51 @@
     <row r="161" ht="24" customHeight="1"/>
     <row r="163" ht="28.95" customHeight="1"/>
     <row r="164" ht="25.95" customHeight="1" spans="2:2">
-      <c r="B164" s="70"/>
-    </row>
-    <row r="165" s="31" customFormat="1"/>
+      <c r="B164" s="71"/>
+    </row>
+    <row r="165" s="32" customFormat="1"/>
     <row r="166" ht="25.95" customHeight="1" spans="4:4">
-      <c r="D166" s="69"/>
+      <c r="D166" s="70"/>
     </row>
     <row r="168" ht="27" customHeight="1"/>
     <row r="169" ht="13.05" customHeight="1" spans="2:2">
-      <c r="B169" s="70"/>
+      <c r="B169" s="71"/>
     </row>
     <row r="170" ht="13.05" customHeight="1" spans="2:2">
-      <c r="B170" s="70"/>
+      <c r="B170" s="71"/>
     </row>
     <row r="171" spans="2:2">
-      <c r="B171" s="70"/>
+      <c r="B171" s="71"/>
     </row>
     <row r="172" ht="12" customHeight="1" spans="2:2">
-      <c r="B172" s="70"/>
+      <c r="B172" s="71"/>
     </row>
     <row r="173" ht="34.05" customHeight="1"/>
     <row r="175" ht="31.05" customHeight="1"/>
-    <row r="177" s="31" customFormat="1"/>
+    <row r="177" s="32" customFormat="1"/>
     <row r="178" spans="2:2">
-      <c r="B178" s="70"/>
+      <c r="B178" s="71"/>
     </row>
     <row r="179" spans="2:2">
-      <c r="B179" s="70"/>
+      <c r="B179" s="71"/>
     </row>
     <row r="180" spans="2:2">
-      <c r="B180" s="68"/>
+      <c r="B180" s="69"/>
     </row>
     <row r="181" spans="2:2">
-      <c r="B181" s="68"/>
+      <c r="B181" s="69"/>
     </row>
     <row r="182" spans="2:2">
-      <c r="B182" s="68"/>
+      <c r="B182" s="69"/>
     </row>
     <row r="183" spans="2:2">
-      <c r="B183" s="68"/>
+      <c r="B183" s="69"/>
     </row>
     <row r="184" spans="2:2">
-      <c r="B184" s="68"/>
+      <c r="B184" s="69"/>
     </row>
     <row r="185" spans="2:2">
-      <c r="B185" s="68"/>
+      <c r="B185" s="69"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5852,7 +5990,7 @@
       <c r="D4" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="14" t="s">
         <v>261</v>
       </c>
       <c r="F4" s="5" t="s">
@@ -5863,7 +6001,7 @@
       <c r="A5" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="15">
         <v>43341</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -5909,7 +6047,7 @@
       <c r="C7" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="16" t="s">
         <v>276</v>
       </c>
       <c r="E7" s="5" t="s">
@@ -5923,7 +6061,7 @@
       <c r="A8" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="B8" s="16">
+      <c r="B8" s="17">
         <v>43341</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -5963,19 +6101,19 @@
       <c r="A10" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="B10" s="17">
+      <c r="B10" s="18">
         <v>43341</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="19" t="s">
         <v>291</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="E10" s="20" t="s">
         <v>292</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="F10" s="20" t="s">
         <v>293</v>
       </c>
     </row>
@@ -5995,7 +6133,7 @@
       <c r="E11" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="F11" s="20" t="s">
+      <c r="F11" s="21" t="s">
         <v>298</v>
       </c>
     </row>
@@ -6018,7 +6156,7 @@
     <row r="14" ht="20.4" spans="1:6">
       <c r="A14" s="12"/>
       <c r="B14" s="4"/>
-      <c r="C14" s="19"/>
+      <c r="C14" s="20"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -6073,7 +6211,7 @@
       <c r="A19" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="B19" s="14">
+      <c r="B19" s="15">
         <v>43343</v>
       </c>
       <c r="C19" s="5" t="s">
@@ -6145,7 +6283,7 @@
       <c r="E22" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="F22" s="13" t="s">
+      <c r="F22" s="14" t="s">
         <v>320</v>
       </c>
     </row>
@@ -6173,7 +6311,7 @@
       <c r="A24" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="B24" s="21">
+      <c r="B24" s="22">
         <v>43343</v>
       </c>
       <c r="C24" s="3" t="s">
@@ -6193,7 +6331,7 @@
       <c r="A25" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="B25" s="22">
+      <c r="B25" s="23">
         <v>43343</v>
       </c>
       <c r="C25" s="3" t="s">
@@ -6213,16 +6351,16 @@
       <c r="A26" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="B26" s="21">
+      <c r="B26" s="22">
         <v>43343</v>
       </c>
-      <c r="C26" s="23" t="s">
+      <c r="C26" s="24" t="s">
         <v>333</v>
       </c>
-      <c r="D26" s="23" t="s">
+      <c r="D26" s="24" t="s">
         <v>334</v>
       </c>
-      <c r="E26" s="23" t="s">
+      <c r="E26" s="24" t="s">
         <v>335</v>
       </c>
       <c r="F26" s="5" t="s">
@@ -6258,52 +6396,52 @@
       <c r="F28" s="2"/>
     </row>
     <row r="29" ht="20.4" spans="1:6">
-      <c r="A29" s="24"/>
+      <c r="A29" s="25"/>
       <c r="B29" s="2"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="24"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="25"/>
     </row>
     <row r="30" ht="20.4" spans="1:6">
-      <c r="A30" s="24"/>
+      <c r="A30" s="25"/>
       <c r="B30" s="2"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="24"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="25"/>
     </row>
     <row r="31" ht="20.4" spans="1:6">
-      <c r="A31" s="24"/>
+      <c r="A31" s="25"/>
       <c r="B31" s="2"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="24"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="25"/>
     </row>
     <row r="32" ht="20.4" spans="1:6">
-      <c r="A32" s="24"/>
+      <c r="A32" s="25"/>
       <c r="B32" s="2"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="26"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
     </row>
     <row r="33" ht="20.4" spans="1:6">
-      <c r="A33" s="24"/>
+      <c r="A33" s="25"/>
       <c r="B33" s="2"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="24"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="25"/>
     </row>
     <row r="34" ht="20.4" spans="1:6">
-      <c r="A34" s="24"/>
+      <c r="A34" s="25"/>
       <c r="B34" s="2"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="24"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
     </row>
     <row r="35" ht="20.4" spans="1:6">
       <c r="A35" s="11" t="s">
@@ -6339,7 +6477,7 @@
       <c r="A37" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="B37" s="14">
+      <c r="B37" s="15">
         <v>43346</v>
       </c>
       <c r="C37" s="5" t="s">
@@ -6439,7 +6577,7 @@
       <c r="A42" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="B42" s="22">
+      <c r="B42" s="23">
         <v>43346</v>
       </c>
       <c r="C42" s="3" t="s">
@@ -6459,7 +6597,7 @@
       <c r="A43" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="B43" s="21">
+      <c r="B43" s="22">
         <v>43346</v>
       </c>
       <c r="C43" s="3" t="s">
@@ -6499,7 +6637,7 @@
       <c r="A45" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="B45" s="21">
+      <c r="B45" s="22">
         <v>43346</v>
       </c>
       <c r="C45" s="3" t="s">
@@ -6518,7 +6656,7 @@
     <row r="46" ht="20.4" spans="1:6">
       <c r="A46" s="6"/>
       <c r="B46" s="3"/>
-      <c r="C46" s="18"/>
+      <c r="C46" s="19"/>
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
@@ -6625,7 +6763,7 @@
       <c r="A56" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="B56" s="14">
+      <c r="B56" s="15">
         <v>43347</v>
       </c>
       <c r="C56" s="5" t="s">
@@ -6665,7 +6803,7 @@
       <c r="A58" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="B58" s="22">
+      <c r="B58" s="23">
         <v>43347</v>
       </c>
       <c r="C58" s="3" t="s">
@@ -6703,7 +6841,7 @@
       <c r="A60" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="B60" s="21">
+      <c r="B60" s="22">
         <v>43347</v>
       </c>
       <c r="C60" s="3" t="s">
@@ -6723,19 +6861,19 @@
       <c r="A61" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="B61" s="21">
+      <c r="B61" s="22">
         <v>43347</v>
       </c>
-      <c r="C61" s="23" t="s">
+      <c r="C61" s="24" t="s">
         <v>411</v>
       </c>
-      <c r="D61" s="23" t="s">
+      <c r="D61" s="24" t="s">
         <v>412</v>
       </c>
-      <c r="E61" s="23" t="s">
+      <c r="E61" s="24" t="s">
         <v>413</v>
       </c>
-      <c r="F61" s="23" t="s">
+      <c r="F61" s="24" t="s">
         <v>414</v>
       </c>
     </row>
@@ -6743,7 +6881,7 @@
       <c r="A62" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="B62" s="22">
+      <c r="B62" s="23">
         <v>43347</v>
       </c>
       <c r="C62" s="3" t="s">
@@ -6752,7 +6890,7 @@
       <c r="D62" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="E62" s="20" t="s">
+      <c r="E62" s="21" t="s">
         <v>417</v>
       </c>
       <c r="F62" s="3" t="s">
@@ -6788,10 +6926,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K142"/>
+  <dimension ref="A1:K153"/>
   <sheetViews>
-    <sheetView topLeftCell="A126" workbookViewId="0">
-      <selection activeCell="F136" sqref="F136:F142"/>
+    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="F149" sqref="F149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -8747,6 +8885,216 @@
       <c r="D142" s="5"/>
       <c r="E142" s="5"/>
       <c r="F142" s="5"/>
+    </row>
+    <row r="143" ht="20.4" spans="1:6">
+      <c r="A143" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="B143" s="11"/>
+      <c r="C143" s="11"/>
+      <c r="D143" s="11"/>
+      <c r="E143" s="11"/>
+      <c r="F143" s="11"/>
+    </row>
+    <row r="144" ht="20.4" spans="1:6">
+      <c r="A144" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="145" ht="144" spans="1:6">
+      <c r="A145" t="s">
+        <v>444</v>
+      </c>
+      <c r="B145" t="s">
+        <v>216</v>
+      </c>
+      <c r="C145" s="13" t="s">
+        <v>669</v>
+      </c>
+      <c r="D145" s="13" t="s">
+        <v>670</v>
+      </c>
+      <c r="E145" s="13" t="s">
+        <v>671</v>
+      </c>
+      <c r="F145" s="13" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="146" ht="57.6" spans="1:6">
+      <c r="A146" t="s">
+        <v>424</v>
+      </c>
+      <c r="B146" t="s">
+        <v>216</v>
+      </c>
+      <c r="C146" s="13" t="s">
+        <v>673</v>
+      </c>
+      <c r="D146" s="13" t="s">
+        <v>674</v>
+      </c>
+      <c r="E146" s="13" t="s">
+        <v>675</v>
+      </c>
+      <c r="F146" s="13" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="147" ht="43.2" spans="1:6">
+      <c r="A147" t="s">
+        <v>464</v>
+      </c>
+      <c r="B147" t="s">
+        <v>216</v>
+      </c>
+      <c r="C147" s="13" t="s">
+        <v>677</v>
+      </c>
+      <c r="D147" s="13" t="s">
+        <v>678</v>
+      </c>
+      <c r="E147" s="13" t="s">
+        <v>679</v>
+      </c>
+      <c r="F147" s="13" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="148" ht="43.2" spans="1:6">
+      <c r="A148" t="s">
+        <v>459</v>
+      </c>
+      <c r="B148" t="s">
+        <v>216</v>
+      </c>
+      <c r="C148" s="13" t="s">
+        <v>681</v>
+      </c>
+      <c r="D148" s="13" t="s">
+        <v>682</v>
+      </c>
+      <c r="E148" s="13" t="s">
+        <v>683</v>
+      </c>
+      <c r="F148" s="13" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="149" ht="216" spans="1:6">
+      <c r="A149" t="s">
+        <v>439</v>
+      </c>
+      <c r="B149" t="s">
+        <v>216</v>
+      </c>
+      <c r="C149" s="13" t="s">
+        <v>685</v>
+      </c>
+      <c r="D149" s="13" t="s">
+        <v>686</v>
+      </c>
+      <c r="E149" s="13" t="s">
+        <v>687</v>
+      </c>
+      <c r="F149" s="13" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="150" ht="28.8" spans="1:6">
+      <c r="A150" t="s">
+        <v>490</v>
+      </c>
+      <c r="B150" t="s">
+        <v>216</v>
+      </c>
+      <c r="C150" t="s">
+        <v>689</v>
+      </c>
+      <c r="D150" t="s">
+        <v>690</v>
+      </c>
+      <c r="E150" s="13" t="s">
+        <v>691</v>
+      </c>
+      <c r="F150" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="A151" t="s">
+        <v>449</v>
+      </c>
+      <c r="B151" t="s">
+        <v>216</v>
+      </c>
+      <c r="C151" t="s">
+        <v>693</v>
+      </c>
+      <c r="D151" t="s">
+        <v>694</v>
+      </c>
+      <c r="E151" t="s">
+        <v>695</v>
+      </c>
+      <c r="F151" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="152" ht="43.2" spans="1:6">
+      <c r="A152" t="s">
+        <v>512</v>
+      </c>
+      <c r="B152" t="s">
+        <v>216</v>
+      </c>
+      <c r="C152" s="13" t="s">
+        <v>697</v>
+      </c>
+      <c r="D152" s="13" t="s">
+        <v>698</v>
+      </c>
+      <c r="E152" t="s">
+        <v>699</v>
+      </c>
+      <c r="F152" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="153" ht="28.8" spans="1:6">
+      <c r="A153" t="s">
+        <v>485</v>
+      </c>
+      <c r="B153" t="s">
+        <v>216</v>
+      </c>
+      <c r="C153" t="s">
+        <v>700</v>
+      </c>
+      <c r="D153" s="13" t="s">
+        <v>694</v>
+      </c>
+      <c r="E153" t="s">
+        <v>701</v>
+      </c>
+      <c r="F153" s="13" t="s">
+        <v>702</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="84">

--- a/1601W.xlsx
+++ b/1601W.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="9515" activeTab="2"/>
+    <workbookView windowWidth="22943" windowHeight="9515" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="第一小组" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739">
   <si>
     <t>姓名</t>
   </si>
@@ -1573,6 +1573,122 @@
   <si>
     <t>加深知识图谱的认识，并按照经理
 布置的任务完成计划</t>
+  </si>
+  <si>
+    <t>1.小组讨论需要添加的需求与步骤  2.整理搜集的数据  3.django连接数据库进行简单的增删改查操作</t>
+  </si>
+  <si>
+    <t>1.整理增加项目需求的思路  2.完成增删改查操作</t>
+  </si>
+  <si>
+    <t>好好学习，缕清知识图谱的其余部分</t>
+  </si>
+  <si>
+    <t>爬取一些相关病害并保存起来，尝试处理数据并与原项目整合到一起</t>
+  </si>
+  <si>
+    <t>肖扬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">经理给我们讲解了项目需求，我们对项目修改的过程有了一个大致的方向，组内对各个组员的工作有了重新的安排 </t>
+  </si>
+  <si>
+    <t>对各个组员的任务都有了安排</t>
+  </si>
+  <si>
+    <t>继续完成组长安排的任
+务</t>
+  </si>
+  <si>
+    <t>学习了wikidata中数据关系如何爬取
+，以及梳理了一下需求的流程。</t>
+  </si>
+  <si>
+    <t>正确的梳理了流程</t>
+  </si>
+  <si>
+    <t>1：梳理项目的流程
+2：对需求在仔细探讨一下</t>
+  </si>
+  <si>
+    <t>了解昨天在讲课时遇到的一个问题的处理方式,以及今天项目的思路和需求评比</t>
+  </si>
+  <si>
+    <t>查阅资料可解决问题,小组确定项目的需求和思路</t>
+  </si>
+  <si>
+    <t>早自习课理论知识习查看昨天的讲课视频,自习课继续练习昨天讲的代码</t>
+  </si>
+  <si>
+    <t>加强对项目的理解及流程的作用，老师指正了对需求的误解以及实现需求的一些探讨</t>
+  </si>
+  <si>
+    <t>还在详细思考怎样实现需求</t>
+  </si>
+  <si>
+    <t>怎么爬取数据，怎么将爬取的数据与已有数据建立关系遇到了问题</t>
+  </si>
+  <si>
+    <t>继续研究项目需求</t>
+  </si>
+  <si>
+    <t>学习了Django增删改查</t>
+  </si>
+  <si>
+    <t>对于技术难点仍无解决办法</t>
+  </si>
+  <si>
+    <t>对于老师之前安排的项目中的需求，找到思路，实现效果</t>
+  </si>
+  <si>
+    <t>思路已经明确，实现效果进展20%</t>
+  </si>
+  <si>
+    <t>效果实现进展太慢
+有些地方很卡壳</t>
+  </si>
+  <si>
+    <t>尽快的完成相关的效果</t>
+  </si>
+  <si>
+    <t>韩松科</t>
+  </si>
+  <si>
+    <t>整理项目思路和需求</t>
+  </si>
+  <si>
+    <t xml:space="preserve">对项目了解不够
+</t>
+  </si>
+  <si>
+    <t>抓紧时间完成项目</t>
+  </si>
+  <si>
+    <t>1.跑起来农业知识图谱项目，划分查看区域
+2.练习Debug运行代码，入手两大爬虫模块
+3.整理项目的整体设计思路</t>
+  </si>
+  <si>
+    <t>今日计划整体完成率达60%。已经在加班</t>
+  </si>
+  <si>
+    <t>对于整个的项目虽有了解，但是整体细节不明确，如面试询问，则说不出关键细节。所以后期工作将针对项目的整体代码细节
+与流程做出地毯式的摸底工作。</t>
+  </si>
+  <si>
+    <t>继续摸查农业知识图谱项目，计划本周六放假之前看完三大爬虫模块，下周一早上看完KNN模块</t>
+  </si>
+  <si>
+    <t>整理农业知识图谱的项目流程，加强完善需求以及思路</t>
+  </si>
+  <si>
+    <t>梳理了流程，有了思路</t>
+  </si>
+  <si>
+    <t>对于建立关系还有点问题</t>
+  </si>
+  <si>
+    <t>实际操作，添加业务需求</t>
   </si>
   <si>
     <t>陈迪</t>
@@ -2753,10 +2869,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -2812,6 +2928,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -2836,7 +2959,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2849,30 +2972,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2902,16 +3026,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2933,26 +3057,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2989,7 +3105,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3001,13 +3147,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3025,102 +3207,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -3133,13 +3219,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3151,13 +3261,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3195,6 +3311,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -3210,41 +3341,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3268,6 +3369,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3276,10 +3392,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3288,137 +3404,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3508,6 +3624,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -4048,23 +4167,23 @@
     <col min="7" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="30" customFormat="1" spans="1:6">
-      <c r="A1" s="33" t="s">
+    <row r="1" s="31" customFormat="1" spans="1:6">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="F1" s="34" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4089,671 +4208,671 @@
       </c>
     </row>
     <row r="3" ht="94.05" customHeight="1" spans="1:6">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="D3" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="34" t="s">
+      <c r="E3" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="34" t="s">
+      <c r="F3" s="35" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" ht="40.8" spans="1:6">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="35">
+      <c r="B4" s="36">
         <v>43341</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="34" t="s">
+      <c r="D4" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="34" t="s">
+      <c r="E4" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="36" t="s">
+      <c r="F4" s="37" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" ht="40.8" spans="1:6">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="C5" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="34" t="s">
+      <c r="D5" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="36" t="s">
+      <c r="E5" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="34" t="s">
+      <c r="F5" s="35" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="6" ht="244.8" spans="1:6">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="36" t="s">
+      <c r="C6" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="36" t="s">
+      <c r="D6" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="34" t="s">
+      <c r="E6" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="36" t="s">
+      <c r="F6" s="37" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="7" ht="81" customHeight="1" spans="1:6">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="37" t="s">
+      <c r="C7" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="34" t="s">
+      <c r="D7" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="37" t="s">
+      <c r="E7" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="37" t="s">
+      <c r="F7" s="38" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="8" ht="81.6" spans="1:6">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="35">
+      <c r="B8" s="36">
         <v>43341</v>
       </c>
-      <c r="C8" s="36" t="s">
+      <c r="C8" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="36" t="s">
+      <c r="D8" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="36" t="s">
+      <c r="E8" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="34" t="s">
+      <c r="F8" s="35" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="9" ht="94.95" customHeight="1" spans="1:6">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="36" t="s">
+      <c r="C9" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="34" t="s">
+      <c r="D9" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="E9" s="34" t="s">
+      <c r="E9" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="F9" s="36" t="s">
+      <c r="F9" s="37" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="35">
+      <c r="B10" s="36">
         <v>43341</v>
       </c>
-      <c r="C10" s="34" t="s">
+      <c r="C10" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="D10" s="34" t="s">
+      <c r="D10" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="E10" s="34" t="s">
+      <c r="E10" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="F10" s="34" t="s">
+      <c r="F10" s="35" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="11" ht="204" spans="1:6">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="B11" s="38">
+      <c r="B11" s="39">
         <v>43341</v>
       </c>
-      <c r="C11" s="36" t="s">
+      <c r="C11" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="D11" s="36" t="s">
+      <c r="D11" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="E11" s="36" t="s">
+      <c r="E11" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="F11" s="36" t="s">
+      <c r="F11" s="37" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="39"/>
-      <c r="B12" s="39"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
+      <c r="A12" s="40"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="40"/>
-      <c r="B13" s="39"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
+      <c r="A13" s="41"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="40"/>
-      <c r="B14" s="39"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
+      <c r="A14" s="41"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="40"/>
-      <c r="B15" s="39"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
+      <c r="A15" s="41"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="40"/>
-      <c r="B16" s="39"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
+      <c r="A16" s="41"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
     </row>
     <row r="17" ht="57" customHeight="1" spans="1:6">
-      <c r="A17" s="40"/>
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
+      <c r="A17" s="41"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="39"/>
-      <c r="B18" s="39"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
+      <c r="A18" s="40"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="39"/>
-      <c r="B19" s="39"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-    </row>
-    <row r="20" s="31" customFormat="1" spans="1:6">
-      <c r="A20" s="41" t="s">
+      <c r="A19" s="40"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+    </row>
+    <row r="20" s="32" customFormat="1" spans="1:6">
+      <c r="A20" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="B20" s="42"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="42"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
     </row>
     <row r="21" ht="81.6" spans="1:6">
-      <c r="A21" s="36" t="s">
+      <c r="A21" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="38">
+      <c r="B21" s="39">
         <v>43342</v>
       </c>
-      <c r="C21" s="36" t="s">
+      <c r="C21" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="D21" s="36" t="s">
+      <c r="D21" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="E21" s="36" t="s">
+      <c r="E21" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="F21" s="36" t="s">
+      <c r="F21" s="37" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="22" ht="102" spans="1:6">
-      <c r="A22" s="36" t="s">
+      <c r="A22" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="B22" s="38">
+      <c r="B22" s="39">
         <v>43342</v>
       </c>
-      <c r="C22" s="36" t="s">
+      <c r="C22" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="D22" s="36" t="s">
+      <c r="D22" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="E22" s="36" t="s">
+      <c r="E22" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="F22" s="36" t="s">
+      <c r="F22" s="37" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="23" ht="40.8" spans="1:6">
-      <c r="A23" s="34" t="s">
+      <c r="A23" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="35">
+      <c r="B23" s="36">
         <v>43341</v>
       </c>
-      <c r="C23" s="36" t="s">
+      <c r="C23" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="D23" s="34" t="s">
+      <c r="D23" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="E23" s="34" t="s">
+      <c r="E23" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="F23" s="34" t="s">
+      <c r="F23" s="35" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="24" ht="61.2" spans="1:6">
-      <c r="A24" s="34" t="s">
+      <c r="A24" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="34" t="s">
+      <c r="B24" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="C24" s="36" t="s">
+      <c r="C24" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="D24" s="43" t="s">
+      <c r="D24" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="E24" s="36" t="s">
+      <c r="E24" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="F24" s="34" t="s">
+      <c r="F24" s="35" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="25" ht="102" spans="1:6">
-      <c r="A25" s="34" t="s">
+      <c r="A25" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="34" t="s">
+      <c r="B25" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="C25" s="36" t="s">
+      <c r="C25" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="D25" s="36" t="s">
+      <c r="D25" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="E25" s="34" t="s">
+      <c r="E25" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="F25" s="36" t="s">
+      <c r="F25" s="37" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="26" ht="81.6" spans="1:6">
-      <c r="A26" s="34" t="s">
+      <c r="A26" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="B26" s="35">
+      <c r="B26" s="36">
         <v>43342</v>
       </c>
-      <c r="C26" s="34" t="s">
+      <c r="C26" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="D26" s="34" t="s">
+      <c r="D26" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="E26" s="36" t="s">
+      <c r="E26" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="F26" s="34" t="s">
+      <c r="F26" s="35" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="27" ht="40.8" spans="1:7">
-      <c r="A27" s="34" t="s">
+      <c r="A27" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="B27" s="35" t="s">
+      <c r="B27" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="C27" s="34" t="s">
+      <c r="C27" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="D27" s="34" t="s">
+      <c r="D27" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="E27" s="36" t="s">
+      <c r="E27" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="F27" s="34" t="s">
+      <c r="F27" s="35" t="s">
         <v>88</v>
       </c>
       <c r="G27"/>
     </row>
     <row r="28" ht="55.05" customHeight="1" spans="1:6">
-      <c r="A28" s="34" t="s">
+      <c r="A28" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="B28" s="34" t="s">
+      <c r="B28" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="C28" s="36" t="s">
+      <c r="C28" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="D28" s="34" t="s">
+      <c r="D28" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="E28" s="34" t="s">
+      <c r="E28" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="F28" s="34" t="s">
+      <c r="F28" s="35" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="29" ht="142.8" spans="1:6">
-      <c r="A29" s="34" t="s">
+      <c r="A29" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="36" t="s">
+      <c r="B29" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="C29" s="37" t="s">
+      <c r="C29" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="D29" s="34" t="s">
+      <c r="D29" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="E29" s="37" t="s">
+      <c r="E29" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="F29" s="37" t="s">
+      <c r="F29" s="38" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="30" ht="25.95" customHeight="1" spans="1:6">
-      <c r="A30" s="39"/>
-      <c r="B30" s="39"/>
-      <c r="C30" s="39"/>
-      <c r="D30" s="39"/>
-      <c r="E30" s="39"/>
-      <c r="F30" s="39"/>
+      <c r="A30" s="40"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="40"/>
     </row>
     <row r="31" ht="42" customHeight="1" spans="1:6">
-      <c r="A31" s="39"/>
-      <c r="B31" s="39"/>
-      <c r="C31" s="39"/>
-      <c r="D31" s="39"/>
-      <c r="E31" s="39"/>
-      <c r="F31" s="39"/>
+      <c r="A31" s="40"/>
+      <c r="B31" s="40"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
     </row>
     <row r="32" ht="30" customHeight="1" spans="1:6">
-      <c r="A32" s="44"/>
-      <c r="B32" s="39"/>
-      <c r="C32" s="44"/>
-      <c r="D32" s="44"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="44"/>
+      <c r="A32" s="45"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="45"/>
+      <c r="D32" s="45"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="45"/>
     </row>
     <row r="33" ht="22.95" customHeight="1" spans="1:6">
-      <c r="A33" s="44"/>
-      <c r="B33" s="39"/>
-      <c r="C33" s="44"/>
-      <c r="D33" s="44"/>
-      <c r="E33" s="44"/>
-      <c r="F33" s="44"/>
+      <c r="A33" s="45"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="45"/>
+      <c r="D33" s="45"/>
+      <c r="E33" s="45"/>
+      <c r="F33" s="45"/>
     </row>
     <row r="34" ht="30" customHeight="1" spans="1:6">
-      <c r="A34" s="44"/>
-      <c r="B34" s="39"/>
-      <c r="C34" s="44"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="44"/>
+      <c r="A34" s="45"/>
+      <c r="B34" s="40"/>
+      <c r="C34" s="45"/>
+      <c r="D34" s="45"/>
+      <c r="E34" s="45"/>
+      <c r="F34" s="45"/>
     </row>
     <row r="35" ht="24" customHeight="1" spans="1:6">
-      <c r="A35" s="44"/>
-      <c r="B35" s="39"/>
-      <c r="C35" s="45"/>
-      <c r="D35" s="44"/>
-      <c r="E35" s="45"/>
-      <c r="F35" s="45"/>
+      <c r="A35" s="45"/>
+      <c r="B35" s="40"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="45"/>
+      <c r="E35" s="46"/>
+      <c r="F35" s="46"/>
     </row>
     <row r="36" ht="28.95" customHeight="1" spans="1:6">
-      <c r="A36" s="44"/>
-      <c r="B36" s="39"/>
-      <c r="C36" s="45"/>
-      <c r="D36" s="44"/>
-      <c r="E36" s="46"/>
-      <c r="F36" s="44"/>
+      <c r="A36" s="45"/>
+      <c r="B36" s="40"/>
+      <c r="C36" s="46"/>
+      <c r="D36" s="45"/>
+      <c r="E36" s="47"/>
+      <c r="F36" s="45"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="44"/>
-      <c r="B37" s="39"/>
-      <c r="C37" s="44"/>
-      <c r="D37" s="44"/>
-      <c r="E37" s="44"/>
-      <c r="F37" s="44"/>
-    </row>
-    <row r="38" s="32" customFormat="1" spans="1:6">
-      <c r="A38" s="41" t="s">
+      <c r="A37" s="45"/>
+      <c r="B37" s="40"/>
+      <c r="C37" s="45"/>
+      <c r="D37" s="45"/>
+      <c r="E37" s="45"/>
+      <c r="F37" s="45"/>
+    </row>
+    <row r="38" s="33" customFormat="1" spans="1:6">
+      <c r="A38" s="42" t="s">
         <v>98</v>
       </c>
-      <c r="B38" s="41"/>
-      <c r="C38" s="41"/>
-      <c r="D38" s="41"/>
-      <c r="E38" s="41"/>
-      <c r="F38" s="41"/>
+      <c r="B38" s="42"/>
+      <c r="C38" s="42"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="42"/>
+      <c r="F38" s="42"/>
     </row>
     <row r="39" ht="40.8" spans="1:6">
-      <c r="A39" s="47" t="s">
+      <c r="A39" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="B39" s="48">
+      <c r="B39" s="49">
         <v>43342</v>
       </c>
-      <c r="C39" s="49" t="s">
+      <c r="C39" s="50" t="s">
         <v>99</v>
       </c>
-      <c r="D39" s="47" t="s">
+      <c r="D39" s="48" t="s">
         <v>100</v>
       </c>
-      <c r="E39" s="47" t="s">
+      <c r="E39" s="48" t="s">
         <v>101</v>
       </c>
-      <c r="F39" s="47" t="s">
+      <c r="F39" s="48" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="40" ht="61.2" spans="1:6">
-      <c r="A40" s="49" t="s">
+      <c r="A40" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="B40" s="50">
+      <c r="B40" s="51">
         <v>43343</v>
       </c>
-      <c r="C40" s="49" t="s">
+      <c r="C40" s="50" t="s">
         <v>103</v>
       </c>
-      <c r="D40" s="49" t="s">
+      <c r="D40" s="50" t="s">
         <v>104</v>
       </c>
-      <c r="E40" s="49" t="s">
+      <c r="E40" s="50" t="s">
         <v>105</v>
       </c>
-      <c r="F40" s="49" t="s">
+      <c r="F40" s="50" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="41" ht="102" spans="1:6">
-      <c r="A41" s="47" t="s">
+      <c r="A41" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="B41" s="47" t="s">
+      <c r="B41" s="48" t="s">
         <v>107</v>
       </c>
-      <c r="C41" s="49" t="s">
+      <c r="C41" s="50" t="s">
         <v>108</v>
       </c>
-      <c r="D41" s="49" t="s">
+      <c r="D41" s="50" t="s">
         <v>109</v>
       </c>
-      <c r="E41" s="47" t="s">
+      <c r="E41" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="F41" s="49" t="s">
+      <c r="F41" s="50" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="42" ht="81.6" spans="1:6">
-      <c r="A42" s="47" t="s">
+      <c r="A42" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="B42" s="48">
+      <c r="B42" s="49">
         <v>43343</v>
       </c>
-      <c r="C42" s="49" t="s">
+      <c r="C42" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="D42" s="49" t="s">
+      <c r="D42" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="E42" s="49" t="s">
+      <c r="E42" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="F42" s="49" t="s">
+      <c r="F42" s="50" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="43" ht="45" customHeight="1" spans="1:6">
-      <c r="A43" s="47" t="s">
+      <c r="A43" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="B43" s="47" t="s">
+      <c r="B43" s="48" t="s">
         <v>89</v>
       </c>
-      <c r="C43" s="49" t="s">
+      <c r="C43" s="50" t="s">
         <v>90</v>
       </c>
-      <c r="D43" s="47" t="s">
+      <c r="D43" s="48" t="s">
         <v>91</v>
       </c>
-      <c r="E43" s="47" t="s">
+      <c r="E43" s="48" t="s">
         <v>92</v>
       </c>
-      <c r="F43" s="47" t="s">
+      <c r="F43" s="48" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="44" ht="28.95" customHeight="1" spans="1:6">
-      <c r="A44" s="47" t="s">
+      <c r="A44" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="B44" s="48">
+      <c r="B44" s="49">
         <v>43342</v>
       </c>
-      <c r="C44" s="47" t="s">
+      <c r="C44" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="D44" s="47" t="s">
+      <c r="D44" s="48" t="s">
         <v>83</v>
       </c>
-      <c r="E44" s="49" t="s">
+      <c r="E44" s="50" t="s">
         <v>84</v>
       </c>
-      <c r="F44" s="47" t="s">
+      <c r="F44" s="48" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="45" ht="49.05" customHeight="1" spans="1:6">
-      <c r="A45" s="47" t="s">
+      <c r="A45" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="B45" s="49" t="s">
+      <c r="B45" s="50" t="s">
         <v>94</v>
       </c>
-      <c r="C45" s="51" t="s">
+      <c r="C45" s="52" t="s">
         <v>95</v>
       </c>
-      <c r="D45" s="47" t="s">
+      <c r="D45" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="E45" s="51" t="s">
+      <c r="E45" s="52" t="s">
         <v>96</v>
       </c>
-      <c r="F45" s="51" t="s">
+      <c r="F45" s="52" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="46" ht="67.05" customHeight="1" spans="1:19">
-      <c r="A46" s="47" t="s">
+      <c r="A46" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="B46" s="47" t="s">
+      <c r="B46" s="48" t="s">
         <v>74</v>
       </c>
-      <c r="C46" s="49" t="s">
+      <c r="C46" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="D46" s="52" t="s">
+      <c r="D46" s="53" t="s">
         <v>76</v>
       </c>
-      <c r="E46" s="49" t="s">
+      <c r="E46" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="F46" s="47" t="s">
+      <c r="F46" s="48" t="s">
         <v>77</v>
       </c>
       <c r="G46"/>
@@ -4771,326 +4890,326 @@
       <c r="S46"/>
     </row>
     <row r="47" ht="46.05" customHeight="1" spans="1:6">
-      <c r="A47" s="47" t="s">
+      <c r="A47" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="B47" s="48" t="s">
+      <c r="B47" s="49" t="s">
         <v>85</v>
       </c>
-      <c r="C47" s="47" t="s">
+      <c r="C47" s="48" t="s">
         <v>115</v>
       </c>
-      <c r="D47" s="47" t="s">
+      <c r="D47" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="E47" s="49" t="s">
+      <c r="E47" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="F47" s="47" t="s">
+      <c r="F47" s="48" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="48" ht="25.05" customHeight="1" spans="1:6">
-      <c r="A48" s="53"/>
-      <c r="B48" s="53"/>
-      <c r="C48" s="53"/>
-      <c r="D48" s="53"/>
-      <c r="E48" s="53"/>
-      <c r="F48" s="53"/>
+      <c r="A48" s="54"/>
+      <c r="B48" s="54"/>
+      <c r="C48" s="54"/>
+      <c r="D48" s="54"/>
+      <c r="E48" s="54"/>
+      <c r="F48" s="54"/>
     </row>
     <row r="49" ht="33" customHeight="1" spans="1:6">
-      <c r="A49" s="54"/>
-      <c r="B49" s="53"/>
-      <c r="C49" s="54"/>
-      <c r="D49" s="54"/>
-      <c r="E49" s="54"/>
-      <c r="F49" s="53"/>
+      <c r="A49" s="55"/>
+      <c r="B49" s="54"/>
+      <c r="C49" s="55"/>
+      <c r="D49" s="55"/>
+      <c r="E49" s="55"/>
+      <c r="F49" s="54"/>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="53"/>
-      <c r="B50" s="53"/>
-      <c r="C50" s="53"/>
-      <c r="D50" s="53"/>
-      <c r="E50" s="53"/>
-      <c r="F50" s="53"/>
+      <c r="A50" s="54"/>
+      <c r="B50" s="54"/>
+      <c r="C50" s="54"/>
+      <c r="D50" s="54"/>
+      <c r="E50" s="54"/>
+      <c r="F50" s="54"/>
     </row>
     <row r="51" ht="45" customHeight="1" spans="1:6">
-      <c r="A51" s="53"/>
-      <c r="B51" s="53"/>
-      <c r="C51" s="53"/>
-      <c r="D51" s="55"/>
-      <c r="E51" s="53"/>
-      <c r="F51" s="53"/>
+      <c r="A51" s="54"/>
+      <c r="B51" s="54"/>
+      <c r="C51" s="54"/>
+      <c r="D51" s="56"/>
+      <c r="E51" s="54"/>
+      <c r="F51" s="54"/>
     </row>
     <row r="52" ht="28.95" customHeight="1" spans="1:6">
-      <c r="A52" s="53"/>
-      <c r="B52" s="53"/>
-      <c r="C52" s="53"/>
-      <c r="D52" s="53"/>
-      <c r="E52" s="53"/>
-      <c r="F52" s="53"/>
+      <c r="A52" s="54"/>
+      <c r="B52" s="54"/>
+      <c r="C52" s="54"/>
+      <c r="D52" s="54"/>
+      <c r="E52" s="54"/>
+      <c r="F52" s="54"/>
     </row>
     <row r="53" ht="25.95" customHeight="1" spans="1:6">
-      <c r="A53" s="53"/>
-      <c r="B53" s="53"/>
-      <c r="C53" s="53"/>
-      <c r="D53" s="53"/>
-      <c r="E53" s="53"/>
-      <c r="F53" s="53"/>
+      <c r="A53" s="54"/>
+      <c r="B53" s="54"/>
+      <c r="C53" s="54"/>
+      <c r="D53" s="54"/>
+      <c r="E53" s="54"/>
+      <c r="F53" s="54"/>
     </row>
     <row r="54" ht="28.95" customHeight="1" spans="1:6">
-      <c r="A54" s="53"/>
-      <c r="B54" s="53"/>
-      <c r="C54" s="53"/>
-      <c r="D54" s="53"/>
-      <c r="E54" s="53"/>
-      <c r="F54" s="53"/>
+      <c r="A54" s="54"/>
+      <c r="B54" s="54"/>
+      <c r="C54" s="54"/>
+      <c r="D54" s="54"/>
+      <c r="E54" s="54"/>
+      <c r="F54" s="54"/>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="53"/>
-      <c r="B55" s="53"/>
-      <c r="C55" s="53"/>
-      <c r="D55" s="53"/>
-      <c r="E55" s="53"/>
-      <c r="F55" s="53"/>
-    </row>
-    <row r="56" s="32" customFormat="1" spans="1:1">
-      <c r="A56" s="32" t="s">
+      <c r="A55" s="54"/>
+      <c r="B55" s="54"/>
+      <c r="C55" s="54"/>
+      <c r="D55" s="54"/>
+      <c r="E55" s="54"/>
+      <c r="F55" s="54"/>
+    </row>
+    <row r="56" s="33" customFormat="1" spans="1:1">
+      <c r="A56" s="33" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="57" ht="102" spans="1:6">
-      <c r="A57" s="47" t="s">
+      <c r="A57" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="B57" s="56" t="s">
+      <c r="B57" s="57" t="s">
         <v>117</v>
       </c>
-      <c r="C57" s="56" t="s">
+      <c r="C57" s="57" t="s">
         <v>118</v>
       </c>
-      <c r="D57" s="56" t="s">
+      <c r="D57" s="57" t="s">
         <v>119</v>
       </c>
-      <c r="E57" s="56" t="s">
+      <c r="E57" s="57" t="s">
         <v>120</v>
       </c>
-      <c r="F57" s="56" t="s">
+      <c r="F57" s="57" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="58" ht="81.6" spans="1:6">
-      <c r="A58" s="47" t="s">
+      <c r="A58" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="B58" s="57">
+      <c r="B58" s="58">
         <v>43346</v>
       </c>
-      <c r="C58" s="53" t="s">
+      <c r="C58" s="54" t="s">
         <v>122</v>
       </c>
-      <c r="D58" s="53" t="s">
+      <c r="D58" s="54" t="s">
         <v>123</v>
       </c>
-      <c r="E58" s="53" t="s">
+      <c r="E58" s="54" t="s">
         <v>124</v>
       </c>
-      <c r="F58" s="53" t="s">
+      <c r="F58" s="54" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="59" ht="61.2" spans="1:6">
-      <c r="A59" s="47" t="s">
+      <c r="A59" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="B59" s="49" t="s">
+      <c r="B59" s="50" t="s">
         <v>126</v>
       </c>
-      <c r="C59" s="58" t="s">
+      <c r="C59" s="59" t="s">
         <v>127</v>
       </c>
-      <c r="D59" s="49" t="s">
+      <c r="D59" s="50" t="s">
         <v>128</v>
       </c>
-      <c r="E59" s="56" t="s">
+      <c r="E59" s="57" t="s">
         <v>129</v>
       </c>
-      <c r="F59" s="58" t="s">
+      <c r="F59" s="59" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="60" ht="102" spans="1:6">
-      <c r="A60" s="47" t="s">
+      <c r="A60" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="B60" s="50">
+      <c r="B60" s="51">
         <v>43346</v>
       </c>
-      <c r="C60" s="49" t="s">
+      <c r="C60" s="50" t="s">
         <v>131</v>
       </c>
-      <c r="D60" s="49" t="s">
+      <c r="D60" s="50" t="s">
         <v>132</v>
       </c>
-      <c r="E60" s="49" t="s">
+      <c r="E60" s="50" t="s">
         <v>133</v>
       </c>
-      <c r="F60" s="49" t="s">
+      <c r="F60" s="50" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="61" ht="34.8" spans="1:6">
-      <c r="A61" s="59" t="s">
+      <c r="A61" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="B61" s="60" t="s">
+      <c r="B61" s="61" t="s">
         <v>117</v>
       </c>
-      <c r="C61" s="54" t="s">
+      <c r="C61" s="55" t="s">
         <v>135</v>
       </c>
-      <c r="D61" s="60" t="s">
+      <c r="D61" s="61" t="s">
         <v>136</v>
       </c>
-      <c r="E61" s="60" t="s">
+      <c r="E61" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="F61" s="60" t="s">
+      <c r="F61" s="61" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="62" ht="61.2" spans="1:6">
-      <c r="A62" s="47" t="s">
+      <c r="A62" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="B62" s="53" t="s">
+      <c r="B62" s="54" t="s">
         <v>138</v>
       </c>
-      <c r="C62" s="53" t="s">
+      <c r="C62" s="54" t="s">
         <v>139</v>
       </c>
-      <c r="D62" s="49" t="s">
+      <c r="D62" s="50" t="s">
         <v>140</v>
       </c>
-      <c r="E62" s="49" t="s">
+      <c r="E62" s="50" t="s">
         <v>141</v>
       </c>
-      <c r="F62" s="49" t="s">
+      <c r="F62" s="50" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="63" ht="61.2" spans="1:6">
-      <c r="A63" s="47" t="s">
+      <c r="A63" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="B63" s="57">
+      <c r="B63" s="58">
         <v>43346</v>
       </c>
-      <c r="C63" s="53" t="s">
+      <c r="C63" s="54" t="s">
         <v>143</v>
       </c>
-      <c r="D63" s="49" t="s">
+      <c r="D63" s="50" t="s">
         <v>144</v>
       </c>
-      <c r="E63" s="49" t="s">
+      <c r="E63" s="50" t="s">
         <v>145</v>
       </c>
-      <c r="F63" s="49" t="s">
+      <c r="F63" s="50" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="64" customFormat="1" ht="33" customHeight="1" spans="1:6">
-      <c r="A64" s="47" t="s">
+      <c r="A64" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="B64" s="48">
+      <c r="B64" s="49">
         <v>43346</v>
       </c>
-      <c r="C64" s="47" t="s">
+      <c r="C64" s="48" t="s">
         <v>147</v>
       </c>
-      <c r="D64" s="47" t="s">
+      <c r="D64" s="48" t="s">
         <v>148</v>
       </c>
-      <c r="E64" s="49" t="s">
+      <c r="E64" s="50" t="s">
         <v>149</v>
       </c>
-      <c r="F64" s="47" t="s">
+      <c r="F64" s="48" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="65" ht="27" customHeight="1" spans="1:6">
-      <c r="A65" s="53" t="s">
+      <c r="A65" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="B65" s="57">
+      <c r="B65" s="58">
         <v>43346</v>
       </c>
-      <c r="C65" s="53" t="s">
+      <c r="C65" s="54" t="s">
         <v>150</v>
       </c>
-      <c r="D65" s="61"/>
-      <c r="E65" s="53"/>
-      <c r="F65" s="53"/>
+      <c r="D65" s="62"/>
+      <c r="E65" s="54"/>
+      <c r="F65" s="54"/>
     </row>
     <row r="66" ht="33" customHeight="1" spans="1:6">
-      <c r="A66" s="53"/>
-      <c r="B66" s="53"/>
-      <c r="C66" s="53"/>
-      <c r="D66" s="53"/>
-      <c r="E66" s="53"/>
-      <c r="F66" s="53"/>
+      <c r="A66" s="54"/>
+      <c r="B66" s="54"/>
+      <c r="C66" s="54"/>
+      <c r="D66" s="54"/>
+      <c r="E66" s="54"/>
+      <c r="F66" s="54"/>
     </row>
     <row r="67" ht="30" customHeight="1" spans="1:6">
-      <c r="A67" s="53"/>
-      <c r="B67" s="53"/>
-      <c r="C67" s="53"/>
-      <c r="D67" s="53"/>
-      <c r="E67" s="53"/>
-      <c r="F67" s="53"/>
+      <c r="A67" s="54"/>
+      <c r="B67" s="54"/>
+      <c r="C67" s="54"/>
+      <c r="D67" s="54"/>
+      <c r="E67" s="54"/>
+      <c r="F67" s="54"/>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="53"/>
-      <c r="B68" s="53"/>
-      <c r="C68" s="53"/>
-      <c r="D68" s="53"/>
-      <c r="E68" s="53"/>
-      <c r="F68" s="53"/>
+      <c r="A68" s="54"/>
+      <c r="B68" s="54"/>
+      <c r="C68" s="54"/>
+      <c r="D68" s="54"/>
+      <c r="E68" s="54"/>
+      <c r="F68" s="54"/>
     </row>
     <row r="69" spans="1:6">
-      <c r="A69" s="53"/>
-      <c r="B69" s="53"/>
-      <c r="C69" s="53"/>
-      <c r="D69" s="53"/>
-      <c r="E69" s="53"/>
-      <c r="F69" s="53"/>
+      <c r="A69" s="54"/>
+      <c r="B69" s="54"/>
+      <c r="C69" s="54"/>
+      <c r="D69" s="54"/>
+      <c r="E69" s="54"/>
+      <c r="F69" s="54"/>
     </row>
     <row r="70" ht="22.95" customHeight="1" spans="1:6">
-      <c r="A70" s="53"/>
-      <c r="B70" s="53"/>
-      <c r="C70" s="53"/>
-      <c r="D70" s="53"/>
-      <c r="E70" s="53"/>
-      <c r="F70" s="53"/>
+      <c r="A70" s="54"/>
+      <c r="B70" s="54"/>
+      <c r="C70" s="54"/>
+      <c r="D70" s="54"/>
+      <c r="E70" s="54"/>
+      <c r="F70" s="54"/>
     </row>
     <row r="71" ht="33" customHeight="1" spans="1:6">
-      <c r="A71" s="53"/>
-      <c r="B71" s="53"/>
-      <c r="C71" s="53"/>
-      <c r="D71" s="53"/>
-      <c r="E71" s="53"/>
-      <c r="F71" s="53"/>
+      <c r="A71" s="54"/>
+      <c r="B71" s="54"/>
+      <c r="C71" s="54"/>
+      <c r="D71" s="54"/>
+      <c r="E71" s="54"/>
+      <c r="F71" s="54"/>
     </row>
     <row r="72" spans="1:6">
-      <c r="A72" s="53"/>
-      <c r="B72" s="53"/>
-      <c r="C72" s="53"/>
-      <c r="D72" s="53"/>
-      <c r="E72" s="53"/>
-      <c r="F72" s="53"/>
-    </row>
-    <row r="73" s="32" customFormat="1" spans="1:1">
-      <c r="A73" s="32" t="s">
+      <c r="A72" s="54"/>
+      <c r="B72" s="54"/>
+      <c r="C72" s="54"/>
+      <c r="D72" s="54"/>
+      <c r="E72" s="54"/>
+      <c r="F72" s="54"/>
+    </row>
+    <row r="73" s="33" customFormat="1" spans="1:1">
+      <c r="A73" s="33" t="s">
         <v>98</v>
       </c>
     </row>
@@ -5118,7 +5237,7 @@
       <c r="A75" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B75" s="62">
+      <c r="B75" s="63">
         <v>43347</v>
       </c>
       <c r="C75" s="5" t="s">
@@ -5215,10 +5334,10 @@
       </c>
     </row>
     <row r="80" ht="28.8" spans="1:6">
-      <c r="A80" s="63" t="s">
+      <c r="A80" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="B80" s="63" t="s">
+      <c r="B80" s="64" t="s">
         <v>151</v>
       </c>
       <c r="C80" s="4" t="s">
@@ -5227,10 +5346,10 @@
       <c r="D80" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="E80" s="64" t="s">
+      <c r="E80" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="F80" s="63" t="s">
+      <c r="F80" s="64" t="s">
         <v>179</v>
       </c>
     </row>
@@ -5255,13 +5374,13 @@
       </c>
     </row>
     <row r="82" ht="28.05" customHeight="1" spans="1:6">
-      <c r="A82" s="65" t="s">
+      <c r="A82" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="B82" s="66">
+      <c r="B82" s="67">
         <v>43346</v>
       </c>
-      <c r="C82" s="65" t="s">
+      <c r="C82" s="66" t="s">
         <v>150</v>
       </c>
       <c r="D82" s="5"/>
@@ -5332,19 +5451,19 @@
       <c r="E90" s="5"/>
       <c r="F90" s="5"/>
     </row>
-    <row r="91" s="32" customFormat="1" spans="1:6">
-      <c r="A91" s="41"/>
-      <c r="B91" s="41"/>
-      <c r="C91" s="41"/>
-      <c r="D91" s="41"/>
-      <c r="E91" s="41"/>
-      <c r="F91" s="41"/>
+    <row r="91" s="33" customFormat="1" spans="1:6">
+      <c r="A91" s="42"/>
+      <c r="B91" s="42"/>
+      <c r="C91" s="42"/>
+      <c r="D91" s="42"/>
+      <c r="E91" s="42"/>
+      <c r="F91" s="42"/>
     </row>
     <row r="92" ht="102" spans="1:6">
       <c r="A92" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B92" s="62">
+      <c r="B92" s="63">
         <v>43348</v>
       </c>
       <c r="C92" s="5" t="s">
@@ -5364,7 +5483,7 @@
       <c r="A93" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B93" s="62">
+      <c r="B93" s="63">
         <v>43348</v>
       </c>
       <c r="C93" s="5" t="s">
@@ -5384,7 +5503,7 @@
       <c r="A94" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B94" s="62">
+      <c r="B94" s="63">
         <v>43348</v>
       </c>
       <c r="C94" s="5" t="s">
@@ -5404,7 +5523,7 @@
       <c r="A95" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B95" s="62">
+      <c r="B95" s="63">
         <v>43348</v>
       </c>
       <c r="C95" s="5" t="s">
@@ -5441,22 +5560,22 @@
       </c>
     </row>
     <row r="97" ht="28.95" customHeight="1" spans="1:6">
-      <c r="A97" s="67" t="s">
+      <c r="A97" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="B97" s="67" t="s">
+      <c r="B97" s="68" t="s">
         <v>201</v>
       </c>
-      <c r="C97" s="67" t="s">
+      <c r="C97" s="68" t="s">
         <v>202</v>
       </c>
       <c r="D97" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="E97" s="67" t="s">
+      <c r="E97" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="F97" s="67" t="s">
+      <c r="F97" s="68" t="s">
         <v>203</v>
       </c>
     </row>
@@ -5484,7 +5603,7 @@
       <c r="A99" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B99" s="62">
+      <c r="B99" s="63">
         <v>43348</v>
       </c>
       <c r="C99" s="5" t="s">
@@ -5501,13 +5620,13 @@
       </c>
     </row>
     <row r="100" ht="24" customHeight="1" spans="1:6">
-      <c r="A100" s="65" t="s">
+      <c r="A100" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="B100" s="66">
+      <c r="B100" s="67">
         <v>43348</v>
       </c>
-      <c r="C100" s="65" t="s">
+      <c r="C100" s="66" t="s">
         <v>150</v>
       </c>
       <c r="D100" s="5"/>
@@ -5578,19 +5697,19 @@
       <c r="E108" s="5"/>
       <c r="F108" s="5"/>
     </row>
-    <row r="109" s="32" customFormat="1" spans="1:6">
-      <c r="A109" s="41"/>
-      <c r="B109" s="41"/>
-      <c r="C109" s="41"/>
-      <c r="D109" s="41"/>
-      <c r="E109" s="41"/>
-      <c r="F109" s="41"/>
+    <row r="109" s="33" customFormat="1" spans="1:6">
+      <c r="A109" s="42"/>
+      <c r="B109" s="42"/>
+      <c r="C109" s="42"/>
+      <c r="D109" s="42"/>
+      <c r="E109" s="42"/>
+      <c r="F109" s="42"/>
     </row>
     <row r="110" ht="81.6" spans="1:6">
       <c r="A110" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B110" s="62">
+      <c r="B110" s="63">
         <v>43349</v>
       </c>
       <c r="C110" s="5" t="s">
@@ -5673,7 +5792,7 @@
       <c r="B114" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="C114" s="68" t="s">
+      <c r="C114" s="69" t="s">
         <v>231</v>
       </c>
       <c r="D114" s="5" t="s">
@@ -5690,7 +5809,7 @@
       <c r="A115" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B115" s="62">
+      <c r="B115" s="63">
         <v>43349</v>
       </c>
       <c r="C115" s="5" t="s">
@@ -5710,7 +5829,7 @@
       <c r="A116" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B116" s="62">
+      <c r="B116" s="63">
         <v>43349</v>
       </c>
       <c r="C116" s="5" t="s">
@@ -5730,7 +5849,7 @@
       <c r="A117" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B117" s="62">
+      <c r="B117" s="63">
         <v>43349</v>
       </c>
       <c r="C117" s="5" t="s">
@@ -5748,7 +5867,7 @@
       <c r="A118" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B118" s="62">
+      <c r="B118" s="63">
         <v>43349</v>
       </c>
       <c r="C118" s="5" t="s">
@@ -5790,29 +5909,29 @@
     </row>
     <row r="123" ht="22.95" customHeight="1"/>
     <row r="126" spans="2:2">
-      <c r="B126" s="69"/>
+      <c r="B126" s="70"/>
     </row>
     <row r="127" ht="9" customHeight="1" spans="2:2">
-      <c r="B127" s="69"/>
-    </row>
-    <row r="128" s="32" customFormat="1"/>
+      <c r="B127" s="70"/>
+    </row>
+    <row r="128" s="33" customFormat="1"/>
     <row r="130" ht="27" customHeight="1" spans="4:4">
-      <c r="D130" s="70"/>
+      <c r="D130" s="71"/>
     </row>
     <row r="131" spans="2:2">
-      <c r="B131" s="71"/>
+      <c r="B131" s="72"/>
     </row>
     <row r="132" ht="7.95" customHeight="1" spans="2:2">
-      <c r="B132" s="71"/>
+      <c r="B132" s="72"/>
     </row>
     <row r="133" ht="34.05" customHeight="1"/>
     <row r="134" ht="30" customHeight="1"/>
     <row r="135" ht="28.05" customHeight="1"/>
     <row r="138" spans="2:2">
-      <c r="B138" s="69"/>
+      <c r="B138" s="70"/>
     </row>
     <row r="139" ht="13.05" customHeight="1" spans="2:2">
-      <c r="B139" s="69"/>
+      <c r="B139" s="70"/>
     </row>
     <row r="140" ht="28.05" customHeight="1"/>
     <row r="143" ht="22.05" customHeight="1"/>
@@ -5820,22 +5939,22 @@
     <row r="145" ht="22.05" customHeight="1"/>
     <row r="146" ht="22.05" customHeight="1"/>
     <row r="147" ht="21" customHeight="1"/>
-    <row r="148" s="32" customFormat="1"/>
+    <row r="148" s="33" customFormat="1"/>
     <row r="149" ht="22.95" customHeight="1"/>
     <row r="150" spans="2:2">
-      <c r="B150" s="71"/>
+      <c r="B150" s="72"/>
     </row>
     <row r="151" spans="2:2">
-      <c r="B151" s="71"/>
+      <c r="B151" s="72"/>
     </row>
     <row r="152" spans="2:2">
-      <c r="B152" s="71"/>
+      <c r="B152" s="72"/>
     </row>
     <row r="153" spans="2:2">
-      <c r="B153" s="71"/>
+      <c r="B153" s="72"/>
     </row>
     <row r="154" spans="4:4">
-      <c r="D154" s="72"/>
+      <c r="D154" s="73"/>
     </row>
     <row r="155" ht="24" customHeight="1"/>
     <row r="156" ht="22.95" customHeight="1"/>
@@ -5845,51 +5964,51 @@
     <row r="161" ht="24" customHeight="1"/>
     <row r="163" ht="28.95" customHeight="1"/>
     <row r="164" ht="25.95" customHeight="1" spans="2:2">
-      <c r="B164" s="71"/>
-    </row>
-    <row r="165" s="32" customFormat="1"/>
+      <c r="B164" s="72"/>
+    </row>
+    <row r="165" s="33" customFormat="1"/>
     <row r="166" ht="25.95" customHeight="1" spans="4:4">
-      <c r="D166" s="70"/>
+      <c r="D166" s="71"/>
     </row>
     <row r="168" ht="27" customHeight="1"/>
     <row r="169" ht="13.05" customHeight="1" spans="2:2">
-      <c r="B169" s="71"/>
+      <c r="B169" s="72"/>
     </row>
     <row r="170" ht="13.05" customHeight="1" spans="2:2">
-      <c r="B170" s="71"/>
+      <c r="B170" s="72"/>
     </row>
     <row r="171" spans="2:2">
-      <c r="B171" s="71"/>
+      <c r="B171" s="72"/>
     </row>
     <row r="172" ht="12" customHeight="1" spans="2:2">
-      <c r="B172" s="71"/>
+      <c r="B172" s="72"/>
     </row>
     <row r="173" ht="34.05" customHeight="1"/>
     <row r="175" ht="31.05" customHeight="1"/>
-    <row r="177" s="32" customFormat="1"/>
+    <row r="177" s="33" customFormat="1"/>
     <row r="178" spans="2:2">
-      <c r="B178" s="71"/>
+      <c r="B178" s="72"/>
     </row>
     <row r="179" spans="2:2">
-      <c r="B179" s="71"/>
+      <c r="B179" s="72"/>
     </row>
     <row r="180" spans="2:2">
-      <c r="B180" s="69"/>
+      <c r="B180" s="70"/>
     </row>
     <row r="181" spans="2:2">
-      <c r="B181" s="69"/>
+      <c r="B181" s="70"/>
     </row>
     <row r="182" spans="2:2">
-      <c r="B182" s="69"/>
+      <c r="B182" s="70"/>
     </row>
     <row r="183" spans="2:2">
-      <c r="B183" s="69"/>
+      <c r="B183" s="70"/>
     </row>
     <row r="184" spans="2:2">
-      <c r="B184" s="69"/>
+      <c r="B184" s="70"/>
     </row>
     <row r="185" spans="2:2">
-      <c r="B185" s="69"/>
+      <c r="B185" s="70"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5901,10 +6020,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F63"/>
+  <dimension ref="A1:F75"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F63"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="A64" sqref="$A64:$XFD64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -6917,6 +7036,216 @@
         <v>423</v>
       </c>
     </row>
+    <row r="64" ht="20.4" spans="1:6">
+      <c r="A64" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="B64" s="11"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="11"/>
+      <c r="F64" s="11"/>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" t="s">
+        <v>274</v>
+      </c>
+      <c r="B66" t="s">
+        <v>221</v>
+      </c>
+      <c r="C66" t="s">
+        <v>424</v>
+      </c>
+      <c r="D66" t="s">
+        <v>425</v>
+      </c>
+      <c r="E66" t="s">
+        <v>426</v>
+      </c>
+      <c r="F66" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="67" ht="28.8" spans="1:6">
+      <c r="A67" t="s">
+        <v>428</v>
+      </c>
+      <c r="B67" t="s">
+        <v>221</v>
+      </c>
+      <c r="C67" t="s">
+        <v>429</v>
+      </c>
+      <c r="D67" t="s">
+        <v>430</v>
+      </c>
+      <c r="E67" t="s">
+        <v>427</v>
+      </c>
+      <c r="F67" s="30" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="68" ht="28.8" spans="1:6">
+      <c r="A68" t="s">
+        <v>279</v>
+      </c>
+      <c r="B68" t="s">
+        <v>221</v>
+      </c>
+      <c r="C68" s="30" t="s">
+        <v>432</v>
+      </c>
+      <c r="D68" t="s">
+        <v>433</v>
+      </c>
+      <c r="E68" s="30" t="s">
+        <v>431</v>
+      </c>
+      <c r="F68" s="30" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="69" ht="28.8" spans="1:6">
+      <c r="A69" t="s">
+        <v>294</v>
+      </c>
+      <c r="B69" t="s">
+        <v>221</v>
+      </c>
+      <c r="C69" t="s">
+        <v>435</v>
+      </c>
+      <c r="D69" t="s">
+        <v>436</v>
+      </c>
+      <c r="E69" s="30" t="s">
+        <v>434</v>
+      </c>
+      <c r="F69" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" t="s">
+        <v>263</v>
+      </c>
+      <c r="B70" t="s">
+        <v>221</v>
+      </c>
+      <c r="C70" t="s">
+        <v>438</v>
+      </c>
+      <c r="D70" t="s">
+        <v>439</v>
+      </c>
+      <c r="E70" t="s">
+        <v>440</v>
+      </c>
+      <c r="F70" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" t="s">
+        <v>253</v>
+      </c>
+      <c r="B71" t="s">
+        <v>221</v>
+      </c>
+      <c r="C71" t="s">
+        <v>397</v>
+      </c>
+      <c r="D71" t="s">
+        <v>442</v>
+      </c>
+      <c r="E71" t="s">
+        <v>443</v>
+      </c>
+      <c r="F71" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="72" ht="28.8" spans="1:6">
+      <c r="A72" t="s">
+        <v>289</v>
+      </c>
+      <c r="B72" t="s">
+        <v>221</v>
+      </c>
+      <c r="C72" t="s">
+        <v>444</v>
+      </c>
+      <c r="D72" t="s">
+        <v>445</v>
+      </c>
+      <c r="E72" s="30" t="s">
+        <v>446</v>
+      </c>
+      <c r="F72" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="73" ht="28.8" spans="1:6">
+      <c r="A73" t="s">
+        <v>448</v>
+      </c>
+      <c r="B73" t="s">
+        <v>221</v>
+      </c>
+      <c r="C73" t="s">
+        <v>449</v>
+      </c>
+      <c r="D73" t="s">
+        <v>390</v>
+      </c>
+      <c r="E73" s="30" t="s">
+        <v>450</v>
+      </c>
+      <c r="F73" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="74" ht="72" spans="1:6">
+      <c r="A74" t="s">
+        <v>258</v>
+      </c>
+      <c r="B74" t="s">
+        <v>221</v>
+      </c>
+      <c r="C74" s="30" t="s">
+        <v>452</v>
+      </c>
+      <c r="D74" t="s">
+        <v>453</v>
+      </c>
+      <c r="E74" s="30" t="s">
+        <v>454</v>
+      </c>
+      <c r="F74" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" t="s">
+        <v>248</v>
+      </c>
+      <c r="B75" t="s">
+        <v>221</v>
+      </c>
+      <c r="C75" t="s">
+        <v>456</v>
+      </c>
+      <c r="D75" t="s">
+        <v>457</v>
+      </c>
+      <c r="E75" t="s">
+        <v>458</v>
+      </c>
+      <c r="F75" t="s">
+        <v>459</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -6928,8 +7257,8 @@
   <sheetPr/>
   <dimension ref="A1:K153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="F149" sqref="F149"/>
+    <sheetView topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="A154" sqref="A154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -6964,202 +7293,202 @@
     </row>
     <row r="2" ht="122.4" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>424</v>
+        <v>460</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>425</v>
+        <v>461</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>426</v>
+        <v>462</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>427</v>
+        <v>463</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>428</v>
+        <v>464</v>
       </c>
     </row>
     <row r="3" ht="102" spans="1:6">
       <c r="A3" s="4" t="s">
-        <v>429</v>
+        <v>465</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>430</v>
+        <v>466</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>431</v>
+        <v>467</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>432</v>
+        <v>468</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>433</v>
+        <v>469</v>
       </c>
     </row>
     <row r="4" ht="40.8" spans="1:6">
       <c r="A4" s="4" t="s">
-        <v>434</v>
+        <v>470</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>435</v>
+        <v>471</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>436</v>
+        <v>472</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>437</v>
+        <v>473</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>438</v>
+        <v>474</v>
       </c>
     </row>
     <row r="5" ht="142.8" spans="1:6">
       <c r="A5" s="4" t="s">
-        <v>439</v>
+        <v>475</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>440</v>
+        <v>476</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>441</v>
+        <v>477</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>442</v>
+        <v>478</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>443</v>
+        <v>479</v>
       </c>
     </row>
     <row r="6" ht="326.4" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>444</v>
+        <v>480</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>445</v>
+        <v>481</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>446</v>
+        <v>482</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>447</v>
+        <v>483</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
     </row>
     <row r="7" ht="409.5" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>449</v>
+        <v>485</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>450</v>
+        <v>486</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>451</v>
+        <v>487</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>452</v>
+        <v>488</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>453</v>
+        <v>489</v>
       </c>
     </row>
     <row r="8" ht="285.6" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>454</v>
+        <v>490</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>455</v>
+        <v>491</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>456</v>
+        <v>492</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>457</v>
+        <v>493</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>458</v>
+        <v>494</v>
       </c>
     </row>
     <row r="9" ht="40.8" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>459</v>
+        <v>495</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>460</v>
+        <v>496</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>461</v>
+        <v>497</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>462</v>
+        <v>498</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>463</v>
+        <v>499</v>
       </c>
     </row>
     <row r="10" ht="142.8" spans="1:6">
       <c r="A10" s="2" t="s">
-        <v>464</v>
+        <v>500</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>440</v>
+        <v>476</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>465</v>
+        <v>501</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>466</v>
+        <v>502</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>467</v>
+        <v>503</v>
       </c>
     </row>
     <row r="11" ht="204" spans="1:6">
       <c r="A11" s="2" t="s">
-        <v>468</v>
+        <v>504</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>469</v>
+        <v>505</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>470</v>
+        <v>506</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>471</v>
+        <v>507</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>472</v>
+        <v>508</v>
       </c>
     </row>
     <row r="12" ht="20.4" spans="1:6">
@@ -7194,207 +7523,207 @@
     </row>
     <row r="14" ht="81.6" spans="1:6">
       <c r="A14" s="2" t="s">
-        <v>464</v>
+        <v>500</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>74</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>473</v>
+        <v>509</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>474</v>
+        <v>510</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>475</v>
+        <v>511</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>476</v>
+        <v>512</v>
       </c>
     </row>
     <row r="15" ht="326.4" spans="1:6">
       <c r="A15" s="2" t="s">
-        <v>454</v>
+        <v>490</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>74</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>477</v>
+        <v>513</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>478</v>
+        <v>514</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>479</v>
+        <v>515</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>480</v>
+        <v>516</v>
       </c>
     </row>
     <row r="16" ht="142.8" spans="1:6">
       <c r="A16" s="2" t="s">
-        <v>424</v>
+        <v>460</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>74</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>481</v>
+        <v>517</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>482</v>
+        <v>518</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>483</v>
+        <v>519</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>484</v>
+        <v>520</v>
       </c>
     </row>
     <row r="17" ht="81.6" spans="1:6">
       <c r="A17" s="2" t="s">
-        <v>485</v>
+        <v>521</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>74</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>486</v>
+        <v>522</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>487</v>
+        <v>523</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>488</v>
+        <v>524</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>489</v>
+        <v>525</v>
       </c>
     </row>
     <row r="18" ht="122.4" spans="1:6">
       <c r="A18" s="2" t="s">
-        <v>490</v>
+        <v>526</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>74</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>491</v>
+        <v>527</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>492</v>
+        <v>528</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>493</v>
+        <v>529</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>494</v>
+        <v>530</v>
       </c>
     </row>
     <row r="19" ht="367.2" spans="1:6">
       <c r="A19" s="2" t="s">
-        <v>444</v>
+        <v>480</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>74</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>495</v>
+        <v>531</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>496</v>
+        <v>532</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>497</v>
+        <v>533</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>498</v>
+        <v>534</v>
       </c>
     </row>
     <row r="20" ht="142.8" spans="1:6">
       <c r="A20" s="2" t="s">
-        <v>499</v>
+        <v>535</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>89</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>500</v>
+        <v>536</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>501</v>
+        <v>537</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>502</v>
+        <v>538</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>503</v>
+        <v>539</v>
       </c>
     </row>
     <row r="21" ht="81.6" spans="1:6">
       <c r="A21" s="2" t="s">
-        <v>459</v>
+        <v>495</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>89</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>504</v>
+        <v>540</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>505</v>
+        <v>541</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>506</v>
+        <v>542</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>507</v>
+        <v>543</v>
       </c>
     </row>
     <row r="22" ht="409.5" spans="1:6">
       <c r="A22" s="2" t="s">
-        <v>449</v>
+        <v>485</v>
       </c>
       <c r="B22" s="10" t="s">
         <v>89</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>508</v>
+        <v>544</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>509</v>
+        <v>545</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>510</v>
+        <v>546</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>511</v>
+        <v>547</v>
       </c>
     </row>
     <row r="23" ht="102" spans="1:6">
       <c r="A23" s="2" t="s">
-        <v>512</v>
+        <v>548</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>89</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>513</v>
+        <v>549</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>514</v>
+        <v>550</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>515</v>
+        <v>551</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>472</v>
+        <v>508</v>
       </c>
     </row>
     <row r="24" ht="20.4" spans="1:6">
       <c r="A24" s="7" t="s">
-        <v>516</v>
+        <v>552</v>
       </c>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -7422,202 +7751,202 @@
     </row>
     <row r="26" ht="81.6" spans="1:6">
       <c r="A26" s="2" t="s">
-        <v>464</v>
+        <v>500</v>
       </c>
       <c r="B26" s="10" t="s">
         <v>107</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>517</v>
+        <v>553</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>518</v>
+        <v>554</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>519</v>
+        <v>555</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>520</v>
+        <v>556</v>
       </c>
     </row>
     <row r="27" ht="387.6" spans="1:6">
       <c r="A27" s="2" t="s">
-        <v>444</v>
+        <v>480</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>521</v>
+        <v>557</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>522</v>
+        <v>558</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>523</v>
+        <v>559</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>524</v>
+        <v>560</v>
       </c>
     </row>
     <row r="28" ht="142.8" spans="1:6">
       <c r="A28" s="2" t="s">
-        <v>449</v>
+        <v>485</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>525</v>
+        <v>561</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>526</v>
+        <v>562</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>527</v>
+        <v>563</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>528</v>
+        <v>564</v>
       </c>
     </row>
     <row r="29" ht="409.5" spans="1:6">
       <c r="A29" s="2" t="s">
-        <v>490</v>
+        <v>526</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>529</v>
+        <v>565</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>530</v>
+        <v>566</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>531</v>
+        <v>567</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>532</v>
+        <v>568</v>
       </c>
     </row>
     <row r="30" ht="122.4" spans="1:6">
       <c r="A30" s="2" t="s">
-        <v>459</v>
+        <v>495</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>533</v>
+        <v>569</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>534</v>
+        <v>570</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>535</v>
+        <v>571</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>536</v>
+        <v>572</v>
       </c>
     </row>
     <row r="31" ht="409.5" spans="1:6">
       <c r="A31" s="2" t="s">
-        <v>454</v>
+        <v>490</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>537</v>
+        <v>573</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>538</v>
+        <v>574</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>539</v>
+        <v>575</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>540</v>
+        <v>576</v>
       </c>
     </row>
     <row r="32" ht="163.2" spans="1:6">
       <c r="A32" s="2" t="s">
-        <v>424</v>
+        <v>460</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>541</v>
+        <v>577</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>542</v>
+        <v>578</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>543</v>
+        <v>579</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>544</v>
+        <v>580</v>
       </c>
     </row>
     <row r="33" ht="409.5" spans="1:6">
       <c r="A33" s="2" t="s">
-        <v>439</v>
+        <v>475</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>545</v>
+        <v>581</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>546</v>
+        <v>582</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>547</v>
+        <v>583</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>548</v>
+        <v>584</v>
       </c>
     </row>
     <row r="34" ht="102" spans="1:6">
       <c r="A34" s="2" t="s">
-        <v>512</v>
+        <v>548</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>549</v>
+        <v>585</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>550</v>
+        <v>586</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>551</v>
+        <v>587</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>552</v>
+        <v>588</v>
       </c>
     </row>
     <row r="35" ht="81.6" spans="1:6">
       <c r="A35" s="2" t="s">
-        <v>485</v>
+        <v>521</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>553</v>
+        <v>589</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>554</v>
+        <v>590</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>527</v>
+        <v>563</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>555</v>
+        <v>591</v>
       </c>
     </row>
     <row r="36" ht="20.4" spans="1:6">
@@ -7652,22 +7981,22 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="5" t="s">
-        <v>424</v>
+        <v>460</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>117</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>556</v>
+        <v>592</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>557</v>
+        <v>593</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>558</v>
+        <v>594</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>559</v>
+        <v>595</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7704,22 +8033,22 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="5" t="s">
-        <v>454</v>
+        <v>490</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>117</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>560</v>
+        <v>596</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>561</v>
+        <v>597</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>562</v>
+        <v>598</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>563</v>
+        <v>599</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -7756,22 +8085,22 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="5" t="s">
-        <v>459</v>
+        <v>495</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>117</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>564</v>
+        <v>600</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>565</v>
+        <v>601</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>566</v>
+        <v>602</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>567</v>
+        <v>603</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -7808,22 +8137,22 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="5" t="s">
-        <v>464</v>
+        <v>500</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>117</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>568</v>
+        <v>604</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>569</v>
+        <v>605</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>570</v>
+        <v>606</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>571</v>
+        <v>607</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -7860,22 +8189,22 @@
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="5" t="s">
-        <v>444</v>
+        <v>480</v>
       </c>
       <c r="B58" s="5" t="s">
         <v>117</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>572</v>
+        <v>608</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>573</v>
+        <v>609</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>574</v>
+        <v>610</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>575</v>
+        <v>611</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -7912,22 +8241,22 @@
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="5" t="s">
-        <v>490</v>
+        <v>526</v>
       </c>
       <c r="B63" s="5" t="s">
         <v>117</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>576</v>
+        <v>612</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>577</v>
+        <v>613</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>578</v>
+        <v>614</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>579</v>
+        <v>615</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -7964,22 +8293,22 @@
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="5" t="s">
-        <v>449</v>
+        <v>485</v>
       </c>
       <c r="B68" s="5" t="s">
         <v>117</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>580</v>
+        <v>616</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>581</v>
+        <v>617</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>582</v>
+        <v>618</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>583</v>
+        <v>619</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -8016,22 +8345,22 @@
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="5" t="s">
-        <v>439</v>
+        <v>475</v>
       </c>
       <c r="B73" s="5" t="s">
         <v>117</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>584</v>
+        <v>620</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>585</v>
+        <v>621</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>586</v>
+        <v>622</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>587</v>
+        <v>623</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -8068,42 +8397,42 @@
     </row>
     <row r="78" ht="204" spans="1:6">
       <c r="A78" s="2" t="s">
-        <v>485</v>
+        <v>521</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>117</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>572</v>
+        <v>608</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>588</v>
+        <v>624</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>578</v>
+        <v>614</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>579</v>
+        <v>615</v>
       </c>
     </row>
     <row r="79" ht="122.4" spans="1:6">
       <c r="A79" s="2" t="s">
-        <v>512</v>
+        <v>548</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>117</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>589</v>
+        <v>625</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>590</v>
+        <v>626</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>591</v>
+        <v>627</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>472</v>
+        <v>508</v>
       </c>
     </row>
     <row r="80" ht="20.4" spans="1:6">
@@ -8146,202 +8475,202 @@
     </row>
     <row r="83" ht="409.5" spans="1:6">
       <c r="A83" s="4" t="s">
-        <v>444</v>
+        <v>480</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>151</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>592</v>
+        <v>628</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>593</v>
+        <v>629</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>594</v>
+        <v>630</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>595</v>
+        <v>631</v>
       </c>
     </row>
     <row r="84" ht="102" spans="1:6">
       <c r="A84" s="4" t="s">
-        <v>464</v>
+        <v>500</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>151</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>596</v>
+        <v>632</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>597</v>
+        <v>633</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>598</v>
+        <v>634</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>599</v>
+        <v>635</v>
       </c>
     </row>
     <row r="85" ht="224.4" spans="1:6">
       <c r="A85" s="4" t="s">
-        <v>424</v>
+        <v>460</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>151</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>600</v>
+        <v>636</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>601</v>
+        <v>637</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>602</v>
+        <v>638</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>603</v>
+        <v>639</v>
       </c>
     </row>
     <row r="86" ht="285.6" spans="1:6">
       <c r="A86" s="4" t="s">
-        <v>499</v>
+        <v>535</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>151</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>604</v>
+        <v>640</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>605</v>
+        <v>641</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>606</v>
+        <v>642</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>607</v>
+        <v>643</v>
       </c>
     </row>
     <row r="87" ht="142.8" spans="1:6">
       <c r="A87" s="4" t="s">
-        <v>449</v>
+        <v>485</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>151</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>608</v>
+        <v>644</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>605</v>
+        <v>641</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>609</v>
+        <v>645</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>610</v>
+        <v>646</v>
       </c>
     </row>
     <row r="88" ht="81.6" spans="1:6">
       <c r="A88" s="4" t="s">
-        <v>490</v>
+        <v>526</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>151</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>611</v>
+        <v>647</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>612</v>
+        <v>648</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>613</v>
+        <v>649</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>614</v>
+        <v>650</v>
       </c>
     </row>
     <row r="89" ht="102" spans="1:6">
       <c r="A89" s="4" t="s">
-        <v>459</v>
+        <v>495</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>151</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>615</v>
+        <v>651</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>616</v>
+        <v>652</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>617</v>
+        <v>653</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>618</v>
+        <v>654</v>
       </c>
     </row>
     <row r="90" ht="142.8" spans="1:6">
       <c r="A90" s="12" t="s">
-        <v>454</v>
+        <v>490</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>151</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>619</v>
+        <v>655</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>620</v>
+        <v>656</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>621</v>
+        <v>657</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>622</v>
+        <v>658</v>
       </c>
     </row>
     <row r="91" ht="102" spans="1:6">
       <c r="A91" s="12" t="s">
-        <v>512</v>
+        <v>548</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>151</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>623</v>
+        <v>659</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>624</v>
+        <v>660</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>625</v>
+        <v>661</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>626</v>
+        <v>662</v>
       </c>
     </row>
     <row r="92" ht="61.2" spans="1:6">
       <c r="A92" s="12" t="s">
-        <v>485</v>
+        <v>521</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>151</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>627</v>
+        <v>663</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>628</v>
+        <v>664</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>629</v>
+        <v>665</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>630</v>
+        <v>666</v>
       </c>
     </row>
     <row r="93" ht="20.4" spans="1:6">
@@ -8376,22 +8705,22 @@
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="5" t="s">
-        <v>631</v>
+        <v>667</v>
       </c>
       <c r="B95" s="5">
         <v>9.5</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>632</v>
+        <v>668</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>633</v>
+        <v>669</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>634</v>
+        <v>670</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>635</v>
+        <v>671</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -8460,62 +8789,62 @@
     </row>
     <row r="104" ht="265.2" spans="1:6">
       <c r="A104" s="5" t="s">
-        <v>444</v>
+        <v>480</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>636</v>
+        <v>672</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>637</v>
+        <v>673</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>638</v>
+        <v>674</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>639</v>
+        <v>675</v>
       </c>
       <c r="F104" s="5" t="s">
-        <v>640</v>
+        <v>676</v>
       </c>
     </row>
     <row r="105" ht="102" spans="1:6">
       <c r="A105" s="5" t="s">
-        <v>449</v>
+        <v>485</v>
       </c>
       <c r="B105" s="5" t="s">
         <v>201</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>641</v>
+        <v>677</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>642</v>
+        <v>678</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>643</v>
+        <v>679</v>
       </c>
       <c r="F105" s="5" t="s">
-        <v>644</v>
+        <v>680</v>
       </c>
     </row>
     <row r="106" ht="409.5" spans="1:11">
       <c r="A106" s="4" t="s">
-        <v>439</v>
+        <v>475</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>645</v>
+        <v>681</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>584</v>
+        <v>620</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>585</v>
+        <v>621</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>586</v>
+        <v>622</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>587</v>
+        <v>623</v>
       </c>
       <c r="G106" s="2"/>
       <c r="H106" s="2"/>
@@ -8525,42 +8854,42 @@
     </row>
     <row r="107" ht="142.8" spans="1:6">
       <c r="A107" s="4" t="s">
-        <v>464</v>
+        <v>500</v>
       </c>
       <c r="B107" s="5" t="s">
         <v>201</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>646</v>
+        <v>682</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>647</v>
+        <v>683</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>648</v>
+        <v>684</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>649</v>
+        <v>685</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="5" t="s">
-        <v>454</v>
+        <v>490</v>
       </c>
       <c r="B108" s="5" t="s">
         <v>201</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>650</v>
+        <v>686</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>651</v>
+        <v>687</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>652</v>
+        <v>688</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>653</v>
+        <v>689</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -8613,22 +8942,22 @@
     </row>
     <row r="115" ht="20.4" spans="1:9">
       <c r="A115" s="5" t="s">
-        <v>424</v>
+        <v>460</v>
       </c>
       <c r="B115" s="5" t="s">
         <v>201</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>654</v>
+        <v>690</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>655</v>
+        <v>691</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>656</v>
+        <v>692</v>
       </c>
       <c r="F115" s="5" t="s">
-        <v>657</v>
+        <v>693</v>
       </c>
       <c r="G115" s="2"/>
       <c r="H115" s="2"/>
@@ -8684,22 +9013,22 @@
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="5" t="s">
-        <v>459</v>
+        <v>495</v>
       </c>
       <c r="B122" s="5" t="s">
         <v>201</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>658</v>
+        <v>694</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>659</v>
+        <v>695</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>660</v>
+        <v>696</v>
       </c>
       <c r="F122" s="5" t="s">
-        <v>661</v>
+        <v>697</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -8752,22 +9081,22 @@
     </row>
     <row r="129" spans="1:6">
       <c r="A129" s="5" t="s">
-        <v>512</v>
+        <v>548</v>
       </c>
       <c r="B129" s="5" t="s">
         <v>201</v>
       </c>
       <c r="C129" s="5" t="s">
+        <v>698</v>
+      </c>
+      <c r="D129" s="5" t="s">
+        <v>699</v>
+      </c>
+      <c r="E129" s="5" t="s">
+        <v>700</v>
+      </c>
+      <c r="F129" s="5" t="s">
         <v>662</v>
-      </c>
-      <c r="D129" s="5" t="s">
-        <v>663</v>
-      </c>
-      <c r="E129" s="5" t="s">
-        <v>664</v>
-      </c>
-      <c r="F129" s="5" t="s">
-        <v>626</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -8820,22 +9149,22 @@
     </row>
     <row r="136" spans="1:6">
       <c r="A136" s="5" t="s">
-        <v>485</v>
+        <v>521</v>
       </c>
       <c r="B136" s="5" t="s">
         <v>201</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>665</v>
+        <v>701</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>666</v>
+        <v>702</v>
       </c>
       <c r="E136" s="5" t="s">
-        <v>667</v>
+        <v>703</v>
       </c>
       <c r="F136" s="5" t="s">
-        <v>668</v>
+        <v>704</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -8918,182 +9247,182 @@
     </row>
     <row r="145" ht="144" spans="1:6">
       <c r="A145" t="s">
-        <v>444</v>
+        <v>480</v>
       </c>
       <c r="B145" t="s">
         <v>216</v>
       </c>
       <c r="C145" s="13" t="s">
-        <v>669</v>
+        <v>705</v>
       </c>
       <c r="D145" s="13" t="s">
-        <v>670</v>
+        <v>706</v>
       </c>
       <c r="E145" s="13" t="s">
-        <v>671</v>
+        <v>707</v>
       </c>
       <c r="F145" s="13" t="s">
-        <v>672</v>
+        <v>708</v>
       </c>
     </row>
     <row r="146" ht="57.6" spans="1:6">
       <c r="A146" t="s">
-        <v>424</v>
+        <v>460</v>
       </c>
       <c r="B146" t="s">
         <v>216</v>
       </c>
       <c r="C146" s="13" t="s">
-        <v>673</v>
+        <v>709</v>
       </c>
       <c r="D146" s="13" t="s">
-        <v>674</v>
+        <v>710</v>
       </c>
       <c r="E146" s="13" t="s">
-        <v>675</v>
+        <v>711</v>
       </c>
       <c r="F146" s="13" t="s">
-        <v>676</v>
+        <v>712</v>
       </c>
     </row>
     <row r="147" ht="43.2" spans="1:6">
       <c r="A147" t="s">
-        <v>464</v>
+        <v>500</v>
       </c>
       <c r="B147" t="s">
         <v>216</v>
       </c>
       <c r="C147" s="13" t="s">
-        <v>677</v>
+        <v>713</v>
       </c>
       <c r="D147" s="13" t="s">
-        <v>678</v>
+        <v>714</v>
       </c>
       <c r="E147" s="13" t="s">
-        <v>679</v>
+        <v>715</v>
       </c>
       <c r="F147" s="13" t="s">
-        <v>680</v>
+        <v>716</v>
       </c>
     </row>
     <row r="148" ht="43.2" spans="1:6">
       <c r="A148" t="s">
-        <v>459</v>
+        <v>495</v>
       </c>
       <c r="B148" t="s">
         <v>216</v>
       </c>
       <c r="C148" s="13" t="s">
-        <v>681</v>
+        <v>717</v>
       </c>
       <c r="D148" s="13" t="s">
-        <v>682</v>
+        <v>718</v>
       </c>
       <c r="E148" s="13" t="s">
-        <v>683</v>
+        <v>719</v>
       </c>
       <c r="F148" s="13" t="s">
-        <v>684</v>
+        <v>720</v>
       </c>
     </row>
     <row r="149" ht="216" spans="1:6">
       <c r="A149" t="s">
-        <v>439</v>
+        <v>475</v>
       </c>
       <c r="B149" t="s">
         <v>216</v>
       </c>
       <c r="C149" s="13" t="s">
-        <v>685</v>
+        <v>721</v>
       </c>
       <c r="D149" s="13" t="s">
-        <v>686</v>
+        <v>722</v>
       </c>
       <c r="E149" s="13" t="s">
-        <v>687</v>
+        <v>723</v>
       </c>
       <c r="F149" s="13" t="s">
-        <v>688</v>
+        <v>724</v>
       </c>
     </row>
     <row r="150" ht="28.8" spans="1:6">
       <c r="A150" t="s">
-        <v>490</v>
+        <v>526</v>
       </c>
       <c r="B150" t="s">
         <v>216</v>
       </c>
       <c r="C150" t="s">
-        <v>689</v>
+        <v>725</v>
       </c>
       <c r="D150" t="s">
-        <v>690</v>
+        <v>726</v>
       </c>
       <c r="E150" s="13" t="s">
-        <v>691</v>
+        <v>727</v>
       </c>
       <c r="F150" t="s">
-        <v>692</v>
+        <v>728</v>
       </c>
     </row>
     <row r="151" spans="1:6">
       <c r="A151" t="s">
-        <v>449</v>
+        <v>485</v>
       </c>
       <c r="B151" t="s">
         <v>216</v>
       </c>
       <c r="C151" t="s">
-        <v>693</v>
+        <v>729</v>
       </c>
       <c r="D151" t="s">
-        <v>694</v>
+        <v>730</v>
       </c>
       <c r="E151" t="s">
-        <v>695</v>
+        <v>731</v>
       </c>
       <c r="F151" t="s">
-        <v>696</v>
+        <v>732</v>
       </c>
     </row>
     <row r="152" ht="43.2" spans="1:6">
       <c r="A152" t="s">
-        <v>512</v>
+        <v>548</v>
       </c>
       <c r="B152" t="s">
         <v>216</v>
       </c>
       <c r="C152" s="13" t="s">
-        <v>697</v>
+        <v>733</v>
       </c>
       <c r="D152" s="13" t="s">
-        <v>698</v>
+        <v>734</v>
       </c>
       <c r="E152" t="s">
-        <v>699</v>
+        <v>735</v>
       </c>
       <c r="F152" t="s">
-        <v>626</v>
+        <v>662</v>
       </c>
     </row>
     <row r="153" ht="28.8" spans="1:6">
       <c r="A153" t="s">
-        <v>485</v>
+        <v>521</v>
       </c>
       <c r="B153" t="s">
         <v>216</v>
       </c>
       <c r="C153" t="s">
-        <v>700</v>
+        <v>736</v>
       </c>
       <c r="D153" s="13" t="s">
-        <v>694</v>
+        <v>730</v>
       </c>
       <c r="E153" t="s">
-        <v>701</v>
+        <v>737</v>
       </c>
       <c r="F153" s="13" t="s">
-        <v>702</v>
+        <v>738</v>
       </c>
     </row>
   </sheetData>

--- a/1601W.xlsx
+++ b/1601W.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="9515" activeTab="1"/>
+    <workbookView windowWidth="22943" windowHeight="9924"/>
   </bookViews>
   <sheets>
     <sheet name="第一小组" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775">
   <si>
     <t>姓名</t>
   </si>
@@ -920,6 +920,146 @@
   </si>
   <si>
     <t>掌握增删改查，学会爬虫追踪</t>
+  </si>
+  <si>
+    <t>1、练习了增删改查项目，目前还不完善
+2、捋了一下知识图谱的思路</t>
+  </si>
+  <si>
+    <t>增删改查项目没有完善，有的页面跳转还不明白</t>
+  </si>
+  <si>
+    <t>项目运行中有报错，不过已解决</t>
+  </si>
+  <si>
+    <t>希望第二天可以把知识图谱的思路捋好，并且帮助组里的人完成项目</t>
+  </si>
+  <si>
+    <t>2018.9.7</t>
+  </si>
+  <si>
+    <t>做项目作业</t>
+  </si>
+  <si>
+    <t>已经可以将信息爬下来</t>
+  </si>
+  <si>
+    <t>项目的具体细节做不出来</t>
+  </si>
+  <si>
+    <t>继续完成项目</t>
+  </si>
+  <si>
+    <t>1、学习nltk模块
+2、了解各种用法</t>
+  </si>
+  <si>
+    <t>学习顺利暂时没有多少问题</t>
+  </si>
+  <si>
+    <t>有些东西参数不是很明白</t>
+  </si>
+  <si>
+    <t>加深学习nltk</t>
+  </si>
+  <si>
+    <t>1.wikidata数据爬取
+2.TF-IDF，网格搜索和交叉验证等知识点学习</t>
+  </si>
+  <si>
+    <t>wikidata数据爬取，解决存储乱码问题</t>
+  </si>
+  <si>
+    <t>1.研究框架个模块之间的关系</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2018.9.07</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>晚9点17</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>分</t>
+    </r>
+  </si>
+  <si>
+    <t>1.学习了项目中KNN模块                2.学习并整理了技术点：TF-IDF，网格搜索和交叉验证等</t>
+  </si>
+  <si>
+    <t>还有技术点的整理尚未完成</t>
+  </si>
+  <si>
+    <t>研究模块间的关系</t>
+  </si>
+  <si>
+    <t>2018.09.07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">学习TF-IDF </t>
+  </si>
+  <si>
+    <t>解决了输出文件的权重</t>
+  </si>
+  <si>
+    <t>不是很理解</t>
+  </si>
+  <si>
+    <t>继续理解tf-idf</t>
+  </si>
+  <si>
+    <t>1：安装Mongdb,2:熟悉Agriculture_KnowledgeGraph的项目</t>
+  </si>
+  <si>
+    <t>安装mongodb是报错：安装地址冲突</t>
+  </si>
+  <si>
+    <t>启动农业项目？</t>
+  </si>
+  <si>
+    <t>1：启动项目，2：熟悉并整理农业整体思路，并逐一模块进行分析</t>
+  </si>
+  <si>
+    <t>不太清楚</t>
+  </si>
+  <si>
+    <t>学习爬虫</t>
+  </si>
+  <si>
+    <t>没弄出来</t>
+  </si>
+  <si>
+    <t>爬虫可以把知识图谱的大概可以爬出来</t>
+  </si>
+  <si>
+    <t>自然语言存储方面有一些问题</t>
+  </si>
+  <si>
+    <t>无法全部保存</t>
+  </si>
+  <si>
+    <t>把爬虫爬明白，尽量全部保存</t>
   </si>
   <si>
     <t>刘丹清</t>
@@ -2869,10 +3009,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -2929,7 +3069,44 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2958,55 +3135,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3026,16 +3166,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3057,6 +3189,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -3105,13 +3245,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3129,7 +3293,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3141,31 +3353,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3177,13 +3377,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3201,79 +3407,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3284,6 +3424,47 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -3311,32 +3492,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3346,26 +3506,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3392,10 +3532,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3404,16 +3544,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3422,115 +3562,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3625,9 +3765,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3748,13 +3885,16 @@
     <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3869,7 +4009,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -4150,10 +4290,10 @@
   <sheetPr/>
   <dimension ref="A1:S185"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A112" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A127" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A118" sqref="A118"/>
+      <selection pane="bottomLeft" activeCell="C131" sqref="C131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.4"/>
@@ -4167,23 +4307,23 @@
     <col min="7" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="31" customFormat="1" spans="1:6">
-      <c r="A1" s="34" t="s">
+    <row r="1" s="30" customFormat="1" spans="1:6">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="F1" s="33" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4208,671 +4348,671 @@
       </c>
     </row>
     <row r="3" ht="94.05" customHeight="1" spans="1:6">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="D3" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="35" t="s">
+      <c r="E3" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="35" t="s">
+      <c r="F3" s="34" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" ht="40.8" spans="1:6">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="36">
+      <c r="B4" s="35">
         <v>43341</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="35" t="s">
+      <c r="D4" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="35" t="s">
+      <c r="E4" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="37" t="s">
+      <c r="F4" s="36" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" ht="40.8" spans="1:6">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="35" t="s">
+      <c r="D5" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="37" t="s">
+      <c r="E5" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="35" t="s">
+      <c r="F5" s="34" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="6" ht="244.8" spans="1:6">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="37" t="s">
+      <c r="D6" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="35" t="s">
+      <c r="E6" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="37" t="s">
+      <c r="F6" s="36" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="7" ht="81" customHeight="1" spans="1:6">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="38" t="s">
+      <c r="C7" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="35" t="s">
+      <c r="D7" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="38" t="s">
+      <c r="E7" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="38" t="s">
+      <c r="F7" s="37" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="8" ht="81.6" spans="1:6">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="36">
+      <c r="B8" s="35">
         <v>43341</v>
       </c>
-      <c r="C8" s="37" t="s">
+      <c r="C8" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="37" t="s">
+      <c r="D8" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="37" t="s">
+      <c r="E8" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="35" t="s">
+      <c r="F8" s="34" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="9" ht="94.95" customHeight="1" spans="1:6">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="37" t="s">
+      <c r="C9" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="35" t="s">
+      <c r="D9" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="E9" s="35" t="s">
+      <c r="E9" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="F9" s="37" t="s">
+      <c r="F9" s="36" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="36">
+      <c r="B10" s="35">
         <v>43341</v>
       </c>
-      <c r="C10" s="35" t="s">
+      <c r="C10" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="D10" s="35" t="s">
+      <c r="D10" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="E10" s="35" t="s">
+      <c r="E10" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="F10" s="35" t="s">
+      <c r="F10" s="34" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="11" ht="204" spans="1:6">
-      <c r="A11" s="37" t="s">
+      <c r="A11" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="B11" s="39">
+      <c r="B11" s="38">
         <v>43341</v>
       </c>
-      <c r="C11" s="37" t="s">
+      <c r="C11" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="D11" s="37" t="s">
+      <c r="D11" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="E11" s="37" t="s">
+      <c r="E11" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="F11" s="37" t="s">
+      <c r="F11" s="36" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="40"/>
-      <c r="B12" s="40"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
+      <c r="A12" s="39"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="41"/>
-      <c r="B13" s="40"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
+      <c r="A13" s="40"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="41"/>
-      <c r="B14" s="40"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
+      <c r="A14" s="40"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="41"/>
-      <c r="B15" s="40"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
+      <c r="A15" s="40"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="41"/>
-      <c r="B16" s="40"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
+      <c r="A16" s="40"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
     </row>
     <row r="17" ht="57" customHeight="1" spans="1:6">
-      <c r="A17" s="41"/>
-      <c r="B17" s="40"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
+      <c r="A17" s="40"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="40"/>
-      <c r="B18" s="40"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
+      <c r="A18" s="39"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="40"/>
-      <c r="B19" s="40"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="40"/>
-    </row>
-    <row r="20" s="32" customFormat="1" spans="1:6">
-      <c r="A20" s="42" t="s">
+      <c r="A19" s="39"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+    </row>
+    <row r="20" s="31" customFormat="1" spans="1:6">
+      <c r="A20" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="B20" s="43"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
     </row>
     <row r="21" ht="81.6" spans="1:6">
-      <c r="A21" s="37" t="s">
+      <c r="A21" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="39">
+      <c r="B21" s="38">
         <v>43342</v>
       </c>
-      <c r="C21" s="37" t="s">
+      <c r="C21" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="D21" s="37" t="s">
+      <c r="D21" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="E21" s="37" t="s">
+      <c r="E21" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="F21" s="37" t="s">
+      <c r="F21" s="36" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="22" ht="102" spans="1:6">
-      <c r="A22" s="37" t="s">
+      <c r="A22" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="B22" s="39">
+      <c r="B22" s="38">
         <v>43342</v>
       </c>
-      <c r="C22" s="37" t="s">
+      <c r="C22" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="D22" s="37" t="s">
+      <c r="D22" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="E22" s="37" t="s">
+      <c r="E22" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="F22" s="37" t="s">
+      <c r="F22" s="36" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="23" ht="40.8" spans="1:6">
-      <c r="A23" s="35" t="s">
+      <c r="A23" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="36">
+      <c r="B23" s="35">
         <v>43341</v>
       </c>
-      <c r="C23" s="37" t="s">
+      <c r="C23" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="D23" s="35" t="s">
+      <c r="D23" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="E23" s="35" t="s">
+      <c r="E23" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="F23" s="35" t="s">
+      <c r="F23" s="34" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="24" ht="61.2" spans="1:6">
-      <c r="A24" s="35" t="s">
+      <c r="A24" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="35" t="s">
+      <c r="B24" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="C24" s="37" t="s">
+      <c r="C24" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="D24" s="44" t="s">
+      <c r="D24" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="E24" s="37" t="s">
+      <c r="E24" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="F24" s="35" t="s">
+      <c r="F24" s="34" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="25" ht="102" spans="1:6">
-      <c r="A25" s="35" t="s">
+      <c r="A25" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="35" t="s">
+      <c r="B25" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="C25" s="37" t="s">
+      <c r="C25" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="D25" s="37" t="s">
+      <c r="D25" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="E25" s="35" t="s">
+      <c r="E25" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="F25" s="37" t="s">
+      <c r="F25" s="36" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="26" ht="81.6" spans="1:6">
-      <c r="A26" s="35" t="s">
+      <c r="A26" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="B26" s="36">
+      <c r="B26" s="35">
         <v>43342</v>
       </c>
-      <c r="C26" s="35" t="s">
+      <c r="C26" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="D26" s="35" t="s">
+      <c r="D26" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="E26" s="37" t="s">
+      <c r="E26" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="F26" s="35" t="s">
+      <c r="F26" s="34" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="27" ht="40.8" spans="1:7">
-      <c r="A27" s="35" t="s">
+      <c r="A27" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="B27" s="36" t="s">
+      <c r="B27" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="C27" s="35" t="s">
+      <c r="C27" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="D27" s="35" t="s">
+      <c r="D27" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="E27" s="37" t="s">
+      <c r="E27" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="F27" s="35" t="s">
+      <c r="F27" s="34" t="s">
         <v>88</v>
       </c>
       <c r="G27"/>
     </row>
     <row r="28" ht="55.05" customHeight="1" spans="1:6">
-      <c r="A28" s="35" t="s">
+      <c r="A28" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="B28" s="35" t="s">
+      <c r="B28" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="C28" s="37" t="s">
+      <c r="C28" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="D28" s="35" t="s">
+      <c r="D28" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="E28" s="35" t="s">
+      <c r="E28" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="F28" s="35" t="s">
+      <c r="F28" s="34" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="29" ht="142.8" spans="1:6">
-      <c r="A29" s="35" t="s">
+      <c r="A29" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="37" t="s">
+      <c r="B29" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="C29" s="38" t="s">
+      <c r="C29" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="D29" s="35" t="s">
+      <c r="D29" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="E29" s="38" t="s">
+      <c r="E29" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="F29" s="38" t="s">
+      <c r="F29" s="37" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="30" ht="25.95" customHeight="1" spans="1:6">
-      <c r="A30" s="40"/>
-      <c r="B30" s="40"/>
-      <c r="C30" s="40"/>
-      <c r="D30" s="40"/>
-      <c r="E30" s="40"/>
-      <c r="F30" s="40"/>
+      <c r="A30" s="39"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="39"/>
     </row>
     <row r="31" ht="42" customHeight="1" spans="1:6">
-      <c r="A31" s="40"/>
-      <c r="B31" s="40"/>
-      <c r="C31" s="40"/>
-      <c r="D31" s="40"/>
-      <c r="E31" s="40"/>
-      <c r="F31" s="40"/>
+      <c r="A31" s="39"/>
+      <c r="B31" s="39"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="39"/>
     </row>
     <row r="32" ht="30" customHeight="1" spans="1:6">
-      <c r="A32" s="45"/>
-      <c r="B32" s="40"/>
-      <c r="C32" s="45"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="45"/>
+      <c r="A32" s="44"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="44"/>
+      <c r="D32" s="44"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="44"/>
     </row>
     <row r="33" ht="22.95" customHeight="1" spans="1:6">
-      <c r="A33" s="45"/>
-      <c r="B33" s="40"/>
-      <c r="C33" s="45"/>
-      <c r="D33" s="45"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="45"/>
+      <c r="A33" s="44"/>
+      <c r="B33" s="39"/>
+      <c r="C33" s="44"/>
+      <c r="D33" s="44"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="44"/>
     </row>
     <row r="34" ht="30" customHeight="1" spans="1:6">
-      <c r="A34" s="45"/>
-      <c r="B34" s="40"/>
-      <c r="C34" s="45"/>
-      <c r="D34" s="45"/>
-      <c r="E34" s="45"/>
-      <c r="F34" s="45"/>
+      <c r="A34" s="44"/>
+      <c r="B34" s="39"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="44"/>
     </row>
     <row r="35" ht="24" customHeight="1" spans="1:6">
-      <c r="A35" s="45"/>
-      <c r="B35" s="40"/>
-      <c r="C35" s="46"/>
-      <c r="D35" s="45"/>
-      <c r="E35" s="46"/>
-      <c r="F35" s="46"/>
+      <c r="A35" s="44"/>
+      <c r="B35" s="39"/>
+      <c r="C35" s="45"/>
+      <c r="D35" s="44"/>
+      <c r="E35" s="45"/>
+      <c r="F35" s="45"/>
     </row>
     <row r="36" ht="28.95" customHeight="1" spans="1:6">
-      <c r="A36" s="45"/>
-      <c r="B36" s="40"/>
-      <c r="C36" s="46"/>
-      <c r="D36" s="45"/>
-      <c r="E36" s="47"/>
-      <c r="F36" s="45"/>
+      <c r="A36" s="44"/>
+      <c r="B36" s="39"/>
+      <c r="C36" s="45"/>
+      <c r="D36" s="44"/>
+      <c r="E36" s="46"/>
+      <c r="F36" s="44"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="45"/>
-      <c r="B37" s="40"/>
-      <c r="C37" s="45"/>
-      <c r="D37" s="45"/>
-      <c r="E37" s="45"/>
-      <c r="F37" s="45"/>
-    </row>
-    <row r="38" s="33" customFormat="1" spans="1:6">
-      <c r="A38" s="42" t="s">
+      <c r="A37" s="44"/>
+      <c r="B37" s="39"/>
+      <c r="C37" s="44"/>
+      <c r="D37" s="44"/>
+      <c r="E37" s="44"/>
+      <c r="F37" s="44"/>
+    </row>
+    <row r="38" s="32" customFormat="1" spans="1:6">
+      <c r="A38" s="41" t="s">
         <v>98</v>
       </c>
-      <c r="B38" s="42"/>
-      <c r="C38" s="42"/>
-      <c r="D38" s="42"/>
-      <c r="E38" s="42"/>
-      <c r="F38" s="42"/>
+      <c r="B38" s="41"/>
+      <c r="C38" s="41"/>
+      <c r="D38" s="41"/>
+      <c r="E38" s="41"/>
+      <c r="F38" s="41"/>
     </row>
     <row r="39" ht="40.8" spans="1:6">
-      <c r="A39" s="48" t="s">
+      <c r="A39" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="B39" s="49">
+      <c r="B39" s="48">
         <v>43342</v>
       </c>
-      <c r="C39" s="50" t="s">
+      <c r="C39" s="49" t="s">
         <v>99</v>
       </c>
-      <c r="D39" s="48" t="s">
+      <c r="D39" s="47" t="s">
         <v>100</v>
       </c>
-      <c r="E39" s="48" t="s">
+      <c r="E39" s="47" t="s">
         <v>101</v>
       </c>
-      <c r="F39" s="48" t="s">
+      <c r="F39" s="47" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="40" ht="61.2" spans="1:6">
-      <c r="A40" s="50" t="s">
+      <c r="A40" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="B40" s="51">
+      <c r="B40" s="50">
         <v>43343</v>
       </c>
-      <c r="C40" s="50" t="s">
+      <c r="C40" s="49" t="s">
         <v>103</v>
       </c>
-      <c r="D40" s="50" t="s">
+      <c r="D40" s="49" t="s">
         <v>104</v>
       </c>
-      <c r="E40" s="50" t="s">
+      <c r="E40" s="49" t="s">
         <v>105</v>
       </c>
-      <c r="F40" s="50" t="s">
+      <c r="F40" s="49" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="41" ht="102" spans="1:6">
-      <c r="A41" s="48" t="s">
+      <c r="A41" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="B41" s="48" t="s">
+      <c r="B41" s="47" t="s">
         <v>107</v>
       </c>
-      <c r="C41" s="50" t="s">
+      <c r="C41" s="49" t="s">
         <v>108</v>
       </c>
-      <c r="D41" s="50" t="s">
+      <c r="D41" s="49" t="s">
         <v>109</v>
       </c>
-      <c r="E41" s="48" t="s">
+      <c r="E41" s="47" t="s">
         <v>110</v>
       </c>
-      <c r="F41" s="50" t="s">
+      <c r="F41" s="49" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="42" ht="81.6" spans="1:6">
-      <c r="A42" s="48" t="s">
+      <c r="A42" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="B42" s="49">
+      <c r="B42" s="48">
         <v>43343</v>
       </c>
-      <c r="C42" s="50" t="s">
+      <c r="C42" s="49" t="s">
         <v>111</v>
       </c>
-      <c r="D42" s="50" t="s">
+      <c r="D42" s="49" t="s">
         <v>112</v>
       </c>
-      <c r="E42" s="50" t="s">
+      <c r="E42" s="49" t="s">
         <v>113</v>
       </c>
-      <c r="F42" s="50" t="s">
+      <c r="F42" s="49" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="43" ht="45" customHeight="1" spans="1:6">
-      <c r="A43" s="48" t="s">
+      <c r="A43" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="B43" s="48" t="s">
+      <c r="B43" s="47" t="s">
         <v>89</v>
       </c>
-      <c r="C43" s="50" t="s">
+      <c r="C43" s="49" t="s">
         <v>90</v>
       </c>
-      <c r="D43" s="48" t="s">
+      <c r="D43" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="E43" s="48" t="s">
+      <c r="E43" s="47" t="s">
         <v>92</v>
       </c>
-      <c r="F43" s="48" t="s">
+      <c r="F43" s="47" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="44" ht="28.95" customHeight="1" spans="1:6">
-      <c r="A44" s="48" t="s">
+      <c r="A44" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="B44" s="49">
+      <c r="B44" s="48">
         <v>43342</v>
       </c>
-      <c r="C44" s="48" t="s">
+      <c r="C44" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="D44" s="48" t="s">
+      <c r="D44" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="E44" s="50" t="s">
+      <c r="E44" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="F44" s="48" t="s">
+      <c r="F44" s="47" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="45" ht="49.05" customHeight="1" spans="1:6">
-      <c r="A45" s="48" t="s">
+      <c r="A45" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="B45" s="50" t="s">
+      <c r="B45" s="49" t="s">
         <v>94</v>
       </c>
-      <c r="C45" s="52" t="s">
+      <c r="C45" s="51" t="s">
         <v>95</v>
       </c>
-      <c r="D45" s="48" t="s">
+      <c r="D45" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="E45" s="52" t="s">
+      <c r="E45" s="51" t="s">
         <v>96</v>
       </c>
-      <c r="F45" s="52" t="s">
+      <c r="F45" s="51" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="46" ht="67.05" customHeight="1" spans="1:19">
-      <c r="A46" s="48" t="s">
+      <c r="A46" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="B46" s="48" t="s">
+      <c r="B46" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="C46" s="50" t="s">
+      <c r="C46" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="D46" s="53" t="s">
+      <c r="D46" s="52" t="s">
         <v>76</v>
       </c>
-      <c r="E46" s="50" t="s">
+      <c r="E46" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="F46" s="48" t="s">
+      <c r="F46" s="47" t="s">
         <v>77</v>
       </c>
       <c r="G46"/>
@@ -4890,326 +5030,326 @@
       <c r="S46"/>
     </row>
     <row r="47" ht="46.05" customHeight="1" spans="1:6">
-      <c r="A47" s="48" t="s">
+      <c r="A47" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="B47" s="49" t="s">
+      <c r="B47" s="48" t="s">
         <v>85</v>
       </c>
-      <c r="C47" s="48" t="s">
+      <c r="C47" s="47" t="s">
         <v>115</v>
       </c>
-      <c r="D47" s="48" t="s">
+      <c r="D47" s="47" t="s">
         <v>86</v>
       </c>
-      <c r="E47" s="50" t="s">
+      <c r="E47" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="F47" s="48" t="s">
+      <c r="F47" s="47" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="48" ht="25.05" customHeight="1" spans="1:6">
-      <c r="A48" s="54"/>
-      <c r="B48" s="54"/>
-      <c r="C48" s="54"/>
-      <c r="D48" s="54"/>
-      <c r="E48" s="54"/>
-      <c r="F48" s="54"/>
+      <c r="A48" s="53"/>
+      <c r="B48" s="53"/>
+      <c r="C48" s="53"/>
+      <c r="D48" s="53"/>
+      <c r="E48" s="53"/>
+      <c r="F48" s="53"/>
     </row>
     <row r="49" ht="33" customHeight="1" spans="1:6">
-      <c r="A49" s="55"/>
-      <c r="B49" s="54"/>
-      <c r="C49" s="55"/>
-      <c r="D49" s="55"/>
-      <c r="E49" s="55"/>
-      <c r="F49" s="54"/>
+      <c r="A49" s="54"/>
+      <c r="B49" s="53"/>
+      <c r="C49" s="54"/>
+      <c r="D49" s="54"/>
+      <c r="E49" s="54"/>
+      <c r="F49" s="53"/>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="54"/>
-      <c r="B50" s="54"/>
-      <c r="C50" s="54"/>
-      <c r="D50" s="54"/>
-      <c r="E50" s="54"/>
-      <c r="F50" s="54"/>
+      <c r="A50" s="53"/>
+      <c r="B50" s="53"/>
+      <c r="C50" s="53"/>
+      <c r="D50" s="53"/>
+      <c r="E50" s="53"/>
+      <c r="F50" s="53"/>
     </row>
     <row r="51" ht="45" customHeight="1" spans="1:6">
-      <c r="A51" s="54"/>
-      <c r="B51" s="54"/>
-      <c r="C51" s="54"/>
-      <c r="D51" s="56"/>
-      <c r="E51" s="54"/>
-      <c r="F51" s="54"/>
+      <c r="A51" s="53"/>
+      <c r="B51" s="53"/>
+      <c r="C51" s="53"/>
+      <c r="D51" s="55"/>
+      <c r="E51" s="53"/>
+      <c r="F51" s="53"/>
     </row>
     <row r="52" ht="28.95" customHeight="1" spans="1:6">
-      <c r="A52" s="54"/>
-      <c r="B52" s="54"/>
-      <c r="C52" s="54"/>
-      <c r="D52" s="54"/>
-      <c r="E52" s="54"/>
-      <c r="F52" s="54"/>
+      <c r="A52" s="53"/>
+      <c r="B52" s="53"/>
+      <c r="C52" s="53"/>
+      <c r="D52" s="53"/>
+      <c r="E52" s="53"/>
+      <c r="F52" s="53"/>
     </row>
     <row r="53" ht="25.95" customHeight="1" spans="1:6">
-      <c r="A53" s="54"/>
-      <c r="B53" s="54"/>
-      <c r="C53" s="54"/>
-      <c r="D53" s="54"/>
-      <c r="E53" s="54"/>
-      <c r="F53" s="54"/>
+      <c r="A53" s="53"/>
+      <c r="B53" s="53"/>
+      <c r="C53" s="53"/>
+      <c r="D53" s="53"/>
+      <c r="E53" s="53"/>
+      <c r="F53" s="53"/>
     </row>
     <row r="54" ht="28.95" customHeight="1" spans="1:6">
-      <c r="A54" s="54"/>
-      <c r="B54" s="54"/>
-      <c r="C54" s="54"/>
-      <c r="D54" s="54"/>
-      <c r="E54" s="54"/>
-      <c r="F54" s="54"/>
+      <c r="A54" s="53"/>
+      <c r="B54" s="53"/>
+      <c r="C54" s="53"/>
+      <c r="D54" s="53"/>
+      <c r="E54" s="53"/>
+      <c r="F54" s="53"/>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="54"/>
-      <c r="B55" s="54"/>
-      <c r="C55" s="54"/>
-      <c r="D55" s="54"/>
-      <c r="E55" s="54"/>
-      <c r="F55" s="54"/>
-    </row>
-    <row r="56" s="33" customFormat="1" spans="1:1">
-      <c r="A56" s="33" t="s">
+      <c r="A55" s="53"/>
+      <c r="B55" s="53"/>
+      <c r="C55" s="53"/>
+      <c r="D55" s="53"/>
+      <c r="E55" s="53"/>
+      <c r="F55" s="53"/>
+    </row>
+    <row r="56" s="32" customFormat="1" spans="1:1">
+      <c r="A56" s="32" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="57" ht="102" spans="1:6">
-      <c r="A57" s="48" t="s">
+      <c r="A57" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="B57" s="57" t="s">
+      <c r="B57" s="56" t="s">
         <v>117</v>
       </c>
-      <c r="C57" s="57" t="s">
+      <c r="C57" s="56" t="s">
         <v>118</v>
       </c>
-      <c r="D57" s="57" t="s">
+      <c r="D57" s="56" t="s">
         <v>119</v>
       </c>
-      <c r="E57" s="57" t="s">
+      <c r="E57" s="56" t="s">
         <v>120</v>
       </c>
-      <c r="F57" s="57" t="s">
+      <c r="F57" s="56" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="58" ht="81.6" spans="1:6">
-      <c r="A58" s="48" t="s">
+      <c r="A58" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="B58" s="58">
+      <c r="B58" s="57">
         <v>43346</v>
       </c>
-      <c r="C58" s="54" t="s">
+      <c r="C58" s="53" t="s">
         <v>122</v>
       </c>
-      <c r="D58" s="54" t="s">
+      <c r="D58" s="53" t="s">
         <v>123</v>
       </c>
-      <c r="E58" s="54" t="s">
+      <c r="E58" s="53" t="s">
         <v>124</v>
       </c>
-      <c r="F58" s="54" t="s">
+      <c r="F58" s="53" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="59" ht="61.2" spans="1:6">
-      <c r="A59" s="48" t="s">
+      <c r="A59" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="B59" s="50" t="s">
+      <c r="B59" s="49" t="s">
         <v>126</v>
       </c>
-      <c r="C59" s="59" t="s">
+      <c r="C59" s="58" t="s">
         <v>127</v>
       </c>
-      <c r="D59" s="50" t="s">
+      <c r="D59" s="49" t="s">
         <v>128</v>
       </c>
-      <c r="E59" s="57" t="s">
+      <c r="E59" s="56" t="s">
         <v>129</v>
       </c>
-      <c r="F59" s="59" t="s">
+      <c r="F59" s="58" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="60" ht="102" spans="1:6">
-      <c r="A60" s="48" t="s">
+      <c r="A60" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="B60" s="51">
+      <c r="B60" s="50">
         <v>43346</v>
       </c>
-      <c r="C60" s="50" t="s">
+      <c r="C60" s="49" t="s">
         <v>131</v>
       </c>
-      <c r="D60" s="50" t="s">
+      <c r="D60" s="49" t="s">
         <v>132</v>
       </c>
-      <c r="E60" s="50" t="s">
+      <c r="E60" s="49" t="s">
         <v>133</v>
       </c>
-      <c r="F60" s="50" t="s">
+      <c r="F60" s="49" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="61" ht="34.8" spans="1:6">
-      <c r="A61" s="60" t="s">
+      <c r="A61" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="B61" s="61" t="s">
+      <c r="B61" s="60" t="s">
         <v>117</v>
       </c>
-      <c r="C61" s="55" t="s">
+      <c r="C61" s="54" t="s">
         <v>135</v>
       </c>
-      <c r="D61" s="61" t="s">
+      <c r="D61" s="60" t="s">
         <v>136</v>
       </c>
-      <c r="E61" s="61" t="s">
+      <c r="E61" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="F61" s="61" t="s">
+      <c r="F61" s="60" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="62" ht="61.2" spans="1:6">
-      <c r="A62" s="48" t="s">
+      <c r="A62" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="B62" s="54" t="s">
+      <c r="B62" s="53" t="s">
         <v>138</v>
       </c>
-      <c r="C62" s="54" t="s">
+      <c r="C62" s="53" t="s">
         <v>139</v>
       </c>
-      <c r="D62" s="50" t="s">
+      <c r="D62" s="49" t="s">
         <v>140</v>
       </c>
-      <c r="E62" s="50" t="s">
+      <c r="E62" s="49" t="s">
         <v>141</v>
       </c>
-      <c r="F62" s="50" t="s">
+      <c r="F62" s="49" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="63" ht="61.2" spans="1:6">
-      <c r="A63" s="48" t="s">
+      <c r="A63" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="B63" s="58">
+      <c r="B63" s="57">
         <v>43346</v>
       </c>
-      <c r="C63" s="54" t="s">
+      <c r="C63" s="53" t="s">
         <v>143</v>
       </c>
-      <c r="D63" s="50" t="s">
+      <c r="D63" s="49" t="s">
         <v>144</v>
       </c>
-      <c r="E63" s="50" t="s">
+      <c r="E63" s="49" t="s">
         <v>145</v>
       </c>
-      <c r="F63" s="50" t="s">
+      <c r="F63" s="49" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="64" customFormat="1" ht="33" customHeight="1" spans="1:6">
-      <c r="A64" s="48" t="s">
+      <c r="A64" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="B64" s="49">
+      <c r="B64" s="48">
         <v>43346</v>
       </c>
-      <c r="C64" s="48" t="s">
+      <c r="C64" s="47" t="s">
         <v>147</v>
       </c>
-      <c r="D64" s="48" t="s">
+      <c r="D64" s="47" t="s">
         <v>148</v>
       </c>
-      <c r="E64" s="50" t="s">
+      <c r="E64" s="49" t="s">
         <v>149</v>
       </c>
-      <c r="F64" s="48" t="s">
+      <c r="F64" s="47" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="65" ht="27" customHeight="1" spans="1:6">
-      <c r="A65" s="54" t="s">
+      <c r="A65" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="B65" s="58">
+      <c r="B65" s="57">
         <v>43346</v>
       </c>
-      <c r="C65" s="54" t="s">
+      <c r="C65" s="53" t="s">
         <v>150</v>
       </c>
-      <c r="D65" s="62"/>
-      <c r="E65" s="54"/>
-      <c r="F65" s="54"/>
+      <c r="D65" s="61"/>
+      <c r="E65" s="53"/>
+      <c r="F65" s="53"/>
     </row>
     <row r="66" ht="33" customHeight="1" spans="1:6">
-      <c r="A66" s="54"/>
-      <c r="B66" s="54"/>
-      <c r="C66" s="54"/>
-      <c r="D66" s="54"/>
-      <c r="E66" s="54"/>
-      <c r="F66" s="54"/>
+      <c r="A66" s="53"/>
+      <c r="B66" s="53"/>
+      <c r="C66" s="53"/>
+      <c r="D66" s="53"/>
+      <c r="E66" s="53"/>
+      <c r="F66" s="53"/>
     </row>
     <row r="67" ht="30" customHeight="1" spans="1:6">
-      <c r="A67" s="54"/>
-      <c r="B67" s="54"/>
-      <c r="C67" s="54"/>
-      <c r="D67" s="54"/>
-      <c r="E67" s="54"/>
-      <c r="F67" s="54"/>
+      <c r="A67" s="53"/>
+      <c r="B67" s="53"/>
+      <c r="C67" s="53"/>
+      <c r="D67" s="53"/>
+      <c r="E67" s="53"/>
+      <c r="F67" s="53"/>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="54"/>
-      <c r="B68" s="54"/>
-      <c r="C68" s="54"/>
-      <c r="D68" s="54"/>
-      <c r="E68" s="54"/>
-      <c r="F68" s="54"/>
+      <c r="A68" s="53"/>
+      <c r="B68" s="53"/>
+      <c r="C68" s="53"/>
+      <c r="D68" s="53"/>
+      <c r="E68" s="53"/>
+      <c r="F68" s="53"/>
     </row>
     <row r="69" spans="1:6">
-      <c r="A69" s="54"/>
-      <c r="B69" s="54"/>
-      <c r="C69" s="54"/>
-      <c r="D69" s="54"/>
-      <c r="E69" s="54"/>
-      <c r="F69" s="54"/>
+      <c r="A69" s="53"/>
+      <c r="B69" s="53"/>
+      <c r="C69" s="53"/>
+      <c r="D69" s="53"/>
+      <c r="E69" s="53"/>
+      <c r="F69" s="53"/>
     </row>
     <row r="70" ht="22.95" customHeight="1" spans="1:6">
-      <c r="A70" s="54"/>
-      <c r="B70" s="54"/>
-      <c r="C70" s="54"/>
-      <c r="D70" s="54"/>
-      <c r="E70" s="54"/>
-      <c r="F70" s="54"/>
+      <c r="A70" s="53"/>
+      <c r="B70" s="53"/>
+      <c r="C70" s="53"/>
+      <c r="D70" s="53"/>
+      <c r="E70" s="53"/>
+      <c r="F70" s="53"/>
     </row>
     <row r="71" ht="33" customHeight="1" spans="1:6">
-      <c r="A71" s="54"/>
-      <c r="B71" s="54"/>
-      <c r="C71" s="54"/>
-      <c r="D71" s="54"/>
-      <c r="E71" s="54"/>
-      <c r="F71" s="54"/>
+      <c r="A71" s="53"/>
+      <c r="B71" s="53"/>
+      <c r="C71" s="53"/>
+      <c r="D71" s="53"/>
+      <c r="E71" s="53"/>
+      <c r="F71" s="53"/>
     </row>
     <row r="72" spans="1:6">
-      <c r="A72" s="54"/>
-      <c r="B72" s="54"/>
-      <c r="C72" s="54"/>
-      <c r="D72" s="54"/>
-      <c r="E72" s="54"/>
-      <c r="F72" s="54"/>
-    </row>
-    <row r="73" s="33" customFormat="1" spans="1:1">
-      <c r="A73" s="33" t="s">
+      <c r="A72" s="53"/>
+      <c r="B72" s="53"/>
+      <c r="C72" s="53"/>
+      <c r="D72" s="53"/>
+      <c r="E72" s="53"/>
+      <c r="F72" s="53"/>
+    </row>
+    <row r="73" s="32" customFormat="1" spans="1:1">
+      <c r="A73" s="32" t="s">
         <v>98</v>
       </c>
     </row>
@@ -5237,7 +5377,7 @@
       <c r="A75" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B75" s="63">
+      <c r="B75" s="62">
         <v>43347</v>
       </c>
       <c r="C75" s="5" t="s">
@@ -5334,10 +5474,10 @@
       </c>
     </row>
     <row r="80" ht="28.8" spans="1:6">
-      <c r="A80" s="64" t="s">
+      <c r="A80" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="B80" s="64" t="s">
+      <c r="B80" s="63" t="s">
         <v>151</v>
       </c>
       <c r="C80" s="4" t="s">
@@ -5346,10 +5486,10 @@
       <c r="D80" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="E80" s="65" t="s">
+      <c r="E80" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="F80" s="64" t="s">
+      <c r="F80" s="63" t="s">
         <v>179</v>
       </c>
     </row>
@@ -5374,13 +5514,13 @@
       </c>
     </row>
     <row r="82" ht="28.05" customHeight="1" spans="1:6">
-      <c r="A82" s="66" t="s">
+      <c r="A82" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="B82" s="67">
+      <c r="B82" s="66">
         <v>43346</v>
       </c>
-      <c r="C82" s="66" t="s">
+      <c r="C82" s="65" t="s">
         <v>150</v>
       </c>
       <c r="D82" s="5"/>
@@ -5451,19 +5591,19 @@
       <c r="E90" s="5"/>
       <c r="F90" s="5"/>
     </row>
-    <row r="91" s="33" customFormat="1" spans="1:6">
-      <c r="A91" s="42"/>
-      <c r="B91" s="42"/>
-      <c r="C91" s="42"/>
-      <c r="D91" s="42"/>
-      <c r="E91" s="42"/>
-      <c r="F91" s="42"/>
+    <row r="91" s="32" customFormat="1" spans="1:6">
+      <c r="A91" s="41"/>
+      <c r="B91" s="41"/>
+      <c r="C91" s="41"/>
+      <c r="D91" s="41"/>
+      <c r="E91" s="41"/>
+      <c r="F91" s="41"/>
     </row>
     <row r="92" ht="102" spans="1:6">
       <c r="A92" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B92" s="63">
+      <c r="B92" s="62">
         <v>43348</v>
       </c>
       <c r="C92" s="5" t="s">
@@ -5483,7 +5623,7 @@
       <c r="A93" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B93" s="63">
+      <c r="B93" s="62">
         <v>43348</v>
       </c>
       <c r="C93" s="5" t="s">
@@ -5503,7 +5643,7 @@
       <c r="A94" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B94" s="63">
+      <c r="B94" s="62">
         <v>43348</v>
       </c>
       <c r="C94" s="5" t="s">
@@ -5523,7 +5663,7 @@
       <c r="A95" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B95" s="63">
+      <c r="B95" s="62">
         <v>43348</v>
       </c>
       <c r="C95" s="5" t="s">
@@ -5560,22 +5700,22 @@
       </c>
     </row>
     <row r="97" ht="28.95" customHeight="1" spans="1:6">
-      <c r="A97" s="68" t="s">
+      <c r="A97" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="B97" s="68" t="s">
+      <c r="B97" s="67" t="s">
         <v>201</v>
       </c>
-      <c r="C97" s="68" t="s">
+      <c r="C97" s="67" t="s">
         <v>202</v>
       </c>
       <c r="D97" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="E97" s="68" t="s">
+      <c r="E97" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="F97" s="68" t="s">
+      <c r="F97" s="67" t="s">
         <v>203</v>
       </c>
     </row>
@@ -5603,7 +5743,7 @@
       <c r="A99" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B99" s="63">
+      <c r="B99" s="62">
         <v>43348</v>
       </c>
       <c r="C99" s="5" t="s">
@@ -5620,13 +5760,13 @@
       </c>
     </row>
     <row r="100" ht="24" customHeight="1" spans="1:6">
-      <c r="A100" s="66" t="s">
+      <c r="A100" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="B100" s="67">
+      <c r="B100" s="66">
         <v>43348</v>
       </c>
-      <c r="C100" s="66" t="s">
+      <c r="C100" s="65" t="s">
         <v>150</v>
       </c>
       <c r="D100" s="5"/>
@@ -5697,19 +5837,19 @@
       <c r="E108" s="5"/>
       <c r="F108" s="5"/>
     </row>
-    <row r="109" s="33" customFormat="1" spans="1:6">
-      <c r="A109" s="42"/>
-      <c r="B109" s="42"/>
-      <c r="C109" s="42"/>
-      <c r="D109" s="42"/>
-      <c r="E109" s="42"/>
-      <c r="F109" s="42"/>
+    <row r="109" s="32" customFormat="1" spans="1:6">
+      <c r="A109" s="41"/>
+      <c r="B109" s="41"/>
+      <c r="C109" s="41"/>
+      <c r="D109" s="41"/>
+      <c r="E109" s="41"/>
+      <c r="F109" s="41"/>
     </row>
     <row r="110" ht="81.6" spans="1:6">
       <c r="A110" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B110" s="63">
+      <c r="B110" s="62">
         <v>43349</v>
       </c>
       <c r="C110" s="5" t="s">
@@ -5792,7 +5932,7 @@
       <c r="B114" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="C114" s="69" t="s">
+      <c r="C114" s="68" t="s">
         <v>231</v>
       </c>
       <c r="D114" s="5" t="s">
@@ -5809,7 +5949,7 @@
       <c r="A115" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B115" s="63">
+      <c r="B115" s="62">
         <v>43349</v>
       </c>
       <c r="C115" s="5" t="s">
@@ -5829,7 +5969,7 @@
       <c r="A116" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B116" s="63">
+      <c r="B116" s="62">
         <v>43349</v>
       </c>
       <c r="C116" s="5" t="s">
@@ -5849,7 +5989,7 @@
       <c r="A117" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B117" s="63">
+      <c r="B117" s="62">
         <v>43349</v>
       </c>
       <c r="C117" s="5" t="s">
@@ -5867,7 +6007,7 @@
       <c r="A118" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B118" s="63">
+      <c r="B118" s="62">
         <v>43349</v>
       </c>
       <c r="C118" s="5" t="s">
@@ -5909,29 +6049,214 @@
     </row>
     <row r="123" ht="22.95" customHeight="1"/>
     <row r="126" spans="2:2">
-      <c r="B126" s="70"/>
+      <c r="B126" s="69"/>
     </row>
     <row r="127" ht="9" customHeight="1" spans="2:2">
-      <c r="B127" s="70"/>
-    </row>
-    <row r="128" s="33" customFormat="1"/>
-    <row r="130" ht="27" customHeight="1" spans="4:4">
-      <c r="D130" s="71"/>
-    </row>
-    <row r="131" spans="2:2">
-      <c r="B131" s="72"/>
-    </row>
-    <row r="132" ht="7.95" customHeight="1" spans="2:2">
-      <c r="B132" s="72"/>
-    </row>
-    <row r="133" ht="34.05" customHeight="1"/>
-    <row r="134" ht="30" customHeight="1"/>
-    <row r="135" ht="28.05" customHeight="1"/>
-    <row r="138" spans="2:2">
-      <c r="B138" s="70"/>
+      <c r="B127" s="69"/>
+    </row>
+    <row r="128" s="32" customFormat="1"/>
+    <row r="129" ht="61.2" spans="1:6">
+      <c r="A129" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B129" s="62">
+        <v>43350</v>
+      </c>
+      <c r="C129" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="D129" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E129" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="F129" s="5" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="130" ht="27" customHeight="1" spans="1:6">
+      <c r="A130" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="C130" s="70" t="s">
+        <v>253</v>
+      </c>
+      <c r="D130" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="E130" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="F130" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="131" ht="40.8" spans="1:6">
+      <c r="A131" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B131" s="62">
+        <v>43350</v>
+      </c>
+      <c r="C131" s="70" t="s">
+        <v>257</v>
+      </c>
+      <c r="D131" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="E131" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="F131" s="5" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="132" ht="7.95" customHeight="1" spans="1:6">
+      <c r="A132" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B132" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="C132" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="D132" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="E132" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="F132" s="5" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="133" ht="34.05" customHeight="1" spans="1:6">
+      <c r="A133" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B133" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="C133" s="70" t="s">
+        <v>265</v>
+      </c>
+      <c r="D133" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E133" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="F133" s="5" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="134" ht="30" customHeight="1" spans="1:6">
+      <c r="A134" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B134" s="64" t="s">
+        <v>268</v>
+      </c>
+      <c r="C134" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="D134" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="E134" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="F134" s="5" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="135" ht="28.05" customHeight="1" spans="1:6">
+      <c r="A135" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B135" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="C135" s="70" t="s">
+        <v>253</v>
+      </c>
+      <c r="D135" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="E135" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="F135" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="136" ht="61.2" spans="1:6">
+      <c r="A136" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B136" s="62">
+        <v>43350</v>
+      </c>
+      <c r="C136" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="D136" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="E136" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="F136" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B137" s="62">
+        <v>43350</v>
+      </c>
+      <c r="C137" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="D137" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="E137" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="F137" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="138" ht="40.8" spans="1:6">
+      <c r="A138" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B138" s="62">
+        <v>43350</v>
+      </c>
+      <c r="C138" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="D138" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="E138" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="F138" s="5" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="139" ht="13.05" customHeight="1" spans="2:2">
-      <c r="B139" s="70"/>
+      <c r="B139" s="69"/>
     </row>
     <row r="140" ht="28.05" customHeight="1"/>
     <row r="143" ht="22.05" customHeight="1"/>
@@ -5939,22 +6264,22 @@
     <row r="145" ht="22.05" customHeight="1"/>
     <row r="146" ht="22.05" customHeight="1"/>
     <row r="147" ht="21" customHeight="1"/>
-    <row r="148" s="33" customFormat="1"/>
+    <row r="148" s="32" customFormat="1"/>
     <row r="149" ht="22.95" customHeight="1"/>
     <row r="150" spans="2:2">
-      <c r="B150" s="72"/>
+      <c r="B150" s="71"/>
     </row>
     <row r="151" spans="2:2">
-      <c r="B151" s="72"/>
+      <c r="B151" s="71"/>
     </row>
     <row r="152" spans="2:2">
-      <c r="B152" s="72"/>
+      <c r="B152" s="71"/>
     </row>
     <row r="153" spans="2:2">
-      <c r="B153" s="72"/>
+      <c r="B153" s="71"/>
     </row>
     <row r="154" spans="4:4">
-      <c r="D154" s="73"/>
+      <c r="D154" s="72"/>
     </row>
     <row r="155" ht="24" customHeight="1"/>
     <row r="156" ht="22.95" customHeight="1"/>
@@ -5964,51 +6289,51 @@
     <row r="161" ht="24" customHeight="1"/>
     <row r="163" ht="28.95" customHeight="1"/>
     <row r="164" ht="25.95" customHeight="1" spans="2:2">
-      <c r="B164" s="72"/>
-    </row>
-    <row r="165" s="33" customFormat="1"/>
+      <c r="B164" s="71"/>
+    </row>
+    <row r="165" s="32" customFormat="1"/>
     <row r="166" ht="25.95" customHeight="1" spans="4:4">
-      <c r="D166" s="71"/>
+      <c r="D166" s="73"/>
     </row>
     <row r="168" ht="27" customHeight="1"/>
     <row r="169" ht="13.05" customHeight="1" spans="2:2">
-      <c r="B169" s="72"/>
+      <c r="B169" s="71"/>
     </row>
     <row r="170" ht="13.05" customHeight="1" spans="2:2">
-      <c r="B170" s="72"/>
+      <c r="B170" s="71"/>
     </row>
     <row r="171" spans="2:2">
-      <c r="B171" s="72"/>
+      <c r="B171" s="71"/>
     </row>
     <row r="172" ht="12" customHeight="1" spans="2:2">
-      <c r="B172" s="72"/>
+      <c r="B172" s="71"/>
     </row>
     <row r="173" ht="34.05" customHeight="1"/>
     <row r="175" ht="31.05" customHeight="1"/>
-    <row r="177" s="33" customFormat="1"/>
+    <row r="177" s="32" customFormat="1"/>
     <row r="178" spans="2:2">
-      <c r="B178" s="72"/>
+      <c r="B178" s="71"/>
     </row>
     <row r="179" spans="2:2">
-      <c r="B179" s="72"/>
+      <c r="B179" s="71"/>
     </row>
     <row r="180" spans="2:2">
-      <c r="B180" s="70"/>
+      <c r="B180" s="69"/>
     </row>
     <row r="181" spans="2:2">
-      <c r="B181" s="70"/>
+      <c r="B181" s="69"/>
     </row>
     <row r="182" spans="2:2">
-      <c r="B182" s="70"/>
+      <c r="B182" s="69"/>
     </row>
     <row r="183" spans="2:2">
-      <c r="B183" s="70"/>
+      <c r="B183" s="69"/>
     </row>
     <row r="184" spans="2:2">
-      <c r="B184" s="70"/>
+      <c r="B184" s="69"/>
     </row>
     <row r="185" spans="2:2">
-      <c r="B185" s="70"/>
+      <c r="B185" s="69"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6022,7 +6347,7 @@
   <sheetPr/>
   <dimension ref="A1:F75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+    <sheetView topLeftCell="A67" workbookViewId="0">
       <selection activeCell="A64" sqref="$A64:$XFD64"/>
     </sheetView>
   </sheetViews>
@@ -6058,202 +6383,202 @@
     </row>
     <row r="2" ht="81.6" spans="1:6">
       <c r="A2" s="4" t="s">
-        <v>248</v>
+        <v>284</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>46</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>249</v>
+        <v>285</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>250</v>
+        <v>286</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>251</v>
+        <v>287</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>252</v>
+        <v>288</v>
       </c>
     </row>
     <row r="3" ht="61.2" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>253</v>
+        <v>289</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>254</v>
+        <v>290</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>255</v>
+        <v>291</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>256</v>
+        <v>292</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>257</v>
+        <v>293</v>
       </c>
     </row>
     <row r="4" ht="306" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>258</v>
+        <v>294</v>
       </c>
       <c r="B4" s="10">
         <v>43341</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>259</v>
+        <v>295</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>260</v>
+        <v>296</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>261</v>
+        <v>297</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>262</v>
+        <v>298</v>
       </c>
     </row>
     <row r="5" ht="102" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>263</v>
+        <v>299</v>
       </c>
       <c r="B5" s="15">
         <v>43341</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>264</v>
+        <v>300</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>265</v>
+        <v>301</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>266</v>
+        <v>302</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>267</v>
+        <v>303</v>
       </c>
     </row>
     <row r="6" ht="61.2" spans="1:6">
       <c r="A6" s="4" t="s">
-        <v>268</v>
+        <v>304</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>269</v>
+        <v>305</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>270</v>
+        <v>306</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>271</v>
+        <v>307</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>272</v>
+        <v>308</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>273</v>
+        <v>309</v>
       </c>
     </row>
     <row r="7" ht="102" spans="1:6">
       <c r="A7" s="4" t="s">
-        <v>274</v>
+        <v>310</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>46</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>275</v>
+        <v>311</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>276</v>
+        <v>312</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>277</v>
+        <v>313</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>278</v>
+        <v>314</v>
       </c>
     </row>
     <row r="8" ht="224.4" spans="1:6">
       <c r="A8" s="4" t="s">
-        <v>279</v>
+        <v>315</v>
       </c>
       <c r="B8" s="17">
         <v>43341</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>280</v>
+        <v>316</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>281</v>
+        <v>317</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>282</v>
+        <v>318</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>283</v>
+        <v>319</v>
       </c>
     </row>
     <row r="9" ht="102" spans="1:6">
       <c r="A9" s="4" t="s">
-        <v>284</v>
+        <v>320</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>46</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>285</v>
+        <v>321</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>286</v>
+        <v>322</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>287</v>
+        <v>323</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>288</v>
+        <v>324</v>
       </c>
     </row>
     <row r="10" ht="163.2" spans="1:6">
       <c r="A10" s="4" t="s">
-        <v>289</v>
+        <v>325</v>
       </c>
       <c r="B10" s="18">
         <v>43341</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>290</v>
+        <v>326</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>291</v>
+        <v>327</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>292</v>
+        <v>328</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>293</v>
+        <v>329</v>
       </c>
     </row>
     <row r="11" ht="102" spans="1:6">
       <c r="A11" s="2" t="s">
-        <v>294</v>
+        <v>330</v>
       </c>
       <c r="B11" s="10">
         <v>43341</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>295</v>
+        <v>331</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>296</v>
+        <v>332</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>297</v>
+        <v>333</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>298</v>
+        <v>334</v>
       </c>
     </row>
     <row r="12" ht="20.4" spans="1:6">
@@ -6308,202 +6633,202 @@
     </row>
     <row r="18" ht="163.2" spans="1:6">
       <c r="A18" s="2" t="s">
-        <v>248</v>
+        <v>284</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>299</v>
+        <v>335</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>300</v>
+        <v>336</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>301</v>
+        <v>337</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>302</v>
+        <v>338</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>303</v>
+        <v>339</v>
       </c>
     </row>
     <row r="19" ht="61.2" spans="1:6">
       <c r="A19" s="2" t="s">
-        <v>263</v>
+        <v>299</v>
       </c>
       <c r="B19" s="15">
         <v>43343</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>304</v>
+        <v>340</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>305</v>
+        <v>341</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>306</v>
+        <v>342</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>307</v>
+        <v>343</v>
       </c>
     </row>
     <row r="20" ht="81.6" spans="1:6">
       <c r="A20" s="2" t="s">
-        <v>253</v>
+        <v>289</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>308</v>
+        <v>344</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>309</v>
+        <v>345</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>310</v>
+        <v>346</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>257</v>
+        <v>293</v>
       </c>
     </row>
     <row r="21" ht="61.2" spans="1:6">
       <c r="A21" s="4" t="s">
-        <v>311</v>
+        <v>347</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>312</v>
+        <v>348</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>313</v>
+        <v>349</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>314</v>
+        <v>350</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>315</v>
+        <v>351</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>316</v>
+        <v>352</v>
       </c>
     </row>
     <row r="22" ht="409.5" spans="1:6">
       <c r="A22" s="2" t="s">
-        <v>258</v>
+        <v>294</v>
       </c>
       <c r="B22" s="10">
         <v>43343</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>317</v>
+        <v>353</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>318</v>
+        <v>354</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>319</v>
+        <v>355</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>320</v>
+        <v>356</v>
       </c>
     </row>
     <row r="23" ht="61.2" spans="1:6">
       <c r="A23" s="3" t="s">
-        <v>274</v>
+        <v>310</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>299</v>
+        <v>335</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>321</v>
+        <v>357</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>322</v>
+        <v>358</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>323</v>
+        <v>359</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>324</v>
+        <v>360</v>
       </c>
     </row>
     <row r="24" ht="122.4" spans="1:6">
       <c r="A24" s="4" t="s">
-        <v>279</v>
+        <v>315</v>
       </c>
       <c r="B24" s="22">
         <v>43343</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>325</v>
+        <v>361</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>326</v>
+        <v>362</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>327</v>
+        <v>363</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>328</v>
+        <v>364</v>
       </c>
     </row>
     <row r="25" ht="163.2" spans="1:6">
       <c r="A25" s="4" t="s">
-        <v>294</v>
+        <v>330</v>
       </c>
       <c r="B25" s="23">
         <v>43343</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>329</v>
+        <v>365</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>330</v>
+        <v>366</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>331</v>
+        <v>367</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>332</v>
+        <v>368</v>
       </c>
     </row>
     <row r="26" ht="204" spans="1:6">
       <c r="A26" s="4" t="s">
-        <v>289</v>
+        <v>325</v>
       </c>
       <c r="B26" s="22">
         <v>43343</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>333</v>
+        <v>369</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>334</v>
+        <v>370</v>
       </c>
       <c r="E26" s="24" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>336</v>
+        <v>372</v>
       </c>
     </row>
     <row r="27" ht="102" spans="1:6">
       <c r="A27" s="6" t="s">
-        <v>284</v>
+        <v>320</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>299</v>
+        <v>335</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>337</v>
+        <v>373</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>338</v>
+        <v>374</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>339</v>
+        <v>375</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>340</v>
+        <v>376</v>
       </c>
     </row>
     <row r="28" ht="20.4" spans="1:6">
@@ -6574,202 +6899,202 @@
     </row>
     <row r="36" ht="122.4" spans="1:6">
       <c r="A36" s="2" t="s">
-        <v>248</v>
+        <v>284</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>138</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>341</v>
+        <v>377</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>342</v>
+        <v>378</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>343</v>
+        <v>379</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>344</v>
+        <v>380</v>
       </c>
     </row>
     <row r="37" ht="81.6" spans="1:6">
       <c r="A37" s="2" t="s">
-        <v>263</v>
+        <v>299</v>
       </c>
       <c r="B37" s="15">
         <v>43346</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>345</v>
+        <v>381</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>346</v>
+        <v>382</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>347</v>
+        <v>383</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>348</v>
+        <v>384</v>
       </c>
     </row>
     <row r="38" ht="61.2" spans="1:6">
       <c r="A38" s="4" t="s">
-        <v>349</v>
+        <v>385</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>351</v>
+        <v>387</v>
       </c>
       <c r="D38" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="F38" s="2" t="s">
         <v>352</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>353</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="39" ht="40.8" spans="1:6">
       <c r="A39" s="2" t="s">
-        <v>253</v>
+        <v>289</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>117</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>354</v>
+        <v>390</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>355</v>
+        <v>391</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>356</v>
+        <v>392</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>257</v>
+        <v>293</v>
       </c>
     </row>
     <row r="40" ht="122.4" spans="1:6">
       <c r="A40" s="2" t="s">
-        <v>258</v>
+        <v>294</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>138</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>357</v>
+        <v>393</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>358</v>
+        <v>394</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>359</v>
+        <v>395</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>360</v>
+        <v>396</v>
       </c>
     </row>
     <row r="41" ht="102" spans="1:6">
       <c r="A41" s="6" t="s">
-        <v>274</v>
+        <v>310</v>
       </c>
       <c r="B41" s="6" t="s">
         <v>138</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>361</v>
+        <v>397</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>362</v>
+        <v>398</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>363</v>
+        <v>399</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>364</v>
+        <v>400</v>
       </c>
     </row>
     <row r="42" ht="102" spans="1:6">
       <c r="A42" s="4" t="s">
-        <v>294</v>
+        <v>330</v>
       </c>
       <c r="B42" s="23">
         <v>43346</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>365</v>
+        <v>401</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>366</v>
+        <v>402</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>367</v>
+        <v>403</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>368</v>
+        <v>404</v>
       </c>
     </row>
     <row r="43" ht="183.6" spans="1:6">
       <c r="A43" s="4" t="s">
-        <v>279</v>
+        <v>315</v>
       </c>
       <c r="B43" s="22">
         <v>43346</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>369</v>
+        <v>405</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>370</v>
+        <v>406</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>371</v>
+        <v>407</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>372</v>
+        <v>408</v>
       </c>
     </row>
     <row r="44" ht="81.6" spans="1:6">
       <c r="A44" s="4" t="s">
-        <v>284</v>
+        <v>320</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>373</v>
+        <v>409</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>374</v>
+        <v>410</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>375</v>
+        <v>411</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>376</v>
+        <v>412</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>377</v>
+        <v>413</v>
       </c>
     </row>
     <row r="45" ht="122.4" spans="1:6">
       <c r="A45" s="4" t="s">
-        <v>289</v>
+        <v>325</v>
       </c>
       <c r="B45" s="22">
         <v>43346</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>378</v>
+        <v>414</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>379</v>
+        <v>415</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>380</v>
+        <v>416</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>381</v>
+        <v>417</v>
       </c>
     </row>
     <row r="46" ht="20.4" spans="1:6">
@@ -6830,7 +7155,7 @@
     </row>
     <row r="53" ht="20.4" spans="1:6">
       <c r="A53" s="11" t="s">
-        <v>382</v>
+        <v>418</v>
       </c>
       <c r="B53" s="11"/>
       <c r="C53" s="11"/>
@@ -6840,205 +7165,205 @@
     </row>
     <row r="54" ht="20.4" spans="1:6">
       <c r="A54" s="2" t="s">
-        <v>248</v>
+        <v>284</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>160</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>383</v>
+        <v>419</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>384</v>
+        <v>420</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>385</v>
+        <v>421</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>386</v>
+        <v>422</v>
       </c>
     </row>
     <row r="55" ht="61.2" spans="1:6">
       <c r="A55" s="4" t="s">
-        <v>387</v>
+        <v>423</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>388</v>
+        <v>424</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>389</v>
+        <v>425</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>390</v>
+        <v>426</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>391</v>
+        <v>427</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>392</v>
+        <v>428</v>
       </c>
     </row>
     <row r="56" ht="40.8" spans="1:6">
       <c r="A56" s="2" t="s">
-        <v>263</v>
+        <v>299</v>
       </c>
       <c r="B56" s="15">
         <v>43347</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>393</v>
+        <v>429</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>394</v>
+        <v>430</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>395</v>
+        <v>431</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>396</v>
+        <v>432</v>
       </c>
     </row>
     <row r="57" ht="20.4" spans="1:6">
       <c r="A57" s="2" t="s">
-        <v>253</v>
+        <v>289</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>151</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>397</v>
+        <v>433</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>398</v>
+        <v>434</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>399</v>
+        <v>435</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>257</v>
+        <v>293</v>
       </c>
     </row>
     <row r="58" ht="163.2" spans="1:6">
       <c r="A58" s="4" t="s">
-        <v>258</v>
+        <v>294</v>
       </c>
       <c r="B58" s="23">
         <v>43347</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>400</v>
+        <v>436</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>401</v>
+        <v>437</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>402</v>
+        <v>438</v>
       </c>
       <c r="F58" s="5"/>
     </row>
     <row r="59" ht="81.6" spans="1:6">
       <c r="A59" s="6" t="s">
-        <v>274</v>
+        <v>310</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>160</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>403</v>
+        <v>439</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>404</v>
+        <v>440</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>405</v>
+        <v>441</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>406</v>
+        <v>442</v>
       </c>
     </row>
     <row r="60" ht="102" spans="1:6">
       <c r="A60" s="4" t="s">
-        <v>279</v>
+        <v>315</v>
       </c>
       <c r="B60" s="22">
         <v>43347</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>407</v>
+        <v>443</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>408</v>
+        <v>444</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>409</v>
+        <v>445</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>410</v>
+        <v>446</v>
       </c>
     </row>
     <row r="61" ht="81.6" spans="1:6">
       <c r="A61" s="4" t="s">
-        <v>289</v>
+        <v>325</v>
       </c>
       <c r="B61" s="22">
         <v>43347</v>
       </c>
       <c r="C61" s="24" t="s">
-        <v>411</v>
+        <v>447</v>
       </c>
       <c r="D61" s="24" t="s">
-        <v>412</v>
+        <v>448</v>
       </c>
       <c r="E61" s="24" t="s">
-        <v>413</v>
+        <v>449</v>
       </c>
       <c r="F61" s="24" t="s">
-        <v>414</v>
+        <v>450</v>
       </c>
     </row>
     <row r="62" ht="142.8" spans="1:6">
       <c r="A62" s="4" t="s">
-        <v>294</v>
+        <v>330</v>
       </c>
       <c r="B62" s="23">
         <v>43347</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>415</v>
+        <v>451</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>416</v>
+        <v>452</v>
       </c>
       <c r="E62" s="21" t="s">
-        <v>417</v>
+        <v>453</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>418</v>
+        <v>454</v>
       </c>
     </row>
     <row r="63" ht="61.2" spans="1:6">
       <c r="A63" s="4" t="s">
-        <v>284</v>
+        <v>320</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>419</v>
+        <v>455</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>420</v>
+        <v>456</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>421</v>
+        <v>457</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>422</v>
+        <v>458</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>423</v>
+        <v>459</v>
       </c>
     </row>
     <row r="64" ht="20.4" spans="1:6">
       <c r="A64" s="11" t="s">
-        <v>382</v>
+        <v>418</v>
       </c>
       <c r="B64" s="11"/>
       <c r="C64" s="11"/>
@@ -7048,202 +7373,202 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66" t="s">
-        <v>274</v>
+        <v>310</v>
       </c>
       <c r="B66" t="s">
         <v>221</v>
       </c>
       <c r="C66" t="s">
-        <v>424</v>
+        <v>460</v>
       </c>
       <c r="D66" t="s">
-        <v>425</v>
+        <v>461</v>
       </c>
       <c r="E66" t="s">
-        <v>426</v>
+        <v>462</v>
       </c>
       <c r="F66" t="s">
-        <v>427</v>
+        <v>463</v>
       </c>
     </row>
     <row r="67" ht="28.8" spans="1:6">
       <c r="A67" t="s">
-        <v>428</v>
+        <v>464</v>
       </c>
       <c r="B67" t="s">
         <v>221</v>
       </c>
       <c r="C67" t="s">
-        <v>429</v>
+        <v>465</v>
       </c>
       <c r="D67" t="s">
-        <v>430</v>
+        <v>466</v>
       </c>
       <c r="E67" t="s">
-        <v>427</v>
-      </c>
-      <c r="F67" s="30" t="s">
-        <v>431</v>
+        <v>463</v>
+      </c>
+      <c r="F67" s="13" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="68" ht="28.8" spans="1:6">
       <c r="A68" t="s">
-        <v>279</v>
+        <v>315</v>
       </c>
       <c r="B68" t="s">
         <v>221</v>
       </c>
-      <c r="C68" s="30" t="s">
-        <v>432</v>
+      <c r="C68" s="13" t="s">
+        <v>468</v>
       </c>
       <c r="D68" t="s">
-        <v>433</v>
-      </c>
-      <c r="E68" s="30" t="s">
-        <v>431</v>
-      </c>
-      <c r="F68" s="30" t="s">
-        <v>434</v>
+        <v>469</v>
+      </c>
+      <c r="E68" s="13" t="s">
+        <v>467</v>
+      </c>
+      <c r="F68" s="13" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="69" ht="28.8" spans="1:6">
       <c r="A69" t="s">
-        <v>294</v>
+        <v>330</v>
       </c>
       <c r="B69" t="s">
         <v>221</v>
       </c>
       <c r="C69" t="s">
-        <v>435</v>
+        <v>471</v>
       </c>
       <c r="D69" t="s">
-        <v>436</v>
-      </c>
-      <c r="E69" s="30" t="s">
-        <v>434</v>
+        <v>472</v>
+      </c>
+      <c r="E69" s="13" t="s">
+        <v>470</v>
       </c>
       <c r="F69" t="s">
-        <v>437</v>
+        <v>473</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" t="s">
-        <v>263</v>
+        <v>299</v>
       </c>
       <c r="B70" t="s">
         <v>221</v>
       </c>
       <c r="C70" t="s">
-        <v>438</v>
+        <v>474</v>
       </c>
       <c r="D70" t="s">
-        <v>439</v>
+        <v>475</v>
       </c>
       <c r="E70" t="s">
-        <v>440</v>
+        <v>476</v>
       </c>
       <c r="F70" t="s">
-        <v>441</v>
+        <v>477</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" t="s">
-        <v>253</v>
+        <v>289</v>
       </c>
       <c r="B71" t="s">
         <v>221</v>
       </c>
       <c r="C71" t="s">
-        <v>397</v>
+        <v>433</v>
       </c>
       <c r="D71" t="s">
-        <v>442</v>
+        <v>478</v>
       </c>
       <c r="E71" t="s">
-        <v>443</v>
+        <v>479</v>
       </c>
       <c r="F71" t="s">
-        <v>257</v>
+        <v>293</v>
       </c>
     </row>
     <row r="72" ht="28.8" spans="1:6">
       <c r="A72" t="s">
-        <v>289</v>
+        <v>325</v>
       </c>
       <c r="B72" t="s">
         <v>221</v>
       </c>
       <c r="C72" t="s">
-        <v>444</v>
+        <v>480</v>
       </c>
       <c r="D72" t="s">
-        <v>445</v>
-      </c>
-      <c r="E72" s="30" t="s">
-        <v>446</v>
+        <v>481</v>
+      </c>
+      <c r="E72" s="13" t="s">
+        <v>482</v>
       </c>
       <c r="F72" t="s">
-        <v>447</v>
+        <v>483</v>
       </c>
     </row>
     <row r="73" ht="28.8" spans="1:6">
       <c r="A73" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
       <c r="B73" t="s">
         <v>221</v>
       </c>
       <c r="C73" t="s">
-        <v>449</v>
+        <v>485</v>
       </c>
       <c r="D73" t="s">
-        <v>390</v>
-      </c>
-      <c r="E73" s="30" t="s">
-        <v>450</v>
+        <v>426</v>
+      </c>
+      <c r="E73" s="13" t="s">
+        <v>486</v>
       </c>
       <c r="F73" t="s">
-        <v>451</v>
+        <v>487</v>
       </c>
     </row>
     <row r="74" ht="72" spans="1:6">
       <c r="A74" t="s">
-        <v>258</v>
+        <v>294</v>
       </c>
       <c r="B74" t="s">
         <v>221</v>
       </c>
-      <c r="C74" s="30" t="s">
-        <v>452</v>
+      <c r="C74" s="13" t="s">
+        <v>488</v>
       </c>
       <c r="D74" t="s">
-        <v>453</v>
-      </c>
-      <c r="E74" s="30" t="s">
-        <v>454</v>
+        <v>489</v>
+      </c>
+      <c r="E74" s="13" t="s">
+        <v>490</v>
       </c>
       <c r="F74" t="s">
-        <v>455</v>
+        <v>491</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" t="s">
-        <v>248</v>
+        <v>284</v>
       </c>
       <c r="B75" t="s">
         <v>221</v>
       </c>
       <c r="C75" t="s">
-        <v>456</v>
+        <v>492</v>
       </c>
       <c r="D75" t="s">
-        <v>457</v>
+        <v>493</v>
       </c>
       <c r="E75" t="s">
-        <v>458</v>
+        <v>494</v>
       </c>
       <c r="F75" t="s">
-        <v>459</v>
+        <v>495</v>
       </c>
     </row>
   </sheetData>
@@ -7293,207 +7618,207 @@
     </row>
     <row r="2" ht="122.4" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>460</v>
+        <v>496</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>461</v>
+        <v>497</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>462</v>
+        <v>498</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>463</v>
+        <v>499</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>464</v>
+        <v>500</v>
       </c>
     </row>
     <row r="3" ht="102" spans="1:6">
       <c r="A3" s="4" t="s">
-        <v>465</v>
+        <v>501</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>466</v>
+        <v>502</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>467</v>
+        <v>503</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>468</v>
+        <v>504</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>469</v>
+        <v>505</v>
       </c>
     </row>
     <row r="4" ht="40.8" spans="1:6">
       <c r="A4" s="4" t="s">
-        <v>470</v>
+        <v>506</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>471</v>
+        <v>507</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>472</v>
+        <v>508</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>473</v>
+        <v>509</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>474</v>
+        <v>510</v>
       </c>
     </row>
     <row r="5" ht="142.8" spans="1:6">
       <c r="A5" s="4" t="s">
-        <v>475</v>
+        <v>511</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>476</v>
+        <v>512</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>477</v>
+        <v>513</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>478</v>
+        <v>514</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>479</v>
+        <v>515</v>
       </c>
     </row>
     <row r="6" ht="326.4" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>480</v>
+        <v>516</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>481</v>
+        <v>517</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>482</v>
+        <v>518</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>483</v>
+        <v>519</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>484</v>
+        <v>520</v>
       </c>
     </row>
     <row r="7" ht="409.5" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>485</v>
+        <v>521</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>486</v>
+        <v>522</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>487</v>
+        <v>523</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>488</v>
+        <v>524</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>489</v>
+        <v>525</v>
       </c>
     </row>
     <row r="8" ht="285.6" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>490</v>
+        <v>526</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>491</v>
+        <v>527</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>492</v>
+        <v>528</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>493</v>
+        <v>529</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>494</v>
+        <v>530</v>
       </c>
     </row>
     <row r="9" ht="40.8" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>495</v>
+        <v>531</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>496</v>
+        <v>532</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>497</v>
+        <v>533</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>498</v>
+        <v>534</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>499</v>
+        <v>535</v>
       </c>
     </row>
     <row r="10" ht="142.8" spans="1:6">
       <c r="A10" s="2" t="s">
-        <v>500</v>
+        <v>536</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>476</v>
+        <v>512</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>501</v>
+        <v>537</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>502</v>
+        <v>538</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>503</v>
+        <v>539</v>
       </c>
     </row>
     <row r="11" ht="204" spans="1:6">
       <c r="A11" s="2" t="s">
-        <v>504</v>
+        <v>540</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>505</v>
+        <v>541</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>506</v>
+        <v>542</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>507</v>
+        <v>543</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>508</v>
+        <v>544</v>
       </c>
     </row>
     <row r="12" ht="20.4" spans="1:6">
       <c r="A12" s="7" t="s">
-        <v>382</v>
+        <v>418</v>
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -7523,207 +7848,207 @@
     </row>
     <row r="14" ht="81.6" spans="1:6">
       <c r="A14" s="2" t="s">
-        <v>500</v>
+        <v>536</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>74</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>509</v>
+        <v>545</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>510</v>
+        <v>546</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>511</v>
+        <v>547</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>512</v>
+        <v>548</v>
       </c>
     </row>
     <row r="15" ht="326.4" spans="1:6">
       <c r="A15" s="2" t="s">
-        <v>490</v>
+        <v>526</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>74</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>513</v>
+        <v>549</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>514</v>
+        <v>550</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>515</v>
+        <v>551</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>516</v>
+        <v>552</v>
       </c>
     </row>
     <row r="16" ht="142.8" spans="1:6">
       <c r="A16" s="2" t="s">
-        <v>460</v>
+        <v>496</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>74</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>517</v>
+        <v>553</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>518</v>
+        <v>554</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>519</v>
+        <v>555</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>520</v>
+        <v>556</v>
       </c>
     </row>
     <row r="17" ht="81.6" spans="1:6">
       <c r="A17" s="2" t="s">
-        <v>521</v>
+        <v>557</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>74</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>522</v>
+        <v>558</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>523</v>
+        <v>559</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>524</v>
+        <v>560</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>525</v>
+        <v>561</v>
       </c>
     </row>
     <row r="18" ht="122.4" spans="1:6">
       <c r="A18" s="2" t="s">
-        <v>526</v>
+        <v>562</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>74</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>527</v>
+        <v>563</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>528</v>
+        <v>564</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>529</v>
+        <v>565</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>530</v>
+        <v>566</v>
       </c>
     </row>
     <row r="19" ht="367.2" spans="1:6">
       <c r="A19" s="2" t="s">
-        <v>480</v>
+        <v>516</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>74</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>531</v>
+        <v>567</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>532</v>
+        <v>568</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>533</v>
+        <v>569</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>534</v>
+        <v>570</v>
       </c>
     </row>
     <row r="20" ht="142.8" spans="1:6">
       <c r="A20" s="2" t="s">
-        <v>535</v>
+        <v>571</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>89</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>536</v>
+        <v>572</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>537</v>
+        <v>573</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>538</v>
+        <v>574</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>539</v>
+        <v>575</v>
       </c>
     </row>
     <row r="21" ht="81.6" spans="1:6">
       <c r="A21" s="2" t="s">
-        <v>495</v>
+        <v>531</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>89</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>540</v>
+        <v>576</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>541</v>
+        <v>577</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>542</v>
+        <v>578</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>543</v>
+        <v>579</v>
       </c>
     </row>
     <row r="22" ht="409.5" spans="1:6">
       <c r="A22" s="2" t="s">
-        <v>485</v>
+        <v>521</v>
       </c>
       <c r="B22" s="10" t="s">
         <v>89</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>544</v>
+        <v>580</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>545</v>
+        <v>581</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>546</v>
+        <v>582</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>547</v>
+        <v>583</v>
       </c>
     </row>
     <row r="23" ht="102" spans="1:6">
       <c r="A23" s="2" t="s">
-        <v>548</v>
+        <v>584</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>89</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>549</v>
+        <v>585</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>550</v>
+        <v>586</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>551</v>
+        <v>587</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>508</v>
+        <v>544</v>
       </c>
     </row>
     <row r="24" ht="20.4" spans="1:6">
       <c r="A24" s="7" t="s">
-        <v>552</v>
+        <v>588</v>
       </c>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -7751,202 +8076,202 @@
     </row>
     <row r="26" ht="81.6" spans="1:6">
       <c r="A26" s="2" t="s">
-        <v>500</v>
+        <v>536</v>
       </c>
       <c r="B26" s="10" t="s">
         <v>107</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>553</v>
+        <v>589</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>554</v>
+        <v>590</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>555</v>
+        <v>591</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>556</v>
+        <v>592</v>
       </c>
     </row>
     <row r="27" ht="387.6" spans="1:6">
       <c r="A27" s="2" t="s">
-        <v>480</v>
+        <v>516</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>557</v>
+        <v>593</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>558</v>
+        <v>594</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>559</v>
+        <v>595</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>560</v>
+        <v>596</v>
       </c>
     </row>
     <row r="28" ht="142.8" spans="1:6">
       <c r="A28" s="2" t="s">
-        <v>485</v>
+        <v>521</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>561</v>
+        <v>597</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>562</v>
+        <v>598</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>563</v>
+        <v>599</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>564</v>
+        <v>600</v>
       </c>
     </row>
     <row r="29" ht="409.5" spans="1:6">
       <c r="A29" s="2" t="s">
-        <v>526</v>
+        <v>562</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>565</v>
+        <v>601</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>566</v>
+        <v>602</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>567</v>
+        <v>603</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>568</v>
+        <v>604</v>
       </c>
     </row>
     <row r="30" ht="122.4" spans="1:6">
       <c r="A30" s="2" t="s">
-        <v>495</v>
+        <v>531</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>569</v>
+        <v>605</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>570</v>
+        <v>606</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>571</v>
+        <v>607</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>572</v>
+        <v>608</v>
       </c>
     </row>
     <row r="31" ht="409.5" spans="1:6">
       <c r="A31" s="2" t="s">
-        <v>490</v>
+        <v>526</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>573</v>
+        <v>609</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>574</v>
+        <v>610</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>575</v>
+        <v>611</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>576</v>
+        <v>612</v>
       </c>
     </row>
     <row r="32" ht="163.2" spans="1:6">
       <c r="A32" s="2" t="s">
-        <v>460</v>
+        <v>496</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>577</v>
+        <v>613</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>578</v>
+        <v>614</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>579</v>
+        <v>615</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>580</v>
+        <v>616</v>
       </c>
     </row>
     <row r="33" ht="409.5" spans="1:6">
       <c r="A33" s="2" t="s">
-        <v>475</v>
+        <v>511</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>581</v>
+        <v>617</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>582</v>
+        <v>618</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>583</v>
+        <v>619</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>584</v>
+        <v>620</v>
       </c>
     </row>
     <row r="34" ht="102" spans="1:6">
       <c r="A34" s="2" t="s">
-        <v>548</v>
+        <v>584</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>585</v>
+        <v>621</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>586</v>
+        <v>622</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>587</v>
+        <v>623</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>588</v>
+        <v>624</v>
       </c>
     </row>
     <row r="35" ht="81.6" spans="1:6">
       <c r="A35" s="2" t="s">
-        <v>521</v>
+        <v>557</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>589</v>
+        <v>625</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>590</v>
+        <v>626</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>563</v>
+        <v>599</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>591</v>
+        <v>627</v>
       </c>
     </row>
     <row r="36" ht="20.4" spans="1:6">
@@ -7981,22 +8306,22 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="5" t="s">
-        <v>460</v>
+        <v>496</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>117</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>592</v>
+        <v>628</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>593</v>
+        <v>629</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>594</v>
+        <v>630</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>595</v>
+        <v>631</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -8033,22 +8358,22 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="5" t="s">
-        <v>490</v>
+        <v>526</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>117</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>596</v>
+        <v>632</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>597</v>
+        <v>633</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>598</v>
+        <v>634</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>599</v>
+        <v>635</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -8085,22 +8410,22 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="5" t="s">
-        <v>495</v>
+        <v>531</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>117</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>600</v>
+        <v>636</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>601</v>
+        <v>637</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>602</v>
+        <v>638</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>603</v>
+        <v>639</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -8137,22 +8462,22 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="5" t="s">
-        <v>500</v>
+        <v>536</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>117</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>604</v>
+        <v>640</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>605</v>
+        <v>641</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>606</v>
+        <v>642</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>607</v>
+        <v>643</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -8189,22 +8514,22 @@
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="5" t="s">
-        <v>480</v>
+        <v>516</v>
       </c>
       <c r="B58" s="5" t="s">
         <v>117</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>608</v>
+        <v>644</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>609</v>
+        <v>645</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>610</v>
+        <v>646</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>611</v>
+        <v>647</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -8241,22 +8566,22 @@
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="5" t="s">
-        <v>526</v>
+        <v>562</v>
       </c>
       <c r="B63" s="5" t="s">
         <v>117</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>612</v>
+        <v>648</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>613</v>
+        <v>649</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>614</v>
+        <v>650</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>615</v>
+        <v>651</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -8293,22 +8618,22 @@
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="5" t="s">
-        <v>485</v>
+        <v>521</v>
       </c>
       <c r="B68" s="5" t="s">
         <v>117</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>616</v>
+        <v>652</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>617</v>
+        <v>653</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>618</v>
+        <v>654</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>619</v>
+        <v>655</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -8345,22 +8670,22 @@
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="5" t="s">
-        <v>475</v>
+        <v>511</v>
       </c>
       <c r="B73" s="5" t="s">
         <v>117</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>620</v>
+        <v>656</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>621</v>
+        <v>657</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>622</v>
+        <v>658</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>623</v>
+        <v>659</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -8397,42 +8722,42 @@
     </row>
     <row r="78" ht="204" spans="1:6">
       <c r="A78" s="2" t="s">
-        <v>521</v>
+        <v>557</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>117</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>608</v>
+        <v>644</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>624</v>
+        <v>660</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>614</v>
+        <v>650</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>615</v>
+        <v>651</v>
       </c>
     </row>
     <row r="79" ht="122.4" spans="1:6">
       <c r="A79" s="2" t="s">
-        <v>548</v>
+        <v>584</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>117</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>625</v>
+        <v>661</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>626</v>
+        <v>662</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>627</v>
+        <v>663</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>508</v>
+        <v>544</v>
       </c>
     </row>
     <row r="80" ht="20.4" spans="1:6">
@@ -8475,202 +8800,202 @@
     </row>
     <row r="83" ht="409.5" spans="1:6">
       <c r="A83" s="4" t="s">
-        <v>480</v>
+        <v>516</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>151</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>628</v>
+        <v>664</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>629</v>
+        <v>665</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>630</v>
+        <v>666</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>631</v>
+        <v>667</v>
       </c>
     </row>
     <row r="84" ht="102" spans="1:6">
       <c r="A84" s="4" t="s">
-        <v>500</v>
+        <v>536</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>151</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>632</v>
+        <v>668</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>633</v>
+        <v>669</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>634</v>
+        <v>670</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>635</v>
+        <v>671</v>
       </c>
     </row>
     <row r="85" ht="224.4" spans="1:6">
       <c r="A85" s="4" t="s">
-        <v>460</v>
+        <v>496</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>151</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>636</v>
+        <v>672</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>637</v>
+        <v>673</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>638</v>
+        <v>674</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>639</v>
+        <v>675</v>
       </c>
     </row>
     <row r="86" ht="285.6" spans="1:6">
       <c r="A86" s="4" t="s">
-        <v>535</v>
+        <v>571</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>151</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>640</v>
+        <v>676</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>641</v>
+        <v>677</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>642</v>
+        <v>678</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>643</v>
+        <v>679</v>
       </c>
     </row>
     <row r="87" ht="142.8" spans="1:6">
       <c r="A87" s="4" t="s">
-        <v>485</v>
+        <v>521</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>151</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>644</v>
+        <v>680</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>641</v>
+        <v>677</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>645</v>
+        <v>681</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>646</v>
+        <v>682</v>
       </c>
     </row>
     <row r="88" ht="81.6" spans="1:6">
       <c r="A88" s="4" t="s">
-        <v>526</v>
+        <v>562</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>151</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>647</v>
+        <v>683</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>648</v>
+        <v>684</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>649</v>
+        <v>685</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>650</v>
+        <v>686</v>
       </c>
     </row>
     <row r="89" ht="102" spans="1:6">
       <c r="A89" s="4" t="s">
-        <v>495</v>
+        <v>531</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>151</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>651</v>
+        <v>687</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>652</v>
+        <v>688</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>653</v>
+        <v>689</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>654</v>
+        <v>690</v>
       </c>
     </row>
     <row r="90" ht="142.8" spans="1:6">
       <c r="A90" s="12" t="s">
-        <v>490</v>
+        <v>526</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>151</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>655</v>
+        <v>691</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>656</v>
+        <v>692</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>657</v>
+        <v>693</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>658</v>
+        <v>694</v>
       </c>
     </row>
     <row r="91" ht="102" spans="1:6">
       <c r="A91" s="12" t="s">
-        <v>548</v>
+        <v>584</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>151</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>659</v>
+        <v>695</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>660</v>
+        <v>696</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>661</v>
+        <v>697</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>662</v>
+        <v>698</v>
       </c>
     </row>
     <row r="92" ht="61.2" spans="1:6">
       <c r="A92" s="12" t="s">
-        <v>521</v>
+        <v>557</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>151</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>663</v>
+        <v>699</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>664</v>
+        <v>700</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>665</v>
+        <v>701</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>666</v>
+        <v>702</v>
       </c>
     </row>
     <row r="93" ht="20.4" spans="1:6">
@@ -8705,22 +9030,22 @@
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="5" t="s">
-        <v>667</v>
+        <v>703</v>
       </c>
       <c r="B95" s="5">
         <v>9.5</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>668</v>
+        <v>704</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>669</v>
+        <v>705</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>670</v>
+        <v>706</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>671</v>
+        <v>707</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -8789,62 +9114,62 @@
     </row>
     <row r="104" ht="265.2" spans="1:6">
       <c r="A104" s="5" t="s">
-        <v>480</v>
+        <v>516</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>672</v>
+        <v>708</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>673</v>
+        <v>709</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>674</v>
+        <v>710</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>675</v>
+        <v>711</v>
       </c>
       <c r="F104" s="5" t="s">
-        <v>676</v>
+        <v>712</v>
       </c>
     </row>
     <row r="105" ht="102" spans="1:6">
       <c r="A105" s="5" t="s">
-        <v>485</v>
+        <v>521</v>
       </c>
       <c r="B105" s="5" t="s">
         <v>201</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>677</v>
+        <v>713</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>678</v>
+        <v>714</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>679</v>
+        <v>715</v>
       </c>
       <c r="F105" s="5" t="s">
-        <v>680</v>
+        <v>716</v>
       </c>
     </row>
     <row r="106" ht="409.5" spans="1:11">
       <c r="A106" s="4" t="s">
-        <v>475</v>
+        <v>511</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>681</v>
+        <v>717</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>620</v>
+        <v>656</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>621</v>
+        <v>657</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>622</v>
+        <v>658</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>623</v>
+        <v>659</v>
       </c>
       <c r="G106" s="2"/>
       <c r="H106" s="2"/>
@@ -8854,42 +9179,42 @@
     </row>
     <row r="107" ht="142.8" spans="1:6">
       <c r="A107" s="4" t="s">
-        <v>500</v>
+        <v>536</v>
       </c>
       <c r="B107" s="5" t="s">
         <v>201</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>682</v>
+        <v>718</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>683</v>
+        <v>719</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>684</v>
+        <v>720</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>685</v>
+        <v>721</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="5" t="s">
-        <v>490</v>
+        <v>526</v>
       </c>
       <c r="B108" s="5" t="s">
         <v>201</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>686</v>
+        <v>722</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>687</v>
+        <v>723</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>688</v>
+        <v>724</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>689</v>
+        <v>725</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -8942,22 +9267,22 @@
     </row>
     <row r="115" ht="20.4" spans="1:9">
       <c r="A115" s="5" t="s">
-        <v>460</v>
+        <v>496</v>
       </c>
       <c r="B115" s="5" t="s">
         <v>201</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>690</v>
+        <v>726</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>691</v>
+        <v>727</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>692</v>
+        <v>728</v>
       </c>
       <c r="F115" s="5" t="s">
-        <v>693</v>
+        <v>729</v>
       </c>
       <c r="G115" s="2"/>
       <c r="H115" s="2"/>
@@ -9013,22 +9338,22 @@
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="5" t="s">
-        <v>495</v>
+        <v>531</v>
       </c>
       <c r="B122" s="5" t="s">
         <v>201</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>694</v>
+        <v>730</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>695</v>
+        <v>731</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>696</v>
+        <v>732</v>
       </c>
       <c r="F122" s="5" t="s">
-        <v>697</v>
+        <v>733</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -9081,22 +9406,22 @@
     </row>
     <row r="129" spans="1:6">
       <c r="A129" s="5" t="s">
-        <v>548</v>
+        <v>584</v>
       </c>
       <c r="B129" s="5" t="s">
         <v>201</v>
       </c>
       <c r="C129" s="5" t="s">
+        <v>734</v>
+      </c>
+      <c r="D129" s="5" t="s">
+        <v>735</v>
+      </c>
+      <c r="E129" s="5" t="s">
+        <v>736</v>
+      </c>
+      <c r="F129" s="5" t="s">
         <v>698</v>
-      </c>
-      <c r="D129" s="5" t="s">
-        <v>699</v>
-      </c>
-      <c r="E129" s="5" t="s">
-        <v>700</v>
-      </c>
-      <c r="F129" s="5" t="s">
-        <v>662</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -9149,22 +9474,22 @@
     </row>
     <row r="136" spans="1:6">
       <c r="A136" s="5" t="s">
-        <v>521</v>
+        <v>557</v>
       </c>
       <c r="B136" s="5" t="s">
         <v>201</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>701</v>
+        <v>737</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>702</v>
+        <v>738</v>
       </c>
       <c r="E136" s="5" t="s">
-        <v>703</v>
+        <v>739</v>
       </c>
       <c r="F136" s="5" t="s">
-        <v>704</v>
+        <v>740</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -9247,182 +9572,182 @@
     </row>
     <row r="145" ht="144" spans="1:6">
       <c r="A145" t="s">
-        <v>480</v>
+        <v>516</v>
       </c>
       <c r="B145" t="s">
         <v>216</v>
       </c>
       <c r="C145" s="13" t="s">
-        <v>705</v>
+        <v>741</v>
       </c>
       <c r="D145" s="13" t="s">
-        <v>706</v>
+        <v>742</v>
       </c>
       <c r="E145" s="13" t="s">
-        <v>707</v>
+        <v>743</v>
       </c>
       <c r="F145" s="13" t="s">
-        <v>708</v>
+        <v>744</v>
       </c>
     </row>
     <row r="146" ht="57.6" spans="1:6">
       <c r="A146" t="s">
-        <v>460</v>
+        <v>496</v>
       </c>
       <c r="B146" t="s">
         <v>216</v>
       </c>
       <c r="C146" s="13" t="s">
-        <v>709</v>
+        <v>745</v>
       </c>
       <c r="D146" s="13" t="s">
-        <v>710</v>
+        <v>746</v>
       </c>
       <c r="E146" s="13" t="s">
-        <v>711</v>
+        <v>747</v>
       </c>
       <c r="F146" s="13" t="s">
-        <v>712</v>
+        <v>748</v>
       </c>
     </row>
     <row r="147" ht="43.2" spans="1:6">
       <c r="A147" t="s">
-        <v>500</v>
+        <v>536</v>
       </c>
       <c r="B147" t="s">
         <v>216</v>
       </c>
       <c r="C147" s="13" t="s">
-        <v>713</v>
+        <v>749</v>
       </c>
       <c r="D147" s="13" t="s">
-        <v>714</v>
+        <v>750</v>
       </c>
       <c r="E147" s="13" t="s">
-        <v>715</v>
+        <v>751</v>
       </c>
       <c r="F147" s="13" t="s">
-        <v>716</v>
+        <v>752</v>
       </c>
     </row>
     <row r="148" ht="43.2" spans="1:6">
       <c r="A148" t="s">
-        <v>495</v>
+        <v>531</v>
       </c>
       <c r="B148" t="s">
         <v>216</v>
       </c>
       <c r="C148" s="13" t="s">
-        <v>717</v>
+        <v>753</v>
       </c>
       <c r="D148" s="13" t="s">
-        <v>718</v>
+        <v>754</v>
       </c>
       <c r="E148" s="13" t="s">
-        <v>719</v>
+        <v>755</v>
       </c>
       <c r="F148" s="13" t="s">
-        <v>720</v>
+        <v>756</v>
       </c>
     </row>
     <row r="149" ht="216" spans="1:6">
       <c r="A149" t="s">
-        <v>475</v>
+        <v>511</v>
       </c>
       <c r="B149" t="s">
         <v>216</v>
       </c>
       <c r="C149" s="13" t="s">
-        <v>721</v>
+        <v>757</v>
       </c>
       <c r="D149" s="13" t="s">
-        <v>722</v>
+        <v>758</v>
       </c>
       <c r="E149" s="13" t="s">
-        <v>723</v>
+        <v>759</v>
       </c>
       <c r="F149" s="13" t="s">
-        <v>724</v>
+        <v>760</v>
       </c>
     </row>
     <row r="150" ht="28.8" spans="1:6">
       <c r="A150" t="s">
-        <v>526</v>
+        <v>562</v>
       </c>
       <c r="B150" t="s">
         <v>216</v>
       </c>
       <c r="C150" t="s">
-        <v>725</v>
+        <v>761</v>
       </c>
       <c r="D150" t="s">
-        <v>726</v>
+        <v>762</v>
       </c>
       <c r="E150" s="13" t="s">
-        <v>727</v>
+        <v>763</v>
       </c>
       <c r="F150" t="s">
-        <v>728</v>
+        <v>764</v>
       </c>
     </row>
     <row r="151" spans="1:6">
       <c r="A151" t="s">
-        <v>485</v>
+        <v>521</v>
       </c>
       <c r="B151" t="s">
         <v>216</v>
       </c>
       <c r="C151" t="s">
-        <v>729</v>
+        <v>765</v>
       </c>
       <c r="D151" t="s">
-        <v>730</v>
+        <v>766</v>
       </c>
       <c r="E151" t="s">
-        <v>731</v>
+        <v>767</v>
       </c>
       <c r="F151" t="s">
-        <v>732</v>
+        <v>768</v>
       </c>
     </row>
     <row r="152" ht="43.2" spans="1:6">
       <c r="A152" t="s">
-        <v>548</v>
+        <v>584</v>
       </c>
       <c r="B152" t="s">
         <v>216</v>
       </c>
       <c r="C152" s="13" t="s">
-        <v>733</v>
+        <v>769</v>
       </c>
       <c r="D152" s="13" t="s">
-        <v>734</v>
+        <v>770</v>
       </c>
       <c r="E152" t="s">
-        <v>735</v>
+        <v>771</v>
       </c>
       <c r="F152" t="s">
-        <v>662</v>
+        <v>698</v>
       </c>
     </row>
     <row r="153" ht="28.8" spans="1:6">
       <c r="A153" t="s">
-        <v>521</v>
+        <v>557</v>
       </c>
       <c r="B153" t="s">
         <v>216</v>
       </c>
       <c r="C153" t="s">
-        <v>736</v>
+        <v>772</v>
       </c>
       <c r="D153" s="13" t="s">
-        <v>730</v>
+        <v>766</v>
       </c>
       <c r="E153" t="s">
-        <v>737</v>
+        <v>773</v>
       </c>
       <c r="F153" s="13" t="s">
-        <v>738</v>
+        <v>774</v>
       </c>
     </row>
   </sheetData>

--- a/1601W.xlsx
+++ b/1601W.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="9924"/>
+    <workbookView windowWidth="22943" windowHeight="9515" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="第一小组" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817">
   <si>
     <t>姓名</t>
   </si>
@@ -3003,18 +3003,216 @@
   <si>
     <t>今天先吃饱，不然怎么去想明天吃什么</t>
   </si>
+  <si>
+    <t xml:space="preserve">周五 </t>
+  </si>
+  <si>
+    <t>进行了网页的爬虫处理，实现了爬虫爬出的数据导入了MySQL数据库，熟悉了django的增删改查的功能，对于django的表单提交有了进一步理解。</t>
+  </si>
+  <si>
+    <t>对于django的表单提交
+了解还是不足，对于
+爬虫的一些个功能了解
+还是不足</t>
+  </si>
+  <si>
+    <t>对于知识理论的
+的了解不足</t>
+  </si>
+  <si>
+    <t>对于表单提交的建立进行进一步加深，熟悉爬虫的整体框架</t>
+  </si>
+  <si>
+    <t>今天继续学习关于知识图谱项目内的相关内容，包括爬虫和KNN算法</t>
+  </si>
+  <si>
+    <t>项目相关的分配已经完成，对于自己的模块已经熟悉并开始进行</t>
+  </si>
+  <si>
+    <t>对于如何实现相关关系的构建尚未完全掌握</t>
+  </si>
+  <si>
+    <t>完成知识图谱的关系构建，对相关属性的内容补全进行学习</t>
+  </si>
+  <si>
+    <t>1.继续在网上爬取数据
+2.复习之前学的东西</t>
+  </si>
+  <si>
+    <t>1.在网上找dfs方法
+2.修复bug</t>
+  </si>
+  <si>
+    <t>html前台方法不会写</t>
+  </si>
+  <si>
+    <t>整理scrapy框架,neo4j图形化工具的知识
+理解了网格搜索、交叉验证、TF-IDF的相关知识点</t>
+  </si>
+  <si>
+    <t>完成了知识的解析</t>
+  </si>
+  <si>
+    <t>整体内容琐碎一点
+需要分类整理</t>
+  </si>
+  <si>
+    <t>将思路用代码方式实现,并整合</t>
+  </si>
+  <si>
+    <t>重复敲了scrapy框架 爬取数据并存入数据库；为了配合组内工作，负责neo4j展示界面，包括实体和实体的关系存储，主要学习neo4j的原理，联系csql语法，熟悉数据结构</t>
+  </si>
+  <si>
+    <t>neo4j基本语法已经熟悉，还要进行接下来2大块的学习，使自己顺序成长，满足项目</t>
+  </si>
+  <si>
+    <t>neo4j还未成体系，在srapy-django还存在缺点</t>
+  </si>
+  <si>
+    <t>抓紧熟悉在结构化数据csv，结构化的数据存入在非关系型数据库中，包括标签和实体之间的联系；加紧数据知识图谱在存储方面的细节问题 和相关代码 要达到一定标准</t>
+  </si>
+  <si>
+    <t>1.学会了TF-IDF，TF词频(Term Frequency)，IDF逆向文件频率(Inverse Document Frequency)。TF表示词条在文档d中出现的频率。IDF的主要思想是：如果包含词条t的文档越少，也就是n越小，IDF越大，则说明词条t具有很好的类别区分能力。词频（term frequency，TF）指的是某一个给定的词语在该文件中出现的频率。这个数字是对词数(term count)的归一化，以防止它偏向长的文件。逆向文件频率（inverse document frequency，IDF）是一个词语普遍重要性的度量。某一特定词语的IDF，可以由总文件数目除以包含该词语之文件的数目，再将得到的商取对数得到：网格搜索算法与K折交叉验证，网格搜索算法是一种通过遍历给定的参数组合来优化模型表现的方法。K折交叉验证中，我们用到的数据是训练集中的所有数据。我们将训练集的所有数据平均划分成K份（通常选择K=10），取第K份作为验证集，它的作用就像我们用来估计高考分数的模拟题，余下的K-1份作为交叉验证的训练集。</t>
+  </si>
+  <si>
+    <t>1.爬虫爬了http://fenlei.baike.com/%E6%A4%8D%E7%89%A9/这个网站上的信息</t>
+  </si>
+  <si>
+    <t>open(filename,'wb').write(response.body)爬虫的时候这个代码有问题，就是没有加b</t>
+  </si>
+  <si>
+    <t>今天主要爬了互动百科上的信息，明天争取把农业知识图谱的关系屡清</t>
+  </si>
+  <si>
+    <t>正在通读整个项目，希望可以建立起一个大体框架，把整个项目的流程理顺</t>
+  </si>
+  <si>
+    <t>数据爬取还是有点小问题，关系还是没能确立，小组分工基本都分好了，就是时间有点紧</t>
+  </si>
+  <si>
+    <t>问题就是项目大体框架有一点理解，但是稍微具体一些或者说细致一些，就还是会有一些问题，需要时间去看去敲</t>
+  </si>
+  <si>
+    <t>把需求都实现</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>018.09.07</t>
+    </r>
+  </si>
+  <si>
+    <t>1.理解KNN算法的原理并能够理解KNN_
+predict模块的实现分类的步骤
+2.全面梳理wikidataSpider模块爬取
+俩实体间的关系
+3.在2的基础上构建植物与病虫害的新关
+系（如已存在可直接拿来用）
+4.能够简述农业图谱的每个模块的流程</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.简单理解KNN_predict
+的流程，未达到特熟悉的
+程度
+2.能够熟悉维基百科上实体间
+关系，并口述
+3.在构建关系的时候发现wiki
+上没有sick关系，只有间接的
+所以我决定通过属性之间的描述，
+建立出任意两个实体间的关系，
+选出植物与病害的关系
+4.不只看代码来理解，要将自己
+对代码理解写出来并说出来</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">1.在运行爬虫时出现未能将网页源代码存入HTML中
+发现在保存文件时打开文件的方式只是W（可写），应该为wb(可写二进制文件）
+2.对于建立新的关系不是很确定具体采用哪种方式可行性高
+3.在理解项目完整流程时还会有许多地方不能够叙述的条理清楚
+</t>
+  </si>
+  <si>
+    <t>1.解决自己这一星期的
+问题
+2.总结自己一周所学的知识，反思学习不足的地方
+3.对新的需求的实现方式做一个代码
+上的计划梳理
+4.小放松一下给自己，给自己做一个下周的学习计划</t>
+  </si>
+  <si>
+    <t>9月7号</t>
+  </si>
+  <si>
+    <t>看了农业知识图谱的相关代码，主要看了neo4j的基础理论和关于neo4j CQL的各种命令。</t>
+  </si>
+  <si>
+    <t>了解了neo4j CQL的一些操作命令，了解neo4j的一些相关知识，概念，优点等。</t>
+  </si>
+  <si>
+    <t>没有找到如何把数据添加到已有的neo4j数据库中。</t>
+  </si>
+  <si>
+    <t>找到把数据添加到已有数据库的方法，尽量完成项目。</t>
+  </si>
+  <si>
+    <t>看了农业知识图谱的相关代码，主要看了neo4j的基础理论和关于neo4j CQL的各种命令。学习了TF-IDF</t>
+  </si>
+  <si>
+    <t>查百度学习如何爬去图片</t>
+  </si>
+  <si>
+    <t>爬去图片还有种类名称不知道以什么方式储存</t>
+  </si>
+  <si>
+    <t>今日事今日毕，明天事明天再说</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3037,6 +3235,32 @@
     <font>
       <sz val="16"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3075,46 +3299,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3135,6 +3321,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -3144,7 +3337,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3166,8 +3389,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3189,26 +3428,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -3245,7 +3469,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3257,55 +3547,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3317,13 +3577,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3341,13 +3601,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3359,13 +3613,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3377,43 +3625,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3429,11 +3653,18 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3449,6 +3680,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3485,8 +3731,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -3500,30 +3748,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3532,10 +3756,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3544,137 +3768,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="29" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3717,6 +3941,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3750,19 +3995,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3807,13 +4052,13 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3837,7 +4082,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3852,10 +4097,10 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3876,7 +4121,7 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4009,7 +4254,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -4290,8 +4535,8 @@
   <sheetPr/>
   <dimension ref="A1:S185"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A127" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A133" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="C131" sqref="C131"/>
     </sheetView>
@@ -4307,23 +4552,23 @@
     <col min="7" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="30" customFormat="1" spans="1:6">
-      <c r="A1" s="33" t="s">
+    <row r="1" s="37" customFormat="1" spans="1:6">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="F1" s="40" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4348,671 +4593,671 @@
       </c>
     </row>
     <row r="3" ht="94.05" customHeight="1" spans="1:6">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="D3" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="34" t="s">
+      <c r="E3" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="34" t="s">
+      <c r="F3" s="41" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" ht="40.8" spans="1:6">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="35">
+      <c r="B4" s="42">
         <v>43341</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="34" t="s">
+      <c r="D4" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="34" t="s">
+      <c r="E4" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="36" t="s">
+      <c r="F4" s="43" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" ht="40.8" spans="1:6">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="C5" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="34" t="s">
+      <c r="D5" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="36" t="s">
+      <c r="E5" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="34" t="s">
+      <c r="F5" s="41" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="6" ht="244.8" spans="1:6">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="36" t="s">
+      <c r="C6" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="36" t="s">
+      <c r="D6" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="34" t="s">
+      <c r="E6" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="36" t="s">
+      <c r="F6" s="43" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="7" ht="81" customHeight="1" spans="1:6">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="37" t="s">
+      <c r="C7" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="34" t="s">
+      <c r="D7" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="37" t="s">
+      <c r="E7" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="37" t="s">
+      <c r="F7" s="44" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="8" ht="81.6" spans="1:6">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="35">
+      <c r="B8" s="42">
         <v>43341</v>
       </c>
-      <c r="C8" s="36" t="s">
+      <c r="C8" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="36" t="s">
+      <c r="D8" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="36" t="s">
+      <c r="E8" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="34" t="s">
+      <c r="F8" s="41" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="9" ht="94.95" customHeight="1" spans="1:6">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="36" t="s">
+      <c r="C9" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="34" t="s">
+      <c r="D9" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="E9" s="34" t="s">
+      <c r="E9" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="F9" s="36" t="s">
+      <c r="F9" s="43" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="35">
+      <c r="B10" s="42">
         <v>43341</v>
       </c>
-      <c r="C10" s="34" t="s">
+      <c r="C10" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="D10" s="34" t="s">
+      <c r="D10" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="E10" s="34" t="s">
+      <c r="E10" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="F10" s="34" t="s">
+      <c r="F10" s="41" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="11" ht="204" spans="1:6">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="B11" s="38">
+      <c r="B11" s="45">
         <v>43341</v>
       </c>
-      <c r="C11" s="36" t="s">
+      <c r="C11" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="D11" s="36" t="s">
+      <c r="D11" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="E11" s="36" t="s">
+      <c r="E11" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="F11" s="36" t="s">
+      <c r="F11" s="43" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="39"/>
-      <c r="B12" s="39"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
+      <c r="A12" s="46"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="40"/>
-      <c r="B13" s="39"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
+      <c r="A13" s="47"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="40"/>
-      <c r="B14" s="39"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
+      <c r="A14" s="47"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="40"/>
-      <c r="B15" s="39"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
+      <c r="A15" s="47"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="40"/>
-      <c r="B16" s="39"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
+      <c r="A16" s="47"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
     </row>
     <row r="17" ht="57" customHeight="1" spans="1:6">
-      <c r="A17" s="40"/>
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
+      <c r="A17" s="47"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="39"/>
-      <c r="B18" s="39"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
+      <c r="A18" s="46"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="39"/>
-      <c r="B19" s="39"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-    </row>
-    <row r="20" s="31" customFormat="1" spans="1:6">
-      <c r="A20" s="41" t="s">
+      <c r="A19" s="46"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+    </row>
+    <row r="20" s="38" customFormat="1" spans="1:6">
+      <c r="A20" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="B20" s="42"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="42"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="49"/>
     </row>
     <row r="21" ht="81.6" spans="1:6">
-      <c r="A21" s="36" t="s">
+      <c r="A21" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="38">
+      <c r="B21" s="45">
         <v>43342</v>
       </c>
-      <c r="C21" s="36" t="s">
+      <c r="C21" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="D21" s="36" t="s">
+      <c r="D21" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="E21" s="36" t="s">
+      <c r="E21" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="F21" s="36" t="s">
+      <c r="F21" s="43" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="22" ht="102" spans="1:6">
-      <c r="A22" s="36" t="s">
+      <c r="A22" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="B22" s="38">
+      <c r="B22" s="45">
         <v>43342</v>
       </c>
-      <c r="C22" s="36" t="s">
+      <c r="C22" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="D22" s="36" t="s">
+      <c r="D22" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="E22" s="36" t="s">
+      <c r="E22" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="F22" s="36" t="s">
+      <c r="F22" s="43" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="23" ht="40.8" spans="1:6">
-      <c r="A23" s="34" t="s">
+      <c r="A23" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="35">
+      <c r="B23" s="42">
         <v>43341</v>
       </c>
-      <c r="C23" s="36" t="s">
+      <c r="C23" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="D23" s="34" t="s">
+      <c r="D23" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="E23" s="34" t="s">
+      <c r="E23" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="F23" s="34" t="s">
+      <c r="F23" s="41" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="24" ht="61.2" spans="1:6">
-      <c r="A24" s="34" t="s">
+      <c r="A24" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="34" t="s">
+      <c r="B24" s="41" t="s">
         <v>74</v>
       </c>
-      <c r="C24" s="36" t="s">
+      <c r="C24" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="D24" s="43" t="s">
+      <c r="D24" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="E24" s="36" t="s">
+      <c r="E24" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="F24" s="34" t="s">
+      <c r="F24" s="41" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="25" ht="102" spans="1:6">
-      <c r="A25" s="34" t="s">
+      <c r="A25" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="34" t="s">
+      <c r="B25" s="41" t="s">
         <v>74</v>
       </c>
-      <c r="C25" s="36" t="s">
+      <c r="C25" s="43" t="s">
         <v>78</v>
       </c>
-      <c r="D25" s="36" t="s">
+      <c r="D25" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="E25" s="34" t="s">
+      <c r="E25" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="F25" s="36" t="s">
+      <c r="F25" s="43" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="26" ht="81.6" spans="1:6">
-      <c r="A26" s="34" t="s">
+      <c r="A26" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="B26" s="35">
+      <c r="B26" s="42">
         <v>43342</v>
       </c>
-      <c r="C26" s="34" t="s">
+      <c r="C26" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="D26" s="34" t="s">
+      <c r="D26" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="E26" s="36" t="s">
+      <c r="E26" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="F26" s="34" t="s">
+      <c r="F26" s="41" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="27" ht="40.8" spans="1:7">
-      <c r="A27" s="34" t="s">
+      <c r="A27" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="B27" s="35" t="s">
+      <c r="B27" s="42" t="s">
         <v>85</v>
       </c>
-      <c r="C27" s="34" t="s">
+      <c r="C27" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="D27" s="34" t="s">
+      <c r="D27" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="E27" s="36" t="s">
+      <c r="E27" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="F27" s="34" t="s">
+      <c r="F27" s="41" t="s">
         <v>88</v>
       </c>
       <c r="G27"/>
     </row>
     <row r="28" ht="55.05" customHeight="1" spans="1:6">
-      <c r="A28" s="34" t="s">
+      <c r="A28" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="B28" s="34" t="s">
+      <c r="B28" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="C28" s="36" t="s">
+      <c r="C28" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="D28" s="34" t="s">
+      <c r="D28" s="41" t="s">
         <v>91</v>
       </c>
-      <c r="E28" s="34" t="s">
+      <c r="E28" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="F28" s="34" t="s">
+      <c r="F28" s="41" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="29" ht="142.8" spans="1:6">
-      <c r="A29" s="34" t="s">
+      <c r="A29" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="36" t="s">
+      <c r="B29" s="43" t="s">
         <v>94</v>
       </c>
-      <c r="C29" s="37" t="s">
+      <c r="C29" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="D29" s="34" t="s">
+      <c r="D29" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="E29" s="37" t="s">
+      <c r="E29" s="44" t="s">
         <v>96</v>
       </c>
-      <c r="F29" s="37" t="s">
+      <c r="F29" s="44" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="30" ht="25.95" customHeight="1" spans="1:6">
-      <c r="A30" s="39"/>
-      <c r="B30" s="39"/>
-      <c r="C30" s="39"/>
-      <c r="D30" s="39"/>
-      <c r="E30" s="39"/>
-      <c r="F30" s="39"/>
+      <c r="A30" s="46"/>
+      <c r="B30" s="46"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="46"/>
     </row>
     <row r="31" ht="42" customHeight="1" spans="1:6">
-      <c r="A31" s="39"/>
-      <c r="B31" s="39"/>
-      <c r="C31" s="39"/>
-      <c r="D31" s="39"/>
-      <c r="E31" s="39"/>
-      <c r="F31" s="39"/>
+      <c r="A31" s="46"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="46"/>
+      <c r="F31" s="46"/>
     </row>
     <row r="32" ht="30" customHeight="1" spans="1:6">
-      <c r="A32" s="44"/>
-      <c r="B32" s="39"/>
-      <c r="C32" s="44"/>
-      <c r="D32" s="44"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="44"/>
+      <c r="A32" s="51"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="51"/>
+      <c r="D32" s="51"/>
+      <c r="E32" s="51"/>
+      <c r="F32" s="51"/>
     </row>
     <row r="33" ht="22.95" customHeight="1" spans="1:6">
-      <c r="A33" s="44"/>
-      <c r="B33" s="39"/>
-      <c r="C33" s="44"/>
-      <c r="D33" s="44"/>
-      <c r="E33" s="44"/>
-      <c r="F33" s="44"/>
+      <c r="A33" s="51"/>
+      <c r="B33" s="46"/>
+      <c r="C33" s="51"/>
+      <c r="D33" s="51"/>
+      <c r="E33" s="51"/>
+      <c r="F33" s="51"/>
     </row>
     <row r="34" ht="30" customHeight="1" spans="1:6">
-      <c r="A34" s="44"/>
-      <c r="B34" s="39"/>
-      <c r="C34" s="44"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="44"/>
+      <c r="A34" s="51"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="51"/>
+      <c r="D34" s="51"/>
+      <c r="E34" s="51"/>
+      <c r="F34" s="51"/>
     </row>
     <row r="35" ht="24" customHeight="1" spans="1:6">
-      <c r="A35" s="44"/>
-      <c r="B35" s="39"/>
-      <c r="C35" s="45"/>
-      <c r="D35" s="44"/>
-      <c r="E35" s="45"/>
-      <c r="F35" s="45"/>
+      <c r="A35" s="51"/>
+      <c r="B35" s="46"/>
+      <c r="C35" s="52"/>
+      <c r="D35" s="51"/>
+      <c r="E35" s="52"/>
+      <c r="F35" s="52"/>
     </row>
     <row r="36" ht="28.95" customHeight="1" spans="1:6">
-      <c r="A36" s="44"/>
-      <c r="B36" s="39"/>
-      <c r="C36" s="45"/>
-      <c r="D36" s="44"/>
-      <c r="E36" s="46"/>
-      <c r="F36" s="44"/>
+      <c r="A36" s="51"/>
+      <c r="B36" s="46"/>
+      <c r="C36" s="52"/>
+      <c r="D36" s="51"/>
+      <c r="E36" s="53"/>
+      <c r="F36" s="51"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="44"/>
-      <c r="B37" s="39"/>
-      <c r="C37" s="44"/>
-      <c r="D37" s="44"/>
-      <c r="E37" s="44"/>
-      <c r="F37" s="44"/>
-    </row>
-    <row r="38" s="32" customFormat="1" spans="1:6">
-      <c r="A38" s="41" t="s">
+      <c r="A37" s="51"/>
+      <c r="B37" s="46"/>
+      <c r="C37" s="51"/>
+      <c r="D37" s="51"/>
+      <c r="E37" s="51"/>
+      <c r="F37" s="51"/>
+    </row>
+    <row r="38" s="39" customFormat="1" spans="1:6">
+      <c r="A38" s="48" t="s">
         <v>98</v>
       </c>
-      <c r="B38" s="41"/>
-      <c r="C38" s="41"/>
-      <c r="D38" s="41"/>
-      <c r="E38" s="41"/>
-      <c r="F38" s="41"/>
+      <c r="B38" s="48"/>
+      <c r="C38" s="48"/>
+      <c r="D38" s="48"/>
+      <c r="E38" s="48"/>
+      <c r="F38" s="48"/>
     </row>
     <row r="39" ht="40.8" spans="1:6">
-      <c r="A39" s="47" t="s">
+      <c r="A39" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="B39" s="48">
+      <c r="B39" s="55">
         <v>43342</v>
       </c>
-      <c r="C39" s="49" t="s">
+      <c r="C39" s="56" t="s">
         <v>99</v>
       </c>
-      <c r="D39" s="47" t="s">
+      <c r="D39" s="54" t="s">
         <v>100</v>
       </c>
-      <c r="E39" s="47" t="s">
+      <c r="E39" s="54" t="s">
         <v>101</v>
       </c>
-      <c r="F39" s="47" t="s">
+      <c r="F39" s="54" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="40" ht="61.2" spans="1:6">
-      <c r="A40" s="49" t="s">
+      <c r="A40" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="B40" s="50">
+      <c r="B40" s="57">
         <v>43343</v>
       </c>
-      <c r="C40" s="49" t="s">
+      <c r="C40" s="56" t="s">
         <v>103</v>
       </c>
-      <c r="D40" s="49" t="s">
+      <c r="D40" s="56" t="s">
         <v>104</v>
       </c>
-      <c r="E40" s="49" t="s">
+      <c r="E40" s="56" t="s">
         <v>105</v>
       </c>
-      <c r="F40" s="49" t="s">
+      <c r="F40" s="56" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="41" ht="102" spans="1:6">
-      <c r="A41" s="47" t="s">
+      <c r="A41" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="B41" s="47" t="s">
+      <c r="B41" s="54" t="s">
         <v>107</v>
       </c>
-      <c r="C41" s="49" t="s">
+      <c r="C41" s="56" t="s">
         <v>108</v>
       </c>
-      <c r="D41" s="49" t="s">
+      <c r="D41" s="56" t="s">
         <v>109</v>
       </c>
-      <c r="E41" s="47" t="s">
+      <c r="E41" s="54" t="s">
         <v>110</v>
       </c>
-      <c r="F41" s="49" t="s">
+      <c r="F41" s="56" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="42" ht="81.6" spans="1:6">
-      <c r="A42" s="47" t="s">
+      <c r="A42" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="B42" s="48">
+      <c r="B42" s="55">
         <v>43343</v>
       </c>
-      <c r="C42" s="49" t="s">
+      <c r="C42" s="56" t="s">
         <v>111</v>
       </c>
-      <c r="D42" s="49" t="s">
+      <c r="D42" s="56" t="s">
         <v>112</v>
       </c>
-      <c r="E42" s="49" t="s">
+      <c r="E42" s="56" t="s">
         <v>113</v>
       </c>
-      <c r="F42" s="49" t="s">
+      <c r="F42" s="56" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="43" ht="45" customHeight="1" spans="1:6">
-      <c r="A43" s="47" t="s">
+      <c r="A43" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="B43" s="47" t="s">
+      <c r="B43" s="54" t="s">
         <v>89</v>
       </c>
-      <c r="C43" s="49" t="s">
+      <c r="C43" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="D43" s="47" t="s">
+      <c r="D43" s="54" t="s">
         <v>91</v>
       </c>
-      <c r="E43" s="47" t="s">
+      <c r="E43" s="54" t="s">
         <v>92</v>
       </c>
-      <c r="F43" s="47" t="s">
+      <c r="F43" s="54" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="44" ht="28.95" customHeight="1" spans="1:6">
-      <c r="A44" s="47" t="s">
+      <c r="A44" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="B44" s="48">
+      <c r="B44" s="55">
         <v>43342</v>
       </c>
-      <c r="C44" s="47" t="s">
+      <c r="C44" s="54" t="s">
         <v>82</v>
       </c>
-      <c r="D44" s="47" t="s">
+      <c r="D44" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="E44" s="49" t="s">
+      <c r="E44" s="56" t="s">
         <v>84</v>
       </c>
-      <c r="F44" s="47" t="s">
+      <c r="F44" s="54" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="45" ht="49.05" customHeight="1" spans="1:6">
-      <c r="A45" s="47" t="s">
+      <c r="A45" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="B45" s="49" t="s">
+      <c r="B45" s="56" t="s">
         <v>94</v>
       </c>
-      <c r="C45" s="51" t="s">
+      <c r="C45" s="58" t="s">
         <v>95</v>
       </c>
-      <c r="D45" s="47" t="s">
+      <c r="D45" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="E45" s="51" t="s">
+      <c r="E45" s="58" t="s">
         <v>96</v>
       </c>
-      <c r="F45" s="51" t="s">
+      <c r="F45" s="58" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="46" ht="67.05" customHeight="1" spans="1:19">
-      <c r="A46" s="47" t="s">
+      <c r="A46" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="B46" s="47" t="s">
+      <c r="B46" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="C46" s="49" t="s">
+      <c r="C46" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="D46" s="52" t="s">
+      <c r="D46" s="59" t="s">
         <v>76</v>
       </c>
-      <c r="E46" s="49" t="s">
+      <c r="E46" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="F46" s="47" t="s">
+      <c r="F46" s="54" t="s">
         <v>77</v>
       </c>
       <c r="G46"/>
@@ -5030,326 +5275,326 @@
       <c r="S46"/>
     </row>
     <row r="47" ht="46.05" customHeight="1" spans="1:6">
-      <c r="A47" s="47" t="s">
+      <c r="A47" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="B47" s="48" t="s">
+      <c r="B47" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="C47" s="47" t="s">
+      <c r="C47" s="54" t="s">
         <v>115</v>
       </c>
-      <c r="D47" s="47" t="s">
+      <c r="D47" s="54" t="s">
         <v>86</v>
       </c>
-      <c r="E47" s="49" t="s">
+      <c r="E47" s="56" t="s">
         <v>87</v>
       </c>
-      <c r="F47" s="47" t="s">
+      <c r="F47" s="54" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="48" ht="25.05" customHeight="1" spans="1:6">
-      <c r="A48" s="53"/>
-      <c r="B48" s="53"/>
-      <c r="C48" s="53"/>
-      <c r="D48" s="53"/>
-      <c r="E48" s="53"/>
-      <c r="F48" s="53"/>
+      <c r="A48" s="60"/>
+      <c r="B48" s="60"/>
+      <c r="C48" s="60"/>
+      <c r="D48" s="60"/>
+      <c r="E48" s="60"/>
+      <c r="F48" s="60"/>
     </row>
     <row r="49" ht="33" customHeight="1" spans="1:6">
-      <c r="A49" s="54"/>
-      <c r="B49" s="53"/>
-      <c r="C49" s="54"/>
-      <c r="D49" s="54"/>
-      <c r="E49" s="54"/>
-      <c r="F49" s="53"/>
+      <c r="A49" s="61"/>
+      <c r="B49" s="60"/>
+      <c r="C49" s="61"/>
+      <c r="D49" s="61"/>
+      <c r="E49" s="61"/>
+      <c r="F49" s="60"/>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="53"/>
-      <c r="B50" s="53"/>
-      <c r="C50" s="53"/>
-      <c r="D50" s="53"/>
-      <c r="E50" s="53"/>
-      <c r="F50" s="53"/>
+      <c r="A50" s="60"/>
+      <c r="B50" s="60"/>
+      <c r="C50" s="60"/>
+      <c r="D50" s="60"/>
+      <c r="E50" s="60"/>
+      <c r="F50" s="60"/>
     </row>
     <row r="51" ht="45" customHeight="1" spans="1:6">
-      <c r="A51" s="53"/>
-      <c r="B51" s="53"/>
-      <c r="C51" s="53"/>
-      <c r="D51" s="55"/>
-      <c r="E51" s="53"/>
-      <c r="F51" s="53"/>
+      <c r="A51" s="60"/>
+      <c r="B51" s="60"/>
+      <c r="C51" s="60"/>
+      <c r="D51" s="62"/>
+      <c r="E51" s="60"/>
+      <c r="F51" s="60"/>
     </row>
     <row r="52" ht="28.95" customHeight="1" spans="1:6">
-      <c r="A52" s="53"/>
-      <c r="B52" s="53"/>
-      <c r="C52" s="53"/>
-      <c r="D52" s="53"/>
-      <c r="E52" s="53"/>
-      <c r="F52" s="53"/>
+      <c r="A52" s="60"/>
+      <c r="B52" s="60"/>
+      <c r="C52" s="60"/>
+      <c r="D52" s="60"/>
+      <c r="E52" s="60"/>
+      <c r="F52" s="60"/>
     </row>
     <row r="53" ht="25.95" customHeight="1" spans="1:6">
-      <c r="A53" s="53"/>
-      <c r="B53" s="53"/>
-      <c r="C53" s="53"/>
-      <c r="D53" s="53"/>
-      <c r="E53" s="53"/>
-      <c r="F53" s="53"/>
+      <c r="A53" s="60"/>
+      <c r="B53" s="60"/>
+      <c r="C53" s="60"/>
+      <c r="D53" s="60"/>
+      <c r="E53" s="60"/>
+      <c r="F53" s="60"/>
     </row>
     <row r="54" ht="28.95" customHeight="1" spans="1:6">
-      <c r="A54" s="53"/>
-      <c r="B54" s="53"/>
-      <c r="C54" s="53"/>
-      <c r="D54" s="53"/>
-      <c r="E54" s="53"/>
-      <c r="F54" s="53"/>
+      <c r="A54" s="60"/>
+      <c r="B54" s="60"/>
+      <c r="C54" s="60"/>
+      <c r="D54" s="60"/>
+      <c r="E54" s="60"/>
+      <c r="F54" s="60"/>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="53"/>
-      <c r="B55" s="53"/>
-      <c r="C55" s="53"/>
-      <c r="D55" s="53"/>
-      <c r="E55" s="53"/>
-      <c r="F55" s="53"/>
-    </row>
-    <row r="56" s="32" customFormat="1" spans="1:1">
-      <c r="A56" s="32" t="s">
+      <c r="A55" s="60"/>
+      <c r="B55" s="60"/>
+      <c r="C55" s="60"/>
+      <c r="D55" s="60"/>
+      <c r="E55" s="60"/>
+      <c r="F55" s="60"/>
+    </row>
+    <row r="56" s="39" customFormat="1" spans="1:1">
+      <c r="A56" s="39" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="57" ht="102" spans="1:6">
-      <c r="A57" s="47" t="s">
+      <c r="A57" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="B57" s="56" t="s">
+      <c r="B57" s="63" t="s">
         <v>117</v>
       </c>
-      <c r="C57" s="56" t="s">
+      <c r="C57" s="63" t="s">
         <v>118</v>
       </c>
-      <c r="D57" s="56" t="s">
+      <c r="D57" s="63" t="s">
         <v>119</v>
       </c>
-      <c r="E57" s="56" t="s">
+      <c r="E57" s="63" t="s">
         <v>120</v>
       </c>
-      <c r="F57" s="56" t="s">
+      <c r="F57" s="63" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="58" ht="81.6" spans="1:6">
-      <c r="A58" s="47" t="s">
+      <c r="A58" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="B58" s="57">
+      <c r="B58" s="64">
         <v>43346</v>
       </c>
-      <c r="C58" s="53" t="s">
+      <c r="C58" s="60" t="s">
         <v>122</v>
       </c>
-      <c r="D58" s="53" t="s">
+      <c r="D58" s="60" t="s">
         <v>123</v>
       </c>
-      <c r="E58" s="53" t="s">
+      <c r="E58" s="60" t="s">
         <v>124</v>
       </c>
-      <c r="F58" s="53" t="s">
+      <c r="F58" s="60" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="59" ht="61.2" spans="1:6">
-      <c r="A59" s="47" t="s">
+      <c r="A59" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="B59" s="49" t="s">
+      <c r="B59" s="56" t="s">
         <v>126</v>
       </c>
-      <c r="C59" s="58" t="s">
+      <c r="C59" s="65" t="s">
         <v>127</v>
       </c>
-      <c r="D59" s="49" t="s">
+      <c r="D59" s="56" t="s">
         <v>128</v>
       </c>
-      <c r="E59" s="56" t="s">
+      <c r="E59" s="63" t="s">
         <v>129</v>
       </c>
-      <c r="F59" s="58" t="s">
+      <c r="F59" s="65" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="60" ht="102" spans="1:6">
-      <c r="A60" s="47" t="s">
+      <c r="A60" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="B60" s="50">
+      <c r="B60" s="57">
         <v>43346</v>
       </c>
-      <c r="C60" s="49" t="s">
+      <c r="C60" s="56" t="s">
         <v>131</v>
       </c>
-      <c r="D60" s="49" t="s">
+      <c r="D60" s="56" t="s">
         <v>132</v>
       </c>
-      <c r="E60" s="49" t="s">
+      <c r="E60" s="56" t="s">
         <v>133</v>
       </c>
-      <c r="F60" s="49" t="s">
+      <c r="F60" s="56" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="61" ht="34.8" spans="1:6">
-      <c r="A61" s="59" t="s">
+      <c r="A61" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="B61" s="60" t="s">
+      <c r="B61" s="67" t="s">
         <v>117</v>
       </c>
-      <c r="C61" s="54" t="s">
+      <c r="C61" s="61" t="s">
         <v>135</v>
       </c>
-      <c r="D61" s="60" t="s">
+      <c r="D61" s="67" t="s">
         <v>136</v>
       </c>
-      <c r="E61" s="60" t="s">
+      <c r="E61" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="F61" s="60" t="s">
+      <c r="F61" s="67" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="62" ht="61.2" spans="1:6">
-      <c r="A62" s="47" t="s">
+      <c r="A62" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="B62" s="53" t="s">
+      <c r="B62" s="60" t="s">
         <v>138</v>
       </c>
-      <c r="C62" s="53" t="s">
+      <c r="C62" s="60" t="s">
         <v>139</v>
       </c>
-      <c r="D62" s="49" t="s">
+      <c r="D62" s="56" t="s">
         <v>140</v>
       </c>
-      <c r="E62" s="49" t="s">
+      <c r="E62" s="56" t="s">
         <v>141</v>
       </c>
-      <c r="F62" s="49" t="s">
+      <c r="F62" s="56" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="63" ht="61.2" spans="1:6">
-      <c r="A63" s="47" t="s">
+      <c r="A63" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="B63" s="57">
+      <c r="B63" s="64">
         <v>43346</v>
       </c>
-      <c r="C63" s="53" t="s">
+      <c r="C63" s="60" t="s">
         <v>143</v>
       </c>
-      <c r="D63" s="49" t="s">
+      <c r="D63" s="56" t="s">
         <v>144</v>
       </c>
-      <c r="E63" s="49" t="s">
+      <c r="E63" s="56" t="s">
         <v>145</v>
       </c>
-      <c r="F63" s="49" t="s">
+      <c r="F63" s="56" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="64" customFormat="1" ht="33" customHeight="1" spans="1:6">
-      <c r="A64" s="47" t="s">
+      <c r="A64" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="B64" s="48">
+      <c r="B64" s="55">
         <v>43346</v>
       </c>
-      <c r="C64" s="47" t="s">
+      <c r="C64" s="54" t="s">
         <v>147</v>
       </c>
-      <c r="D64" s="47" t="s">
+      <c r="D64" s="54" t="s">
         <v>148</v>
       </c>
-      <c r="E64" s="49" t="s">
+      <c r="E64" s="56" t="s">
         <v>149</v>
       </c>
-      <c r="F64" s="47" t="s">
+      <c r="F64" s="54" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="65" ht="27" customHeight="1" spans="1:6">
-      <c r="A65" s="53" t="s">
+      <c r="A65" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="B65" s="57">
+      <c r="B65" s="64">
         <v>43346</v>
       </c>
-      <c r="C65" s="53" t="s">
+      <c r="C65" s="60" t="s">
         <v>150</v>
       </c>
-      <c r="D65" s="61"/>
-      <c r="E65" s="53"/>
-      <c r="F65" s="53"/>
+      <c r="D65" s="68"/>
+      <c r="E65" s="60"/>
+      <c r="F65" s="60"/>
     </row>
     <row r="66" ht="33" customHeight="1" spans="1:6">
-      <c r="A66" s="53"/>
-      <c r="B66" s="53"/>
-      <c r="C66" s="53"/>
-      <c r="D66" s="53"/>
-      <c r="E66" s="53"/>
-      <c r="F66" s="53"/>
+      <c r="A66" s="60"/>
+      <c r="B66" s="60"/>
+      <c r="C66" s="60"/>
+      <c r="D66" s="60"/>
+      <c r="E66" s="60"/>
+      <c r="F66" s="60"/>
     </row>
     <row r="67" ht="30" customHeight="1" spans="1:6">
-      <c r="A67" s="53"/>
-      <c r="B67" s="53"/>
-      <c r="C67" s="53"/>
-      <c r="D67" s="53"/>
-      <c r="E67" s="53"/>
-      <c r="F67" s="53"/>
+      <c r="A67" s="60"/>
+      <c r="B67" s="60"/>
+      <c r="C67" s="60"/>
+      <c r="D67" s="60"/>
+      <c r="E67" s="60"/>
+      <c r="F67" s="60"/>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="53"/>
-      <c r="B68" s="53"/>
-      <c r="C68" s="53"/>
-      <c r="D68" s="53"/>
-      <c r="E68" s="53"/>
-      <c r="F68" s="53"/>
+      <c r="A68" s="60"/>
+      <c r="B68" s="60"/>
+      <c r="C68" s="60"/>
+      <c r="D68" s="60"/>
+      <c r="E68" s="60"/>
+      <c r="F68" s="60"/>
     </row>
     <row r="69" spans="1:6">
-      <c r="A69" s="53"/>
-      <c r="B69" s="53"/>
-      <c r="C69" s="53"/>
-      <c r="D69" s="53"/>
-      <c r="E69" s="53"/>
-      <c r="F69" s="53"/>
+      <c r="A69" s="60"/>
+      <c r="B69" s="60"/>
+      <c r="C69" s="60"/>
+      <c r="D69" s="60"/>
+      <c r="E69" s="60"/>
+      <c r="F69" s="60"/>
     </row>
     <row r="70" ht="22.95" customHeight="1" spans="1:6">
-      <c r="A70" s="53"/>
-      <c r="B70" s="53"/>
-      <c r="C70" s="53"/>
-      <c r="D70" s="53"/>
-      <c r="E70" s="53"/>
-      <c r="F70" s="53"/>
+      <c r="A70" s="60"/>
+      <c r="B70" s="60"/>
+      <c r="C70" s="60"/>
+      <c r="D70" s="60"/>
+      <c r="E70" s="60"/>
+      <c r="F70" s="60"/>
     </row>
     <row r="71" ht="33" customHeight="1" spans="1:6">
-      <c r="A71" s="53"/>
-      <c r="B71" s="53"/>
-      <c r="C71" s="53"/>
-      <c r="D71" s="53"/>
-      <c r="E71" s="53"/>
-      <c r="F71" s="53"/>
+      <c r="A71" s="60"/>
+      <c r="B71" s="60"/>
+      <c r="C71" s="60"/>
+      <c r="D71" s="60"/>
+      <c r="E71" s="60"/>
+      <c r="F71" s="60"/>
     </row>
     <row r="72" spans="1:6">
-      <c r="A72" s="53"/>
-      <c r="B72" s="53"/>
-      <c r="C72" s="53"/>
-      <c r="D72" s="53"/>
-      <c r="E72" s="53"/>
-      <c r="F72" s="53"/>
-    </row>
-    <row r="73" s="32" customFormat="1" spans="1:1">
-      <c r="A73" s="32" t="s">
+      <c r="A72" s="60"/>
+      <c r="B72" s="60"/>
+      <c r="C72" s="60"/>
+      <c r="D72" s="60"/>
+      <c r="E72" s="60"/>
+      <c r="F72" s="60"/>
+    </row>
+    <row r="73" s="39" customFormat="1" spans="1:1">
+      <c r="A73" s="39" t="s">
         <v>98</v>
       </c>
     </row>
@@ -5377,7 +5622,7 @@
       <c r="A75" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B75" s="62">
+      <c r="B75" s="69">
         <v>43347</v>
       </c>
       <c r="C75" s="5" t="s">
@@ -5417,7 +5662,7 @@
       <c r="A77" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B77" s="17">
+      <c r="B77" s="24">
         <v>43347</v>
       </c>
       <c r="C77" s="5" t="s">
@@ -5457,7 +5702,7 @@
       <c r="A79" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B79" s="17">
+      <c r="B79" s="24">
         <v>43347</v>
       </c>
       <c r="C79" s="5" t="s">
@@ -5474,10 +5719,10 @@
       </c>
     </row>
     <row r="80" ht="28.8" spans="1:6">
-      <c r="A80" s="63" t="s">
+      <c r="A80" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="B80" s="63" t="s">
+      <c r="B80" s="70" t="s">
         <v>151</v>
       </c>
       <c r="C80" s="4" t="s">
@@ -5486,10 +5731,10 @@
       <c r="D80" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="E80" s="64" t="s">
+      <c r="E80" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="F80" s="63" t="s">
+      <c r="F80" s="70" t="s">
         <v>179</v>
       </c>
     </row>
@@ -5497,7 +5742,7 @@
       <c r="A81" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B81" s="17">
+      <c r="B81" s="24">
         <v>43347</v>
       </c>
       <c r="C81" s="5" t="s">
@@ -5514,13 +5759,13 @@
       </c>
     </row>
     <row r="82" ht="28.05" customHeight="1" spans="1:6">
-      <c r="A82" s="65" t="s">
+      <c r="A82" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="B82" s="66">
+      <c r="B82" s="73">
         <v>43346</v>
       </c>
-      <c r="C82" s="65" t="s">
+      <c r="C82" s="72" t="s">
         <v>150</v>
       </c>
       <c r="D82" s="5"/>
@@ -5591,19 +5836,19 @@
       <c r="E90" s="5"/>
       <c r="F90" s="5"/>
     </row>
-    <row r="91" s="32" customFormat="1" spans="1:6">
-      <c r="A91" s="41"/>
-      <c r="B91" s="41"/>
-      <c r="C91" s="41"/>
-      <c r="D91" s="41"/>
-      <c r="E91" s="41"/>
-      <c r="F91" s="41"/>
+    <row r="91" s="39" customFormat="1" spans="1:6">
+      <c r="A91" s="48"/>
+      <c r="B91" s="48"/>
+      <c r="C91" s="48"/>
+      <c r="D91" s="48"/>
+      <c r="E91" s="48"/>
+      <c r="F91" s="48"/>
     </row>
     <row r="92" ht="102" spans="1:6">
       <c r="A92" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B92" s="62">
+      <c r="B92" s="69">
         <v>43348</v>
       </c>
       <c r="C92" s="5" t="s">
@@ -5623,7 +5868,7 @@
       <c r="A93" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B93" s="62">
+      <c r="B93" s="69">
         <v>43348</v>
       </c>
       <c r="C93" s="5" t="s">
@@ -5643,7 +5888,7 @@
       <c r="A94" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B94" s="62">
+      <c r="B94" s="69">
         <v>43348</v>
       </c>
       <c r="C94" s="5" t="s">
@@ -5663,7 +5908,7 @@
       <c r="A95" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B95" s="62">
+      <c r="B95" s="69">
         <v>43348</v>
       </c>
       <c r="C95" s="5" t="s">
@@ -5700,22 +5945,22 @@
       </c>
     </row>
     <row r="97" ht="28.95" customHeight="1" spans="1:6">
-      <c r="A97" s="67" t="s">
+      <c r="A97" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="B97" s="67" t="s">
+      <c r="B97" s="74" t="s">
         <v>201</v>
       </c>
-      <c r="C97" s="67" t="s">
+      <c r="C97" s="74" t="s">
         <v>202</v>
       </c>
       <c r="D97" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="E97" s="67" t="s">
+      <c r="E97" s="74" t="s">
         <v>27</v>
       </c>
-      <c r="F97" s="67" t="s">
+      <c r="F97" s="74" t="s">
         <v>203</v>
       </c>
     </row>
@@ -5743,7 +5988,7 @@
       <c r="A99" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B99" s="62">
+      <c r="B99" s="69">
         <v>43348</v>
       </c>
       <c r="C99" s="5" t="s">
@@ -5760,13 +6005,13 @@
       </c>
     </row>
     <row r="100" ht="24" customHeight="1" spans="1:6">
-      <c r="A100" s="65" t="s">
+      <c r="A100" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="B100" s="66">
+      <c r="B100" s="73">
         <v>43348</v>
       </c>
-      <c r="C100" s="65" t="s">
+      <c r="C100" s="72" t="s">
         <v>150</v>
       </c>
       <c r="D100" s="5"/>
@@ -5837,19 +6082,19 @@
       <c r="E108" s="5"/>
       <c r="F108" s="5"/>
     </row>
-    <row r="109" s="32" customFormat="1" spans="1:6">
-      <c r="A109" s="41"/>
-      <c r="B109" s="41"/>
-      <c r="C109" s="41"/>
-      <c r="D109" s="41"/>
-      <c r="E109" s="41"/>
-      <c r="F109" s="41"/>
+    <row r="109" s="39" customFormat="1" spans="1:6">
+      <c r="A109" s="48"/>
+      <c r="B109" s="48"/>
+      <c r="C109" s="48"/>
+      <c r="D109" s="48"/>
+      <c r="E109" s="48"/>
+      <c r="F109" s="48"/>
     </row>
     <row r="110" ht="81.6" spans="1:6">
       <c r="A110" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B110" s="62">
+      <c r="B110" s="69">
         <v>43349</v>
       </c>
       <c r="C110" s="5" t="s">
@@ -5932,7 +6177,7 @@
       <c r="B114" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="C114" s="68" t="s">
+      <c r="C114" s="75" t="s">
         <v>231</v>
       </c>
       <c r="D114" s="5" t="s">
@@ -5949,7 +6194,7 @@
       <c r="A115" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B115" s="62">
+      <c r="B115" s="69">
         <v>43349</v>
       </c>
       <c r="C115" s="5" t="s">
@@ -5969,7 +6214,7 @@
       <c r="A116" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B116" s="62">
+      <c r="B116" s="69">
         <v>43349</v>
       </c>
       <c r="C116" s="5" t="s">
@@ -5989,7 +6234,7 @@
       <c r="A117" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B117" s="62">
+      <c r="B117" s="69">
         <v>43349</v>
       </c>
       <c r="C117" s="5" t="s">
@@ -6007,7 +6252,7 @@
       <c r="A118" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B118" s="62">
+      <c r="B118" s="69">
         <v>43349</v>
       </c>
       <c r="C118" s="5" t="s">
@@ -6049,17 +6294,17 @@
     </row>
     <row r="123" ht="22.95" customHeight="1"/>
     <row r="126" spans="2:2">
-      <c r="B126" s="69"/>
+      <c r="B126" s="76"/>
     </row>
     <row r="127" ht="9" customHeight="1" spans="2:2">
-      <c r="B127" s="69"/>
-    </row>
-    <row r="128" s="32" customFormat="1"/>
+      <c r="B127" s="76"/>
+    </row>
+    <row r="128" s="39" customFormat="1"/>
     <row r="129" ht="61.2" spans="1:6">
       <c r="A129" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B129" s="62">
+      <c r="B129" s="69">
         <v>43350</v>
       </c>
       <c r="C129" s="5" t="s">
@@ -6082,7 +6327,7 @@
       <c r="B130" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="C130" s="70" t="s">
+      <c r="C130" s="77" t="s">
         <v>253</v>
       </c>
       <c r="D130" s="5" t="s">
@@ -6099,10 +6344,10 @@
       <c r="A131" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B131" s="62">
+      <c r="B131" s="69">
         <v>43350</v>
       </c>
-      <c r="C131" s="70" t="s">
+      <c r="C131" s="77" t="s">
         <v>257</v>
       </c>
       <c r="D131" s="5" t="s">
@@ -6142,7 +6387,7 @@
       <c r="B133" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="C133" s="70" t="s">
+      <c r="C133" s="77" t="s">
         <v>265</v>
       </c>
       <c r="D133" s="5" t="s">
@@ -6159,7 +6404,7 @@
       <c r="A134" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B134" s="64" t="s">
+      <c r="B134" s="71" t="s">
         <v>268</v>
       </c>
       <c r="C134" s="5" t="s">
@@ -6182,7 +6427,7 @@
       <c r="B135" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="C135" s="70" t="s">
+      <c r="C135" s="77" t="s">
         <v>253</v>
       </c>
       <c r="D135" s="5" t="s">
@@ -6199,7 +6444,7 @@
       <c r="A136" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B136" s="62">
+      <c r="B136" s="69">
         <v>43350</v>
       </c>
       <c r="C136" s="5" t="s">
@@ -6219,7 +6464,7 @@
       <c r="A137" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B137" s="62">
+      <c r="B137" s="69">
         <v>43350</v>
       </c>
       <c r="C137" s="5" t="s">
@@ -6239,7 +6484,7 @@
       <c r="A138" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B138" s="62">
+      <c r="B138" s="69">
         <v>43350</v>
       </c>
       <c r="C138" s="5" t="s">
@@ -6256,7 +6501,7 @@
       </c>
     </row>
     <row r="139" ht="13.05" customHeight="1" spans="2:2">
-      <c r="B139" s="69"/>
+      <c r="B139" s="76"/>
     </row>
     <row r="140" ht="28.05" customHeight="1"/>
     <row r="143" ht="22.05" customHeight="1"/>
@@ -6264,22 +6509,22 @@
     <row r="145" ht="22.05" customHeight="1"/>
     <row r="146" ht="22.05" customHeight="1"/>
     <row r="147" ht="21" customHeight="1"/>
-    <row r="148" s="32" customFormat="1"/>
+    <row r="148" s="39" customFormat="1"/>
     <row r="149" ht="22.95" customHeight="1"/>
     <row r="150" spans="2:2">
-      <c r="B150" s="71"/>
+      <c r="B150" s="78"/>
     </row>
     <row r="151" spans="2:2">
-      <c r="B151" s="71"/>
+      <c r="B151" s="78"/>
     </row>
     <row r="152" spans="2:2">
-      <c r="B152" s="71"/>
+      <c r="B152" s="78"/>
     </row>
     <row r="153" spans="2:2">
-      <c r="B153" s="71"/>
+      <c r="B153" s="78"/>
     </row>
     <row r="154" spans="4:4">
-      <c r="D154" s="72"/>
+      <c r="D154" s="79"/>
     </row>
     <row r="155" ht="24" customHeight="1"/>
     <row r="156" ht="22.95" customHeight="1"/>
@@ -6289,51 +6534,51 @@
     <row r="161" ht="24" customHeight="1"/>
     <row r="163" ht="28.95" customHeight="1"/>
     <row r="164" ht="25.95" customHeight="1" spans="2:2">
-      <c r="B164" s="71"/>
-    </row>
-    <row r="165" s="32" customFormat="1"/>
+      <c r="B164" s="78"/>
+    </row>
+    <row r="165" s="39" customFormat="1"/>
     <row r="166" ht="25.95" customHeight="1" spans="4:4">
-      <c r="D166" s="73"/>
+      <c r="D166" s="80"/>
     </row>
     <row r="168" ht="27" customHeight="1"/>
     <row r="169" ht="13.05" customHeight="1" spans="2:2">
-      <c r="B169" s="71"/>
+      <c r="B169" s="78"/>
     </row>
     <row r="170" ht="13.05" customHeight="1" spans="2:2">
-      <c r="B170" s="71"/>
+      <c r="B170" s="78"/>
     </row>
     <row r="171" spans="2:2">
-      <c r="B171" s="71"/>
+      <c r="B171" s="78"/>
     </row>
     <row r="172" ht="12" customHeight="1" spans="2:2">
-      <c r="B172" s="71"/>
+      <c r="B172" s="78"/>
     </row>
     <row r="173" ht="34.05" customHeight="1"/>
     <row r="175" ht="31.05" customHeight="1"/>
-    <row r="177" s="32" customFormat="1"/>
+    <row r="177" s="39" customFormat="1"/>
     <row r="178" spans="2:2">
-      <c r="B178" s="71"/>
+      <c r="B178" s="78"/>
     </row>
     <row r="179" spans="2:2">
-      <c r="B179" s="71"/>
+      <c r="B179" s="78"/>
     </row>
     <row r="180" spans="2:2">
-      <c r="B180" s="69"/>
+      <c r="B180" s="76"/>
     </row>
     <row r="181" spans="2:2">
-      <c r="B181" s="69"/>
+      <c r="B181" s="76"/>
     </row>
     <row r="182" spans="2:2">
-      <c r="B182" s="69"/>
+      <c r="B182" s="76"/>
     </row>
     <row r="183" spans="2:2">
-      <c r="B183" s="69"/>
+      <c r="B183" s="76"/>
     </row>
     <row r="184" spans="2:2">
-      <c r="B184" s="69"/>
+      <c r="B184" s="76"/>
     </row>
     <row r="185" spans="2:2">
-      <c r="B185" s="69"/>
+      <c r="B185" s="76"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6434,7 +6679,7 @@
       <c r="D4" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="21" t="s">
         <v>297</v>
       </c>
       <c r="F4" s="5" t="s">
@@ -6445,7 +6690,7 @@
       <c r="A5" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="22">
         <v>43341</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -6491,7 +6736,7 @@
       <c r="C7" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="23" t="s">
         <v>312</v>
       </c>
       <c r="E7" s="5" t="s">
@@ -6505,7 +6750,7 @@
       <c r="A8" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="B8" s="17">
+      <c r="B8" s="24">
         <v>43341</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -6545,19 +6790,19 @@
       <c r="A10" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="B10" s="18">
+      <c r="B10" s="25">
         <v>43341</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="26" t="s">
         <v>327</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="E10" s="27" t="s">
         <v>328</v>
       </c>
-      <c r="F10" s="20" t="s">
+      <c r="F10" s="27" t="s">
         <v>329</v>
       </c>
     </row>
@@ -6577,7 +6822,7 @@
       <c r="E11" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="F11" s="21" t="s">
+      <c r="F11" s="28" t="s">
         <v>334</v>
       </c>
     </row>
@@ -6600,7 +6845,7 @@
     <row r="14" ht="20.4" spans="1:6">
       <c r="A14" s="12"/>
       <c r="B14" s="4"/>
-      <c r="C14" s="20"/>
+      <c r="C14" s="27"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -6655,7 +6900,7 @@
       <c r="A19" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="B19" s="15">
+      <c r="B19" s="22">
         <v>43343</v>
       </c>
       <c r="C19" s="5" t="s">
@@ -6727,7 +6972,7 @@
       <c r="E22" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="F22" s="14" t="s">
+      <c r="F22" s="21" t="s">
         <v>356</v>
       </c>
     </row>
@@ -6755,7 +7000,7 @@
       <c r="A24" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="B24" s="22">
+      <c r="B24" s="29">
         <v>43343</v>
       </c>
       <c r="C24" s="3" t="s">
@@ -6775,7 +7020,7 @@
       <c r="A25" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="B25" s="23">
+      <c r="B25" s="30">
         <v>43343</v>
       </c>
       <c r="C25" s="3" t="s">
@@ -6795,16 +7040,16 @@
       <c r="A26" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="B26" s="22">
+      <c r="B26" s="29">
         <v>43343</v>
       </c>
-      <c r="C26" s="24" t="s">
+      <c r="C26" s="31" t="s">
         <v>369</v>
       </c>
-      <c r="D26" s="24" t="s">
+      <c r="D26" s="31" t="s">
         <v>370</v>
       </c>
-      <c r="E26" s="24" t="s">
+      <c r="E26" s="31" t="s">
         <v>371</v>
       </c>
       <c r="F26" s="5" t="s">
@@ -6840,52 +7085,52 @@
       <c r="F28" s="2"/>
     </row>
     <row r="29" ht="20.4" spans="1:6">
-      <c r="A29" s="25"/>
+      <c r="A29" s="32"/>
       <c r="B29" s="2"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="25"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="32"/>
     </row>
     <row r="30" ht="20.4" spans="1:6">
-      <c r="A30" s="25"/>
+      <c r="A30" s="32"/>
       <c r="B30" s="2"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="25"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="32"/>
     </row>
     <row r="31" ht="20.4" spans="1:6">
-      <c r="A31" s="25"/>
+      <c r="A31" s="32"/>
       <c r="B31" s="2"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="25"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="32"/>
     </row>
     <row r="32" ht="20.4" spans="1:6">
-      <c r="A32" s="25"/>
+      <c r="A32" s="32"/>
       <c r="B32" s="2"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="34"/>
     </row>
     <row r="33" ht="20.4" spans="1:6">
-      <c r="A33" s="25"/>
+      <c r="A33" s="32"/>
       <c r="B33" s="2"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="25"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="32"/>
     </row>
     <row r="34" ht="20.4" spans="1:6">
-      <c r="A34" s="25"/>
+      <c r="A34" s="32"/>
       <c r="B34" s="2"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="32"/>
     </row>
     <row r="35" ht="20.4" spans="1:6">
       <c r="A35" s="11" t="s">
@@ -6921,7 +7166,7 @@
       <c r="A37" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="B37" s="15">
+      <c r="B37" s="22">
         <v>43346</v>
       </c>
       <c r="C37" s="5" t="s">
@@ -7021,7 +7266,7 @@
       <c r="A42" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="B42" s="23">
+      <c r="B42" s="30">
         <v>43346</v>
       </c>
       <c r="C42" s="3" t="s">
@@ -7041,7 +7286,7 @@
       <c r="A43" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="B43" s="22">
+      <c r="B43" s="29">
         <v>43346</v>
       </c>
       <c r="C43" s="3" t="s">
@@ -7081,7 +7326,7 @@
       <c r="A45" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="B45" s="22">
+      <c r="B45" s="29">
         <v>43346</v>
       </c>
       <c r="C45" s="3" t="s">
@@ -7100,7 +7345,7 @@
     <row r="46" ht="20.4" spans="1:6">
       <c r="A46" s="6"/>
       <c r="B46" s="3"/>
-      <c r="C46" s="19"/>
+      <c r="C46" s="26"/>
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
@@ -7207,7 +7452,7 @@
       <c r="A56" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="B56" s="15">
+      <c r="B56" s="22">
         <v>43347</v>
       </c>
       <c r="C56" s="5" t="s">
@@ -7247,7 +7492,7 @@
       <c r="A58" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="B58" s="23">
+      <c r="B58" s="30">
         <v>43347</v>
       </c>
       <c r="C58" s="3" t="s">
@@ -7285,7 +7530,7 @@
       <c r="A60" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="B60" s="22">
+      <c r="B60" s="29">
         <v>43347</v>
       </c>
       <c r="C60" s="3" t="s">
@@ -7305,19 +7550,19 @@
       <c r="A61" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="B61" s="22">
+      <c r="B61" s="29">
         <v>43347</v>
       </c>
-      <c r="C61" s="24" t="s">
+      <c r="C61" s="31" t="s">
         <v>447</v>
       </c>
-      <c r="D61" s="24" t="s">
+      <c r="D61" s="31" t="s">
         <v>448</v>
       </c>
-      <c r="E61" s="24" t="s">
+      <c r="E61" s="31" t="s">
         <v>449</v>
       </c>
-      <c r="F61" s="24" t="s">
+      <c r="F61" s="31" t="s">
         <v>450</v>
       </c>
     </row>
@@ -7325,7 +7570,7 @@
       <c r="A62" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="B62" s="23">
+      <c r="B62" s="30">
         <v>43347</v>
       </c>
       <c r="C62" s="3" t="s">
@@ -7334,7 +7579,7 @@
       <c r="D62" s="5" t="s">
         <v>452</v>
       </c>
-      <c r="E62" s="21" t="s">
+      <c r="E62" s="28" t="s">
         <v>453</v>
       </c>
       <c r="F62" s="3" t="s">
@@ -7580,10 +7825,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K153"/>
+  <dimension ref="A1:K166"/>
   <sheetViews>
-    <sheetView topLeftCell="A148" workbookViewId="0">
-      <selection activeCell="A154" sqref="A154"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="F165" sqref="F165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -9749,6 +9994,244 @@
       <c r="F153" s="13" t="s">
         <v>774</v>
       </c>
+    </row>
+    <row r="154" ht="20.4" spans="1:6">
+      <c r="A154" s="11" t="s">
+        <v>775</v>
+      </c>
+      <c r="B154" s="11"/>
+      <c r="C154" s="11"/>
+      <c r="D154" s="11"/>
+      <c r="E154" s="11"/>
+      <c r="F154" s="11"/>
+    </row>
+    <row r="155" ht="20.4" spans="1:6">
+      <c r="A155" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F155" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="156" ht="122.4" spans="1:6">
+      <c r="A156" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="B156" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="C156" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="D156" s="5" t="s">
+        <v>777</v>
+      </c>
+      <c r="E156" s="5" t="s">
+        <v>778</v>
+      </c>
+      <c r="F156" s="5" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="157" ht="81.6" spans="1:6">
+      <c r="A157" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="B157" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="C157" s="5" t="s">
+        <v>780</v>
+      </c>
+      <c r="D157" s="5" t="s">
+        <v>781</v>
+      </c>
+      <c r="E157" s="5" t="s">
+        <v>782</v>
+      </c>
+      <c r="F157" s="5" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="158" ht="31.2" spans="1:6">
+      <c r="A158" s="14" t="s">
+        <v>584</v>
+      </c>
+      <c r="B158" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="C158" s="15" t="s">
+        <v>784</v>
+      </c>
+      <c r="D158" s="15" t="s">
+        <v>785</v>
+      </c>
+      <c r="E158" s="15" t="s">
+        <v>786</v>
+      </c>
+      <c r="F158" s="15" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="159" ht="81.6" spans="1:6">
+      <c r="A159" s="5" t="s">
+        <v>562</v>
+      </c>
+      <c r="B159" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="C159" s="16" t="s">
+        <v>787</v>
+      </c>
+      <c r="D159" s="5" t="s">
+        <v>788</v>
+      </c>
+      <c r="E159" s="5" t="s">
+        <v>789</v>
+      </c>
+      <c r="F159" s="5" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="160" ht="163.2" spans="1:6">
+      <c r="A160" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="B160" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="C160" s="5" t="s">
+        <v>791</v>
+      </c>
+      <c r="D160" s="5" t="s">
+        <v>792</v>
+      </c>
+      <c r="E160" s="5" t="s">
+        <v>793</v>
+      </c>
+      <c r="F160" s="5" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="161" ht="409.5" spans="1:6">
+      <c r="A161" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>795</v>
+      </c>
+      <c r="D161" s="5" t="s">
+        <v>796</v>
+      </c>
+      <c r="E161" s="5" t="s">
+        <v>797</v>
+      </c>
+      <c r="F161" s="5" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="162" ht="102" spans="1:6">
+      <c r="A162" s="17" t="s">
+        <v>521</v>
+      </c>
+      <c r="B162" s="18" t="s">
+        <v>268</v>
+      </c>
+      <c r="C162" s="5" t="s">
+        <v>799</v>
+      </c>
+      <c r="D162" s="5" t="s">
+        <v>800</v>
+      </c>
+      <c r="E162" s="5" t="s">
+        <v>801</v>
+      </c>
+      <c r="F162" s="5" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="163" ht="409.5" spans="1:6">
+      <c r="A163" s="17" t="s">
+        <v>516</v>
+      </c>
+      <c r="B163" s="18" t="s">
+        <v>803</v>
+      </c>
+      <c r="C163" s="19" t="s">
+        <v>804</v>
+      </c>
+      <c r="D163" s="20" t="s">
+        <v>805</v>
+      </c>
+      <c r="E163" s="20" t="s">
+        <v>806</v>
+      </c>
+      <c r="F163" s="20" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="164" ht="81.6" spans="1:6">
+      <c r="A164" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="B164" s="20" t="s">
+        <v>808</v>
+      </c>
+      <c r="C164" s="20" t="s">
+        <v>809</v>
+      </c>
+      <c r="D164" s="20" t="s">
+        <v>810</v>
+      </c>
+      <c r="E164" s="20" t="s">
+        <v>811</v>
+      </c>
+      <c r="F164" s="20" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="165" ht="81.6" spans="1:6">
+      <c r="A165" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="B165" s="20" t="s">
+        <v>268</v>
+      </c>
+      <c r="C165" s="20" t="s">
+        <v>813</v>
+      </c>
+      <c r="D165" s="20" t="s">
+        <v>814</v>
+      </c>
+      <c r="E165" s="20" t="s">
+        <v>815</v>
+      </c>
+      <c r="F165" s="20" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="166" ht="20.4" spans="1:6">
+      <c r="A166" s="2"/>
+      <c r="B166" s="20"/>
+      <c r="C166" s="20"/>
+      <c r="D166" s="20"/>
+      <c r="E166" s="20"/>
+      <c r="F166" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="84">

--- a/1601W.xlsx
+++ b/1601W.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="9515" activeTab="2"/>
+    <workbookView windowWidth="22943" windowHeight="9924"/>
   </bookViews>
   <sheets>
     <sheet name="第一小组" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943">
   <si>
     <t>姓名</t>
   </si>
@@ -963,6 +963,9 @@
     <t>加深学习nltk</t>
   </si>
   <si>
+    <t>2018.09.07</t>
+  </si>
+  <si>
     <t>1.wikidata数据爬取
 2.TF-IDF，网格搜索和交叉验证等知识点学习</t>
   </si>
@@ -1014,9 +1017,6 @@
     <t>研究模块间的关系</t>
   </si>
   <si>
-    <t>2018.09.07</t>
-  </si>
-  <si>
     <t xml:space="preserve">学习TF-IDF </t>
   </si>
   <si>
@@ -1060,6 +1060,507 @@
   </si>
   <si>
     <t>把爬虫爬明白，尽量全部保存</t>
+  </si>
+  <si>
+    <t xml:space="preserve">爬虫方面练习了一部分，还是又不熟悉的
+东西
+制作了停用词文档，研究了用停用词的方法逆向生成关系  </t>
+  </si>
+  <si>
+    <t>爬虫的时候有报错还是找到了</t>
+  </si>
+  <si>
+    <t>爬虫还不熟练，需要继续加强</t>
+  </si>
+  <si>
+    <t>跟着讲师项目进行，上周没有完成的项目继续跟进</t>
+  </si>
+  <si>
+    <t>2018.9.10</t>
+  </si>
+  <si>
+    <t>练习爬虫方面的内容</t>
+  </si>
+  <si>
+    <t>解决了在爬虫时候报错的部分问题</t>
+  </si>
+  <si>
+    <t>界面的格式还不清楚</t>
+  </si>
+  <si>
+    <t>连接数据库</t>
+  </si>
+  <si>
+    <t>了解nltk处理文本的过程。
+熟悉nltk的各种功能。</t>
+  </si>
+  <si>
+    <t>已经熟练掌握这些功能</t>
+  </si>
+  <si>
+    <t>没有问题</t>
+  </si>
+  <si>
+    <t>了解work2vet</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2018.9.10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>晚9点01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>分</t>
+    </r>
+  </si>
+  <si>
+    <t>1.制作了停用词文档，研究了用停用词的方法逆向生成关系                      2.学习并整理了自然语言处理的知识：NLTK用于英文分词，jieba用于中文分词，文本预处理流水等</t>
+  </si>
+  <si>
+    <t>还未将停用词查找关系的方法通过循环写入项目中</t>
+  </si>
+  <si>
+    <t>研究出项目中类间的关系构建</t>
+  </si>
+  <si>
+    <t>2018.09.10</t>
+  </si>
+  <si>
+    <t>学习nltk</t>
+  </si>
+  <si>
+    <t>对nltk有了新的理解</t>
+  </si>
+  <si>
+    <t>不熟练</t>
+  </si>
+  <si>
+    <t>继续nltk</t>
+  </si>
+  <si>
+    <t>1.NLTK英文分词
+2.聊天机器人基础理论学习</t>
+  </si>
+  <si>
+    <t>掌握了关于自然语言处理的流程，及相关库的知识</t>
+  </si>
+  <si>
+    <t>暂无问题</t>
+  </si>
+  <si>
+    <t>1.聊天机器人项目学习
+2.继续上一周未完成项目django部分</t>
+  </si>
+  <si>
+    <t>整理scrapy数据，了解自然语言处理</t>
+  </si>
+  <si>
+    <t>知识图谱项目有待加强</t>
+  </si>
+  <si>
+    <t>不知道如何建立关系</t>
+  </si>
+  <si>
+    <t>继续知识图谱</t>
+  </si>
+  <si>
+    <t>初步了解自然语言处理</t>
+  </si>
+  <si>
+    <t>自然语言处理</t>
+  </si>
+  <si>
+    <t>理解不深</t>
+  </si>
+  <si>
+    <t>1：熟悉nltk2:启动农业知识图谱项目</t>
+  </si>
+  <si>
+    <t xml:space="preserve">启动知识图谱报错。解决办法：降低py2neo版本为3.1 </t>
+  </si>
+  <si>
+    <t>python环境报编码异常</t>
+  </si>
+  <si>
+    <t>继续完成未完成的项目，跟随讲课的步伐。</t>
+  </si>
+  <si>
+    <t>学习RNN，初步学习机器人聊天项目</t>
+  </si>
+  <si>
+    <t>一步一步的学好</t>
+  </si>
+  <si>
+    <t>运行了一下机器学习时间很长</t>
+  </si>
+  <si>
+    <t>练习机器学习，看懂人机对话</t>
+  </si>
+  <si>
+    <t>学习自然语言基础</t>
+  </si>
+  <si>
+    <t>寻寻渐进</t>
+  </si>
+  <si>
+    <t>时间紧，任务重</t>
+  </si>
+  <si>
+    <t>坚定目标</t>
+  </si>
+  <si>
+    <t>2018.9.11</t>
+  </si>
+  <si>
+    <t>练习人机对话里面的内容</t>
+  </si>
+  <si>
+    <t>复习了在机器学习和深度学习方面的内容</t>
+  </si>
+  <si>
+    <t>人机对话的系统和结构还不是很清楚，代码没看明白</t>
+  </si>
+  <si>
+    <t>把爬虫的东西总结一下，然后开展人机对话的内容</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2018.9.11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>晚9点22</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>分</t>
+    </r>
+  </si>
+  <si>
+    <t>1.配合老师完成了自己信息的录入        2.学习了情感机器人的项目，总结了笔记</t>
+  </si>
+  <si>
+    <t>基本框架学习</t>
+  </si>
+  <si>
+    <t>学习仍需要深入</t>
+  </si>
+  <si>
+    <t>继续学习情感机器人项目</t>
+  </si>
+  <si>
+    <t>1：熟悉机器人聊天项目2：rnn</t>
+  </si>
+  <si>
+    <t>开始学习RNN</t>
+  </si>
+  <si>
+    <t>运行聊天机器人花费时间较长，有空继续运行。</t>
+  </si>
+  <si>
+    <t>继续学习RNN。分析聊天机器人项目</t>
+  </si>
+  <si>
+    <t>2018.09.11</t>
+  </si>
+  <si>
+    <t>学习人机对话项目</t>
+  </si>
+  <si>
+    <t>对人机对话有所了解</t>
+  </si>
+  <si>
+    <t>继续理解项目</t>
+  </si>
+  <si>
+    <t>熟悉聊天机器人项目的流程</t>
+  </si>
+  <si>
+    <t>局部熟练的流程
+部分模块不熟悉</t>
+  </si>
+  <si>
+    <t>部分模块不太熟悉</t>
+  </si>
+  <si>
+    <t>继续看一些聊天机器人项目</t>
+  </si>
+  <si>
+    <t>1.聊天机器人项目梳理
+2.运行聊天机器人项目</t>
+  </si>
+  <si>
+    <t>聊天机器人项目运行成功</t>
+  </si>
+  <si>
+    <t>根据项目需求对项目进行修改</t>
+  </si>
+  <si>
+    <t>机器人对话</t>
+  </si>
+  <si>
+    <t>一点也不懂</t>
+  </si>
+  <si>
+    <t>2018.9.12</t>
+  </si>
+  <si>
+    <t>1.讲了关于人机对话的内容，并且项目当中自己添加语料库然后训练模型。2.练习Django的内容，试图联系后台数据库。</t>
+  </si>
+  <si>
+    <t>语料库可以添加，但是训练速度很慢，并且结果很不好，在进行人机对话时，效果不好。不管添加了什么语料，机器人的回答几乎一样。</t>
+  </si>
+  <si>
+    <t>前后台的数据连接还不会</t>
+  </si>
+  <si>
+    <t>完成前后台的数据连接，把后台数据完全表现出来</t>
+  </si>
+  <si>
+    <t>2018.09.12</t>
+  </si>
+  <si>
+    <t>对处理数据理解</t>
+  </si>
+  <si>
+    <t>execute不清楚</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2018.9.12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>晚9点15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>分</t>
+    </r>
+  </si>
+  <si>
+    <t>1.完成了一部分植物病害和植物关系的构建。                                        2.运行了情感机器人项目，正在进行语料库的优化。</t>
+  </si>
+  <si>
+    <t>语料库优化未完成</t>
+  </si>
+  <si>
+    <t>继续学习和研究情感机器人项目</t>
+  </si>
+  <si>
+    <t>机器人项目不是很熟悉，有待加强  学习了协同过滤</t>
+  </si>
+  <si>
+    <t>机器人项目学习不太清楚  继续加强</t>
+  </si>
+  <si>
+    <t>运行聊天机器人花费时间较长，有时间继续加强运行</t>
+  </si>
+  <si>
+    <t>知识图谱项目继续加强，各人能力有待提高</t>
+  </si>
+  <si>
+    <t>学习了协同过滤算法，学习了机器人项目</t>
+  </si>
+  <si>
+    <t>协同过滤算法明确，机器人有待加强</t>
+  </si>
+  <si>
+    <t>总体思路有待加强</t>
+  </si>
+  <si>
+    <t>搞懂机器人项目，学习RNN</t>
+  </si>
+  <si>
+    <t>操作聊天机器人项目的流程</t>
+  </si>
+  <si>
+    <t>分词、情感分析、磁性标注</t>
+  </si>
+  <si>
+    <t>分析不熟悉</t>
+  </si>
+  <si>
+    <t>项目勉强运行</t>
+  </si>
+  <si>
+    <t>1：逐一分析聊天机器模块2：启动项目3：熟悉循环神经网络的理论</t>
+  </si>
+  <si>
+    <t>观看了一部分聊起天及其人的代码</t>
+  </si>
+  <si>
+    <t>思路及基本知识不足</t>
+  </si>
+  <si>
+    <t>继续农业知识图谱的工作</t>
+  </si>
+  <si>
+    <t>聊天机器人</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2018.9.13</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>晚9点30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>分</t>
+    </r>
+  </si>
+  <si>
+    <t>1.完成了植物病害和植物关系的构建（全部！！！）。                                        2.学习了情感分析项目，正在深入研究。</t>
+  </si>
+  <si>
+    <t>基本模块学习，终于完成关系了（泪流满面）</t>
+  </si>
+  <si>
+    <t>情感分析项目进度较慢</t>
+  </si>
+  <si>
+    <t>继续学习和研究情感分析项目</t>
+  </si>
+  <si>
+    <t>情感分析小项目</t>
+  </si>
+  <si>
+    <t>对文本进行情感分析</t>
+  </si>
+  <si>
+    <t>模型选择不会</t>
+  </si>
+  <si>
+    <t>有待加强</t>
+  </si>
+  <si>
+    <t>初步 了解情感分析项目，</t>
+  </si>
+  <si>
+    <t>2018.9.13</t>
+  </si>
+  <si>
+    <t>1.练习了关于聊天机器人的项目</t>
+  </si>
+  <si>
+    <t>项目可以具体跑通</t>
+  </si>
+  <si>
+    <t>效果很差，在输入文字少的时候没有效果</t>
+  </si>
+  <si>
+    <t>把web方面的知识练习好，界面处理</t>
+  </si>
+  <si>
+    <t>1.熟悉情感分析2.循环神经网络，</t>
+  </si>
+  <si>
+    <t>循环神经网络门控单元及长短期记忆</t>
+  </si>
+  <si>
+    <t>有些概念较难理解</t>
+  </si>
+  <si>
+    <t>继续农业知识图谱的工作，配合项目组的工作</t>
+  </si>
+  <si>
+    <t>学习机器人项目，初步了解</t>
+  </si>
+  <si>
+    <t>不是完全了解 有待加强</t>
+  </si>
+  <si>
+    <t xml:space="preserve">机器人运行时间很长 </t>
+  </si>
+  <si>
+    <t>努力搞懂知识图谱项目，完成讲师布置的任务</t>
+  </si>
+  <si>
+    <t>2018.09.13</t>
+  </si>
+  <si>
+    <t>模型建立有问题</t>
   </si>
   <si>
     <t>刘丹清</t>
@@ -3207,12 +3708,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3254,25 +3755,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="14"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -3299,13 +3781,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -3322,14 +3797,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -3344,46 +3826,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3399,7 +3842,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3431,6 +3890,29 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3469,43 +3951,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3517,97 +3987,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3625,7 +4017,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3637,7 +4071,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3656,15 +4138,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3699,21 +4172,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -3731,11 +4189,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3748,6 +4204,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3756,149 +4238,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="29" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3950,18 +4432,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3995,135 +4465,132 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -4133,14 +4600,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="58" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -4254,7 +4727,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -4533,12 +5006,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:S185"/>
+  <dimension ref="A1:S195"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A133" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A208" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C131" sqref="C131"/>
+      <selection pane="bottomLeft" activeCell="C174" sqref="C174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.4"/>
@@ -4552,23 +5025,23 @@
     <col min="7" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="37" customFormat="1" spans="1:6">
-      <c r="A1" s="40" t="s">
+    <row r="1" s="32" customFormat="1" spans="1:6">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="E1" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="F1" s="35" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4593,671 +5066,671 @@
       </c>
     </row>
     <row r="3" ht="94.05" customHeight="1" spans="1:6">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="41" t="s">
+      <c r="D3" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="41" t="s">
+      <c r="E3" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="41" t="s">
+      <c r="F3" s="36" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" ht="40.8" spans="1:6">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="42">
+      <c r="B4" s="37">
         <v>43341</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="41" t="s">
+      <c r="D4" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="41" t="s">
+      <c r="E4" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="43" t="s">
+      <c r="F4" s="38" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" ht="40.8" spans="1:6">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="43" t="s">
+      <c r="C5" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="41" t="s">
+      <c r="D5" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="43" t="s">
+      <c r="E5" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="41" t="s">
+      <c r="F5" s="36" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="6" ht="244.8" spans="1:6">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="43" t="s">
+      <c r="C6" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="43" t="s">
+      <c r="D6" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="41" t="s">
+      <c r="E6" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="43" t="s">
+      <c r="F6" s="38" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="7" ht="81" customHeight="1" spans="1:6">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="44" t="s">
+      <c r="C7" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="41" t="s">
+      <c r="D7" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="44" t="s">
+      <c r="E7" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="44" t="s">
+      <c r="F7" s="39" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="8" ht="81.6" spans="1:6">
-      <c r="A8" s="41" t="s">
+      <c r="A8" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="42">
+      <c r="B8" s="37">
         <v>43341</v>
       </c>
-      <c r="C8" s="43" t="s">
+      <c r="C8" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="43" t="s">
+      <c r="D8" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="43" t="s">
+      <c r="E8" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="41" t="s">
+      <c r="F8" s="36" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="9" ht="94.95" customHeight="1" spans="1:6">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="43" t="s">
+      <c r="C9" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="41" t="s">
+      <c r="D9" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="E9" s="41" t="s">
+      <c r="E9" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="F9" s="43" t="s">
+      <c r="F9" s="38" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="42">
+      <c r="B10" s="37">
         <v>43341</v>
       </c>
-      <c r="C10" s="41" t="s">
+      <c r="C10" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="D10" s="41" t="s">
+      <c r="D10" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="E10" s="41" t="s">
+      <c r="E10" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="F10" s="41" t="s">
+      <c r="F10" s="36" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="11" ht="204" spans="1:6">
-      <c r="A11" s="43" t="s">
+      <c r="A11" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="B11" s="45">
+      <c r="B11" s="40">
         <v>43341</v>
       </c>
-      <c r="C11" s="43" t="s">
+      <c r="C11" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="D11" s="43" t="s">
+      <c r="D11" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="E11" s="43" t="s">
+      <c r="E11" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="F11" s="43" t="s">
+      <c r="F11" s="38" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="46"/>
-      <c r="B12" s="46"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
+      <c r="A12" s="41"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="47"/>
-      <c r="B13" s="46"/>
-      <c r="C13" s="47"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="46"/>
+      <c r="A13" s="42"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="47"/>
-      <c r="B14" s="46"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
+      <c r="A14" s="42"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="47"/>
-      <c r="B15" s="46"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
+      <c r="A15" s="42"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="47"/>
-      <c r="B16" s="46"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
+      <c r="A16" s="42"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
     </row>
     <row r="17" ht="57" customHeight="1" spans="1:6">
-      <c r="A17" s="47"/>
-      <c r="B17" s="46"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="46"/>
+      <c r="A17" s="42"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="46"/>
-      <c r="B18" s="46"/>
-      <c r="C18" s="46"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="46"/>
+      <c r="A18" s="41"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="46"/>
-      <c r="B19" s="46"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="46"/>
-    </row>
-    <row r="20" s="38" customFormat="1" spans="1:6">
-      <c r="A20" s="48" t="s">
+      <c r="A19" s="41"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+    </row>
+    <row r="20" s="33" customFormat="1" spans="1:6">
+      <c r="A20" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="B20" s="49"/>
-      <c r="C20" s="49"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="49"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
     </row>
     <row r="21" ht="81.6" spans="1:6">
-      <c r="A21" s="43" t="s">
+      <c r="A21" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="45">
+      <c r="B21" s="40">
         <v>43342</v>
       </c>
-      <c r="C21" s="43" t="s">
+      <c r="C21" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="D21" s="43" t="s">
+      <c r="D21" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="E21" s="43" t="s">
+      <c r="E21" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="F21" s="43" t="s">
+      <c r="F21" s="38" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="22" ht="102" spans="1:6">
-      <c r="A22" s="43" t="s">
+      <c r="A22" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="B22" s="45">
+      <c r="B22" s="40">
         <v>43342</v>
       </c>
-      <c r="C22" s="43" t="s">
+      <c r="C22" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="D22" s="43" t="s">
+      <c r="D22" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="E22" s="43" t="s">
+      <c r="E22" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="F22" s="43" t="s">
+      <c r="F22" s="38" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="23" ht="40.8" spans="1:6">
-      <c r="A23" s="41" t="s">
+      <c r="A23" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="42">
+      <c r="B23" s="37">
         <v>43341</v>
       </c>
-      <c r="C23" s="43" t="s">
+      <c r="C23" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="D23" s="41" t="s">
+      <c r="D23" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="E23" s="41" t="s">
+      <c r="E23" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="F23" s="41" t="s">
+      <c r="F23" s="36" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="24" ht="61.2" spans="1:6">
-      <c r="A24" s="41" t="s">
+      <c r="A24" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="41" t="s">
+      <c r="B24" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="C24" s="43" t="s">
+      <c r="C24" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="D24" s="50" t="s">
+      <c r="D24" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="E24" s="43" t="s">
+      <c r="E24" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="F24" s="41" t="s">
+      <c r="F24" s="36" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="25" ht="102" spans="1:6">
-      <c r="A25" s="41" t="s">
+      <c r="A25" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="41" t="s">
+      <c r="B25" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="C25" s="43" t="s">
+      <c r="C25" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="D25" s="43" t="s">
+      <c r="D25" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="E25" s="41" t="s">
+      <c r="E25" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="F25" s="43" t="s">
+      <c r="F25" s="38" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="26" ht="81.6" spans="1:6">
-      <c r="A26" s="41" t="s">
+      <c r="A26" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="B26" s="42">
+      <c r="B26" s="37">
         <v>43342</v>
       </c>
-      <c r="C26" s="41" t="s">
+      <c r="C26" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="D26" s="41" t="s">
+      <c r="D26" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="E26" s="43" t="s">
+      <c r="E26" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="F26" s="41" t="s">
+      <c r="F26" s="36" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="27" ht="40.8" spans="1:7">
-      <c r="A27" s="41" t="s">
+      <c r="A27" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="B27" s="42" t="s">
+      <c r="B27" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="C27" s="41" t="s">
+      <c r="C27" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="D27" s="41" t="s">
+      <c r="D27" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="E27" s="43" t="s">
+      <c r="E27" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="F27" s="41" t="s">
+      <c r="F27" s="36" t="s">
         <v>88</v>
       </c>
       <c r="G27"/>
     </row>
     <row r="28" ht="55.05" customHeight="1" spans="1:6">
-      <c r="A28" s="41" t="s">
+      <c r="A28" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="B28" s="41" t="s">
+      <c r="B28" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="C28" s="43" t="s">
+      <c r="C28" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="D28" s="41" t="s">
+      <c r="D28" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="E28" s="41" t="s">
+      <c r="E28" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="F28" s="41" t="s">
+      <c r="F28" s="36" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="29" ht="142.8" spans="1:6">
-      <c r="A29" s="41" t="s">
+      <c r="A29" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="43" t="s">
+      <c r="B29" s="38" t="s">
         <v>94</v>
       </c>
-      <c r="C29" s="44" t="s">
+      <c r="C29" s="39" t="s">
         <v>95</v>
       </c>
-      <c r="D29" s="41" t="s">
+      <c r="D29" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="E29" s="44" t="s">
+      <c r="E29" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="F29" s="44" t="s">
+      <c r="F29" s="39" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="30" ht="25.95" customHeight="1" spans="1:6">
-      <c r="A30" s="46"/>
-      <c r="B30" s="46"/>
-      <c r="C30" s="46"/>
-      <c r="D30" s="46"/>
-      <c r="E30" s="46"/>
-      <c r="F30" s="46"/>
+      <c r="A30" s="41"/>
+      <c r="B30" s="41"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="41"/>
     </row>
     <row r="31" ht="42" customHeight="1" spans="1:6">
-      <c r="A31" s="46"/>
-      <c r="B31" s="46"/>
-      <c r="C31" s="46"/>
-      <c r="D31" s="46"/>
-      <c r="E31" s="46"/>
-      <c r="F31" s="46"/>
+      <c r="A31" s="41"/>
+      <c r="B31" s="41"/>
+      <c r="C31" s="41"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="41"/>
     </row>
     <row r="32" ht="30" customHeight="1" spans="1:6">
-      <c r="A32" s="51"/>
-      <c r="B32" s="46"/>
-      <c r="C32" s="51"/>
-      <c r="D32" s="51"/>
-      <c r="E32" s="51"/>
-      <c r="F32" s="51"/>
+      <c r="A32" s="46"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="46"/>
     </row>
     <row r="33" ht="22.95" customHeight="1" spans="1:6">
-      <c r="A33" s="51"/>
-      <c r="B33" s="46"/>
-      <c r="C33" s="51"/>
-      <c r="D33" s="51"/>
-      <c r="E33" s="51"/>
-      <c r="F33" s="51"/>
+      <c r="A33" s="46"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="46"/>
+      <c r="E33" s="46"/>
+      <c r="F33" s="46"/>
     </row>
     <row r="34" ht="30" customHeight="1" spans="1:6">
-      <c r="A34" s="51"/>
-      <c r="B34" s="46"/>
-      <c r="C34" s="51"/>
-      <c r="D34" s="51"/>
-      <c r="E34" s="51"/>
-      <c r="F34" s="51"/>
+      <c r="A34" s="46"/>
+      <c r="B34" s="41"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="46"/>
+      <c r="E34" s="46"/>
+      <c r="F34" s="46"/>
     </row>
     <row r="35" ht="24" customHeight="1" spans="1:6">
-      <c r="A35" s="51"/>
-      <c r="B35" s="46"/>
-      <c r="C35" s="52"/>
-      <c r="D35" s="51"/>
-      <c r="E35" s="52"/>
-      <c r="F35" s="52"/>
+      <c r="A35" s="46"/>
+      <c r="B35" s="41"/>
+      <c r="C35" s="47"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="47"/>
+      <c r="F35" s="47"/>
     </row>
     <row r="36" ht="28.95" customHeight="1" spans="1:6">
-      <c r="A36" s="51"/>
-      <c r="B36" s="46"/>
-      <c r="C36" s="52"/>
-      <c r="D36" s="51"/>
-      <c r="E36" s="53"/>
-      <c r="F36" s="51"/>
+      <c r="A36" s="46"/>
+      <c r="B36" s="41"/>
+      <c r="C36" s="47"/>
+      <c r="D36" s="46"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="46"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="51"/>
-      <c r="B37" s="46"/>
-      <c r="C37" s="51"/>
-      <c r="D37" s="51"/>
-      <c r="E37" s="51"/>
-      <c r="F37" s="51"/>
-    </row>
-    <row r="38" s="39" customFormat="1" spans="1:6">
-      <c r="A38" s="48" t="s">
+      <c r="A37" s="46"/>
+      <c r="B37" s="41"/>
+      <c r="C37" s="46"/>
+      <c r="D37" s="46"/>
+      <c r="E37" s="46"/>
+      <c r="F37" s="46"/>
+    </row>
+    <row r="38" s="34" customFormat="1" spans="1:6">
+      <c r="A38" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="B38" s="48"/>
-      <c r="C38" s="48"/>
-      <c r="D38" s="48"/>
-      <c r="E38" s="48"/>
-      <c r="F38" s="48"/>
+      <c r="B38" s="43"/>
+      <c r="C38" s="43"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="43"/>
+      <c r="F38" s="43"/>
     </row>
     <row r="39" ht="40.8" spans="1:6">
-      <c r="A39" s="54" t="s">
+      <c r="A39" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="B39" s="55">
+      <c r="B39" s="50">
         <v>43342</v>
       </c>
-      <c r="C39" s="56" t="s">
+      <c r="C39" s="51" t="s">
         <v>99</v>
       </c>
-      <c r="D39" s="54" t="s">
+      <c r="D39" s="49" t="s">
         <v>100</v>
       </c>
-      <c r="E39" s="54" t="s">
+      <c r="E39" s="49" t="s">
         <v>101</v>
       </c>
-      <c r="F39" s="54" t="s">
+      <c r="F39" s="49" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="40" ht="61.2" spans="1:6">
-      <c r="A40" s="56" t="s">
+      <c r="A40" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="B40" s="57">
+      <c r="B40" s="52">
         <v>43343</v>
       </c>
-      <c r="C40" s="56" t="s">
+      <c r="C40" s="51" t="s">
         <v>103</v>
       </c>
-      <c r="D40" s="56" t="s">
+      <c r="D40" s="51" t="s">
         <v>104</v>
       </c>
-      <c r="E40" s="56" t="s">
+      <c r="E40" s="51" t="s">
         <v>105</v>
       </c>
-      <c r="F40" s="56" t="s">
+      <c r="F40" s="51" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="41" ht="102" spans="1:6">
-      <c r="A41" s="54" t="s">
+      <c r="A41" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="B41" s="54" t="s">
+      <c r="B41" s="49" t="s">
         <v>107</v>
       </c>
-      <c r="C41" s="56" t="s">
+      <c r="C41" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="D41" s="56" t="s">
+      <c r="D41" s="51" t="s">
         <v>109</v>
       </c>
-      <c r="E41" s="54" t="s">
+      <c r="E41" s="49" t="s">
         <v>110</v>
       </c>
-      <c r="F41" s="56" t="s">
+      <c r="F41" s="51" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="42" ht="81.6" spans="1:6">
-      <c r="A42" s="54" t="s">
+      <c r="A42" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="B42" s="55">
+      <c r="B42" s="50">
         <v>43343</v>
       </c>
-      <c r="C42" s="56" t="s">
+      <c r="C42" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="D42" s="56" t="s">
+      <c r="D42" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="E42" s="56" t="s">
+      <c r="E42" s="51" t="s">
         <v>113</v>
       </c>
-      <c r="F42" s="56" t="s">
+      <c r="F42" s="51" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="43" ht="45" customHeight="1" spans="1:6">
-      <c r="A43" s="54" t="s">
+      <c r="A43" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="B43" s="54" t="s">
+      <c r="B43" s="49" t="s">
         <v>89</v>
       </c>
-      <c r="C43" s="56" t="s">
+      <c r="C43" s="51" t="s">
         <v>90</v>
       </c>
-      <c r="D43" s="54" t="s">
+      <c r="D43" s="49" t="s">
         <v>91</v>
       </c>
-      <c r="E43" s="54" t="s">
+      <c r="E43" s="49" t="s">
         <v>92</v>
       </c>
-      <c r="F43" s="54" t="s">
+      <c r="F43" s="49" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="44" ht="28.95" customHeight="1" spans="1:6">
-      <c r="A44" s="54" t="s">
+      <c r="A44" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="B44" s="55">
+      <c r="B44" s="50">
         <v>43342</v>
       </c>
-      <c r="C44" s="54" t="s">
+      <c r="C44" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="D44" s="54" t="s">
+      <c r="D44" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="E44" s="56" t="s">
+      <c r="E44" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="F44" s="54" t="s">
+      <c r="F44" s="49" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="45" ht="49.05" customHeight="1" spans="1:6">
-      <c r="A45" s="54" t="s">
+      <c r="A45" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="B45" s="56" t="s">
+      <c r="B45" s="51" t="s">
         <v>94</v>
       </c>
-      <c r="C45" s="58" t="s">
+      <c r="C45" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="D45" s="54" t="s">
+      <c r="D45" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="E45" s="58" t="s">
+      <c r="E45" s="53" t="s">
         <v>96</v>
       </c>
-      <c r="F45" s="58" t="s">
+      <c r="F45" s="53" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="46" ht="67.05" customHeight="1" spans="1:19">
-      <c r="A46" s="54" t="s">
+      <c r="A46" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="B46" s="54" t="s">
+      <c r="B46" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="C46" s="56" t="s">
+      <c r="C46" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="D46" s="59" t="s">
+      <c r="D46" s="54" t="s">
         <v>76</v>
       </c>
-      <c r="E46" s="56" t="s">
+      <c r="E46" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="F46" s="54" t="s">
+      <c r="F46" s="49" t="s">
         <v>77</v>
       </c>
       <c r="G46"/>
@@ -5275,326 +5748,326 @@
       <c r="S46"/>
     </row>
     <row r="47" ht="46.05" customHeight="1" spans="1:6">
-      <c r="A47" s="54" t="s">
+      <c r="A47" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="B47" s="55" t="s">
+      <c r="B47" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="C47" s="54" t="s">
+      <c r="C47" s="49" t="s">
         <v>115</v>
       </c>
-      <c r="D47" s="54" t="s">
+      <c r="D47" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="E47" s="56" t="s">
+      <c r="E47" s="51" t="s">
         <v>87</v>
       </c>
-      <c r="F47" s="54" t="s">
+      <c r="F47" s="49" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="48" ht="25.05" customHeight="1" spans="1:6">
-      <c r="A48" s="60"/>
-      <c r="B48" s="60"/>
-      <c r="C48" s="60"/>
-      <c r="D48" s="60"/>
-      <c r="E48" s="60"/>
-      <c r="F48" s="60"/>
+      <c r="A48" s="55"/>
+      <c r="B48" s="55"/>
+      <c r="C48" s="55"/>
+      <c r="D48" s="55"/>
+      <c r="E48" s="55"/>
+      <c r="F48" s="55"/>
     </row>
     <row r="49" ht="33" customHeight="1" spans="1:6">
-      <c r="A49" s="61"/>
-      <c r="B49" s="60"/>
-      <c r="C49" s="61"/>
-      <c r="D49" s="61"/>
-      <c r="E49" s="61"/>
-      <c r="F49" s="60"/>
+      <c r="A49" s="56"/>
+      <c r="B49" s="55"/>
+      <c r="C49" s="56"/>
+      <c r="D49" s="56"/>
+      <c r="E49" s="56"/>
+      <c r="F49" s="55"/>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="60"/>
-      <c r="B50" s="60"/>
-      <c r="C50" s="60"/>
-      <c r="D50" s="60"/>
-      <c r="E50" s="60"/>
-      <c r="F50" s="60"/>
+      <c r="A50" s="55"/>
+      <c r="B50" s="55"/>
+      <c r="C50" s="55"/>
+      <c r="D50" s="55"/>
+      <c r="E50" s="55"/>
+      <c r="F50" s="55"/>
     </row>
     <row r="51" ht="45" customHeight="1" spans="1:6">
-      <c r="A51" s="60"/>
-      <c r="B51" s="60"/>
-      <c r="C51" s="60"/>
-      <c r="D51" s="62"/>
-      <c r="E51" s="60"/>
-      <c r="F51" s="60"/>
+      <c r="A51" s="55"/>
+      <c r="B51" s="55"/>
+      <c r="C51" s="55"/>
+      <c r="D51" s="57"/>
+      <c r="E51" s="55"/>
+      <c r="F51" s="55"/>
     </row>
     <row r="52" ht="28.95" customHeight="1" spans="1:6">
-      <c r="A52" s="60"/>
-      <c r="B52" s="60"/>
-      <c r="C52" s="60"/>
-      <c r="D52" s="60"/>
-      <c r="E52" s="60"/>
-      <c r="F52" s="60"/>
+      <c r="A52" s="55"/>
+      <c r="B52" s="55"/>
+      <c r="C52" s="55"/>
+      <c r="D52" s="55"/>
+      <c r="E52" s="55"/>
+      <c r="F52" s="55"/>
     </row>
     <row r="53" ht="25.95" customHeight="1" spans="1:6">
-      <c r="A53" s="60"/>
-      <c r="B53" s="60"/>
-      <c r="C53" s="60"/>
-      <c r="D53" s="60"/>
-      <c r="E53" s="60"/>
-      <c r="F53" s="60"/>
+      <c r="A53" s="55"/>
+      <c r="B53" s="55"/>
+      <c r="C53" s="55"/>
+      <c r="D53" s="55"/>
+      <c r="E53" s="55"/>
+      <c r="F53" s="55"/>
     </row>
     <row r="54" ht="28.95" customHeight="1" spans="1:6">
-      <c r="A54" s="60"/>
-      <c r="B54" s="60"/>
-      <c r="C54" s="60"/>
-      <c r="D54" s="60"/>
-      <c r="E54" s="60"/>
-      <c r="F54" s="60"/>
+      <c r="A54" s="55"/>
+      <c r="B54" s="55"/>
+      <c r="C54" s="55"/>
+      <c r="D54" s="55"/>
+      <c r="E54" s="55"/>
+      <c r="F54" s="55"/>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="60"/>
-      <c r="B55" s="60"/>
-      <c r="C55" s="60"/>
-      <c r="D55" s="60"/>
-      <c r="E55" s="60"/>
-      <c r="F55" s="60"/>
-    </row>
-    <row r="56" s="39" customFormat="1" spans="1:1">
-      <c r="A56" s="39" t="s">
+      <c r="A55" s="55"/>
+      <c r="B55" s="55"/>
+      <c r="C55" s="55"/>
+      <c r="D55" s="55"/>
+      <c r="E55" s="55"/>
+      <c r="F55" s="55"/>
+    </row>
+    <row r="56" s="34" customFormat="1" spans="1:1">
+      <c r="A56" s="34" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="57" ht="102" spans="1:6">
-      <c r="A57" s="54" t="s">
+      <c r="A57" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="B57" s="63" t="s">
+      <c r="B57" s="58" t="s">
         <v>117</v>
       </c>
-      <c r="C57" s="63" t="s">
+      <c r="C57" s="58" t="s">
         <v>118</v>
       </c>
-      <c r="D57" s="63" t="s">
+      <c r="D57" s="58" t="s">
         <v>119</v>
       </c>
-      <c r="E57" s="63" t="s">
+      <c r="E57" s="58" t="s">
         <v>120</v>
       </c>
-      <c r="F57" s="63" t="s">
+      <c r="F57" s="58" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="58" ht="81.6" spans="1:6">
-      <c r="A58" s="54" t="s">
+      <c r="A58" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="B58" s="64">
+      <c r="B58" s="59">
         <v>43346</v>
       </c>
-      <c r="C58" s="60" t="s">
+      <c r="C58" s="55" t="s">
         <v>122</v>
       </c>
-      <c r="D58" s="60" t="s">
+      <c r="D58" s="55" t="s">
         <v>123</v>
       </c>
-      <c r="E58" s="60" t="s">
+      <c r="E58" s="55" t="s">
         <v>124</v>
       </c>
-      <c r="F58" s="60" t="s">
+      <c r="F58" s="55" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="59" ht="61.2" spans="1:6">
-      <c r="A59" s="54" t="s">
+      <c r="A59" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="B59" s="56" t="s">
+      <c r="B59" s="51" t="s">
         <v>126</v>
       </c>
-      <c r="C59" s="65" t="s">
+      <c r="C59" s="60" t="s">
         <v>127</v>
       </c>
-      <c r="D59" s="56" t="s">
+      <c r="D59" s="51" t="s">
         <v>128</v>
       </c>
-      <c r="E59" s="63" t="s">
+      <c r="E59" s="58" t="s">
         <v>129</v>
       </c>
-      <c r="F59" s="65" t="s">
+      <c r="F59" s="60" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="60" ht="102" spans="1:6">
-      <c r="A60" s="54" t="s">
+      <c r="A60" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="B60" s="57">
+      <c r="B60" s="52">
         <v>43346</v>
       </c>
-      <c r="C60" s="56" t="s">
+      <c r="C60" s="51" t="s">
         <v>131</v>
       </c>
-      <c r="D60" s="56" t="s">
+      <c r="D60" s="51" t="s">
         <v>132</v>
       </c>
-      <c r="E60" s="56" t="s">
+      <c r="E60" s="51" t="s">
         <v>133</v>
       </c>
-      <c r="F60" s="56" t="s">
+      <c r="F60" s="51" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="61" ht="34.8" spans="1:6">
-      <c r="A61" s="66" t="s">
+      <c r="A61" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="B61" s="67" t="s">
+      <c r="B61" s="62" t="s">
         <v>117</v>
       </c>
-      <c r="C61" s="61" t="s">
+      <c r="C61" s="56" t="s">
         <v>135</v>
       </c>
-      <c r="D61" s="67" t="s">
+      <c r="D61" s="62" t="s">
         <v>136</v>
       </c>
-      <c r="E61" s="67" t="s">
+      <c r="E61" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="F61" s="67" t="s">
+      <c r="F61" s="62" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="62" ht="61.2" spans="1:6">
-      <c r="A62" s="54" t="s">
+      <c r="A62" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="B62" s="60" t="s">
+      <c r="B62" s="55" t="s">
         <v>138</v>
       </c>
-      <c r="C62" s="60" t="s">
+      <c r="C62" s="55" t="s">
         <v>139</v>
       </c>
-      <c r="D62" s="56" t="s">
+      <c r="D62" s="51" t="s">
         <v>140</v>
       </c>
-      <c r="E62" s="56" t="s">
+      <c r="E62" s="51" t="s">
         <v>141</v>
       </c>
-      <c r="F62" s="56" t="s">
+      <c r="F62" s="51" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="63" ht="61.2" spans="1:6">
-      <c r="A63" s="54" t="s">
+      <c r="A63" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="B63" s="64">
+      <c r="B63" s="59">
         <v>43346</v>
       </c>
-      <c r="C63" s="60" t="s">
+      <c r="C63" s="55" t="s">
         <v>143</v>
       </c>
-      <c r="D63" s="56" t="s">
+      <c r="D63" s="51" t="s">
         <v>144</v>
       </c>
-      <c r="E63" s="56" t="s">
+      <c r="E63" s="51" t="s">
         <v>145</v>
       </c>
-      <c r="F63" s="56" t="s">
+      <c r="F63" s="51" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="64" customFormat="1" ht="33" customHeight="1" spans="1:6">
-      <c r="A64" s="54" t="s">
+      <c r="A64" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="B64" s="55">
+      <c r="B64" s="50">
         <v>43346</v>
       </c>
-      <c r="C64" s="54" t="s">
+      <c r="C64" s="49" t="s">
         <v>147</v>
       </c>
-      <c r="D64" s="54" t="s">
+      <c r="D64" s="49" t="s">
         <v>148</v>
       </c>
-      <c r="E64" s="56" t="s">
+      <c r="E64" s="51" t="s">
         <v>149</v>
       </c>
-      <c r="F64" s="54" t="s">
+      <c r="F64" s="49" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="65" ht="27" customHeight="1" spans="1:6">
-      <c r="A65" s="60" t="s">
+      <c r="A65" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="B65" s="64">
+      <c r="B65" s="59">
         <v>43346</v>
       </c>
-      <c r="C65" s="60" t="s">
+      <c r="C65" s="55" t="s">
         <v>150</v>
       </c>
-      <c r="D65" s="68"/>
-      <c r="E65" s="60"/>
-      <c r="F65" s="60"/>
+      <c r="D65" s="63"/>
+      <c r="E65" s="55"/>
+      <c r="F65" s="55"/>
     </row>
     <row r="66" ht="33" customHeight="1" spans="1:6">
-      <c r="A66" s="60"/>
-      <c r="B66" s="60"/>
-      <c r="C66" s="60"/>
-      <c r="D66" s="60"/>
-      <c r="E66" s="60"/>
-      <c r="F66" s="60"/>
+      <c r="A66" s="55"/>
+      <c r="B66" s="55"/>
+      <c r="C66" s="55"/>
+      <c r="D66" s="55"/>
+      <c r="E66" s="55"/>
+      <c r="F66" s="55"/>
     </row>
     <row r="67" ht="30" customHeight="1" spans="1:6">
-      <c r="A67" s="60"/>
-      <c r="B67" s="60"/>
-      <c r="C67" s="60"/>
-      <c r="D67" s="60"/>
-      <c r="E67" s="60"/>
-      <c r="F67" s="60"/>
+      <c r="A67" s="55"/>
+      <c r="B67" s="55"/>
+      <c r="C67" s="55"/>
+      <c r="D67" s="55"/>
+      <c r="E67" s="55"/>
+      <c r="F67" s="55"/>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="60"/>
-      <c r="B68" s="60"/>
-      <c r="C68" s="60"/>
-      <c r="D68" s="60"/>
-      <c r="E68" s="60"/>
-      <c r="F68" s="60"/>
+      <c r="A68" s="55"/>
+      <c r="B68" s="55"/>
+      <c r="C68" s="55"/>
+      <c r="D68" s="55"/>
+      <c r="E68" s="55"/>
+      <c r="F68" s="55"/>
     </row>
     <row r="69" spans="1:6">
-      <c r="A69" s="60"/>
-      <c r="B69" s="60"/>
-      <c r="C69" s="60"/>
-      <c r="D69" s="60"/>
-      <c r="E69" s="60"/>
-      <c r="F69" s="60"/>
+      <c r="A69" s="55"/>
+      <c r="B69" s="55"/>
+      <c r="C69" s="55"/>
+      <c r="D69" s="55"/>
+      <c r="E69" s="55"/>
+      <c r="F69" s="55"/>
     </row>
     <row r="70" ht="22.95" customHeight="1" spans="1:6">
-      <c r="A70" s="60"/>
-      <c r="B70" s="60"/>
-      <c r="C70" s="60"/>
-      <c r="D70" s="60"/>
-      <c r="E70" s="60"/>
-      <c r="F70" s="60"/>
+      <c r="A70" s="55"/>
+      <c r="B70" s="55"/>
+      <c r="C70" s="55"/>
+      <c r="D70" s="55"/>
+      <c r="E70" s="55"/>
+      <c r="F70" s="55"/>
     </row>
     <row r="71" ht="33" customHeight="1" spans="1:6">
-      <c r="A71" s="60"/>
-      <c r="B71" s="60"/>
-      <c r="C71" s="60"/>
-      <c r="D71" s="60"/>
-      <c r="E71" s="60"/>
-      <c r="F71" s="60"/>
+      <c r="A71" s="55"/>
+      <c r="B71" s="55"/>
+      <c r="C71" s="55"/>
+      <c r="D71" s="55"/>
+      <c r="E71" s="55"/>
+      <c r="F71" s="55"/>
     </row>
     <row r="72" spans="1:6">
-      <c r="A72" s="60"/>
-      <c r="B72" s="60"/>
-      <c r="C72" s="60"/>
-      <c r="D72" s="60"/>
-      <c r="E72" s="60"/>
-      <c r="F72" s="60"/>
-    </row>
-    <row r="73" s="39" customFormat="1" spans="1:1">
-      <c r="A73" s="39" t="s">
+      <c r="A72" s="55"/>
+      <c r="B72" s="55"/>
+      <c r="C72" s="55"/>
+      <c r="D72" s="55"/>
+      <c r="E72" s="55"/>
+      <c r="F72" s="55"/>
+    </row>
+    <row r="73" s="34" customFormat="1" spans="1:1">
+      <c r="A73" s="34" t="s">
         <v>98</v>
       </c>
     </row>
@@ -5622,7 +6095,7 @@
       <c r="A75" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B75" s="69">
+      <c r="B75" s="64">
         <v>43347</v>
       </c>
       <c r="C75" s="5" t="s">
@@ -5662,7 +6135,7 @@
       <c r="A77" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B77" s="24">
+      <c r="B77" s="20">
         <v>43347</v>
       </c>
       <c r="C77" s="5" t="s">
@@ -5702,7 +6175,7 @@
       <c r="A79" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B79" s="24">
+      <c r="B79" s="20">
         <v>43347</v>
       </c>
       <c r="C79" s="5" t="s">
@@ -5719,10 +6192,10 @@
       </c>
     </row>
     <row r="80" ht="28.8" spans="1:6">
-      <c r="A80" s="70" t="s">
+      <c r="A80" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="B80" s="70" t="s">
+      <c r="B80" s="65" t="s">
         <v>151</v>
       </c>
       <c r="C80" s="4" t="s">
@@ -5731,10 +6204,10 @@
       <c r="D80" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="E80" s="71" t="s">
+      <c r="E80" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="F80" s="70" t="s">
+      <c r="F80" s="65" t="s">
         <v>179</v>
       </c>
     </row>
@@ -5742,7 +6215,7 @@
       <c r="A81" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B81" s="24">
+      <c r="B81" s="20">
         <v>43347</v>
       </c>
       <c r="C81" s="5" t="s">
@@ -5759,13 +6232,13 @@
       </c>
     </row>
     <row r="82" ht="28.05" customHeight="1" spans="1:6">
-      <c r="A82" s="72" t="s">
+      <c r="A82" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="B82" s="73">
+      <c r="B82" s="68">
         <v>43346</v>
       </c>
-      <c r="C82" s="72" t="s">
+      <c r="C82" s="67" t="s">
         <v>150</v>
       </c>
       <c r="D82" s="5"/>
@@ -5836,19 +6309,19 @@
       <c r="E90" s="5"/>
       <c r="F90" s="5"/>
     </row>
-    <row r="91" s="39" customFormat="1" spans="1:6">
-      <c r="A91" s="48"/>
-      <c r="B91" s="48"/>
-      <c r="C91" s="48"/>
-      <c r="D91" s="48"/>
-      <c r="E91" s="48"/>
-      <c r="F91" s="48"/>
+    <row r="91" s="34" customFormat="1" spans="1:6">
+      <c r="A91" s="43"/>
+      <c r="B91" s="43"/>
+      <c r="C91" s="43"/>
+      <c r="D91" s="43"/>
+      <c r="E91" s="43"/>
+      <c r="F91" s="43"/>
     </row>
     <row r="92" ht="102" spans="1:6">
       <c r="A92" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B92" s="69">
+      <c r="B92" s="64">
         <v>43348</v>
       </c>
       <c r="C92" s="5" t="s">
@@ -5868,7 +6341,7 @@
       <c r="A93" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B93" s="69">
+      <c r="B93" s="64">
         <v>43348</v>
       </c>
       <c r="C93" s="5" t="s">
@@ -5888,7 +6361,7 @@
       <c r="A94" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B94" s="69">
+      <c r="B94" s="64">
         <v>43348</v>
       </c>
       <c r="C94" s="5" t="s">
@@ -5908,7 +6381,7 @@
       <c r="A95" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B95" s="69">
+      <c r="B95" s="64">
         <v>43348</v>
       </c>
       <c r="C95" s="5" t="s">
@@ -5945,22 +6418,22 @@
       </c>
     </row>
     <row r="97" ht="28.95" customHeight="1" spans="1:6">
-      <c r="A97" s="74" t="s">
+      <c r="A97" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="B97" s="74" t="s">
+      <c r="B97" s="69" t="s">
         <v>201</v>
       </c>
-      <c r="C97" s="74" t="s">
+      <c r="C97" s="69" t="s">
         <v>202</v>
       </c>
       <c r="D97" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="E97" s="74" t="s">
+      <c r="E97" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="F97" s="74" t="s">
+      <c r="F97" s="69" t="s">
         <v>203</v>
       </c>
     </row>
@@ -5988,7 +6461,7 @@
       <c r="A99" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B99" s="69">
+      <c r="B99" s="64">
         <v>43348</v>
       </c>
       <c r="C99" s="5" t="s">
@@ -6005,13 +6478,13 @@
       </c>
     </row>
     <row r="100" ht="24" customHeight="1" spans="1:6">
-      <c r="A100" s="72" t="s">
+      <c r="A100" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="B100" s="73">
+      <c r="B100" s="68">
         <v>43348</v>
       </c>
-      <c r="C100" s="72" t="s">
+      <c r="C100" s="67" t="s">
         <v>150</v>
       </c>
       <c r="D100" s="5"/>
@@ -6082,19 +6555,19 @@
       <c r="E108" s="5"/>
       <c r="F108" s="5"/>
     </row>
-    <row r="109" s="39" customFormat="1" spans="1:6">
-      <c r="A109" s="48"/>
-      <c r="B109" s="48"/>
-      <c r="C109" s="48"/>
-      <c r="D109" s="48"/>
-      <c r="E109" s="48"/>
-      <c r="F109" s="48"/>
+    <row r="109" s="34" customFormat="1" spans="1:6">
+      <c r="A109" s="43"/>
+      <c r="B109" s="43"/>
+      <c r="C109" s="43"/>
+      <c r="D109" s="43"/>
+      <c r="E109" s="43"/>
+      <c r="F109" s="43"/>
     </row>
     <row r="110" ht="81.6" spans="1:6">
       <c r="A110" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B110" s="69">
+      <c r="B110" s="64">
         <v>43349</v>
       </c>
       <c r="C110" s="5" t="s">
@@ -6177,7 +6650,7 @@
       <c r="B114" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="C114" s="75" t="s">
+      <c r="C114" s="70" t="s">
         <v>231</v>
       </c>
       <c r="D114" s="5" t="s">
@@ -6194,7 +6667,7 @@
       <c r="A115" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B115" s="69">
+      <c r="B115" s="64">
         <v>43349</v>
       </c>
       <c r="C115" s="5" t="s">
@@ -6214,7 +6687,7 @@
       <c r="A116" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B116" s="69">
+      <c r="B116" s="64">
         <v>43349</v>
       </c>
       <c r="C116" s="5" t="s">
@@ -6234,7 +6707,7 @@
       <c r="A117" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B117" s="69">
+      <c r="B117" s="64">
         <v>43349</v>
       </c>
       <c r="C117" s="5" t="s">
@@ -6252,7 +6725,7 @@
       <c r="A118" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B118" s="69">
+      <c r="B118" s="64">
         <v>43349</v>
       </c>
       <c r="C118" s="5" t="s">
@@ -6294,17 +6767,17 @@
     </row>
     <row r="123" ht="22.95" customHeight="1"/>
     <row r="126" spans="2:2">
-      <c r="B126" s="76"/>
+      <c r="B126" s="71"/>
     </row>
     <row r="127" ht="9" customHeight="1" spans="2:2">
-      <c r="B127" s="76"/>
-    </row>
-    <row r="128" s="39" customFormat="1"/>
+      <c r="B127" s="71"/>
+    </row>
+    <row r="128" s="34" customFormat="1"/>
     <row r="129" ht="61.2" spans="1:6">
       <c r="A129" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B129" s="69">
+      <c r="B129" s="64">
         <v>43350</v>
       </c>
       <c r="C129" s="5" t="s">
@@ -6327,7 +6800,7 @@
       <c r="B130" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="C130" s="77" t="s">
+      <c r="C130" s="72" t="s">
         <v>253</v>
       </c>
       <c r="D130" s="5" t="s">
@@ -6344,10 +6817,10 @@
       <c r="A131" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B131" s="69">
+      <c r="B131" s="64">
         <v>43350</v>
       </c>
-      <c r="C131" s="77" t="s">
+      <c r="C131" s="72" t="s">
         <v>257</v>
       </c>
       <c r="D131" s="5" t="s">
@@ -6360,24 +6833,24 @@
         <v>260</v>
       </c>
     </row>
-    <row r="132" ht="7.95" customHeight="1" spans="1:6">
+    <row r="132" ht="61.2" spans="1:6">
       <c r="A132" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>216</v>
+        <v>261</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E132" s="5" t="s">
         <v>154</v>
       </c>
       <c r="F132" s="5" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="133" ht="34.05" customHeight="1" spans="1:6">
@@ -6385,27 +6858,27 @@
         <v>34</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="C133" s="77" t="s">
         <v>265</v>
+      </c>
+      <c r="C133" s="72" t="s">
+        <v>266</v>
       </c>
       <c r="D133" s="5" t="s">
         <v>128</v>
       </c>
       <c r="E133" s="5" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F133" s="5" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="134" ht="30" customHeight="1" spans="1:6">
       <c r="A134" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B134" s="71" t="s">
-        <v>268</v>
+      <c r="B134" s="66" t="s">
+        <v>261</v>
       </c>
       <c r="C134" s="5" t="s">
         <v>269</v>
@@ -6427,7 +6900,7 @@
       <c r="B135" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="C135" s="77" t="s">
+      <c r="C135" s="72" t="s">
         <v>253</v>
       </c>
       <c r="D135" s="5" t="s">
@@ -6444,7 +6917,7 @@
       <c r="A136" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B136" s="69">
+      <c r="B136" s="64">
         <v>43350</v>
       </c>
       <c r="C136" s="5" t="s">
@@ -6464,7 +6937,7 @@
       <c r="A137" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B137" s="69">
+      <c r="B137" s="64">
         <v>43350</v>
       </c>
       <c r="C137" s="5" t="s">
@@ -6484,7 +6957,7 @@
       <c r="A138" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B138" s="69">
+      <c r="B138" s="64">
         <v>43350</v>
       </c>
       <c r="C138" s="5" t="s">
@@ -6501,7 +6974,7 @@
       </c>
     </row>
     <row r="139" ht="13.05" customHeight="1" spans="2:2">
-      <c r="B139" s="76"/>
+      <c r="B139" s="71"/>
     </row>
     <row r="140" ht="28.05" customHeight="1"/>
     <row r="143" ht="22.05" customHeight="1"/>
@@ -6509,76 +6982,707 @@
     <row r="145" ht="22.05" customHeight="1"/>
     <row r="146" ht="22.05" customHeight="1"/>
     <row r="147" ht="21" customHeight="1"/>
-    <row r="148" s="39" customFormat="1"/>
-    <row r="149" ht="22.95" customHeight="1"/>
-    <row r="150" spans="2:2">
-      <c r="B150" s="78"/>
-    </row>
-    <row r="151" spans="2:2">
-      <c r="B151" s="78"/>
-    </row>
-    <row r="152" spans="2:2">
-      <c r="B152" s="78"/>
-    </row>
-    <row r="153" spans="2:2">
-      <c r="B153" s="78"/>
-    </row>
-    <row r="154" spans="4:4">
-      <c r="D154" s="79"/>
-    </row>
-    <row r="155" ht="24" customHeight="1"/>
-    <row r="156" ht="22.95" customHeight="1"/>
+    <row r="148" s="34" customFormat="1"/>
+    <row r="149" ht="22.95" customHeight="1" spans="1:6">
+      <c r="A149" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B149" s="64">
+        <v>43353</v>
+      </c>
+      <c r="C149" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="D149" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="E149" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="F149" s="5" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="150" ht="40.8" spans="1:6">
+      <c r="A150" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B150" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="C150" s="72" t="s">
+        <v>289</v>
+      </c>
+      <c r="D150" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="E150" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="F150" s="5" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="151" ht="40.8" spans="1:6">
+      <c r="A151" s="72" t="s">
+        <v>18</v>
+      </c>
+      <c r="B151" s="73">
+        <v>43353</v>
+      </c>
+      <c r="C151" s="72" t="s">
+        <v>293</v>
+      </c>
+      <c r="D151" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="E151" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="F151" s="5" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="152" ht="102" spans="1:6">
+      <c r="A152" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B152" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="C152" s="72" t="s">
+        <v>298</v>
+      </c>
+      <c r="D152" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E152" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="F152" s="5" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
+      <c r="A153" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B153" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="C153" s="72" t="s">
+        <v>302</v>
+      </c>
+      <c r="D153" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="E153" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="F153" s="5" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="154" ht="61.2" spans="1:6">
+      <c r="A154" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B154" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="C154" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="D154" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="E154" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="F154" s="5" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="155" ht="24" customHeight="1" spans="1:6">
+      <c r="A155" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B155" s="64">
+        <v>43353</v>
+      </c>
+      <c r="C155" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="D155" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="E155" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="F155" s="5" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="156" ht="22.95" customHeight="1" spans="1:6">
+      <c r="A156" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B156" s="64">
+        <v>43353</v>
+      </c>
+      <c r="C156" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="D156" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="E156" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="F156" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="157" ht="61.2" spans="1:6">
+      <c r="A157" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B157" s="64">
+        <v>43353</v>
+      </c>
+      <c r="C157" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="D157" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="E157" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="F157" s="5" t="s">
+        <v>320</v>
+      </c>
+    </row>
     <row r="158" ht="30" customHeight="1"/>
     <row r="159" ht="28.95" customHeight="1"/>
     <row r="160" ht="28.95" customHeight="1"/>
     <row r="161" ht="24" customHeight="1"/>
     <row r="163" ht="28.95" customHeight="1"/>
     <row r="164" ht="25.95" customHeight="1" spans="2:2">
-      <c r="B164" s="78"/>
-    </row>
-    <row r="165" s="39" customFormat="1"/>
-    <row r="166" ht="25.95" customHeight="1" spans="4:4">
-      <c r="D166" s="80"/>
-    </row>
-    <row r="168" ht="27" customHeight="1"/>
-    <row r="169" ht="13.05" customHeight="1" spans="2:2">
-      <c r="B169" s="78"/>
-    </row>
-    <row r="170" ht="13.05" customHeight="1" spans="2:2">
-      <c r="B170" s="78"/>
-    </row>
-    <row r="171" spans="2:2">
-      <c r="B171" s="78"/>
-    </row>
-    <row r="172" ht="12" customHeight="1" spans="2:2">
-      <c r="B172" s="78"/>
-    </row>
-    <row r="173" ht="34.05" customHeight="1"/>
+      <c r="B164" s="74"/>
+    </row>
+    <row r="165" s="34" customFormat="1"/>
+    <row r="166" ht="25.95" customHeight="1" spans="1:6">
+      <c r="A166" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B166" s="64">
+        <v>43354</v>
+      </c>
+      <c r="C166" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="D166" s="75" t="s">
+        <v>322</v>
+      </c>
+      <c r="E166" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="F166" s="5" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="167" ht="40.8" spans="1:6">
+      <c r="A167" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B167" s="64">
+        <v>43354</v>
+      </c>
+      <c r="C167" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="D167" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="E167" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="F167" s="5" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="168" ht="27" customHeight="1" spans="1:6">
+      <c r="A168" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B168" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="C168" s="72" t="s">
+        <v>330</v>
+      </c>
+      <c r="D168" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="E168" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="F168" s="5" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="169" ht="13.05" customHeight="1" spans="1:6">
+      <c r="A169" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B169" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="C169" s="72" t="s">
+        <v>335</v>
+      </c>
+      <c r="D169" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="E169" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="F169" s="5" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="170" ht="13.05" customHeight="1" spans="1:6">
+      <c r="A170" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B170" s="64">
+        <v>43355</v>
+      </c>
+      <c r="C170" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="D170" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="E170" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="F170" s="5" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6">
+      <c r="A171" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B171" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="C171" s="72" t="s">
+        <v>344</v>
+      </c>
+      <c r="D171" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="E171" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="F171" s="5" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="172" ht="12" customHeight="1" spans="1:6">
+      <c r="A172" s="72" t="s">
+        <v>18</v>
+      </c>
+      <c r="B172" s="73">
+        <v>43354</v>
+      </c>
+      <c r="C172" s="72" t="s">
+        <v>347</v>
+      </c>
+      <c r="D172" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="E172" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="F172" s="5" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="173" ht="34.05" customHeight="1" spans="1:6">
+      <c r="A173" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B173" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="C173" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="D173" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="E173" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="F173" s="5" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6">
+      <c r="A174" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B174" s="64">
+        <v>43354</v>
+      </c>
+      <c r="C174" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="D174" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="E174" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="F174" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
     <row r="175" ht="31.05" customHeight="1"/>
-    <row r="177" s="39" customFormat="1"/>
-    <row r="178" spans="2:2">
-      <c r="B178" s="78"/>
-    </row>
-    <row r="179" spans="2:2">
-      <c r="B179" s="78"/>
-    </row>
-    <row r="180" spans="2:2">
-      <c r="B180" s="76"/>
-    </row>
-    <row r="181" spans="2:2">
-      <c r="B181" s="76"/>
-    </row>
-    <row r="182" spans="2:2">
-      <c r="B182" s="76"/>
-    </row>
-    <row r="183" spans="2:2">
-      <c r="B183" s="76"/>
-    </row>
-    <row r="184" spans="2:2">
-      <c r="B184" s="76"/>
-    </row>
-    <row r="185" spans="2:2">
-      <c r="B185" s="76"/>
+    <row r="177" s="34" customFormat="1"/>
+    <row r="178" spans="1:6">
+      <c r="A178" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="C178" s="76" t="s">
+        <v>357</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="F178" s="2" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6">
+      <c r="A179" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="C179" s="76" t="s">
+        <v>344</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="F179" s="2" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="180" ht="81.6" spans="1:6">
+      <c r="A180" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B180" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="C180" s="72" t="s">
+        <v>365</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="F180" s="5" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="181" ht="81.6" spans="1:6">
+      <c r="A181" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B181" s="64">
+        <v>43355</v>
+      </c>
+      <c r="C181" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="D181" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="E181" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="F181" s="5" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="182" ht="40.8" spans="1:6">
+      <c r="A182" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B182" s="64">
+        <v>43355</v>
+      </c>
+      <c r="C182" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="D182" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="E182" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="F182" s="5" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6">
+      <c r="A183" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="B183" s="18">
+        <v>43355</v>
+      </c>
+      <c r="C183" s="76" t="s">
+        <v>376</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="F183" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="184" ht="40.8" spans="1:6">
+      <c r="A184" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B184" s="20">
+        <v>43355</v>
+      </c>
+      <c r="C184" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="D184" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="E184" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="F184" s="2" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6">
+      <c r="A185" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B185" s="20">
+        <v>43355</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F185" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6">
+      <c r="A186" s="5"/>
+      <c r="B186" s="5"/>
+      <c r="C186" s="5"/>
+      <c r="D186" s="5"/>
+      <c r="E186" s="5"/>
+      <c r="F186" s="5"/>
+    </row>
+    <row r="187" spans="1:6">
+      <c r="A187" s="44"/>
+      <c r="B187" s="44"/>
+      <c r="C187" s="44"/>
+      <c r="D187" s="44"/>
+      <c r="E187" s="44"/>
+      <c r="F187" s="44"/>
+    </row>
+    <row r="188" ht="61.2" spans="1:6">
+      <c r="A188" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B188" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="C188" s="72" t="s">
+        <v>386</v>
+      </c>
+      <c r="D188" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="F188" s="5" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6">
+      <c r="A189" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="B189" s="18">
+        <v>43356</v>
+      </c>
+      <c r="C189" s="76" t="s">
+        <v>390</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="E189" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="F189" s="2" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6">
+      <c r="A190" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B190" s="64">
+        <v>43356</v>
+      </c>
+      <c r="C190" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="D190" s="5"/>
+      <c r="E190" s="5"/>
+      <c r="F190" s="5"/>
+    </row>
+    <row r="191" spans="1:6">
+      <c r="A191" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="C191" s="76" t="s">
+        <v>396</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="E191" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="F191" s="2" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6">
+      <c r="A192" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B192" s="20">
+        <v>43356</v>
+      </c>
+      <c r="C192" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E192" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F192" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6">
+      <c r="A193" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B193" s="20">
+        <v>43356</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="E193" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="F193" s="2" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="194" ht="61.2" spans="1:6">
+      <c r="A194" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B194" s="64">
+        <v>43356</v>
+      </c>
+      <c r="C194" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="D194" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="E194" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="F194" s="5" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6">
+      <c r="A195" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B195" s="77" t="s">
+        <v>408</v>
+      </c>
+      <c r="C195" s="76" t="s">
+        <v>344</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="E195" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="F195" s="2" t="s">
+        <v>346</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6628,202 +7732,202 @@
     </row>
     <row r="2" ht="81.6" spans="1:6">
       <c r="A2" s="4" t="s">
-        <v>284</v>
+        <v>410</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>46</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>285</v>
+        <v>411</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>286</v>
+        <v>412</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>287</v>
+        <v>413</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>288</v>
+        <v>414</v>
       </c>
     </row>
     <row r="3" ht="61.2" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>289</v>
+        <v>415</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>290</v>
+        <v>416</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>291</v>
+        <v>417</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>292</v>
+        <v>418</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>293</v>
+        <v>419</v>
       </c>
     </row>
     <row r="4" ht="306" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>294</v>
+        <v>420</v>
       </c>
       <c r="B4" s="10">
         <v>43341</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>295</v>
+        <v>421</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="E4" s="21" t="s">
-        <v>297</v>
+        <v>422</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>423</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>298</v>
+        <v>424</v>
       </c>
     </row>
     <row r="5" ht="102" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="B5" s="22">
+        <v>425</v>
+      </c>
+      <c r="B5" s="18">
         <v>43341</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>300</v>
+        <v>426</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>301</v>
+        <v>427</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>302</v>
+        <v>428</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>303</v>
+        <v>429</v>
       </c>
     </row>
     <row r="6" ht="61.2" spans="1:6">
       <c r="A6" s="4" t="s">
-        <v>304</v>
+        <v>430</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>305</v>
+        <v>431</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>306</v>
+        <v>432</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>307</v>
+        <v>433</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>308</v>
+        <v>434</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>309</v>
+        <v>435</v>
       </c>
     </row>
     <row r="7" ht="102" spans="1:6">
       <c r="A7" s="4" t="s">
-        <v>310</v>
+        <v>436</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>46</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="D7" s="23" t="s">
-        <v>312</v>
+        <v>437</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>438</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>313</v>
+        <v>439</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>314</v>
+        <v>440</v>
       </c>
     </row>
     <row r="8" ht="224.4" spans="1:6">
       <c r="A8" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="B8" s="24">
+        <v>441</v>
+      </c>
+      <c r="B8" s="20">
         <v>43341</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>316</v>
+        <v>442</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>317</v>
+        <v>443</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>318</v>
+        <v>444</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>319</v>
+        <v>445</v>
       </c>
     </row>
     <row r="9" ht="102" spans="1:6">
       <c r="A9" s="4" t="s">
-        <v>320</v>
+        <v>446</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>46</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>321</v>
+        <v>447</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>322</v>
+        <v>448</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>323</v>
+        <v>449</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>324</v>
+        <v>450</v>
       </c>
     </row>
     <row r="10" ht="163.2" spans="1:6">
       <c r="A10" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="B10" s="25">
+        <v>451</v>
+      </c>
+      <c r="B10" s="21">
         <v>43341</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="D10" s="26" t="s">
-        <v>327</v>
-      </c>
-      <c r="E10" s="27" t="s">
-        <v>328</v>
-      </c>
-      <c r="F10" s="27" t="s">
-        <v>329</v>
+        <v>452</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>453</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>454</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="11" ht="102" spans="1:6">
       <c r="A11" s="2" t="s">
-        <v>330</v>
+        <v>456</v>
       </c>
       <c r="B11" s="10">
         <v>43341</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>331</v>
+        <v>457</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>332</v>
+        <v>458</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="F11" s="28" t="s">
-        <v>334</v>
+        <v>459</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="12" ht="20.4" spans="1:6">
@@ -6845,7 +7949,7 @@
     <row r="14" ht="20.4" spans="1:6">
       <c r="A14" s="12"/>
       <c r="B14" s="4"/>
-      <c r="C14" s="27"/>
+      <c r="C14" s="23"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -6878,202 +7982,202 @@
     </row>
     <row r="18" ht="163.2" spans="1:6">
       <c r="A18" s="2" t="s">
-        <v>284</v>
+        <v>410</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>335</v>
+        <v>461</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>336</v>
+        <v>462</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>337</v>
+        <v>463</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>338</v>
+        <v>464</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>339</v>
+        <v>465</v>
       </c>
     </row>
     <row r="19" ht="61.2" spans="1:6">
       <c r="A19" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="B19" s="22">
+        <v>425</v>
+      </c>
+      <c r="B19" s="18">
         <v>43343</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>340</v>
+        <v>466</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>341</v>
+        <v>467</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>342</v>
+        <v>468</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>343</v>
+        <v>469</v>
       </c>
     </row>
     <row r="20" ht="81.6" spans="1:6">
       <c r="A20" s="2" t="s">
-        <v>289</v>
+        <v>415</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>344</v>
+        <v>470</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>345</v>
+        <v>471</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>346</v>
+        <v>472</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>293</v>
+        <v>419</v>
       </c>
     </row>
     <row r="21" ht="61.2" spans="1:6">
       <c r="A21" s="4" t="s">
-        <v>347</v>
+        <v>473</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>348</v>
+        <v>474</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>349</v>
+        <v>475</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>350</v>
+        <v>476</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>351</v>
+        <v>477</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>352</v>
+        <v>478</v>
       </c>
     </row>
     <row r="22" ht="409.5" spans="1:6">
       <c r="A22" s="2" t="s">
-        <v>294</v>
+        <v>420</v>
       </c>
       <c r="B22" s="10">
         <v>43343</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>353</v>
+        <v>479</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>354</v>
+        <v>480</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>355</v>
-      </c>
-      <c r="F22" s="21" t="s">
-        <v>356</v>
+        <v>481</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="23" ht="61.2" spans="1:6">
       <c r="A23" s="3" t="s">
-        <v>310</v>
+        <v>436</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>335</v>
+        <v>461</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>357</v>
+        <v>483</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>358</v>
+        <v>484</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>359</v>
+        <v>485</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>360</v>
+        <v>486</v>
       </c>
     </row>
     <row r="24" ht="122.4" spans="1:6">
       <c r="A24" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="B24" s="29">
+        <v>441</v>
+      </c>
+      <c r="B24" s="25">
         <v>43343</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>361</v>
+        <v>487</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>362</v>
+        <v>488</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>363</v>
+        <v>489</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>364</v>
+        <v>490</v>
       </c>
     </row>
     <row r="25" ht="163.2" spans="1:6">
       <c r="A25" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="B25" s="30">
+        <v>456</v>
+      </c>
+      <c r="B25" s="26">
         <v>43343</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>365</v>
+        <v>491</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>366</v>
+        <v>492</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>367</v>
+        <v>493</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>368</v>
+        <v>494</v>
       </c>
     </row>
     <row r="26" ht="204" spans="1:6">
       <c r="A26" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="B26" s="29">
+        <v>451</v>
+      </c>
+      <c r="B26" s="25">
         <v>43343</v>
       </c>
-      <c r="C26" s="31" t="s">
-        <v>369</v>
-      </c>
-      <c r="D26" s="31" t="s">
-        <v>370</v>
-      </c>
-      <c r="E26" s="31" t="s">
-        <v>371</v>
+      <c r="C26" s="27" t="s">
+        <v>495</v>
+      </c>
+      <c r="D26" s="27" t="s">
+        <v>496</v>
+      </c>
+      <c r="E26" s="27" t="s">
+        <v>497</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>372</v>
+        <v>498</v>
       </c>
     </row>
     <row r="27" ht="102" spans="1:6">
       <c r="A27" s="6" t="s">
-        <v>320</v>
+        <v>446</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>335</v>
+        <v>461</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>373</v>
+        <v>499</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>374</v>
+        <v>500</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>375</v>
+        <v>501</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>376</v>
+        <v>502</v>
       </c>
     </row>
     <row r="28" ht="20.4" spans="1:6">
@@ -7085,52 +8189,52 @@
       <c r="F28" s="2"/>
     </row>
     <row r="29" ht="20.4" spans="1:6">
-      <c r="A29" s="32"/>
+      <c r="A29" s="14"/>
       <c r="B29" s="2"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="32"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="14"/>
     </row>
     <row r="30" ht="20.4" spans="1:6">
-      <c r="A30" s="32"/>
+      <c r="A30" s="14"/>
       <c r="B30" s="2"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="32"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="14"/>
     </row>
     <row r="31" ht="20.4" spans="1:6">
-      <c r="A31" s="32"/>
+      <c r="A31" s="14"/>
       <c r="B31" s="2"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="32"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="14"/>
     </row>
     <row r="32" ht="20.4" spans="1:6">
-      <c r="A32" s="32"/>
+      <c r="A32" s="14"/>
       <c r="B32" s="2"/>
-      <c r="C32" s="34"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="34"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
     </row>
     <row r="33" ht="20.4" spans="1:6">
-      <c r="A33" s="32"/>
+      <c r="A33" s="14"/>
       <c r="B33" s="2"/>
-      <c r="C33" s="35"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="36"/>
-      <c r="F33" s="32"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="14"/>
     </row>
     <row r="34" ht="20.4" spans="1:6">
-      <c r="A34" s="32"/>
+      <c r="A34" s="14"/>
       <c r="B34" s="2"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="32"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
     </row>
     <row r="35" ht="20.4" spans="1:6">
       <c r="A35" s="11" t="s">
@@ -7144,208 +8248,208 @@
     </row>
     <row r="36" ht="122.4" spans="1:6">
       <c r="A36" s="2" t="s">
-        <v>284</v>
+        <v>410</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>138</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>377</v>
+        <v>503</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>378</v>
+        <v>504</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>379</v>
+        <v>505</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>380</v>
+        <v>506</v>
       </c>
     </row>
     <row r="37" ht="81.6" spans="1:6">
       <c r="A37" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="B37" s="22">
+        <v>425</v>
+      </c>
+      <c r="B37" s="18">
         <v>43346</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>381</v>
+        <v>507</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>382</v>
+        <v>508</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>383</v>
+        <v>509</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>384</v>
+        <v>510</v>
       </c>
     </row>
     <row r="38" ht="61.2" spans="1:6">
       <c r="A38" s="4" t="s">
-        <v>385</v>
+        <v>511</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>386</v>
+        <v>512</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>387</v>
+        <v>513</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>388</v>
+        <v>514</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>389</v>
+        <v>515</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>352</v>
+        <v>478</v>
       </c>
     </row>
     <row r="39" ht="40.8" spans="1:6">
       <c r="A39" s="2" t="s">
-        <v>289</v>
+        <v>415</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>117</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>390</v>
+        <v>516</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>391</v>
+        <v>517</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>392</v>
+        <v>518</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>293</v>
+        <v>419</v>
       </c>
     </row>
     <row r="40" ht="122.4" spans="1:6">
       <c r="A40" s="2" t="s">
-        <v>294</v>
+        <v>420</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>138</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>393</v>
+        <v>519</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>394</v>
+        <v>520</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>395</v>
+        <v>521</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>396</v>
+        <v>522</v>
       </c>
     </row>
     <row r="41" ht="102" spans="1:6">
       <c r="A41" s="6" t="s">
-        <v>310</v>
+        <v>436</v>
       </c>
       <c r="B41" s="6" t="s">
         <v>138</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>397</v>
+        <v>523</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>398</v>
+        <v>524</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>399</v>
+        <v>525</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>400</v>
+        <v>526</v>
       </c>
     </row>
     <row r="42" ht="102" spans="1:6">
       <c r="A42" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="B42" s="30">
+        <v>456</v>
+      </c>
+      <c r="B42" s="26">
         <v>43346</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>401</v>
+        <v>527</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>402</v>
+        <v>528</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>403</v>
+        <v>529</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>404</v>
+        <v>530</v>
       </c>
     </row>
     <row r="43" ht="183.6" spans="1:6">
       <c r="A43" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="B43" s="29">
+        <v>441</v>
+      </c>
+      <c r="B43" s="25">
         <v>43346</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>405</v>
+        <v>531</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>406</v>
+        <v>532</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>407</v>
+        <v>533</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>408</v>
+        <v>534</v>
       </c>
     </row>
     <row r="44" ht="81.6" spans="1:6">
       <c r="A44" s="4" t="s">
-        <v>320</v>
+        <v>446</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>409</v>
+        <v>535</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>410</v>
+        <v>536</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>411</v>
+        <v>537</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>412</v>
+        <v>538</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>413</v>
+        <v>539</v>
       </c>
     </row>
     <row r="45" ht="122.4" spans="1:6">
       <c r="A45" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="B45" s="29">
+        <v>451</v>
+      </c>
+      <c r="B45" s="25">
         <v>43346</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>414</v>
+        <v>540</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>415</v>
+        <v>541</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>416</v>
+        <v>542</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>417</v>
+        <v>543</v>
       </c>
     </row>
     <row r="46" ht="20.4" spans="1:6">
       <c r="A46" s="6"/>
       <c r="B46" s="3"/>
-      <c r="C46" s="26"/>
+      <c r="C46" s="22"/>
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
@@ -7400,7 +8504,7 @@
     </row>
     <row r="53" ht="20.4" spans="1:6">
       <c r="A53" s="11" t="s">
-        <v>418</v>
+        <v>544</v>
       </c>
       <c r="B53" s="11"/>
       <c r="C53" s="11"/>
@@ -7410,205 +8514,205 @@
     </row>
     <row r="54" ht="20.4" spans="1:6">
       <c r="A54" s="2" t="s">
-        <v>284</v>
+        <v>410</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>160</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>419</v>
+        <v>545</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>420</v>
+        <v>546</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>421</v>
+        <v>547</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>422</v>
+        <v>548</v>
       </c>
     </row>
     <row r="55" ht="61.2" spans="1:6">
       <c r="A55" s="4" t="s">
-        <v>423</v>
+        <v>549</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>424</v>
+        <v>550</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>425</v>
+        <v>551</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>426</v>
+        <v>552</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>427</v>
+        <v>553</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>428</v>
+        <v>554</v>
       </c>
     </row>
     <row r="56" ht="40.8" spans="1:6">
       <c r="A56" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="B56" s="22">
+        <v>425</v>
+      </c>
+      <c r="B56" s="18">
         <v>43347</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>429</v>
+        <v>555</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>430</v>
+        <v>556</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>431</v>
+        <v>557</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>432</v>
+        <v>558</v>
       </c>
     </row>
     <row r="57" ht="20.4" spans="1:6">
       <c r="A57" s="2" t="s">
-        <v>289</v>
+        <v>415</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>151</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>433</v>
+        <v>559</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>434</v>
+        <v>560</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>435</v>
+        <v>561</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>293</v>
+        <v>419</v>
       </c>
     </row>
     <row r="58" ht="163.2" spans="1:6">
       <c r="A58" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="B58" s="30">
+        <v>420</v>
+      </c>
+      <c r="B58" s="26">
         <v>43347</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>436</v>
+        <v>562</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>437</v>
+        <v>563</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>438</v>
+        <v>564</v>
       </c>
       <c r="F58" s="5"/>
     </row>
     <row r="59" ht="81.6" spans="1:6">
       <c r="A59" s="6" t="s">
-        <v>310</v>
+        <v>436</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>160</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>439</v>
+        <v>565</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>440</v>
+        <v>566</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>441</v>
+        <v>567</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>442</v>
+        <v>568</v>
       </c>
     </row>
     <row r="60" ht="102" spans="1:6">
       <c r="A60" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="B60" s="29">
+        <v>441</v>
+      </c>
+      <c r="B60" s="25">
         <v>43347</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>443</v>
+        <v>569</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>444</v>
+        <v>570</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>445</v>
+        <v>571</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>446</v>
+        <v>572</v>
       </c>
     </row>
     <row r="61" ht="81.6" spans="1:6">
       <c r="A61" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="B61" s="29">
+        <v>451</v>
+      </c>
+      <c r="B61" s="25">
         <v>43347</v>
       </c>
-      <c r="C61" s="31" t="s">
-        <v>447</v>
-      </c>
-      <c r="D61" s="31" t="s">
-        <v>448</v>
-      </c>
-      <c r="E61" s="31" t="s">
-        <v>449</v>
-      </c>
-      <c r="F61" s="31" t="s">
-        <v>450</v>
+      <c r="C61" s="27" t="s">
+        <v>573</v>
+      </c>
+      <c r="D61" s="27" t="s">
+        <v>574</v>
+      </c>
+      <c r="E61" s="27" t="s">
+        <v>575</v>
+      </c>
+      <c r="F61" s="27" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="62" ht="142.8" spans="1:6">
       <c r="A62" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="B62" s="30">
+        <v>456</v>
+      </c>
+      <c r="B62" s="26">
         <v>43347</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>451</v>
+        <v>577</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>452</v>
-      </c>
-      <c r="E62" s="28" t="s">
-        <v>453</v>
+        <v>578</v>
+      </c>
+      <c r="E62" s="24" t="s">
+        <v>579</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>454</v>
+        <v>580</v>
       </c>
     </row>
     <row r="63" ht="61.2" spans="1:6">
       <c r="A63" s="4" t="s">
-        <v>320</v>
+        <v>446</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>455</v>
+        <v>581</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>456</v>
+        <v>582</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>457</v>
+        <v>583</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>458</v>
+        <v>584</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>459</v>
+        <v>585</v>
       </c>
     </row>
     <row r="64" ht="20.4" spans="1:6">
       <c r="A64" s="11" t="s">
-        <v>418</v>
+        <v>544</v>
       </c>
       <c r="B64" s="11"/>
       <c r="C64" s="11"/>
@@ -7618,202 +8722,202 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66" t="s">
-        <v>310</v>
+        <v>436</v>
       </c>
       <c r="B66" t="s">
         <v>221</v>
       </c>
       <c r="C66" t="s">
-        <v>460</v>
+        <v>586</v>
       </c>
       <c r="D66" t="s">
-        <v>461</v>
+        <v>587</v>
       </c>
       <c r="E66" t="s">
-        <v>462</v>
+        <v>588</v>
       </c>
       <c r="F66" t="s">
-        <v>463</v>
+        <v>589</v>
       </c>
     </row>
     <row r="67" ht="28.8" spans="1:6">
       <c r="A67" t="s">
-        <v>464</v>
+        <v>590</v>
       </c>
       <c r="B67" t="s">
         <v>221</v>
       </c>
       <c r="C67" t="s">
-        <v>465</v>
+        <v>591</v>
       </c>
       <c r="D67" t="s">
-        <v>466</v>
+        <v>592</v>
       </c>
       <c r="E67" t="s">
-        <v>463</v>
+        <v>589</v>
       </c>
       <c r="F67" s="13" t="s">
-        <v>467</v>
+        <v>593</v>
       </c>
     </row>
     <row r="68" ht="28.8" spans="1:6">
       <c r="A68" t="s">
-        <v>315</v>
+        <v>441</v>
       </c>
       <c r="B68" t="s">
         <v>221</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>468</v>
+        <v>594</v>
       </c>
       <c r="D68" t="s">
-        <v>469</v>
+        <v>595</v>
       </c>
       <c r="E68" s="13" t="s">
-        <v>467</v>
+        <v>593</v>
       </c>
       <c r="F68" s="13" t="s">
-        <v>470</v>
+        <v>596</v>
       </c>
     </row>
     <row r="69" ht="28.8" spans="1:6">
       <c r="A69" t="s">
-        <v>330</v>
+        <v>456</v>
       </c>
       <c r="B69" t="s">
         <v>221</v>
       </c>
       <c r="C69" t="s">
-        <v>471</v>
+        <v>597</v>
       </c>
       <c r="D69" t="s">
-        <v>472</v>
+        <v>598</v>
       </c>
       <c r="E69" s="13" t="s">
-        <v>470</v>
+        <v>596</v>
       </c>
       <c r="F69" t="s">
-        <v>473</v>
+        <v>599</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" t="s">
-        <v>299</v>
+        <v>425</v>
       </c>
       <c r="B70" t="s">
         <v>221</v>
       </c>
       <c r="C70" t="s">
-        <v>474</v>
+        <v>600</v>
       </c>
       <c r="D70" t="s">
-        <v>475</v>
+        <v>601</v>
       </c>
       <c r="E70" t="s">
-        <v>476</v>
+        <v>602</v>
       </c>
       <c r="F70" t="s">
-        <v>477</v>
+        <v>603</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" t="s">
-        <v>289</v>
+        <v>415</v>
       </c>
       <c r="B71" t="s">
         <v>221</v>
       </c>
       <c r="C71" t="s">
-        <v>433</v>
+        <v>559</v>
       </c>
       <c r="D71" t="s">
-        <v>478</v>
+        <v>604</v>
       </c>
       <c r="E71" t="s">
-        <v>479</v>
+        <v>605</v>
       </c>
       <c r="F71" t="s">
-        <v>293</v>
+        <v>419</v>
       </c>
     </row>
     <row r="72" ht="28.8" spans="1:6">
       <c r="A72" t="s">
-        <v>325</v>
+        <v>451</v>
       </c>
       <c r="B72" t="s">
         <v>221</v>
       </c>
       <c r="C72" t="s">
-        <v>480</v>
+        <v>606</v>
       </c>
       <c r="D72" t="s">
-        <v>481</v>
+        <v>607</v>
       </c>
       <c r="E72" s="13" t="s">
-        <v>482</v>
+        <v>608</v>
       </c>
       <c r="F72" t="s">
-        <v>483</v>
+        <v>609</v>
       </c>
     </row>
     <row r="73" ht="28.8" spans="1:6">
       <c r="A73" t="s">
-        <v>484</v>
+        <v>610</v>
       </c>
       <c r="B73" t="s">
         <v>221</v>
       </c>
       <c r="C73" t="s">
-        <v>485</v>
+        <v>611</v>
       </c>
       <c r="D73" t="s">
-        <v>426</v>
+        <v>552</v>
       </c>
       <c r="E73" s="13" t="s">
-        <v>486</v>
+        <v>612</v>
       </c>
       <c r="F73" t="s">
-        <v>487</v>
+        <v>613</v>
       </c>
     </row>
     <row r="74" ht="72" spans="1:6">
       <c r="A74" t="s">
-        <v>294</v>
+        <v>420</v>
       </c>
       <c r="B74" t="s">
         <v>221</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>488</v>
+        <v>614</v>
       </c>
       <c r="D74" t="s">
-        <v>489</v>
+        <v>615</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>490</v>
+        <v>616</v>
       </c>
       <c r="F74" t="s">
-        <v>491</v>
+        <v>617</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" t="s">
-        <v>284</v>
+        <v>410</v>
       </c>
       <c r="B75" t="s">
         <v>221</v>
       </c>
       <c r="C75" t="s">
-        <v>492</v>
+        <v>618</v>
       </c>
       <c r="D75" t="s">
-        <v>493</v>
+        <v>619</v>
       </c>
       <c r="E75" t="s">
-        <v>494</v>
+        <v>620</v>
       </c>
       <c r="F75" t="s">
-        <v>495</v>
+        <v>621</v>
       </c>
     </row>
   </sheetData>
@@ -7827,7 +8931,7 @@
   <sheetPr/>
   <dimension ref="A1:K166"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A166" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A166" workbookViewId="0">
       <selection activeCell="F165" sqref="F165"/>
     </sheetView>
   </sheetViews>
@@ -7863,207 +8967,207 @@
     </row>
     <row r="2" ht="122.4" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>496</v>
+        <v>622</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>497</v>
+        <v>623</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>498</v>
+        <v>624</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>499</v>
+        <v>625</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>500</v>
+        <v>626</v>
       </c>
     </row>
     <row r="3" ht="102" spans="1:6">
       <c r="A3" s="4" t="s">
-        <v>501</v>
+        <v>627</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>502</v>
+        <v>628</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>503</v>
+        <v>629</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>504</v>
+        <v>630</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>505</v>
+        <v>631</v>
       </c>
     </row>
     <row r="4" ht="40.8" spans="1:6">
       <c r="A4" s="4" t="s">
-        <v>506</v>
+        <v>632</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>507</v>
+        <v>633</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>508</v>
+        <v>634</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>509</v>
+        <v>635</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>510</v>
+        <v>636</v>
       </c>
     </row>
     <row r="5" ht="142.8" spans="1:6">
       <c r="A5" s="4" t="s">
-        <v>511</v>
+        <v>637</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>512</v>
+        <v>638</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>513</v>
+        <v>639</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>514</v>
+        <v>640</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>515</v>
+        <v>641</v>
       </c>
     </row>
     <row r="6" ht="326.4" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>516</v>
+        <v>642</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>517</v>
+        <v>643</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>518</v>
+        <v>644</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>519</v>
+        <v>645</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>520</v>
+        <v>646</v>
       </c>
     </row>
     <row r="7" ht="409.5" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>521</v>
+        <v>647</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>522</v>
+        <v>648</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>523</v>
+        <v>649</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>524</v>
+        <v>650</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>525</v>
+        <v>651</v>
       </c>
     </row>
     <row r="8" ht="285.6" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>526</v>
+        <v>652</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>527</v>
+        <v>653</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>528</v>
+        <v>654</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>529</v>
+        <v>655</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>530</v>
+        <v>656</v>
       </c>
     </row>
     <row r="9" ht="40.8" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>531</v>
+        <v>657</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>532</v>
+        <v>658</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>533</v>
+        <v>659</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>534</v>
+        <v>660</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>535</v>
+        <v>661</v>
       </c>
     </row>
     <row r="10" ht="142.8" spans="1:6">
       <c r="A10" s="2" t="s">
-        <v>536</v>
+        <v>662</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>512</v>
+        <v>638</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>537</v>
+        <v>663</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>538</v>
+        <v>664</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>539</v>
+        <v>665</v>
       </c>
     </row>
     <row r="11" ht="204" spans="1:6">
       <c r="A11" s="2" t="s">
-        <v>540</v>
+        <v>666</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>541</v>
+        <v>667</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>542</v>
+        <v>668</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>543</v>
+        <v>669</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>544</v>
+        <v>670</v>
       </c>
     </row>
     <row r="12" ht="20.4" spans="1:6">
       <c r="A12" s="7" t="s">
-        <v>418</v>
+        <v>544</v>
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -8093,207 +9197,207 @@
     </row>
     <row r="14" ht="81.6" spans="1:6">
       <c r="A14" s="2" t="s">
-        <v>536</v>
+        <v>662</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>74</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>545</v>
+        <v>671</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>546</v>
+        <v>672</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>547</v>
+        <v>673</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>548</v>
+        <v>674</v>
       </c>
     </row>
     <row r="15" ht="326.4" spans="1:6">
       <c r="A15" s="2" t="s">
-        <v>526</v>
+        <v>652</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>74</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>549</v>
+        <v>675</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>550</v>
+        <v>676</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>551</v>
+        <v>677</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>552</v>
+        <v>678</v>
       </c>
     </row>
     <row r="16" ht="142.8" spans="1:6">
       <c r="A16" s="2" t="s">
-        <v>496</v>
+        <v>622</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>74</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>553</v>
+        <v>679</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>554</v>
+        <v>680</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>555</v>
+        <v>681</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>556</v>
+        <v>682</v>
       </c>
     </row>
     <row r="17" ht="81.6" spans="1:6">
       <c r="A17" s="2" t="s">
-        <v>557</v>
+        <v>683</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>74</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>558</v>
+        <v>684</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>559</v>
+        <v>685</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>560</v>
+        <v>686</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>561</v>
+        <v>687</v>
       </c>
     </row>
     <row r="18" ht="122.4" spans="1:6">
       <c r="A18" s="2" t="s">
-        <v>562</v>
+        <v>688</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>74</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>563</v>
+        <v>689</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>564</v>
+        <v>690</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>565</v>
+        <v>691</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>566</v>
+        <v>692</v>
       </c>
     </row>
     <row r="19" ht="367.2" spans="1:6">
       <c r="A19" s="2" t="s">
-        <v>516</v>
+        <v>642</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>74</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>567</v>
+        <v>693</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>568</v>
+        <v>694</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>569</v>
+        <v>695</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>570</v>
+        <v>696</v>
       </c>
     </row>
     <row r="20" ht="142.8" spans="1:6">
       <c r="A20" s="2" t="s">
-        <v>571</v>
+        <v>697</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>89</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>572</v>
+        <v>698</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>573</v>
+        <v>699</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>574</v>
+        <v>700</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>575</v>
+        <v>701</v>
       </c>
     </row>
     <row r="21" ht="81.6" spans="1:6">
       <c r="A21" s="2" t="s">
-        <v>531</v>
+        <v>657</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>89</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>576</v>
+        <v>702</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>577</v>
+        <v>703</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>578</v>
+        <v>704</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>579</v>
+        <v>705</v>
       </c>
     </row>
     <row r="22" ht="409.5" spans="1:6">
       <c r="A22" s="2" t="s">
-        <v>521</v>
+        <v>647</v>
       </c>
       <c r="B22" s="10" t="s">
         <v>89</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>580</v>
+        <v>706</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>581</v>
+        <v>707</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>582</v>
+        <v>708</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>583</v>
+        <v>709</v>
       </c>
     </row>
     <row r="23" ht="102" spans="1:6">
       <c r="A23" s="2" t="s">
-        <v>584</v>
+        <v>710</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>89</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>585</v>
+        <v>711</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>586</v>
+        <v>712</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>587</v>
+        <v>713</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>544</v>
+        <v>670</v>
       </c>
     </row>
     <row r="24" ht="20.4" spans="1:6">
       <c r="A24" s="7" t="s">
-        <v>588</v>
+        <v>714</v>
       </c>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -8321,202 +9425,202 @@
     </row>
     <row r="26" ht="81.6" spans="1:6">
       <c r="A26" s="2" t="s">
-        <v>536</v>
+        <v>662</v>
       </c>
       <c r="B26" s="10" t="s">
         <v>107</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>589</v>
+        <v>715</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>590</v>
+        <v>716</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>591</v>
+        <v>717</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>592</v>
+        <v>718</v>
       </c>
     </row>
     <row r="27" ht="387.6" spans="1:6">
       <c r="A27" s="2" t="s">
-        <v>516</v>
+        <v>642</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>593</v>
+        <v>719</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>594</v>
+        <v>720</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>595</v>
+        <v>721</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>596</v>
+        <v>722</v>
       </c>
     </row>
     <row r="28" ht="142.8" spans="1:6">
       <c r="A28" s="2" t="s">
-        <v>521</v>
+        <v>647</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>597</v>
+        <v>723</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>598</v>
+        <v>724</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>599</v>
+        <v>725</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>600</v>
+        <v>726</v>
       </c>
     </row>
     <row r="29" ht="409.5" spans="1:6">
       <c r="A29" s="2" t="s">
-        <v>562</v>
+        <v>688</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>601</v>
+        <v>727</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>602</v>
+        <v>728</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>603</v>
+        <v>729</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>604</v>
+        <v>730</v>
       </c>
     </row>
     <row r="30" ht="122.4" spans="1:6">
       <c r="A30" s="2" t="s">
-        <v>531</v>
+        <v>657</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>605</v>
+        <v>731</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>606</v>
+        <v>732</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>607</v>
+        <v>733</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>608</v>
+        <v>734</v>
       </c>
     </row>
     <row r="31" ht="409.5" spans="1:6">
       <c r="A31" s="2" t="s">
-        <v>526</v>
+        <v>652</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>609</v>
+        <v>735</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>610</v>
+        <v>736</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>611</v>
+        <v>737</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>612</v>
+        <v>738</v>
       </c>
     </row>
     <row r="32" ht="163.2" spans="1:6">
       <c r="A32" s="2" t="s">
-        <v>496</v>
+        <v>622</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>613</v>
+        <v>739</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>614</v>
+        <v>740</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>615</v>
+        <v>741</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>616</v>
+        <v>742</v>
       </c>
     </row>
     <row r="33" ht="409.5" spans="1:6">
       <c r="A33" s="2" t="s">
-        <v>511</v>
+        <v>637</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>617</v>
+        <v>743</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>618</v>
+        <v>744</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>619</v>
+        <v>745</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>620</v>
+        <v>746</v>
       </c>
     </row>
     <row r="34" ht="102" spans="1:6">
       <c r="A34" s="2" t="s">
-        <v>584</v>
+        <v>710</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>621</v>
+        <v>747</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>622</v>
+        <v>748</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>623</v>
+        <v>749</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>624</v>
+        <v>750</v>
       </c>
     </row>
     <row r="35" ht="81.6" spans="1:6">
       <c r="A35" s="2" t="s">
-        <v>557</v>
+        <v>683</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>625</v>
+        <v>751</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>626</v>
+        <v>752</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>599</v>
+        <v>725</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>627</v>
+        <v>753</v>
       </c>
     </row>
     <row r="36" ht="20.4" spans="1:6">
@@ -8551,22 +9655,22 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="5" t="s">
-        <v>496</v>
+        <v>622</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>117</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>628</v>
+        <v>754</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>629</v>
+        <v>755</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>630</v>
+        <v>756</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>631</v>
+        <v>757</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -8603,22 +9707,22 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="5" t="s">
-        <v>526</v>
+        <v>652</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>117</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>632</v>
+        <v>758</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>633</v>
+        <v>759</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>634</v>
+        <v>760</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>635</v>
+        <v>761</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -8655,22 +9759,22 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="5" t="s">
-        <v>531</v>
+        <v>657</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>117</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>636</v>
+        <v>762</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>637</v>
+        <v>763</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>638</v>
+        <v>764</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>639</v>
+        <v>765</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -8707,22 +9811,22 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="5" t="s">
-        <v>536</v>
+        <v>662</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>117</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>640</v>
+        <v>766</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>641</v>
+        <v>767</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>642</v>
+        <v>768</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>643</v>
+        <v>769</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -8759,22 +9863,22 @@
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="5" t="s">
-        <v>516</v>
+        <v>642</v>
       </c>
       <c r="B58" s="5" t="s">
         <v>117</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>644</v>
+        <v>770</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>645</v>
+        <v>771</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>646</v>
+        <v>772</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>647</v>
+        <v>773</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -8811,22 +9915,22 @@
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="5" t="s">
-        <v>562</v>
+        <v>688</v>
       </c>
       <c r="B63" s="5" t="s">
         <v>117</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>648</v>
+        <v>774</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>649</v>
+        <v>775</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>650</v>
+        <v>776</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>651</v>
+        <v>777</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -8863,22 +9967,22 @@
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="5" t="s">
-        <v>521</v>
+        <v>647</v>
       </c>
       <c r="B68" s="5" t="s">
         <v>117</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>652</v>
+        <v>778</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>653</v>
+        <v>779</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>654</v>
+        <v>780</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>655</v>
+        <v>781</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -8915,22 +10019,22 @@
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="5" t="s">
-        <v>511</v>
+        <v>637</v>
       </c>
       <c r="B73" s="5" t="s">
         <v>117</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>656</v>
+        <v>782</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>657</v>
+        <v>783</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>658</v>
+        <v>784</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>659</v>
+        <v>785</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -8967,42 +10071,42 @@
     </row>
     <row r="78" ht="204" spans="1:6">
       <c r="A78" s="2" t="s">
-        <v>557</v>
+        <v>683</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>117</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>644</v>
+        <v>770</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>660</v>
+        <v>786</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>650</v>
+        <v>776</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>651</v>
+        <v>777</v>
       </c>
     </row>
     <row r="79" ht="122.4" spans="1:6">
       <c r="A79" s="2" t="s">
-        <v>584</v>
+        <v>710</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>117</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>661</v>
+        <v>787</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>662</v>
+        <v>788</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>663</v>
+        <v>789</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>544</v>
+        <v>670</v>
       </c>
     </row>
     <row r="80" ht="20.4" spans="1:6">
@@ -9045,202 +10149,202 @@
     </row>
     <row r="83" ht="409.5" spans="1:6">
       <c r="A83" s="4" t="s">
-        <v>516</v>
+        <v>642</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>151</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>664</v>
+        <v>790</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>665</v>
+        <v>791</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>666</v>
+        <v>792</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>667</v>
+        <v>793</v>
       </c>
     </row>
     <row r="84" ht="102" spans="1:6">
       <c r="A84" s="4" t="s">
-        <v>536</v>
+        <v>662</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>151</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>668</v>
+        <v>794</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>669</v>
+        <v>795</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>670</v>
+        <v>796</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>671</v>
+        <v>797</v>
       </c>
     </row>
     <row r="85" ht="224.4" spans="1:6">
       <c r="A85" s="4" t="s">
-        <v>496</v>
+        <v>622</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>151</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>672</v>
+        <v>798</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>673</v>
+        <v>799</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>674</v>
+        <v>800</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>675</v>
+        <v>801</v>
       </c>
     </row>
     <row r="86" ht="285.6" spans="1:6">
       <c r="A86" s="4" t="s">
-        <v>571</v>
+        <v>697</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>151</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>676</v>
+        <v>802</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>677</v>
+        <v>803</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>678</v>
+        <v>804</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>679</v>
+        <v>805</v>
       </c>
     </row>
     <row r="87" ht="142.8" spans="1:6">
       <c r="A87" s="4" t="s">
-        <v>521</v>
+        <v>647</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>151</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>680</v>
+        <v>806</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>677</v>
+        <v>803</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>681</v>
+        <v>807</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>682</v>
+        <v>808</v>
       </c>
     </row>
     <row r="88" ht="81.6" spans="1:6">
       <c r="A88" s="4" t="s">
-        <v>562</v>
+        <v>688</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>151</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>683</v>
+        <v>809</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>684</v>
+        <v>810</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>685</v>
+        <v>811</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>686</v>
+        <v>812</v>
       </c>
     </row>
     <row r="89" ht="102" spans="1:6">
       <c r="A89" s="4" t="s">
-        <v>531</v>
+        <v>657</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>151</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>687</v>
+        <v>813</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>688</v>
+        <v>814</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>689</v>
+        <v>815</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>690</v>
+        <v>816</v>
       </c>
     </row>
     <row r="90" ht="142.8" spans="1:6">
       <c r="A90" s="12" t="s">
-        <v>526</v>
+        <v>652</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>151</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>691</v>
+        <v>817</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>692</v>
+        <v>818</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>693</v>
+        <v>819</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>694</v>
+        <v>820</v>
       </c>
     </row>
     <row r="91" ht="102" spans="1:6">
       <c r="A91" s="12" t="s">
-        <v>584</v>
+        <v>710</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>151</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>695</v>
+        <v>821</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>696</v>
+        <v>822</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>697</v>
+        <v>823</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>698</v>
+        <v>824</v>
       </c>
     </row>
     <row r="92" ht="61.2" spans="1:6">
       <c r="A92" s="12" t="s">
-        <v>557</v>
+        <v>683</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>151</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>699</v>
+        <v>825</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>700</v>
+        <v>826</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>701</v>
+        <v>827</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>702</v>
+        <v>828</v>
       </c>
     </row>
     <row r="93" ht="20.4" spans="1:6">
@@ -9275,22 +10379,22 @@
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="5" t="s">
-        <v>703</v>
+        <v>829</v>
       </c>
       <c r="B95" s="5">
         <v>9.5</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>704</v>
+        <v>830</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>705</v>
+        <v>831</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>706</v>
+        <v>832</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>707</v>
+        <v>833</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -9359,62 +10463,62 @@
     </row>
     <row r="104" ht="265.2" spans="1:6">
       <c r="A104" s="5" t="s">
-        <v>516</v>
+        <v>642</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>708</v>
+        <v>834</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>709</v>
+        <v>835</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>710</v>
+        <v>836</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>711</v>
+        <v>837</v>
       </c>
       <c r="F104" s="5" t="s">
-        <v>712</v>
+        <v>838</v>
       </c>
     </row>
     <row r="105" ht="102" spans="1:6">
       <c r="A105" s="5" t="s">
-        <v>521</v>
+        <v>647</v>
       </c>
       <c r="B105" s="5" t="s">
         <v>201</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>713</v>
+        <v>839</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>714</v>
+        <v>840</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>715</v>
+        <v>841</v>
       </c>
       <c r="F105" s="5" t="s">
-        <v>716</v>
+        <v>842</v>
       </c>
     </row>
     <row r="106" ht="409.5" spans="1:11">
       <c r="A106" s="4" t="s">
-        <v>511</v>
+        <v>637</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>717</v>
+        <v>843</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>656</v>
+        <v>782</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>657</v>
+        <v>783</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>658</v>
+        <v>784</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>659</v>
+        <v>785</v>
       </c>
       <c r="G106" s="2"/>
       <c r="H106" s="2"/>
@@ -9424,42 +10528,42 @@
     </row>
     <row r="107" ht="142.8" spans="1:6">
       <c r="A107" s="4" t="s">
-        <v>536</v>
+        <v>662</v>
       </c>
       <c r="B107" s="5" t="s">
         <v>201</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>718</v>
+        <v>844</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>719</v>
+        <v>845</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>720</v>
+        <v>846</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>721</v>
+        <v>847</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="5" t="s">
-        <v>526</v>
+        <v>652</v>
       </c>
       <c r="B108" s="5" t="s">
         <v>201</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>722</v>
+        <v>848</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>723</v>
+        <v>849</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>724</v>
+        <v>850</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>725</v>
+        <v>851</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -9512,22 +10616,22 @@
     </row>
     <row r="115" ht="20.4" spans="1:9">
       <c r="A115" s="5" t="s">
-        <v>496</v>
+        <v>622</v>
       </c>
       <c r="B115" s="5" t="s">
         <v>201</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>726</v>
+        <v>852</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>727</v>
+        <v>853</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>728</v>
+        <v>854</v>
       </c>
       <c r="F115" s="5" t="s">
-        <v>729</v>
+        <v>855</v>
       </c>
       <c r="G115" s="2"/>
       <c r="H115" s="2"/>
@@ -9583,22 +10687,22 @@
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="5" t="s">
-        <v>531</v>
+        <v>657</v>
       </c>
       <c r="B122" s="5" t="s">
         <v>201</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>730</v>
+        <v>856</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>731</v>
+        <v>857</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>732</v>
+        <v>858</v>
       </c>
       <c r="F122" s="5" t="s">
-        <v>733</v>
+        <v>859</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -9651,22 +10755,22 @@
     </row>
     <row r="129" spans="1:6">
       <c r="A129" s="5" t="s">
-        <v>584</v>
+        <v>710</v>
       </c>
       <c r="B129" s="5" t="s">
         <v>201</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>734</v>
+        <v>860</v>
       </c>
       <c r="D129" s="5" t="s">
-        <v>735</v>
+        <v>861</v>
       </c>
       <c r="E129" s="5" t="s">
-        <v>736</v>
+        <v>862</v>
       </c>
       <c r="F129" s="5" t="s">
-        <v>698</v>
+        <v>824</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -9719,22 +10823,22 @@
     </row>
     <row r="136" spans="1:6">
       <c r="A136" s="5" t="s">
-        <v>557</v>
+        <v>683</v>
       </c>
       <c r="B136" s="5" t="s">
         <v>201</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>737</v>
+        <v>863</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>738</v>
+        <v>864</v>
       </c>
       <c r="E136" s="5" t="s">
-        <v>739</v>
+        <v>865</v>
       </c>
       <c r="F136" s="5" t="s">
-        <v>740</v>
+        <v>866</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -9817,187 +10921,187 @@
     </row>
     <row r="145" ht="144" spans="1:6">
       <c r="A145" t="s">
-        <v>516</v>
+        <v>642</v>
       </c>
       <c r="B145" t="s">
         <v>216</v>
       </c>
       <c r="C145" s="13" t="s">
-        <v>741</v>
+        <v>867</v>
       </c>
       <c r="D145" s="13" t="s">
-        <v>742</v>
+        <v>868</v>
       </c>
       <c r="E145" s="13" t="s">
-        <v>743</v>
+        <v>869</v>
       </c>
       <c r="F145" s="13" t="s">
-        <v>744</v>
+        <v>870</v>
       </c>
     </row>
     <row r="146" ht="57.6" spans="1:6">
       <c r="A146" t="s">
-        <v>496</v>
+        <v>622</v>
       </c>
       <c r="B146" t="s">
         <v>216</v>
       </c>
       <c r="C146" s="13" t="s">
-        <v>745</v>
+        <v>871</v>
       </c>
       <c r="D146" s="13" t="s">
-        <v>746</v>
+        <v>872</v>
       </c>
       <c r="E146" s="13" t="s">
-        <v>747</v>
+        <v>873</v>
       </c>
       <c r="F146" s="13" t="s">
-        <v>748</v>
+        <v>874</v>
       </c>
     </row>
     <row r="147" ht="43.2" spans="1:6">
       <c r="A147" t="s">
-        <v>536</v>
+        <v>662</v>
       </c>
       <c r="B147" t="s">
         <v>216</v>
       </c>
       <c r="C147" s="13" t="s">
-        <v>749</v>
+        <v>875</v>
       </c>
       <c r="D147" s="13" t="s">
-        <v>750</v>
+        <v>876</v>
       </c>
       <c r="E147" s="13" t="s">
-        <v>751</v>
+        <v>877</v>
       </c>
       <c r="F147" s="13" t="s">
-        <v>752</v>
+        <v>878</v>
       </c>
     </row>
     <row r="148" ht="43.2" spans="1:6">
       <c r="A148" t="s">
-        <v>531</v>
+        <v>657</v>
       </c>
       <c r="B148" t="s">
         <v>216</v>
       </c>
       <c r="C148" s="13" t="s">
-        <v>753</v>
+        <v>879</v>
       </c>
       <c r="D148" s="13" t="s">
-        <v>754</v>
+        <v>880</v>
       </c>
       <c r="E148" s="13" t="s">
-        <v>755</v>
+        <v>881</v>
       </c>
       <c r="F148" s="13" t="s">
-        <v>756</v>
+        <v>882</v>
       </c>
     </row>
     <row r="149" ht="216" spans="1:6">
       <c r="A149" t="s">
-        <v>511</v>
+        <v>637</v>
       </c>
       <c r="B149" t="s">
         <v>216</v>
       </c>
       <c r="C149" s="13" t="s">
-        <v>757</v>
+        <v>883</v>
       </c>
       <c r="D149" s="13" t="s">
-        <v>758</v>
+        <v>884</v>
       </c>
       <c r="E149" s="13" t="s">
-        <v>759</v>
+        <v>885</v>
       </c>
       <c r="F149" s="13" t="s">
-        <v>760</v>
+        <v>886</v>
       </c>
     </row>
     <row r="150" ht="28.8" spans="1:6">
       <c r="A150" t="s">
-        <v>562</v>
+        <v>688</v>
       </c>
       <c r="B150" t="s">
         <v>216</v>
       </c>
       <c r="C150" t="s">
-        <v>761</v>
+        <v>887</v>
       </c>
       <c r="D150" t="s">
-        <v>762</v>
+        <v>888</v>
       </c>
       <c r="E150" s="13" t="s">
-        <v>763</v>
+        <v>889</v>
       </c>
       <c r="F150" t="s">
-        <v>764</v>
+        <v>890</v>
       </c>
     </row>
     <row r="151" spans="1:6">
       <c r="A151" t="s">
-        <v>521</v>
+        <v>647</v>
       </c>
       <c r="B151" t="s">
         <v>216</v>
       </c>
       <c r="C151" t="s">
-        <v>765</v>
+        <v>891</v>
       </c>
       <c r="D151" t="s">
-        <v>766</v>
+        <v>892</v>
       </c>
       <c r="E151" t="s">
-        <v>767</v>
+        <v>893</v>
       </c>
       <c r="F151" t="s">
-        <v>768</v>
+        <v>894</v>
       </c>
     </row>
     <row r="152" ht="43.2" spans="1:6">
       <c r="A152" t="s">
-        <v>584</v>
+        <v>710</v>
       </c>
       <c r="B152" t="s">
         <v>216</v>
       </c>
       <c r="C152" s="13" t="s">
-        <v>769</v>
+        <v>895</v>
       </c>
       <c r="D152" s="13" t="s">
-        <v>770</v>
+        <v>896</v>
       </c>
       <c r="E152" t="s">
-        <v>771</v>
+        <v>897</v>
       </c>
       <c r="F152" t="s">
-        <v>698</v>
+        <v>824</v>
       </c>
     </row>
     <row r="153" ht="28.8" spans="1:6">
       <c r="A153" t="s">
-        <v>557</v>
+        <v>683</v>
       </c>
       <c r="B153" t="s">
         <v>216</v>
       </c>
       <c r="C153" t="s">
-        <v>772</v>
+        <v>898</v>
       </c>
       <c r="D153" s="13" t="s">
-        <v>766</v>
+        <v>892</v>
       </c>
       <c r="E153" t="s">
-        <v>773</v>
+        <v>899</v>
       </c>
       <c r="F153" s="13" t="s">
-        <v>774</v>
+        <v>900</v>
       </c>
     </row>
     <row r="154" ht="20.4" spans="1:6">
       <c r="A154" s="11" t="s">
-        <v>775</v>
+        <v>901</v>
       </c>
       <c r="B154" s="11"/>
       <c r="C154" s="11"/>
@@ -10027,211 +11131,211 @@
     </row>
     <row r="156" ht="122.4" spans="1:6">
       <c r="A156" s="5" t="s">
-        <v>536</v>
+        <v>662</v>
       </c>
       <c r="B156" s="5" t="s">
         <v>252</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>776</v>
+        <v>902</v>
       </c>
       <c r="D156" s="5" t="s">
-        <v>777</v>
+        <v>903</v>
       </c>
       <c r="E156" s="5" t="s">
-        <v>778</v>
+        <v>904</v>
       </c>
       <c r="F156" s="5" t="s">
-        <v>779</v>
+        <v>905</v>
       </c>
     </row>
     <row r="157" ht="81.6" spans="1:6">
       <c r="A157" s="5" t="s">
-        <v>531</v>
+        <v>657</v>
       </c>
       <c r="B157" s="5" t="s">
         <v>252</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>780</v>
+        <v>906</v>
       </c>
       <c r="D157" s="5" t="s">
-        <v>781</v>
+        <v>907</v>
       </c>
       <c r="E157" s="5" t="s">
-        <v>782</v>
+        <v>908</v>
       </c>
       <c r="F157" s="5" t="s">
-        <v>783</v>
+        <v>909</v>
       </c>
     </row>
     <row r="158" ht="31.2" spans="1:6">
       <c r="A158" s="14" t="s">
-        <v>584</v>
+        <v>710</v>
       </c>
       <c r="B158" s="15" t="s">
         <v>252</v>
       </c>
       <c r="C158" s="15" t="s">
-        <v>784</v>
+        <v>910</v>
       </c>
       <c r="D158" s="15" t="s">
-        <v>785</v>
+        <v>911</v>
       </c>
       <c r="E158" s="15" t="s">
-        <v>786</v>
+        <v>912</v>
       </c>
       <c r="F158" s="15" t="s">
-        <v>698</v>
+        <v>824</v>
       </c>
     </row>
     <row r="159" ht="81.6" spans="1:6">
       <c r="A159" s="5" t="s">
-        <v>562</v>
+        <v>688</v>
       </c>
       <c r="B159" s="5" t="s">
         <v>252</v>
       </c>
       <c r="C159" s="16" t="s">
-        <v>787</v>
+        <v>913</v>
       </c>
       <c r="D159" s="5" t="s">
-        <v>788</v>
+        <v>914</v>
       </c>
       <c r="E159" s="5" t="s">
-        <v>789</v>
+        <v>915</v>
       </c>
       <c r="F159" s="5" t="s">
-        <v>790</v>
+        <v>916</v>
       </c>
     </row>
     <row r="160" ht="163.2" spans="1:6">
       <c r="A160" s="5" t="s">
-        <v>496</v>
+        <v>622</v>
       </c>
       <c r="B160" s="5" t="s">
         <v>252</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>791</v>
+        <v>917</v>
       </c>
       <c r="D160" s="5" t="s">
-        <v>792</v>
+        <v>918</v>
       </c>
       <c r="E160" s="5" t="s">
-        <v>793</v>
+        <v>919</v>
       </c>
       <c r="F160" s="5" t="s">
-        <v>794</v>
+        <v>920</v>
       </c>
     </row>
     <row r="161" ht="409.5" spans="1:6">
       <c r="A161" s="4" t="s">
-        <v>511</v>
+        <v>637</v>
       </c>
       <c r="B161" s="4" t="s">
         <v>252</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>795</v>
+        <v>921</v>
       </c>
       <c r="D161" s="5" t="s">
-        <v>796</v>
+        <v>922</v>
       </c>
       <c r="E161" s="5" t="s">
-        <v>797</v>
+        <v>923</v>
       </c>
       <c r="F161" s="5" t="s">
-        <v>798</v>
+        <v>924</v>
       </c>
     </row>
     <row r="162" ht="102" spans="1:6">
-      <c r="A162" s="17" t="s">
-        <v>521</v>
-      </c>
-      <c r="B162" s="18" t="s">
-        <v>268</v>
+      <c r="A162" s="12" t="s">
+        <v>647</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>261</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>799</v>
+        <v>925</v>
       </c>
       <c r="D162" s="5" t="s">
-        <v>800</v>
+        <v>926</v>
       </c>
       <c r="E162" s="5" t="s">
-        <v>801</v>
+        <v>927</v>
       </c>
       <c r="F162" s="5" t="s">
-        <v>802</v>
+        <v>928</v>
       </c>
     </row>
     <row r="163" ht="409.5" spans="1:6">
-      <c r="A163" s="17" t="s">
-        <v>516</v>
-      </c>
-      <c r="B163" s="18" t="s">
-        <v>803</v>
-      </c>
-      <c r="C163" s="19" t="s">
-        <v>804</v>
-      </c>
-      <c r="D163" s="20" t="s">
-        <v>805</v>
-      </c>
-      <c r="E163" s="20" t="s">
-        <v>806</v>
-      </c>
-      <c r="F163" s="20" t="s">
-        <v>807</v>
+      <c r="A163" s="12" t="s">
+        <v>642</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>929</v>
+      </c>
+      <c r="C163" s="6" t="s">
+        <v>930</v>
+      </c>
+      <c r="D163" s="5" t="s">
+        <v>931</v>
+      </c>
+      <c r="E163" s="5" t="s">
+        <v>932</v>
+      </c>
+      <c r="F163" s="5" t="s">
+        <v>933</v>
       </c>
     </row>
     <row r="164" ht="81.6" spans="1:6">
       <c r="A164" s="2" t="s">
-        <v>526</v>
-      </c>
-      <c r="B164" s="20" t="s">
-        <v>808</v>
-      </c>
-      <c r="C164" s="20" t="s">
-        <v>809</v>
-      </c>
-      <c r="D164" s="20" t="s">
-        <v>810</v>
-      </c>
-      <c r="E164" s="20" t="s">
-        <v>811</v>
-      </c>
-      <c r="F164" s="20" t="s">
-        <v>812</v>
+        <v>652</v>
+      </c>
+      <c r="B164" s="5" t="s">
+        <v>934</v>
+      </c>
+      <c r="C164" s="5" t="s">
+        <v>935</v>
+      </c>
+      <c r="D164" s="5" t="s">
+        <v>936</v>
+      </c>
+      <c r="E164" s="5" t="s">
+        <v>937</v>
+      </c>
+      <c r="F164" s="5" t="s">
+        <v>938</v>
       </c>
     </row>
     <row r="165" ht="81.6" spans="1:6">
       <c r="A165" s="2" t="s">
-        <v>557</v>
-      </c>
-      <c r="B165" s="20" t="s">
-        <v>268</v>
-      </c>
-      <c r="C165" s="20" t="s">
-        <v>813</v>
-      </c>
-      <c r="D165" s="20" t="s">
-        <v>814</v>
-      </c>
-      <c r="E165" s="20" t="s">
-        <v>815</v>
-      </c>
-      <c r="F165" s="20" t="s">
-        <v>816</v>
+        <v>683</v>
+      </c>
+      <c r="B165" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="C165" s="5" t="s">
+        <v>939</v>
+      </c>
+      <c r="D165" s="5" t="s">
+        <v>940</v>
+      </c>
+      <c r="E165" s="5" t="s">
+        <v>941</v>
+      </c>
+      <c r="F165" s="5" t="s">
+        <v>942</v>
       </c>
     </row>
     <row r="166" ht="20.4" spans="1:6">
       <c r="A166" s="2"/>
-      <c r="B166" s="20"/>
-      <c r="C166" s="20"/>
-      <c r="D166" s="20"/>
-      <c r="E166" s="20"/>
-      <c r="F166" s="20"/>
+      <c r="B166" s="5"/>
+      <c r="C166" s="5"/>
+      <c r="D166" s="5"/>
+      <c r="E166" s="5"/>
+      <c r="F166" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="84">
